--- a/MKC.xlsx
+++ b/MKC.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7874bdcc0642262c/Desktop/parcap-github/python-academy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njathar\Desktop\parcap-github\python-academy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="147" documentId="8_{9A81EB80-89BE-43C5-9BB3-1DC3E1CC7B54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F23B08DB-9877-4F3B-B453-BB1B6C278F81}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="21786" windowHeight="13986" xr2:uid="{0003652E-5C7E-49AE-B3AA-235C29DF549F}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="21780" windowHeight="13980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,12 +32,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>Nick Jathar</author>
     <author>Nikhil Jathar</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{E3CEC654-3D48-4C25-884B-12C507FE1C71}">
+    <comment ref="A11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +48,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Nikhil Jathar:</t>
+          <t>Nick Jathar:</t>
         </r>
         <r>
           <rPr>
@@ -58,11 +58,11 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Transaction and integration expenses (related to RB Food acquisition)</t>
+Adjusted down of D&amp;A per "Brand Marketing Support" note (pg 56)</t>
         </r>
       </text>
     </comment>
-    <comment ref="A23" authorId="0" shapeId="0" xr:uid="{4B114F6B-BB64-487B-AD08-C1719D921C99}">
+    <comment ref="A12" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +70,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nikhil Jathar:</t>
         </r>
@@ -79,7 +79,31 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Transaction and integration expenses (related to RB Food acquisition)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A31" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nikhil Jathar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Income from consolidated operations before income taxes</t>
@@ -91,7 +115,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Cost of revenues</t>
   </si>
@@ -105,30 +129,15 @@
     <t>SG&amp;A</t>
   </si>
   <si>
-    <t>Operating expenses (%)</t>
-  </si>
-  <si>
     <t>Operating expenses</t>
   </si>
   <si>
-    <t>Operating income</t>
-  </si>
-  <si>
-    <t>Operating margin (%)</t>
-  </si>
-  <si>
     <t>EBIT</t>
   </si>
   <si>
-    <t>EBIT (%)</t>
-  </si>
-  <si>
     <t>Net income</t>
   </si>
   <si>
-    <t>Net income (%)</t>
-  </si>
-  <si>
     <t>Basic shares</t>
   </si>
   <si>
@@ -141,15 +150,6 @@
     <t>Diluted EPS</t>
   </si>
   <si>
-    <t>Net revenues (% growth)</t>
-  </si>
-  <si>
-    <t>Cost of revenues (% growth)</t>
-  </si>
-  <si>
-    <t>Gross margin (% growth)</t>
-  </si>
-  <si>
     <t>Net sales</t>
   </si>
   <si>
@@ -177,18 +177,63 @@
     <t>Net income from consolidated operations</t>
   </si>
   <si>
-    <t>Net income from consolidated operations (%)</t>
+    <t>Cost of revenues (% of net revenues)</t>
+  </si>
+  <si>
+    <t>Depreciation and amortization</t>
+  </si>
+  <si>
+    <t>Net revenues (growth)</t>
+  </si>
+  <si>
+    <t>Cost of revenues (growth)</t>
+  </si>
+  <si>
+    <t>Gross margin (growth)</t>
+  </si>
+  <si>
+    <t>Operating expenses (% of net revenues)</t>
+  </si>
+  <si>
+    <t>Net income from consolidated operations  (% of net revenues)</t>
+  </si>
+  <si>
+    <t>Net income (% of net revenues)</t>
+  </si>
+  <si>
+    <t>EBITDA</t>
+  </si>
+  <si>
+    <t>EBITDA margin (%)</t>
+  </si>
+  <si>
+    <t>EBIT margin (%)</t>
+  </si>
+  <si>
+    <t>EBT</t>
+  </si>
+  <si>
+    <t>EBT margin (%)</t>
+  </si>
+  <si>
+    <t>Net interest expense</t>
+  </si>
+  <si>
+    <t>Net interest expenses (% of net revenues)</t>
+  </si>
+  <si>
+    <t>Tax rate (%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +262,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -262,7 +320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -281,6 +339,7 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,20 +658,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BFEAB23-CD89-4EEC-9C7F-429853907ACD}">
-  <dimension ref="A1:D40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.46875" customWidth="1"/>
+    <col min="1" max="1" width="57.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="2">
         <v>2017</v>
       </c>
@@ -623,9 +682,9 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B2" s="11">
         <v>4730.3</v>
@@ -637,9 +696,9 @@
         <v>5347.4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="3">
@@ -651,7 +710,7 @@
         <v>8.4106509768422377E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -665,428 +724,563 @@
         <v>3202.1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="10">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="14">
+        <f>B4/B$2</f>
+        <v>0.62074287043105092</v>
+      </c>
+      <c r="C5" s="14">
+        <f>C4/C$2</f>
+        <v>0.60524628498151922</v>
+      </c>
+      <c r="D5" s="14">
+        <f>D4/D$2</f>
+        <v>0.59881437708045038</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="10">
         <f>C4/B4-1</f>
         <v>9.3042264073834424E-2</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D6" s="10">
         <f>D4/C4-1</f>
         <v>-2.3056550864620773E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A6" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B7" s="12">
         <f>B2-B4</f>
         <v>1794</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C7" s="12">
         <f>C2-C4</f>
         <v>2093.3000000000002</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D7" s="12">
         <f>D2-D4</f>
         <v>2145.2999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A7" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="3">
-        <f>B6/B$2</f>
+      <c r="B8" s="3">
+        <f>B7/B$2</f>
         <v>0.37925712956894908</v>
       </c>
-      <c r="C7" s="3">
-        <f t="shared" ref="C7:D7" si="0">C6/C$2</f>
+      <c r="C8" s="3">
+        <f t="shared" ref="C8:D8" si="0">C7/C$2</f>
         <v>0.39475371501848083</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D8" s="3">
         <f t="shared" si="0"/>
         <v>0.40118562291954968</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3">
-        <f>C6/B6-1</f>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3">
+        <f>C7/B7-1</f>
         <v>0.16683389074693422</v>
       </c>
-      <c r="D8" s="3">
-        <f>D6/C6-1</f>
+      <c r="D9" s="3">
+        <f>D7/C7-1</f>
         <v>2.4841159891080933E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A10" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="11">
-        <v>1031.2</v>
-      </c>
-      <c r="C10" s="11">
-        <v>1163.4000000000001</v>
-      </c>
-      <c r="D10" s="11">
-        <v>1166.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
       <c r="B11" s="11">
+        <f>1031.2-125.2</f>
+        <v>906</v>
+      </c>
+      <c r="C11" s="11">
+        <f>1163.4-150.7</f>
+        <v>1012.7</v>
+      </c>
+      <c r="D11" s="11">
+        <f>1166.8-158.8</f>
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="11">
         <v>40.799999999999997</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C12" s="11">
         <v>22.5</v>
       </c>
-      <c r="D11" s="11"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="13">
+      <c r="D12" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="13">
         <v>22.2</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C13" s="13">
         <v>16.3</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D13" s="13">
         <v>20.8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="12">
-        <f>SUM(B10:B12)</f>
-        <v>1094.2</v>
-      </c>
-      <c r="C13" s="12">
-        <f>SUM(C10:C12)</f>
-        <v>1202.2</v>
-      </c>
-      <c r="D13" s="12">
-        <f>SUM(D10:D12)</f>
-        <v>1187.5999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="3">
-        <f>B13/B$2</f>
-        <v>0.23131725260554298</v>
-      </c>
-      <c r="C14" s="3">
-        <f t="shared" ref="C14" si="1">C13/C$2</f>
-        <v>0.22671041713811571</v>
-      </c>
-      <c r="D14" s="3">
-        <f t="shared" ref="D14" si="2">D13/D$2</f>
-        <v>0.22208923963047461</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="11">
-        <f>B6-B13</f>
+      <c r="B14" s="12">
+        <f>SUM(B11:B13)</f>
+        <v>969</v>
+      </c>
+      <c r="C14" s="12">
+        <f>SUM(C11:C13)</f>
+        <v>1051.5</v>
+      </c>
+      <c r="D14" s="12">
+        <f>SUM(D11:D13)</f>
+        <v>1028.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="3">
+        <f>B14/B$2</f>
+        <v>0.20484958670697417</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" ref="C15" si="1">C14/C$2</f>
+        <v>0.19829146865806743</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" ref="D15" si="2">D14/D$2</f>
+        <v>0.19239256461083892</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="12">
+        <f>B7-B14</f>
+        <v>825</v>
+      </c>
+      <c r="C17" s="12">
+        <f>C7-C14</f>
+        <v>1041.8000000000002</v>
+      </c>
+      <c r="D17" s="12">
+        <f>D7-D14</f>
+        <v>1116.4999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="3">
+        <f>B17/B$2</f>
+        <v>0.17440754286197493</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" ref="C18:D18" si="3">C17/C$2</f>
+        <v>0.1964622463604134</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" si="3"/>
+        <v>0.20879305830871075</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="11">
+        <v>125.2</v>
+      </c>
+      <c r="C20" s="11">
+        <v>150.69999999999999</v>
+      </c>
+      <c r="D20" s="11">
+        <v>158.80000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="12">
+        <f>B17-B20</f>
         <v>699.8</v>
       </c>
-      <c r="C16" s="11">
-        <f>C6-C13</f>
+      <c r="C22" s="12">
+        <f t="shared" ref="C22:D22" si="4">C17-C20</f>
         <v>891.10000000000014</v>
       </c>
-      <c r="D16" s="11">
-        <f>D6-D13</f>
+      <c r="D22" s="12">
+        <f t="shared" si="4"/>
         <v>957.69999999999982</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="3">
-        <f>B16/B$2</f>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="3">
+        <f>B22/B$2</f>
         <v>0.1479398769634061</v>
       </c>
-      <c r="C17" s="3">
-        <f t="shared" ref="C17" si="3">C16/C$2</f>
+      <c r="C23" s="3">
+        <f t="shared" ref="C23:D23" si="5">C22/C$2</f>
         <v>0.16804329788036512</v>
       </c>
-      <c r="D17" s="3">
-        <f t="shared" ref="D17" si="4">D16/D$2</f>
+      <c r="D23" s="3">
+        <f t="shared" si="5"/>
         <v>0.17909638328907504</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="11">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="11">
         <v>95.7</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C25" s="11">
         <v>174.6</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D25" s="11">
         <v>165.2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="11">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="11">
         <v>15.4</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="11">
+      <c r="C26" s="11">
+        <v>0</v>
+      </c>
+      <c r="D26" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="13">
         <v>6.1</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C27" s="13">
         <v>24.8</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D27" s="13">
         <v>26.7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="12">
-        <f>B16-B19-B20+B21</f>
-        <v>594.79999999999995</v>
-      </c>
-      <c r="C23" s="12">
-        <f>C16-C19-C20+C21</f>
-        <v>741.30000000000007</v>
-      </c>
-      <c r="D23" s="12">
-        <f>D16-D19-D20+D21</f>
-        <v>819.19999999999982</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="3">
-        <f>B23/B$2</f>
-        <v>0.12574255332642748</v>
-      </c>
-      <c r="C24" s="3">
-        <f t="shared" ref="C24" si="5">C23/C$2</f>
-        <v>0.1397940710568002</v>
-      </c>
-      <c r="D24" s="3">
-        <f t="shared" ref="D24" si="6">D23/D$2</f>
-        <v>0.15319594569323408</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="11">
-        <v>151.30000000000001</v>
-      </c>
-      <c r="C26" s="11">
-        <v>-157.30000000000001</v>
-      </c>
-      <c r="D26" s="11">
-        <v>157.4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="B28" s="12">
-        <f>B23-B26</f>
-        <v>443.49999999999994</v>
+        <f>B25+B26-B27</f>
+        <v>105.00000000000001</v>
       </c>
       <c r="C28" s="12">
-        <f>C23-C26</f>
-        <v>898.60000000000014</v>
+        <f>C25+C26-C27</f>
+        <v>149.79999999999998</v>
       </c>
       <c r="D28" s="12">
-        <f>D23-D26</f>
-        <v>661.79999999999984</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A29" t="s">
-        <v>28</v>
+        <f>D25+D26-D27</f>
+        <v>138.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="B29" s="3">
         <f>B28/B$2</f>
+        <v>2.2197323636978631E-2</v>
+      </c>
+      <c r="C29" s="3">
+        <f t="shared" ref="C29:D29" si="6">C28/C$2</f>
+        <v>2.8249226823564906E-2</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" si="6"/>
+        <v>2.5900437595840972E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="12">
+        <f>B22-B28</f>
+        <v>594.79999999999995</v>
+      </c>
+      <c r="C31" s="12">
+        <f>C22-C28</f>
+        <v>741.30000000000018</v>
+      </c>
+      <c r="D31" s="12">
+        <f>D22-D28</f>
+        <v>819.19999999999982</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="3">
+        <f>B31/B$2</f>
+        <v>0.12574255332642748</v>
+      </c>
+      <c r="C32" s="3">
+        <f t="shared" ref="C32" si="7">C31/C$2</f>
+        <v>0.13979407105680022</v>
+      </c>
+      <c r="D32" s="3">
+        <f t="shared" ref="D32" si="8">D31/D$2</f>
+        <v>0.15319594569323408</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="11">
+        <v>151.30000000000001</v>
+      </c>
+      <c r="C34" s="11">
+        <v>-157.30000000000001</v>
+      </c>
+      <c r="D34" s="11">
+        <v>157.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="3">
+        <f>B34/B$31</f>
+        <v>0.25437121721587092</v>
+      </c>
+      <c r="C35" s="3">
+        <f>C34/C$31</f>
+        <v>-0.21219479293133681</v>
+      </c>
+      <c r="D35" s="3">
+        <f>D34/D$31</f>
+        <v>0.19213867187500006</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="12">
+        <f>B31-B34</f>
+        <v>443.49999999999994</v>
+      </c>
+      <c r="C37" s="12">
+        <f>C31-C34</f>
+        <v>898.60000000000014</v>
+      </c>
+      <c r="D37" s="12">
+        <f>D31-D34</f>
+        <v>661.79999999999984</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="3">
+        <f>B37/B$2</f>
         <v>9.3757266980952561E-2</v>
       </c>
-      <c r="C29" s="3">
-        <f t="shared" ref="C29" si="7">C28/C$2</f>
+      <c r="C38" s="3">
+        <f t="shared" ref="C38" si="9">C37/C$2</f>
         <v>0.1694576450177265</v>
       </c>
-      <c r="D29" s="3">
-        <f t="shared" ref="D29" si="8">D28/D$2</f>
+      <c r="D38" s="3">
+        <f t="shared" ref="D38" si="10">D37/D$2</f>
         <v>0.12376108015110145</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="11">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="11">
         <v>33.9</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C40" s="11">
         <v>34.799999999999997</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D40" s="11">
         <v>40.9</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A33" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="12">
+        <f>B37+B40</f>
+        <v>477.39999999999992</v>
+      </c>
+      <c r="C42" s="12">
+        <f>C37+C40</f>
+        <v>933.40000000000009</v>
+      </c>
+      <c r="D42" s="12">
+        <f>D37+D40</f>
+        <v>702.69999999999982</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="3">
+        <f>B42/B$2</f>
+        <v>0.10092383146946281</v>
+      </c>
+      <c r="C43" s="3">
+        <f t="shared" ref="C43:D43" si="11">C42/C$2</f>
+        <v>0.17602021573508336</v>
+      </c>
+      <c r="D43" s="3">
+        <f t="shared" si="11"/>
+        <v>0.13140965702958446</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="11">
+        <v>126.75</v>
+      </c>
+      <c r="C45" s="11">
+        <v>131.5</v>
+      </c>
+      <c r="D45" s="11">
+        <v>132.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="11">
+        <v>128.4</v>
+      </c>
+      <c r="C46" s="11">
+        <v>133.249</v>
+      </c>
+      <c r="D46" s="11">
+        <v>134.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="7">
+        <f t="shared" ref="B48:D49" si="12">B$42/B45</f>
+        <v>3.766469428007889</v>
+      </c>
+      <c r="C48" s="7">
+        <f t="shared" si="12"/>
+        <v>7.0980988593155905</v>
+      </c>
+      <c r="D48" s="7">
+        <f t="shared" si="12"/>
+        <v>5.2993966817496219</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="12">
-        <f>B28+B31</f>
-        <v>477.39999999999992</v>
-      </c>
-      <c r="C33" s="12">
-        <f>C28+C31</f>
-        <v>933.40000000000009</v>
-      </c>
-      <c r="D33" s="12">
-        <f>D28+D31</f>
-        <v>702.69999999999982</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" s="3">
-        <f>B33/B$2</f>
-        <v>0.10092383146946281</v>
-      </c>
-      <c r="C34" s="3">
-        <f t="shared" ref="C34:D34" si="9">C33/C$2</f>
-        <v>0.17602021573508336</v>
-      </c>
-      <c r="D34" s="3">
-        <f t="shared" si="9"/>
-        <v>0.13140965702958446</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A36" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="11">
-        <v>126.75</v>
-      </c>
-      <c r="C36" s="11">
-        <v>131.5</v>
-      </c>
-      <c r="D36" s="11">
-        <v>132.6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="11">
-        <v>128.4</v>
-      </c>
-      <c r="C37" s="11">
-        <v>133.249</v>
-      </c>
-      <c r="D37" s="11">
-        <v>134.1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A39" t="s">
-        <v>14</v>
-      </c>
-      <c r="B39" s="7">
-        <f>B$33/B36</f>
-        <v>3.766469428007889</v>
-      </c>
-      <c r="C39" s="7">
-        <f>C$33/C36</f>
-        <v>7.0980988593155905</v>
-      </c>
-      <c r="D39" s="7">
-        <f>D$33/D36</f>
-        <v>5.2993966817496219</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A40" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" s="7">
-        <f>B$33/B37</f>
+      <c r="B49" s="7">
+        <f t="shared" si="12"/>
         <v>3.7180685358255445</v>
       </c>
-      <c r="C40" s="7">
-        <f>C$33/C37</f>
+      <c r="C49" s="7">
+        <f t="shared" si="12"/>
         <v>7.0049306186162754</v>
       </c>
-      <c r="D40" s="7">
-        <f>D$33/D37</f>
+      <c r="D49" s="7">
+        <f t="shared" si="12"/>
         <v>5.2401193139448159</v>
       </c>
     </row>

--- a/MKC.xlsx
+++ b/MKC.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njathar\Desktop\parcap-github\python-academy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jatha\OneDrive\Desktop\parcap-github\python-academy\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907AC7A1-8769-406D-8CE6-5873137E4A1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="21780" windowHeight="13980"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="21786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,13 +33,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Nick Jathar</author>
     <author>Nikhil Jathar</author>
   </authors>
   <commentList>
-    <comment ref="A12" authorId="0" shapeId="0">
+    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -62,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A15" authorId="1" shapeId="0">
+    <comment ref="A15" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -86,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A39" authorId="1" shapeId="0">
+    <comment ref="A39" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -110,12 +111,108 @@
         </r>
       </text>
     </comment>
+    <comment ref="A62" authorId="1" shapeId="0" xr:uid="{A06CFCBF-F2E1-4127-8729-056A39E8CDF0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nikhil Jathar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+including curtailment of gains of $18.0 and $76.7 for 2018 and 2017 respectively</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A90" authorId="1" shapeId="0" xr:uid="{F10BF80A-0275-4AF2-89B0-0E982F043828}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nikhil Jathar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+related to enactment of the US Tax Act</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A92" authorId="1" shapeId="0" xr:uid="{C53BD95E-F531-46CD-964B-57FBF21489FD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nikhil Jathar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+associated with acquisition of RB Foods</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A97" authorId="1" shapeId="0" xr:uid="{729903C7-EB4B-4AB3-A6AC-F55FAE0DA0BF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nikhil Jathar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+net of effect of businesses acquired</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="107">
   <si>
     <t>SG&amp;A</t>
   </si>
@@ -353,16 +450,192 @@
   <si>
     <t>Estimated</t>
   </si>
+  <si>
+    <t>INCOME STATEMENT</t>
+  </si>
+  <si>
+    <t>CASH FLOW STATEMENT</t>
+  </si>
+  <si>
+    <t>NI attributable to non-controlling interest</t>
+  </si>
+  <si>
+    <t>NI attributable to non-controlling interest (% of NI adjusted)</t>
+  </si>
+  <si>
+    <t>Other comprehensive income (loss)</t>
+  </si>
+  <si>
+    <t>Unrealized components of pension and othe postretirement plans</t>
+  </si>
+  <si>
+    <t>Currency translation adjustments</t>
+  </si>
+  <si>
+    <t>Changes in derivative financial instruments</t>
+  </si>
+  <si>
+    <t>Deferred taxes</t>
+  </si>
+  <si>
+    <t>Total other comprehensive income (loss)</t>
+  </si>
+  <si>
+    <t>Comprehensive income (loss)</t>
+  </si>
+  <si>
+    <t>Cash flow from operating activities</t>
+  </si>
+  <si>
+    <t>Depreciation</t>
+  </si>
+  <si>
+    <t>Stock-based compensation</t>
+  </si>
+  <si>
+    <t>Noncash nonrecurring income tax benefit</t>
+  </si>
+  <si>
+    <t>Special charges and transaction and integration expenses</t>
+  </si>
+  <si>
+    <t>Amortization of inventory fair value adjustment</t>
+  </si>
+  <si>
+    <t>Deferred income tax expense</t>
+  </si>
+  <si>
+    <t>(Gain) loss on sale of assets</t>
+  </si>
+  <si>
+    <t>Settlement of forward-starting interest rate swaps</t>
+  </si>
+  <si>
+    <t>Changes in operating assets and liabilities</t>
+  </si>
+  <si>
+    <t>Trade accounts receivable</t>
+  </si>
+  <si>
+    <t>Inventories</t>
+  </si>
+  <si>
+    <t>Trade accounts payable</t>
+  </si>
+  <si>
+    <t>Other assets and liabilities</t>
+  </si>
+  <si>
+    <t>Net cash provided by operating activities</t>
+  </si>
+  <si>
+    <t>Acquisition of businesses (net of cash acquired)</t>
+  </si>
+  <si>
+    <t>Other investing activities</t>
+  </si>
+  <si>
+    <t>Net cash provided by investing activities</t>
+  </si>
+  <si>
+    <t>Cash flow from financing activities</t>
+  </si>
+  <si>
+    <t>Cash flow from investing activities</t>
+  </si>
+  <si>
+    <t>Short-term borrowings, net</t>
+  </si>
+  <si>
+    <t>Long-term debt borrowings, net</t>
+  </si>
+  <si>
+    <t>Payment of debt issuance costs</t>
+  </si>
+  <si>
+    <t>Long-term debt repayments</t>
+  </si>
+  <si>
+    <t>Proceeds from exercised stock options</t>
+  </si>
+  <si>
+    <t>Taxes withheld and paid on employee stock awards</t>
+  </si>
+  <si>
+    <t>Payment of contingent consideration</t>
+  </si>
+  <si>
+    <t>Purchase of minority interest</t>
+  </si>
+  <si>
+    <t>Issuance of common stock non-voting (net of issuance costs of $0.9)</t>
+  </si>
+  <si>
+    <t>Common stock acquired by purchase</t>
+  </si>
+  <si>
+    <t>Dividends paid</t>
+  </si>
+  <si>
+    <t>Net cash (used in) provided by financing activities</t>
+  </si>
+  <si>
+    <t>Effect of exchange rate changes on cash and cash equivalents</t>
+  </si>
+  <si>
+    <t>Increase (decrease) in cash and cash equivalents</t>
+  </si>
+  <si>
+    <t>Cash and cash equivalents at beginning of year</t>
+  </si>
+  <si>
+    <t>Cash and cash equivalents at end of year</t>
+  </si>
+  <si>
+    <r>
+      <t>Capital expenditure [</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CAPEX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>] (including expenditures for capitalized software)</t>
+    </r>
+  </si>
+  <si>
+    <t>CAPEX % of Sales</t>
+  </si>
+  <si>
+    <t>Dividends $ / share</t>
+  </si>
+  <si>
+    <t>Dividends received from unconsolidated affiliates</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -413,13 +686,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -453,7 +753,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -473,13 +773,26 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,10 +809,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -798,23 +1107,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I132"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B112" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H73" sqref="H73"/>
+      <selection pane="bottomRight" activeCell="A135" sqref="A135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="57.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="62.17578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="10.41015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
       <c r="B1" s="2">
         <v>2017</v>
       </c>
@@ -840,34 +1149,36 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16" t="s">
+    <row r="2" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="20" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -880,29 +1191,29 @@
       <c r="D3" s="11">
         <v>5347.4</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="16">
         <f>D3*(1+E4)</f>
         <v>5694.9809999999998</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="16">
         <f>E3*(1+F4)</f>
         <v>6065.1547649999993</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="16">
         <f>F3*(1+G4)</f>
         <v>6459.389824724999</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="16">
         <f>G3*(1+H4)</f>
         <v>6879.2501633321235</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="16">
         <f>H3*(1+I4)</f>
         <v>7326.4014239487115</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A4" s="18" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="1"/>
@@ -914,23 +1225,23 @@
         <f>D3/C3-1</f>
         <v>8.4106509768422377E-3</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="15">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="15">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="15">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="15">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="15">
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -943,28 +1254,28 @@
       <c r="D5" s="11">
         <v>3202.1</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="16">
         <f>E$3*E6</f>
         <v>3473.9384099999997</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="16">
         <f t="shared" ref="F5:I5" si="0">F$3*F6</f>
         <v>3699.7444066499993</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="16">
         <f t="shared" si="0"/>
         <v>3940.2277930822493</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="16">
         <f t="shared" si="0"/>
         <v>4196.342599632595</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="16">
         <f t="shared" si="0"/>
         <v>4469.1048686087142</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
@@ -980,23 +1291,23 @@
         <f>D5/D$3</f>
         <v>0.59881437708045038</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="15">
         <v>0.61</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="15">
         <v>0.61</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="15">
         <v>0.61</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="15">
         <v>0.61</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="15">
         <v>0.61</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A7" s="9" t="s">
         <v>16</v>
       </c>
@@ -1030,7 +1341,7 @@
         <v>6.5000000000000169E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1067,7 +1378,7 @@
         <v>2857.2965553399972</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1104,7 +1415,7 @@
         <v>0.38999999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1138,7 +1449,7 @@
         <v>6.4999999999999725E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1148,7 +1459,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1164,28 +1475,28 @@
         <f>1166.8-158.8</f>
         <v>1008</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="16">
         <f>E$3*E13</f>
         <v>1082.04639</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="16">
         <f t="shared" ref="F12" si="6">F$3*F13</f>
         <v>1152.3794053499998</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="16">
         <f t="shared" ref="G12" si="7">G$3*G13</f>
         <v>1227.2840666977497</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="16">
         <f t="shared" ref="H12" si="8">H$3*H13</f>
         <v>1307.0575310331035</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="16">
         <f t="shared" ref="I12" si="9">I$3*I13</f>
         <v>1392.0162705502553</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -1201,23 +1512,23 @@
         <f t="shared" si="10"/>
         <v>0.18850282380222166</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="15">
         <v>0.19</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="15">
         <v>0.19</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="15">
         <v>0.19</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="15">
         <v>0.19</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="15">
         <v>0.19</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -1251,7 +1562,7 @@
         <v>6.4999999999999947E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1280,7 +1591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5" t="s">
         <v>6</v>
       </c>
@@ -1293,23 +1604,23 @@
       <c r="D16" s="13">
         <v>20.8</v>
       </c>
-      <c r="E16" s="19">
-        <v>0</v>
-      </c>
-      <c r="F16" s="19">
-        <v>0</v>
-      </c>
-      <c r="G16" s="19">
-        <v>0</v>
-      </c>
-      <c r="H16" s="19">
-        <v>0</v>
-      </c>
-      <c r="I16" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E16" s="17">
+        <v>0</v>
+      </c>
+      <c r="F16" s="17">
+        <v>0</v>
+      </c>
+      <c r="G16" s="17">
+        <v>0</v>
+      </c>
+      <c r="H16" s="17">
+        <v>0</v>
+      </c>
+      <c r="I16" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A17" s="6" t="s">
         <v>1</v>
       </c>
@@ -1346,7 +1657,7 @@
         <v>1392.0162705502553</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A18" s="6" t="s">
         <v>26</v>
       </c>
@@ -1383,7 +1694,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
@@ -1417,7 +1728,7 @@
         <v>6.4999999999999947E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1427,7 +1738,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -1464,7 +1775,7 @@
         <v>1465.2802847897419</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1501,7 +1812,7 @@
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1535,7 +1846,7 @@
         <v>6.4999999999999503E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1545,7 +1856,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -1564,7 +1875,7 @@
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1586,7 +1897,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -1596,7 +1907,7 @@
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -1633,7 +1944,7 @@
         <v>1465.2802847897419</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1670,7 +1981,7 @@
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -1704,7 +2015,7 @@
         <v>6.4999999999999503E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.5">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1714,7 +2025,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1733,7 +2044,7 @@
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -1752,7 +2063,7 @@
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A34" s="5" t="s">
         <v>9</v>
       </c>
@@ -1771,7 +2082,7 @@
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A35" s="6" t="s">
         <v>14</v>
       </c>
@@ -1793,7 +2104,7 @@
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A36" s="6" t="s">
         <v>30</v>
       </c>
@@ -1815,7 +2126,7 @@
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A37" s="6" t="s">
         <v>52</v>
       </c>
@@ -1834,7 +2145,7 @@
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.5">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1844,7 +2155,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -1881,7 +2192,7 @@
         <v>1465.2802847897419</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -1918,7 +2229,7 @@
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>32</v>
       </c>
@@ -1952,7 +2263,7 @@
         <v>6.4999999999999503E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -1986,7 +2297,7 @@
         <v>366.32007119743548</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -2002,23 +2313,23 @@
         <f>D43/D$39</f>
         <v>0.19213867187500006</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E44" s="15">
         <v>0.25</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F44" s="15">
         <v>0.25</v>
       </c>
-      <c r="G44" s="17">
+      <c r="G44" s="15">
         <v>0.25</v>
       </c>
-      <c r="H44" s="17">
+      <c r="H44" s="15">
         <v>0.25</v>
       </c>
-      <c r="I44" s="17">
+      <c r="I44" s="15">
         <v>0.25</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>34</v>
       </c>
@@ -2055,7 +2366,7 @@
         <v>1098.9602135923064</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
         <v>35</v>
       </c>
@@ -2092,7 +2403,7 @@
         <v>0.14999999999999997</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
         <v>36</v>
       </c>
@@ -2126,7 +2437,7 @@
         <v>6.4999999999999503E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
         <v>11</v>
       </c>
@@ -2160,7 +2471,7 @@
         <v>76.927214951461465</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
         <v>40</v>
       </c>
@@ -2176,23 +2487,23 @@
         <f>D50/D$46</f>
         <v>6.1801148383197356E-2</v>
       </c>
-      <c r="E51" s="17">
+      <c r="E51" s="15">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F51" s="15">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G51" s="17">
+      <c r="G51" s="15">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H51" s="17">
+      <c r="H51" s="15">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I51" s="17">
+      <c r="I51" s="15">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A52" t="s">
         <v>41</v>
       </c>
@@ -2226,7 +2537,7 @@
         <v>6.4999999999999725E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.5">
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
@@ -2236,7 +2547,7 @@
       <c r="H53" s="11"/>
       <c r="I53" s="11"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A54" t="s">
         <v>38</v>
       </c>
@@ -2273,7 +2584,7 @@
         <v>1175.887428543768</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -2310,7 +2621,7 @@
         <v>0.16049999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A56" t="s">
         <v>39</v>
       </c>
@@ -2344,365 +2655,1610 @@
         <v>6.4999999999999725E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" s="11">
+        <v>1.6</v>
+      </c>
+      <c r="C58" s="11">
+        <v>3.3</v>
+      </c>
+      <c r="D58" s="11">
+        <v>1.9</v>
+      </c>
+      <c r="E58" s="12">
+        <f>E46*AVERAGE($B$59:$D$59)</f>
+        <v>2.8904886148011029</v>
+      </c>
+      <c r="F58" s="12">
+        <f>F46*AVERAGE($B$59:$D$59)</f>
+        <v>3.0783703747631748</v>
+      </c>
+      <c r="G58" s="12">
+        <f>G46*AVERAGE($B$59:$D$59)</f>
+        <v>3.2784644491227808</v>
+      </c>
+      <c r="H58" s="12">
+        <f>H46*AVERAGE($B$59:$D$59)</f>
+        <v>3.4915646383157615</v>
+      </c>
+      <c r="I58" s="12">
+        <f>I46*AVERAGE($B$59:$D$59)</f>
+        <v>3.7185163398062842</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" s="3">
+        <f t="shared" ref="B59:I59" si="42">B58/B46</f>
+        <v>3.6076662908680955E-3</v>
+      </c>
+      <c r="C59" s="3">
+        <f t="shared" si="42"/>
+        <v>3.6723792566214102E-3</v>
+      </c>
+      <c r="D59" s="3">
+        <f t="shared" si="42"/>
+        <v>2.8709579933514661E-3</v>
+      </c>
+      <c r="E59" s="3">
+        <f t="shared" si="42"/>
+        <v>3.3836678469469903E-3</v>
+      </c>
+      <c r="F59" s="3">
+        <f t="shared" si="42"/>
+        <v>3.3836678469469903E-3</v>
+      </c>
+      <c r="G59" s="3">
+        <f t="shared" si="42"/>
+        <v>3.3836678469469903E-3</v>
+      </c>
+      <c r="H59" s="3">
+        <f t="shared" si="42"/>
+        <v>3.3836678469469903E-3</v>
+      </c>
+      <c r="I59" s="3">
+        <f t="shared" si="42"/>
+        <v>3.3836678469469903E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="11">
+        <v>103.2</v>
+      </c>
+      <c r="C62" s="11">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="D62" s="11">
+        <v>-149.80000000000001</v>
+      </c>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="11">
+        <v>174.6</v>
+      </c>
+      <c r="C63" s="11">
+        <v>-119.8</v>
+      </c>
+      <c r="D63" s="11">
+        <v>-25.5</v>
+      </c>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="11">
+        <v>-12.5</v>
+      </c>
+      <c r="C64" s="11">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D64" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" s="11">
+        <v>-30.8</v>
+      </c>
+      <c r="C65" s="11">
+        <v>-17.2</v>
+      </c>
+      <c r="D65" s="11">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" s="12">
+        <f t="shared" ref="B66:I66" si="43">SUM(B62:B65)</f>
+        <v>234.5</v>
+      </c>
+      <c r="C66" s="12">
+        <f t="shared" si="43"/>
+        <v>-62.100000000000009</v>
+      </c>
+      <c r="D66" s="12">
+        <f t="shared" si="43"/>
+        <v>-141</v>
+      </c>
+      <c r="E66" s="12">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="F66" s="12">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="G66" s="12">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="H66" s="12">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="I66" s="12">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A68" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" s="12">
+        <f>B54+B58+B66</f>
+        <v>713.5</v>
+      </c>
+      <c r="C68" s="12">
+        <f t="shared" ref="C68:I68" si="44">C54+C58+C66</f>
+        <v>874.6</v>
+      </c>
+      <c r="D68" s="12">
+        <f t="shared" si="44"/>
+        <v>563.5999999999998</v>
+      </c>
+      <c r="E68" s="12">
+        <f t="shared" si="44"/>
+        <v>916.93493911480118</v>
+      </c>
+      <c r="F68" s="12">
+        <f t="shared" si="44"/>
+        <v>976.53571015726322</v>
+      </c>
+      <c r="G68" s="12">
+        <f t="shared" si="44"/>
+        <v>1040.0105313174854</v>
+      </c>
+      <c r="H68" s="12">
+        <f t="shared" si="44"/>
+        <v>1107.6112158531218</v>
+      </c>
+      <c r="I68" s="12">
+        <f t="shared" si="44"/>
+        <v>1179.6059448835742</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A70" t="s">
         <v>3</v>
       </c>
-      <c r="B58" s="11">
+      <c r="B70" s="11">
         <v>126.75</v>
       </c>
-      <c r="C58" s="11">
+      <c r="C70" s="11">
         <v>131.5</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D70" s="11">
         <v>132.6</v>
       </c>
-      <c r="E58" s="11">
-        <f>D58</f>
+      <c r="E70" s="11">
+        <f>D70</f>
         <v>132.6</v>
       </c>
-      <c r="F58" s="11">
-        <f t="shared" ref="F58:I58" si="42">E58</f>
+      <c r="F70" s="11">
+        <f t="shared" ref="F70:I70" si="45">E70</f>
         <v>132.6</v>
       </c>
-      <c r="G58" s="11">
-        <f t="shared" si="42"/>
+      <c r="G70" s="11">
+        <f t="shared" si="45"/>
         <v>132.6</v>
       </c>
-      <c r="H58" s="11">
-        <f t="shared" si="42"/>
+      <c r="H70" s="11">
+        <f t="shared" si="45"/>
         <v>132.6</v>
       </c>
-      <c r="I58" s="11">
-        <f t="shared" si="42"/>
+      <c r="I70" s="11">
+        <f t="shared" si="45"/>
         <v>132.6</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A71" t="s">
         <v>4</v>
       </c>
-      <c r="B59" s="11">
+      <c r="B71" s="11">
         <v>128.4</v>
       </c>
-      <c r="C59" s="11">
+      <c r="C71" s="11">
         <v>133.249</v>
       </c>
-      <c r="D59" s="11">
+      <c r="D71" s="11">
         <v>134.1</v>
       </c>
-      <c r="E59" s="11">
-        <f>D59</f>
+      <c r="E71" s="11">
+        <f>D71</f>
         <v>134.1</v>
       </c>
-      <c r="F59" s="11">
-        <f t="shared" ref="F59:I59" si="43">E59</f>
+      <c r="F71" s="11">
+        <f t="shared" ref="F71:I71" si="46">E71</f>
         <v>134.1</v>
       </c>
-      <c r="G59" s="11">
-        <f t="shared" si="43"/>
+      <c r="G71" s="11">
+        <f t="shared" si="46"/>
         <v>134.1</v>
       </c>
-      <c r="H59" s="11">
-        <f t="shared" si="43"/>
+      <c r="H71" s="11">
+        <f t="shared" si="46"/>
         <v>134.1</v>
       </c>
-      <c r="I59" s="11">
-        <f t="shared" si="43"/>
+      <c r="I71" s="11">
+        <f t="shared" si="46"/>
         <v>134.1</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A73" t="s">
         <v>44</v>
       </c>
-      <c r="B61" s="7">
-        <f>B$46/B$58</f>
+      <c r="B73" s="7">
+        <f t="shared" ref="B73:I73" si="47">B$46/B$70</f>
         <v>3.4990138067061141</v>
       </c>
-      <c r="C61" s="7">
-        <f>C$46/C$58</f>
+      <c r="C73" s="7">
+        <f t="shared" si="47"/>
         <v>6.8334600760456281</v>
       </c>
-      <c r="D61" s="7">
-        <f>D$46/D$58</f>
+      <c r="D73" s="7">
+        <f t="shared" si="47"/>
         <v>4.990950226244343</v>
       </c>
-      <c r="E61" s="7">
-        <f t="shared" ref="E61:I61" si="44">E$46/E$58</f>
+      <c r="E73" s="7">
+        <f t="shared" si="47"/>
         <v>6.4422861990950233</v>
       </c>
-      <c r="F61" s="7">
-        <f t="shared" si="44"/>
+      <c r="F73" s="7">
+        <f t="shared" si="47"/>
         <v>6.8610348020362002</v>
       </c>
-      <c r="G61" s="7">
-        <f t="shared" si="44"/>
+      <c r="G73" s="7">
+        <f t="shared" si="47"/>
         <v>7.3070020641685529</v>
       </c>
-      <c r="H61" s="7">
-        <f t="shared" si="44"/>
+      <c r="H73" s="7">
+        <f t="shared" si="47"/>
         <v>7.7819571983395077</v>
       </c>
-      <c r="I61" s="7">
-        <f t="shared" si="44"/>
+      <c r="I73" s="7">
+        <f t="shared" si="47"/>
         <v>8.2877844162315721</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A74" t="s">
         <v>46</v>
       </c>
-      <c r="B62" s="7"/>
-      <c r="C62" s="3">
-        <f>C61/B61-1</f>
+      <c r="B74" s="7"/>
+      <c r="C74" s="3">
+        <f>C73/B73-1</f>
         <v>0.95296745127121407</v>
       </c>
-      <c r="D62" s="3">
-        <f>D61/C61-1</f>
+      <c r="D74" s="3">
+        <f>D73/C73-1</f>
         <v>-0.26963058674479079</v>
       </c>
-      <c r="E62" s="3">
-        <f t="shared" ref="E62:I62" si="45">E61/D61-1</f>
+      <c r="E74" s="3">
+        <f t="shared" ref="E74:I74" si="48">E73/D73-1</f>
         <v>0.29079351767905748</v>
       </c>
-      <c r="F62" s="3">
-        <f t="shared" si="45"/>
+      <c r="F74" s="3">
+        <f t="shared" si="48"/>
         <v>6.4999999999999947E-2</v>
       </c>
-      <c r="G62" s="3">
-        <f t="shared" si="45"/>
+      <c r="G74" s="3">
+        <f t="shared" si="48"/>
         <v>6.4999999999999947E-2</v>
       </c>
-      <c r="H62" s="3">
-        <f t="shared" si="45"/>
+      <c r="H74" s="3">
+        <f t="shared" si="48"/>
         <v>6.4999999999999947E-2</v>
       </c>
-      <c r="I62" s="3">
-        <f t="shared" si="45"/>
+      <c r="I74" s="3">
+        <f t="shared" si="48"/>
         <v>6.4999999999999503E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A75" t="s">
         <v>45</v>
       </c>
-      <c r="B63" s="7">
-        <f>B$46/B$59</f>
+      <c r="B75" s="7">
+        <f t="shared" ref="B75:I75" si="49">B$46/B$71</f>
         <v>3.4540498442367595</v>
       </c>
-      <c r="C63" s="7">
-        <f>C$46/C$59</f>
+      <c r="C75" s="7">
+        <f t="shared" si="49"/>
         <v>6.7437654316355111</v>
       </c>
-      <c r="D63" s="7">
-        <f>D$46/D$59</f>
+      <c r="D75" s="7">
+        <f t="shared" si="49"/>
         <v>4.9351230425055919</v>
       </c>
-      <c r="E63" s="7">
-        <f t="shared" ref="E63:I63" si="46">E$46/E$59</f>
+      <c r="E75" s="7">
+        <f t="shared" si="49"/>
         <v>6.3702248322147659</v>
       </c>
-      <c r="F63" s="7">
-        <f t="shared" si="46"/>
+      <c r="F75" s="7">
+        <f t="shared" si="49"/>
         <v>6.7842894463087253</v>
       </c>
-      <c r="G63" s="7">
-        <f t="shared" si="46"/>
+      <c r="G75" s="7">
+        <f t="shared" si="49"/>
         <v>7.225268260318793</v>
       </c>
-      <c r="H63" s="7">
-        <f t="shared" si="46"/>
+      <c r="H75" s="7">
+        <f t="shared" si="49"/>
         <v>7.6949106972395134</v>
       </c>
-      <c r="I63" s="7">
-        <f t="shared" si="46"/>
+      <c r="I75" s="7">
+        <f t="shared" si="49"/>
         <v>8.195079892560079</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A76" t="s">
         <v>47</v>
       </c>
-      <c r="B64" s="7"/>
-      <c r="C64" s="3">
-        <f>C63/B63-1</f>
+      <c r="B76" s="7"/>
+      <c r="C76" s="3">
+        <f>C75/B75-1</f>
         <v>0.9524227315039453</v>
       </c>
-      <c r="D64" s="3">
-        <f>D63/C63-1</f>
+      <c r="D76" s="3">
+        <f>D75/C75-1</f>
         <v>-0.26819473593275378</v>
       </c>
-      <c r="E64" s="3">
-        <f t="shared" ref="E64:I64" si="47">E63/D63-1</f>
+      <c r="E76" s="3">
+        <f t="shared" ref="E76:I76" si="50">E75/D75-1</f>
         <v>0.29079351767905748</v>
       </c>
-      <c r="F64" s="3">
-        <f t="shared" si="47"/>
+      <c r="F76" s="3">
+        <f t="shared" si="50"/>
         <v>6.4999999999999947E-2</v>
       </c>
-      <c r="G64" s="3">
-        <f t="shared" si="47"/>
+      <c r="G76" s="3">
+        <f t="shared" si="50"/>
         <v>6.5000000000000169E-2</v>
       </c>
-      <c r="H64" s="3">
-        <f t="shared" si="47"/>
+      <c r="H76" s="3">
+        <f t="shared" si="50"/>
         <v>6.4999999999999947E-2</v>
       </c>
-      <c r="I64" s="3">
-        <f t="shared" si="47"/>
+      <c r="I76" s="3">
+        <f t="shared" si="50"/>
         <v>6.4999999999999725E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A78" t="s">
         <v>42</v>
       </c>
-      <c r="B66" s="7">
-        <f>B$54/B$58</f>
+      <c r="B78" s="7">
+        <f t="shared" ref="B78:I78" si="51">B$54/B$70</f>
         <v>3.766469428007889</v>
       </c>
-      <c r="C66" s="7">
-        <f>C$54/C$58</f>
+      <c r="C78" s="7">
+        <f t="shared" si="51"/>
         <v>7.0980988593155905</v>
       </c>
-      <c r="D66" s="7">
-        <f>D$54/D$58</f>
+      <c r="D78" s="7">
+        <f t="shared" si="51"/>
         <v>5.2993966817496219</v>
       </c>
-      <c r="E66" s="7">
-        <f t="shared" ref="E66:I66" si="48">E$54/E$58</f>
+      <c r="E78" s="7">
+        <f t="shared" si="51"/>
         <v>6.8932462330316744</v>
       </c>
-      <c r="F66" s="7">
-        <f t="shared" si="48"/>
+      <c r="F78" s="7">
+        <f t="shared" si="51"/>
         <v>7.3413072381787341</v>
       </c>
-      <c r="G66" s="7">
-        <f t="shared" si="48"/>
+      <c r="G78" s="7">
+        <f t="shared" si="51"/>
         <v>7.8184922086603521</v>
       </c>
-      <c r="H66" s="7">
-        <f t="shared" si="48"/>
+      <c r="H78" s="7">
+        <f t="shared" si="51"/>
         <v>8.3266942022232744</v>
       </c>
-      <c r="I66" s="7">
-        <f t="shared" si="48"/>
+      <c r="I78" s="7">
+        <f t="shared" si="51"/>
         <v>8.8679293253677827</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A79" t="s">
         <v>48</v>
       </c>
-      <c r="B67" s="7"/>
-      <c r="C67" s="3">
-        <f>C66/B66-1</f>
+      <c r="B79" s="7"/>
+      <c r="C79" s="3">
+        <f>C78/B78-1</f>
         <v>0.88454970762097029</v>
       </c>
-      <c r="D67" s="3">
-        <f>D66/C66-1</f>
+      <c r="D79" s="3">
+        <f>D78/C78-1</f>
         <v>-0.25340618850431207</v>
       </c>
-      <c r="E67" s="3">
-        <f t="shared" ref="E67:I67" si="49">E66/D66-1</f>
+      <c r="E79" s="3">
+        <f t="shared" ref="E79:I79" si="52">E78/D78-1</f>
         <v>0.30076056709833532</v>
       </c>
-      <c r="F67" s="3">
-        <f t="shared" si="49"/>
+      <c r="F79" s="3">
+        <f t="shared" si="52"/>
         <v>6.5000000000000169E-2</v>
       </c>
-      <c r="G67" s="3">
-        <f t="shared" si="49"/>
+      <c r="G79" s="3">
+        <f t="shared" si="52"/>
         <v>6.4999999999999947E-2</v>
       </c>
-      <c r="H67" s="3">
-        <f t="shared" si="49"/>
+      <c r="H79" s="3">
+        <f t="shared" si="52"/>
         <v>6.4999999999999947E-2</v>
       </c>
-      <c r="I67" s="3">
-        <f t="shared" si="49"/>
+      <c r="I79" s="3">
+        <f t="shared" si="52"/>
         <v>6.4999999999999503E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A80" t="s">
         <v>43</v>
       </c>
-      <c r="B68" s="7">
-        <f>B$54/B$59</f>
+      <c r="B80" s="7">
+        <f t="shared" ref="B80:I80" si="53">B$54/B$71</f>
         <v>3.7180685358255445</v>
       </c>
-      <c r="C68" s="7">
-        <f>C$54/C$59</f>
+      <c r="C80" s="7">
+        <f t="shared" si="53"/>
         <v>7.0049306186162754</v>
       </c>
-      <c r="D68" s="7">
-        <f>D$54/D$59</f>
+      <c r="D80" s="7">
+        <f t="shared" si="53"/>
         <v>5.2401193139448159</v>
       </c>
-      <c r="E68" s="7">
-        <f t="shared" ref="E68:I68" si="50">E$54/E$59</f>
+      <c r="E80" s="7">
+        <f t="shared" si="53"/>
         <v>6.8161405704697993</v>
       </c>
-      <c r="F68" s="7">
-        <f t="shared" si="50"/>
+      <c r="F80" s="7">
+        <f t="shared" si="53"/>
         <v>7.2591897075503367</v>
       </c>
-      <c r="G68" s="7">
-        <f t="shared" si="50"/>
+      <c r="G80" s="7">
+        <f t="shared" si="53"/>
         <v>7.7310370385411087</v>
       </c>
-      <c r="H68" s="7">
-        <f t="shared" si="50"/>
+      <c r="H80" s="7">
+        <f t="shared" si="53"/>
         <v>8.2335544460462788</v>
       </c>
-      <c r="I68" s="7">
-        <f t="shared" si="50"/>
+      <c r="I80" s="7">
+        <f t="shared" si="53"/>
         <v>8.7687354850392847</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A81" t="s">
         <v>49</v>
       </c>
-      <c r="C69" s="3">
-        <f>C68/B68-1</f>
+      <c r="C81" s="3">
+        <f>C80/B80-1</f>
         <v>0.88402407086369905</v>
       </c>
-      <c r="D69" s="3">
-        <f>D68/C68-1</f>
+      <c r="D81" s="3">
+        <f>D80/C80-1</f>
         <v>-0.2519384417571966</v>
       </c>
-      <c r="E69" s="3">
-        <f t="shared" ref="E69:I69" si="51">E68/D68-1</f>
+      <c r="E81" s="3">
+        <f t="shared" ref="E81:I81" si="54">E80/D80-1</f>
         <v>0.30076056709833554</v>
       </c>
-      <c r="F69" s="3">
-        <f t="shared" si="51"/>
+      <c r="F81" s="3">
+        <f t="shared" si="54"/>
         <v>6.5000000000000169E-2</v>
       </c>
-      <c r="G69" s="3">
-        <f t="shared" si="51"/>
+      <c r="G81" s="3">
+        <f t="shared" si="54"/>
         <v>6.4999999999999947E-2</v>
       </c>
-      <c r="H69" s="3">
-        <f t="shared" si="51"/>
+      <c r="H81" s="3">
+        <f t="shared" si="54"/>
         <v>6.4999999999999725E-2</v>
       </c>
-      <c r="I69" s="3">
-        <f t="shared" si="51"/>
+      <c r="I81" s="3">
+        <f t="shared" si="54"/>
         <v>6.4999999999999725E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="B84" s="2">
+        <f>B1</f>
+        <v>2017</v>
+      </c>
+      <c r="C84" s="2">
+        <f t="shared" ref="C84:I84" si="55">C1</f>
+        <v>2018</v>
+      </c>
+      <c r="D84" s="2">
+        <f t="shared" si="55"/>
+        <v>2019</v>
+      </c>
+      <c r="E84" s="2">
+        <f t="shared" si="55"/>
+        <v>2020</v>
+      </c>
+      <c r="F84" s="2">
+        <f t="shared" si="55"/>
+        <v>2021</v>
+      </c>
+      <c r="G84" s="2">
+        <f t="shared" si="55"/>
+        <v>2022</v>
+      </c>
+      <c r="H84" s="2">
+        <f t="shared" si="55"/>
+        <v>2023</v>
+      </c>
+      <c r="I84" s="2">
+        <f t="shared" si="55"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B85" s="20" t="str">
+        <f>B2</f>
+        <v>Actual</v>
+      </c>
+      <c r="C85" s="20" t="str">
+        <f t="shared" ref="C85:I85" si="56">C2</f>
+        <v>Actual</v>
+      </c>
+      <c r="D85" s="20" t="str">
+        <f t="shared" si="56"/>
+        <v>Actual</v>
+      </c>
+      <c r="E85" s="20" t="str">
+        <f t="shared" si="56"/>
+        <v>Estimated</v>
+      </c>
+      <c r="F85" s="20" t="str">
+        <f t="shared" si="56"/>
+        <v>Estimated</v>
+      </c>
+      <c r="G85" s="20" t="str">
+        <f t="shared" si="56"/>
+        <v>Estimated</v>
+      </c>
+      <c r="H85" s="20" t="str">
+        <f t="shared" si="56"/>
+        <v>Estimated</v>
+      </c>
+      <c r="I85" s="20" t="str">
+        <f t="shared" si="56"/>
+        <v>Estimated</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A86" s="22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A87" t="s">
+        <v>38</v>
+      </c>
+      <c r="B87" s="12">
+        <f>B54</f>
+        <v>477.39999999999992</v>
+      </c>
+      <c r="C87" s="12">
+        <f t="shared" ref="C87:I87" si="57">C54</f>
+        <v>933.40000000000009</v>
+      </c>
+      <c r="D87" s="12">
+        <f t="shared" si="57"/>
+        <v>702.69999999999982</v>
+      </c>
+      <c r="E87" s="12">
+        <f t="shared" si="57"/>
+        <v>914.04445050000004</v>
+      </c>
+      <c r="F87" s="12">
+        <f t="shared" si="57"/>
+        <v>973.45733978250007</v>
+      </c>
+      <c r="G87" s="12">
+        <f t="shared" si="57"/>
+        <v>1036.7320668683626</v>
+      </c>
+      <c r="H87" s="12">
+        <f t="shared" si="57"/>
+        <v>1104.119651214806</v>
+      </c>
+      <c r="I87" s="12">
+        <f t="shared" si="57"/>
+        <v>1175.887428543768</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A88" t="s">
+        <v>68</v>
+      </c>
+      <c r="B88" s="12">
+        <f>B25</f>
+        <v>125.2</v>
+      </c>
+      <c r="C88" s="12">
+        <f t="shared" ref="C88:D88" si="58">C25</f>
+        <v>150.69999999999999</v>
+      </c>
+      <c r="D88" s="12">
+        <f t="shared" si="58"/>
+        <v>158.80000000000001</v>
+      </c>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A89" t="s">
+        <v>69</v>
+      </c>
+      <c r="B89" s="11">
+        <v>23.9</v>
+      </c>
+      <c r="C89" s="11">
+        <v>25.6</v>
+      </c>
+      <c r="D89" s="11">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A90" t="s">
+        <v>70</v>
+      </c>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11">
+        <v>-309.39999999999998</v>
+      </c>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11">
+        <v>0</v>
+      </c>
+      <c r="F90" s="11">
+        <v>0</v>
+      </c>
+      <c r="G90" s="11">
+        <v>0</v>
+      </c>
+      <c r="H90" s="11">
+        <v>0</v>
+      </c>
+      <c r="I90" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A91" t="s">
+        <v>71</v>
+      </c>
+      <c r="B91" s="11">
+        <v>20.9</v>
+      </c>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11">
+        <v>0</v>
+      </c>
+      <c r="F91" s="11">
+        <v>0</v>
+      </c>
+      <c r="G91" s="11">
+        <v>0</v>
+      </c>
+      <c r="H91" s="11">
+        <v>0</v>
+      </c>
+      <c r="I91" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A92" t="s">
+        <v>72</v>
+      </c>
+      <c r="B92" s="11">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="C92" s="11">
+        <v>3</v>
+      </c>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11">
+        <v>0</v>
+      </c>
+      <c r="F92" s="11">
+        <v>0</v>
+      </c>
+      <c r="G92" s="11">
+        <v>0</v>
+      </c>
+      <c r="H92" s="11">
+        <v>0</v>
+      </c>
+      <c r="I92" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A93" t="s">
+        <v>74</v>
+      </c>
+      <c r="B93" s="11">
+        <v>1.3</v>
+      </c>
+      <c r="C93" s="11">
+        <v>-5.4</v>
+      </c>
+      <c r="D93" s="11">
+        <v>-1.6</v>
+      </c>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="11"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A94" t="s">
+        <v>73</v>
+      </c>
+      <c r="B94" s="11">
+        <v>24.1</v>
+      </c>
+      <c r="C94" s="11">
+        <v>40.1</v>
+      </c>
+      <c r="D94" s="11">
+        <v>20.9</v>
+      </c>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A95" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95" s="11">
+        <f>-B50</f>
+        <v>-33.9</v>
+      </c>
+      <c r="C95" s="11">
+        <f t="shared" ref="C95:I95" si="59">-C50</f>
+        <v>-34.799999999999997</v>
+      </c>
+      <c r="D95" s="11">
+        <f t="shared" si="59"/>
+        <v>-40.9</v>
+      </c>
+      <c r="E95" s="12">
+        <f t="shared" si="59"/>
+        <v>-59.797300500000006</v>
+      </c>
+      <c r="F95" s="12">
+        <f t="shared" si="59"/>
+        <v>-63.684125032500013</v>
+      </c>
+      <c r="G95" s="12">
+        <f t="shared" si="59"/>
+        <v>-67.823593159612514</v>
+      </c>
+      <c r="H95" s="12">
+        <f t="shared" si="59"/>
+        <v>-72.232126714987317</v>
+      </c>
+      <c r="I95" s="12">
+        <f t="shared" si="59"/>
+        <v>-76.927214951461465</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A96" t="s">
+        <v>75</v>
+      </c>
+      <c r="B96" s="11">
+        <v>-2.9</v>
+      </c>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11">
+        <v>0</v>
+      </c>
+      <c r="F96" s="11">
+        <v>0</v>
+      </c>
+      <c r="G96" s="11">
+        <v>0</v>
+      </c>
+      <c r="H96" s="11">
+        <v>0</v>
+      </c>
+      <c r="I96" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A97" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A98" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B98" s="11">
+        <v>-13</v>
+      </c>
+      <c r="C98" s="11">
+        <v>19.8</v>
+      </c>
+      <c r="D98" s="11">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A99" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B99" s="11">
+        <v>44.6</v>
+      </c>
+      <c r="C99" s="11">
+        <v>-10</v>
+      </c>
+      <c r="D99" s="11">
+        <v>-20.9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A100" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B100" s="11">
+        <v>98.2</v>
+      </c>
+      <c r="C100" s="11">
+        <v>72.8</v>
+      </c>
+      <c r="D100" s="11">
+        <v>128.19999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A101" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B101" s="11">
+        <v>6.8</v>
+      </c>
+      <c r="C101" s="11">
+        <v>-91.8</v>
+      </c>
+      <c r="D101" s="11">
+        <v>-81.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A102" t="s">
+        <v>106</v>
+      </c>
+      <c r="B102" s="11">
+        <v>23.6</v>
+      </c>
+      <c r="C102" s="11">
+        <v>27.2</v>
+      </c>
+      <c r="D102" s="11">
+        <v>31.7</v>
+      </c>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="12"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A103" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B103" s="12">
+        <f>B87+SUM(B88:B102)</f>
+        <v>815.3</v>
+      </c>
+      <c r="C103" s="12">
+        <f>C87+SUM(C88:C102)</f>
+        <v>821.20000000000016</v>
+      </c>
+      <c r="D103" s="12">
+        <f>D87+SUM(D88:D102)</f>
+        <v>946.79999999999973</v>
+      </c>
+      <c r="E103" s="12">
+        <f t="shared" ref="E103:I103" si="60">E87+SUM(E88:E102)</f>
+        <v>854.24715000000003</v>
+      </c>
+      <c r="F103" s="12">
+        <f t="shared" si="60"/>
+        <v>909.77321475000008</v>
+      </c>
+      <c r="G103" s="12">
+        <f t="shared" si="60"/>
+        <v>968.90847370875008</v>
+      </c>
+      <c r="H103" s="12">
+        <f t="shared" si="60"/>
+        <v>1031.8875244998187</v>
+      </c>
+      <c r="I103" s="12">
+        <f t="shared" si="60"/>
+        <v>1098.9602135923064</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A104" s="21"/>
+      <c r="B104" s="12"/>
+      <c r="C104" s="12"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="12"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A105" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A106" t="s">
+        <v>82</v>
+      </c>
+      <c r="B106" s="11">
+        <v>-4327.3999999999996</v>
+      </c>
+      <c r="C106" s="11">
+        <v>-4.2</v>
+      </c>
+      <c r="D106" s="11"/>
+      <c r="E106" s="25">
+        <v>0</v>
+      </c>
+      <c r="F106" s="25">
+        <v>0</v>
+      </c>
+      <c r="G106" s="25">
+        <v>0</v>
+      </c>
+      <c r="H106" s="25">
+        <v>0</v>
+      </c>
+      <c r="I106" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A107" t="s">
+        <v>103</v>
+      </c>
+      <c r="B107" s="11">
+        <v>-182.4</v>
+      </c>
+      <c r="C107" s="11">
+        <v>-169.1</v>
+      </c>
+      <c r="D107" s="11">
+        <v>-173.7</v>
+      </c>
+      <c r="E107" s="24">
+        <f>-E108*E3</f>
+        <v>-182.23939200000001</v>
+      </c>
+      <c r="F107" s="24">
+        <f t="shared" ref="F107:I107" si="61">-F108*F3</f>
+        <v>-194.08495247999997</v>
+      </c>
+      <c r="G107" s="24">
+        <f t="shared" si="61"/>
+        <v>-206.70047439119998</v>
+      </c>
+      <c r="H107" s="24">
+        <f t="shared" si="61"/>
+        <v>-220.13600522662796</v>
+      </c>
+      <c r="I107" s="24">
+        <f t="shared" si="61"/>
+        <v>-234.44484556635877</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A108" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B108" s="23">
+        <f>-B107/B3</f>
+        <v>3.8559922203665727E-2</v>
+      </c>
+      <c r="C108" s="23">
+        <f>-C107/C3</f>
+        <v>3.1888813457041559E-2</v>
+      </c>
+      <c r="D108" s="23">
+        <f>-D107/D3</f>
+        <v>3.248307588734712E-2</v>
+      </c>
+      <c r="E108" s="15">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F108" s="15">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G108" s="15">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="H108" s="15">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="I108" s="15">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A109" t="s">
+        <v>83</v>
+      </c>
+      <c r="B109" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="C109" s="11">
+        <v>14.8</v>
+      </c>
+      <c r="D109" s="11">
+        <v>2.7</v>
+      </c>
+      <c r="E109" s="12">
+        <f>MIN($B$109:$D$109)</f>
+        <v>1.5</v>
+      </c>
+      <c r="F109" s="12">
+        <f t="shared" ref="F109:I109" si="62">MIN($B$109:$D$109)</f>
+        <v>1.5</v>
+      </c>
+      <c r="G109" s="12">
+        <f t="shared" si="62"/>
+        <v>1.5</v>
+      </c>
+      <c r="H109" s="12">
+        <f t="shared" si="62"/>
+        <v>1.5</v>
+      </c>
+      <c r="I109" s="12">
+        <f t="shared" si="62"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A110" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B110" s="12">
+        <f>B106+B107+B109</f>
+        <v>-4508.2999999999993</v>
+      </c>
+      <c r="C110" s="12">
+        <f>C106+C107+C109</f>
+        <v>-158.49999999999997</v>
+      </c>
+      <c r="D110" s="12">
+        <f>D106+D107+D109</f>
+        <v>-171</v>
+      </c>
+      <c r="E110" s="12">
+        <f t="shared" ref="E110:I110" si="63">E106+E107+E109</f>
+        <v>-180.73939200000001</v>
+      </c>
+      <c r="F110" s="12">
+        <f t="shared" si="63"/>
+        <v>-192.58495247999997</v>
+      </c>
+      <c r="G110" s="12">
+        <f t="shared" si="63"/>
+        <v>-205.20047439119998</v>
+      </c>
+      <c r="H110" s="12">
+        <f t="shared" si="63"/>
+        <v>-218.63600522662796</v>
+      </c>
+      <c r="I110" s="12">
+        <f t="shared" si="63"/>
+        <v>-232.94484556635877</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A112" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A113" t="s">
+        <v>87</v>
+      </c>
+      <c r="B113" s="11">
+        <v>-134.6</v>
+      </c>
+      <c r="C113" s="11">
+        <v>305.5</v>
+      </c>
+      <c r="D113" s="11">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A114" t="s">
+        <v>88</v>
+      </c>
+      <c r="B114" s="11">
+        <v>3989.6</v>
+      </c>
+      <c r="C114" s="11">
+        <v>25.9</v>
+      </c>
+      <c r="D114" s="11"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A115" t="s">
+        <v>89</v>
+      </c>
+      <c r="B115" s="11">
+        <v>-7.7</v>
+      </c>
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A116" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B116" s="11">
+        <v>-272.7</v>
+      </c>
+      <c r="C116" s="11">
+        <v>-797.9</v>
+      </c>
+      <c r="D116" s="11">
+        <v>-447.7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A117" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B117" s="11">
+        <v>29.5</v>
+      </c>
+      <c r="C117" s="11">
+        <v>78.2</v>
+      </c>
+      <c r="D117" s="11">
+        <v>90.9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A118" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B118" s="11">
+        <v>-5.8</v>
+      </c>
+      <c r="C118" s="11">
+        <v>-11.6</v>
+      </c>
+      <c r="D118" s="11">
+        <v>-12.7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A119" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B119" s="11">
+        <v>-19.7</v>
+      </c>
+      <c r="C119" s="11">
+        <v>-2.5</v>
+      </c>
+      <c r="D119" s="11"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A120" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B120" s="11">
+        <v>-1.2</v>
+      </c>
+      <c r="C120" s="11">
+        <v>-13</v>
+      </c>
+      <c r="D120" s="11"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A121" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B121" s="11">
+        <v>554</v>
+      </c>
+      <c r="C121" s="11"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="25">
+        <v>0</v>
+      </c>
+      <c r="F121" s="25">
+        <v>0</v>
+      </c>
+      <c r="G121" s="25">
+        <v>0</v>
+      </c>
+      <c r="H121" s="25">
+        <v>0</v>
+      </c>
+      <c r="I121" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A122" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B122" s="11">
+        <v>-137.80000000000001</v>
+      </c>
+      <c r="C122" s="11">
+        <v>-62.3</v>
+      </c>
+      <c r="D122" s="11">
+        <v>-95.1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A123" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B123" s="11">
+        <v>-237.6</v>
+      </c>
+      <c r="C123" s="11">
+        <v>-273.39999999999998</v>
+      </c>
+      <c r="D123" s="11">
+        <v>-302.2</v>
+      </c>
+      <c r="E123" s="28">
+        <f>-E124*E70</f>
+        <v>-302.2</v>
+      </c>
+      <c r="F123" s="28">
+        <f t="shared" ref="F123:I123" si="64">-F124*F70</f>
+        <v>-302.2</v>
+      </c>
+      <c r="G123" s="28">
+        <f t="shared" si="64"/>
+        <v>-302.2</v>
+      </c>
+      <c r="H123" s="28">
+        <f t="shared" si="64"/>
+        <v>-302.2</v>
+      </c>
+      <c r="I123" s="28">
+        <f t="shared" si="64"/>
+        <v>-302.2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A124" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B124" s="26">
+        <f>-B123/B70</f>
+        <v>1.8745562130177513</v>
+      </c>
+      <c r="C124" s="26">
+        <f>-C123/C70</f>
+        <v>2.0790874524714829</v>
+      </c>
+      <c r="D124" s="26">
+        <f>-D123/D70</f>
+        <v>2.2790346907993966</v>
+      </c>
+      <c r="E124" s="27">
+        <f>D124</f>
+        <v>2.2790346907993966</v>
+      </c>
+      <c r="F124" s="27">
+        <f>E124</f>
+        <v>2.2790346907993966</v>
+      </c>
+      <c r="G124" s="27">
+        <f>F124</f>
+        <v>2.2790346907993966</v>
+      </c>
+      <c r="H124" s="27">
+        <f>G124</f>
+        <v>2.2790346907993966</v>
+      </c>
+      <c r="I124" s="27">
+        <f>H124</f>
+        <v>2.2790346907993966</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A125" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B125" s="12">
+        <f>SUM(B113:B123)</f>
+        <v>3756.0000000000005</v>
+      </c>
+      <c r="C125" s="12">
+        <f>SUM(C113:C123)</f>
+        <v>-751.1</v>
+      </c>
+      <c r="D125" s="12">
+        <f>SUM(D113:D123)</f>
+        <v>-725.8</v>
+      </c>
+      <c r="E125" s="12">
+        <f t="shared" ref="E125:I125" si="65">SUM(E113:E123)</f>
+        <v>-302.2</v>
+      </c>
+      <c r="F125" s="12">
+        <f t="shared" si="65"/>
+        <v>-302.2</v>
+      </c>
+      <c r="G125" s="12">
+        <f t="shared" si="65"/>
+        <v>-302.2</v>
+      </c>
+      <c r="H125" s="12">
+        <f t="shared" si="65"/>
+        <v>-302.2</v>
+      </c>
+      <c r="I125" s="12">
+        <f t="shared" si="65"/>
+        <v>-302.2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A127" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B127" s="11">
+        <v>5.4</v>
+      </c>
+      <c r="C127" s="11">
+        <v>-1.8</v>
+      </c>
+      <c r="D127" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E127" s="25">
+        <v>0</v>
+      </c>
+      <c r="F127" s="25">
+        <v>0</v>
+      </c>
+      <c r="G127" s="25">
+        <v>0</v>
+      </c>
+      <c r="H127" s="25">
+        <v>0</v>
+      </c>
+      <c r="I127" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A129" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B129" s="12">
+        <f>B103+B110+B125+B127</f>
+        <v>68.40000000000137</v>
+      </c>
+      <c r="C129" s="12">
+        <f>C103+C110+C125+C127</f>
+        <v>-90.199999999999861</v>
+      </c>
+      <c r="D129" s="12">
+        <f>D103+D110+D125+D127</f>
+        <v>58.79999999999977</v>
+      </c>
+      <c r="E129" s="12">
+        <f t="shared" ref="E129:I129" si="66">E103+E110+E125+E127</f>
+        <v>371.30775799999998</v>
+      </c>
+      <c r="F129" s="12">
+        <f t="shared" si="66"/>
+        <v>414.98826227000012</v>
+      </c>
+      <c r="G129" s="12">
+        <f t="shared" si="66"/>
+        <v>461.50799931755006</v>
+      </c>
+      <c r="H129" s="12">
+        <f t="shared" si="66"/>
+        <v>511.05151927319076</v>
+      </c>
+      <c r="I129" s="12">
+        <f t="shared" si="66"/>
+        <v>563.81536802594769</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A131" t="s">
+        <v>101</v>
+      </c>
+      <c r="B131" s="11">
+        <v>118.4</v>
+      </c>
+      <c r="C131" s="11">
+        <v>186.8</v>
+      </c>
+      <c r="D131" s="11">
+        <v>96.6</v>
+      </c>
+      <c r="E131" s="12">
+        <f>D132</f>
+        <v>155.39999999999975</v>
+      </c>
+      <c r="F131" s="12">
+        <f>E132</f>
+        <v>526.70775799999979</v>
+      </c>
+      <c r="G131" s="12">
+        <f>F132</f>
+        <v>941.69602026999996</v>
+      </c>
+      <c r="H131" s="12">
+        <f>G132</f>
+        <v>1403.20401958755</v>
+      </c>
+      <c r="I131" s="12">
+        <f>H132</f>
+        <v>1914.2555388607407</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A132" t="s">
+        <v>102</v>
+      </c>
+      <c r="B132" s="12">
+        <f>B131+B129</f>
+        <v>186.80000000000138</v>
+      </c>
+      <c r="C132" s="12">
+        <f t="shared" ref="C132:D132" si="67">C131+C129</f>
+        <v>96.600000000000151</v>
+      </c>
+      <c r="D132" s="12">
+        <f t="shared" si="67"/>
+        <v>155.39999999999975</v>
+      </c>
+      <c r="E132" s="12">
+        <f>E131+E129</f>
+        <v>526.70775799999979</v>
+      </c>
+      <c r="F132" s="12">
+        <f>F131+F129</f>
+        <v>941.69602026999996</v>
+      </c>
+      <c r="G132" s="12">
+        <f>G131+G129</f>
+        <v>1403.20401958755</v>
+      </c>
+      <c r="H132" s="12">
+        <f>H131+H129</f>
+        <v>1914.2555388607407</v>
+      </c>
+      <c r="I132" s="12">
+        <f>I131+I129</f>
+        <v>2478.0709068866881</v>
       </c>
     </row>
   </sheetData>

--- a/MKC.xlsx
+++ b/MKC.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jatha\OneDrive\Desktop\parcap-github\python-academy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njathar\Desktop\parcap-github\python-academy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907AC7A1-8769-406D-8CE6-5873137E4A1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="21786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="21780" windowHeight="13980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,13 +32,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Nick Jathar</author>
     <author>Nikhil Jathar</author>
   </authors>
   <commentList>
-    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A15" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="A15" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A39" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="A39" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -111,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A62" authorId="1" shapeId="0" xr:uid="{A06CFCBF-F2E1-4127-8729-056A39E8CDF0}">
+    <comment ref="A62" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -135,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A90" authorId="1" shapeId="0" xr:uid="{F10BF80A-0275-4AF2-89B0-0E982F043828}">
+    <comment ref="A90" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -159,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A92" authorId="1" shapeId="0" xr:uid="{C53BD95E-F531-46CD-964B-57FBF21489FD}">
+    <comment ref="A92" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -183,7 +182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A97" authorId="1" shapeId="0" xr:uid="{729903C7-EB4B-4AB3-A6AC-F55FAE0DA0BF}">
+    <comment ref="A97" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -212,7 +211,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="123">
   <si>
     <t>SG&amp;A</t>
   </si>
@@ -448,9 +447,6 @@
     <t>Actual</t>
   </si>
   <si>
-    <t>Estimated</t>
-  </si>
-  <si>
     <t>INCOME STATEMENT</t>
   </si>
   <si>
@@ -626,14 +622,66 @@
   <si>
     <t>Dividends received from unconsolidated affiliates</t>
   </si>
+  <si>
+    <t>Est</t>
+  </si>
+  <si>
+    <t>DEPRECIATION SCHEDULE</t>
+  </si>
+  <si>
+    <t>Capital expenditures, beginning of year</t>
+  </si>
+  <si>
+    <t>Useful life</t>
+  </si>
+  <si>
+    <t>Capital expenditures, years</t>
+  </si>
+  <si>
+    <t>Book (GAAP) depreciation</t>
+  </si>
+  <si>
+    <t>2020 CAPEX</t>
+  </si>
+  <si>
+    <t>2021 CAPEX</t>
+  </si>
+  <si>
+    <t>2022 CAPEX</t>
+  </si>
+  <si>
+    <t>2023 CAPEX</t>
+  </si>
+  <si>
+    <t>2024 CAPEX</t>
+  </si>
+  <si>
+    <t>Total projected book (GAAP) depreciation</t>
+  </si>
+  <si>
+    <t>PP&amp;E, buildings (including capital lease), beginning of year</t>
+  </si>
+  <si>
+    <t>PP&amp;E, buildings, years</t>
+  </si>
+  <si>
+    <t>PP&amp;E, machinery, beginning of year</t>
+  </si>
+  <si>
+    <t>PP&amp;E, buildings</t>
+  </si>
+  <si>
+    <t>PP&amp;E, machinery</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -753,7 +801,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -793,6 +841,8 @@
     <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1107,23 +1157,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I132"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I154"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B112" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B141" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A135" sqref="A135"/>
+      <selection pane="bottomRight" activeCell="K88" sqref="K88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62.17578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="10.41015625" customWidth="1"/>
+    <col min="1" max="1" width="62.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="2">
         <v>2017</v>
       </c>
@@ -1149,9 +1199,9 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>54</v>
@@ -1163,22 +1213,22 @@
         <v>54</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1212,7 +1262,7 @@
         <v>7326.4014239487115</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>23</v>
       </c>
@@ -1241,7 +1291,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1275,7 +1325,7 @@
         <v>4469.1048686087142</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
@@ -1307,7 +1357,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>16</v>
       </c>
@@ -1341,7 +1391,7 @@
         <v>6.5000000000000169E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1378,7 +1428,7 @@
         <v>2857.2965553399972</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1415,7 +1465,7 @@
         <v>0.38999999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1449,7 +1499,7 @@
         <v>6.4999999999999725E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1459,7 +1509,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1496,7 +1546,7 @@
         <v>1392.0162705502553</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -1528,7 +1578,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -1562,7 +1612,7 @@
         <v>6.4999999999999947E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1591,7 +1641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>6</v>
       </c>
@@ -1620,7 +1670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>1</v>
       </c>
@@ -1657,7 +1707,7 @@
         <v>1392.0162705502553</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>26</v>
       </c>
@@ -1694,7 +1744,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
@@ -1728,7 +1778,7 @@
         <v>6.4999999999999947E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1738,7 +1788,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -1775,7 +1825,7 @@
         <v>1465.2802847897419</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1812,7 +1862,7 @@
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1846,7 +1896,7 @@
         <v>6.4999999999999503E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1856,7 +1906,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -1875,7 +1925,7 @@
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1897,7 +1947,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -1907,7 +1957,7 @@
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -1944,7 +1994,7 @@
         <v>1465.2802847897419</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1981,7 +2031,7 @@
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -2015,7 +2065,7 @@
         <v>6.4999999999999503E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -2025,7 +2075,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -2044,7 +2094,7 @@
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -2063,7 +2113,7 @@
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>9</v>
       </c>
@@ -2082,7 +2132,7 @@
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>14</v>
       </c>
@@ -2104,7 +2154,7 @@
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>30</v>
       </c>
@@ -2126,7 +2176,7 @@
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>52</v>
       </c>
@@ -2145,7 +2195,7 @@
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -2155,7 +2205,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -2192,7 +2242,7 @@
         <v>1465.2802847897419</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -2229,7 +2279,7 @@
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>32</v>
       </c>
@@ -2263,7 +2313,7 @@
         <v>6.4999999999999503E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -2297,7 +2347,7 @@
         <v>366.32007119743548</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -2329,7 +2379,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>34</v>
       </c>
@@ -2366,7 +2416,7 @@
         <v>1098.9602135923064</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>35</v>
       </c>
@@ -2403,7 +2453,7 @@
         <v>0.14999999999999997</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>36</v>
       </c>
@@ -2437,7 +2487,7 @@
         <v>6.4999999999999503E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>11</v>
       </c>
@@ -2471,7 +2521,7 @@
         <v>76.927214951461465</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>40</v>
       </c>
@@ -2503,7 +2553,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>41</v>
       </c>
@@ -2537,7 +2587,7 @@
         <v>6.4999999999999725E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
@@ -2547,7 +2597,7 @@
       <c r="H53" s="11"/>
       <c r="I53" s="11"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>38</v>
       </c>
@@ -2584,7 +2634,7 @@
         <v>1175.887428543768</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -2621,7 +2671,7 @@
         <v>0.16049999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>39</v>
       </c>
@@ -2655,9 +2705,9 @@
         <v>6.4999999999999725E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" s="11">
         <v>1.6</v>
@@ -2689,9 +2739,9 @@
         <v>3.7185163398062842</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" s="3">
         <f t="shared" ref="B59:I59" si="42">B58/B46</f>
@@ -2726,14 +2776,14 @@
         <v>3.3836678469469903E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A62" t="s">
-        <v>61</v>
       </c>
       <c r="B62" s="11">
         <v>103.2</v>
@@ -2750,9 +2800,9 @@
       <c r="H62" s="11"/>
       <c r="I62" s="11"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="11">
         <v>174.6</v>
@@ -2769,9 +2819,9 @@
       <c r="H63" s="11"/>
       <c r="I63" s="11"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="11">
         <v>-12.5</v>
@@ -2788,9 +2838,9 @@
       <c r="H64" s="11"/>
       <c r="I64" s="11"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="11">
         <v>-30.8</v>
@@ -2807,9 +2857,9 @@
       <c r="H65" s="11"/>
       <c r="I65" s="11"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="12">
         <f t="shared" ref="B66:I66" si="43">SUM(B62:B65)</f>
@@ -2844,9 +2894,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B68" s="12">
         <f>B54+B58+B66</f>
@@ -2881,7 +2931,7 @@
         <v>1179.6059448835742</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>3</v>
       </c>
@@ -2915,7 +2965,7 @@
         <v>132.6</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -2949,7 +2999,7 @@
         <v>134.1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>44</v>
       </c>
@@ -2986,7 +3036,7 @@
         <v>8.2877844162315721</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>46</v>
       </c>
@@ -3020,7 +3070,7 @@
         <v>6.4999999999999503E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>45</v>
       </c>
@@ -3057,7 +3107,7 @@
         <v>8.195079892560079</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>47</v>
       </c>
@@ -3091,7 +3141,7 @@
         <v>6.4999999999999725E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -3101,7 +3151,7 @@
       <c r="H77" s="7"/>
       <c r="I77" s="7"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>42</v>
       </c>
@@ -3138,7 +3188,7 @@
         <v>8.8679293253677827</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>48</v>
       </c>
@@ -3172,7 +3222,7 @@
         <v>6.4999999999999503E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>43</v>
       </c>
@@ -3209,7 +3259,7 @@
         <v>8.7687354850392847</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>49</v>
       </c>
@@ -3242,7 +3292,7 @@
         <v>6.4999999999999725E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B84" s="2">
         <f>B1</f>
         <v>2017</v>
@@ -3276,9 +3326,9 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B85" s="20" t="str">
         <f>B2</f>
@@ -3294,31 +3344,31 @@
       </c>
       <c r="E85" s="20" t="str">
         <f t="shared" si="56"/>
-        <v>Estimated</v>
+        <v>Est</v>
       </c>
       <c r="F85" s="20" t="str">
         <f t="shared" si="56"/>
-        <v>Estimated</v>
+        <v>Est</v>
       </c>
       <c r="G85" s="20" t="str">
         <f t="shared" si="56"/>
-        <v>Estimated</v>
+        <v>Est</v>
       </c>
       <c r="H85" s="20" t="str">
         <f t="shared" si="56"/>
-        <v>Estimated</v>
+        <v>Est</v>
       </c>
       <c r="I85" s="20" t="str">
         <f t="shared" si="56"/>
-        <v>Estimated</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.5">
+        <v>Est</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.5">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>38</v>
       </c>
@@ -3355,9 +3405,9 @@
         <v>1175.887428543768</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B88" s="12">
         <f>B25</f>
@@ -3377,9 +3427,9 @@
       <c r="H88" s="12"/>
       <c r="I88" s="12"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B89" s="11">
         <v>23.9</v>
@@ -3396,9 +3446,9 @@
       <c r="H89" s="11"/>
       <c r="I89" s="11"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B90" s="11"/>
       <c r="C90" s="11">
@@ -3421,9 +3471,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B91" s="11">
         <v>20.9</v>
@@ -3446,9 +3496,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B92" s="11">
         <v>19.100000000000001</v>
@@ -3473,9 +3523,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B93" s="11">
         <v>1.3</v>
@@ -3492,9 +3542,9 @@
       <c r="H93" s="11"/>
       <c r="I93" s="11"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B94" s="11">
         <v>24.1</v>
@@ -3511,7 +3561,7 @@
       <c r="H94" s="11"/>
       <c r="I94" s="11"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>11</v>
       </c>
@@ -3548,9 +3598,9 @@
         <v>-76.927214951461465</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B96" s="11">
         <v>-2.9</v>
@@ -3573,14 +3623,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="8" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A98" s="8" t="s">
-        <v>77</v>
       </c>
       <c r="B98" s="11">
         <v>-13</v>
@@ -3592,9 +3642,9 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B99" s="11">
         <v>44.6</v>
@@ -3606,9 +3656,9 @@
         <v>-20.9</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B100" s="11">
         <v>98.2</v>
@@ -3620,9 +3670,9 @@
         <v>128.19999999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B101" s="11">
         <v>6.8</v>
@@ -3634,9 +3684,9 @@
         <v>-81.5</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B102" s="11">
         <v>23.6</v>
@@ -3653,9 +3703,9 @@
       <c r="H102" s="12"/>
       <c r="I102" s="12"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B103" s="12">
         <f>B87+SUM(B88:B102)</f>
@@ -3690,7 +3740,7 @@
         <v>1098.9602135923064</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="21"/>
       <c r="B104" s="12"/>
       <c r="C104" s="12"/>
@@ -3701,14 +3751,14 @@
       <c r="H104" s="12"/>
       <c r="I104" s="12"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="22" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B106" s="11">
         <v>-4327.3999999999996</v>
@@ -3733,9 +3783,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B107" s="11">
         <v>-182.4</v>
@@ -3767,9 +3817,9 @@
         <v>-234.44484556635877</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B108" s="23">
         <f>-B107/B3</f>
@@ -3799,9 +3849,9 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B109" s="11">
         <v>1.5</v>
@@ -3833,9 +3883,9 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B110" s="12">
         <f>B106+B107+B109</f>
@@ -3870,14 +3920,14 @@
         <v>-232.94484556635877</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="22" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.5">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B113" s="11">
         <v>-134.6</v>
@@ -3889,9 +3939,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B114" s="11">
         <v>3989.6</v>
@@ -3901,9 +3951,9 @@
       </c>
       <c r="D114" s="11"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B115" s="11">
         <v>-7.7</v>
@@ -3911,9 +3961,9 @@
       <c r="C115" s="11"/>
       <c r="D115" s="11"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B116" s="11">
         <v>-272.7</v>
@@ -3925,9 +3975,9 @@
         <v>-447.7</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B117" s="11">
         <v>29.5</v>
@@ -3939,9 +3989,9 @@
         <v>90.9</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B118" s="11">
         <v>-5.8</v>
@@ -3953,9 +4003,9 @@
         <v>-12.7</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B119" s="11">
         <v>-19.7</v>
@@ -3965,9 +4015,9 @@
       </c>
       <c r="D119" s="11"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B120" s="11">
         <v>-1.2</v>
@@ -3977,9 +4027,9 @@
       </c>
       <c r="D120" s="11"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B121" s="11">
         <v>554</v>
@@ -4002,9 +4052,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B122" s="11">
         <v>-137.80000000000001</v>
@@ -4016,9 +4066,9 @@
         <v>-95.1</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B123" s="11">
         <v>-237.6</v>
@@ -4050,9 +4100,9 @@
         <v>-302.2</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B124" s="26">
         <f>-B123/B70</f>
@@ -4087,9 +4137,9 @@
         <v>2.2790346907993966</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B125" s="12">
         <f>SUM(B113:B123)</f>
@@ -4124,9 +4174,9 @@
         <v>-302.2</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B127" s="11">
         <v>5.4</v>
@@ -4153,9 +4203,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B129" s="12">
         <f>B103+B110+B125+B127</f>
@@ -4190,9 +4240,9 @@
         <v>563.81536802594769</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B131" s="11">
         <v>118.4</v>
@@ -4224,9 +4274,9 @@
         <v>1914.2555388607407</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B132" s="12">
         <f>B131+B129</f>
@@ -4260,6 +4310,323 @@
         <f>I131+I129</f>
         <v>2478.0709068866881</v>
       </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B135" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C135" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D135" s="2">
+        <v>2019</v>
+      </c>
+      <c r="E135" s="2">
+        <v>2020</v>
+      </c>
+      <c r="F135" s="2">
+        <v>2021</v>
+      </c>
+      <c r="G135" s="2">
+        <v>2022</v>
+      </c>
+      <c r="H135" s="2">
+        <v>2023</v>
+      </c>
+      <c r="I135" s="2">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B136" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C136" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D136" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E136" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="F136" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="G136" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="H136" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="I136" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>118</v>
+      </c>
+      <c r="E137" s="12">
+        <f>658.8-(658.5/(658.5+1007.8))*867</f>
+        <v>316.17292204284939</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>120</v>
+      </c>
+      <c r="E138" s="12">
+        <f>1007.8-(1007.8/(658.5+1007.8))*867</f>
+        <v>483.42707795715057</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>108</v>
+      </c>
+      <c r="E139" s="12">
+        <f>-E107</f>
+        <v>182.23939200000001</v>
+      </c>
+      <c r="F139" s="12">
+        <f t="shared" ref="F139:I139" si="68">-F107</f>
+        <v>194.08495247999997</v>
+      </c>
+      <c r="G139" s="12">
+        <f t="shared" si="68"/>
+        <v>206.70047439119998</v>
+      </c>
+      <c r="H139" s="12">
+        <f t="shared" si="68"/>
+        <v>220.13600522662796</v>
+      </c>
+      <c r="I139" s="12">
+        <f t="shared" si="68"/>
+        <v>234.44484556635877</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E141" s="29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E142" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E143" s="29">
+        <v>20</v>
+      </c>
+      <c r="F143" s="29">
+        <v>20</v>
+      </c>
+      <c r="G143" s="29">
+        <v>20</v>
+      </c>
+      <c r="H143" s="29">
+        <v>20</v>
+      </c>
+      <c r="I143" s="29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>121</v>
+      </c>
+      <c r="E145" s="30">
+        <f>$E$137/$E$141</f>
+        <v>15.80864610214247</v>
+      </c>
+      <c r="F145" s="30">
+        <f>$E$137/$E$141</f>
+        <v>15.80864610214247</v>
+      </c>
+      <c r="G145" s="30">
+        <f>$E$137/$E$141</f>
+        <v>15.80864610214247</v>
+      </c>
+      <c r="H145" s="30">
+        <f>$E$137/$E$141</f>
+        <v>15.80864610214247</v>
+      </c>
+      <c r="I145" s="30">
+        <f>$E$137/$E$141</f>
+        <v>15.80864610214247</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>122</v>
+      </c>
+      <c r="E146" s="30">
+        <f>$E$138/$E$142</f>
+        <v>69.0610111367358</v>
+      </c>
+      <c r="F146" s="30">
+        <f t="shared" ref="F146:I146" si="69">$E$138/$E$142</f>
+        <v>69.0610111367358</v>
+      </c>
+      <c r="G146" s="30">
+        <f t="shared" si="69"/>
+        <v>69.0610111367358</v>
+      </c>
+      <c r="H146" s="30">
+        <f t="shared" si="69"/>
+        <v>69.0610111367358</v>
+      </c>
+      <c r="I146" s="30">
+        <f t="shared" si="69"/>
+        <v>69.0610111367358</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>112</v>
+      </c>
+      <c r="E147" s="30">
+        <f>$E$139/$E$143</f>
+        <v>9.1119696000000001</v>
+      </c>
+      <c r="F147" s="30">
+        <f>$E$139/$E$143</f>
+        <v>9.1119696000000001</v>
+      </c>
+      <c r="G147" s="30">
+        <f>$E$139/$E$143</f>
+        <v>9.1119696000000001</v>
+      </c>
+      <c r="H147" s="30">
+        <f>$E$139/$E$143</f>
+        <v>9.1119696000000001</v>
+      </c>
+      <c r="I147" s="30">
+        <f>$E$139/$E$143</f>
+        <v>9.1119696000000001</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>113</v>
+      </c>
+      <c r="E148" s="30"/>
+      <c r="F148" s="30">
+        <f>$F$139/$F$143</f>
+        <v>9.7042476239999989</v>
+      </c>
+      <c r="G148" s="30">
+        <f>$F$139/$F$143</f>
+        <v>9.7042476239999989</v>
+      </c>
+      <c r="H148" s="30">
+        <f>$F$139/$F$143</f>
+        <v>9.7042476239999989</v>
+      </c>
+      <c r="I148" s="30">
+        <f>$F$139/$F$143</f>
+        <v>9.7042476239999989</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>114</v>
+      </c>
+      <c r="E149" s="30"/>
+      <c r="F149" s="30"/>
+      <c r="G149" s="30">
+        <f>$G$139/$G$143</f>
+        <v>10.335023719559999</v>
+      </c>
+      <c r="H149" s="30">
+        <f t="shared" ref="H149:I149" si="70">$G$139/$G$143</f>
+        <v>10.335023719559999</v>
+      </c>
+      <c r="I149" s="30">
+        <f t="shared" si="70"/>
+        <v>10.335023719559999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>115</v>
+      </c>
+      <c r="E150" s="30"/>
+      <c r="F150" s="30"/>
+      <c r="G150" s="30"/>
+      <c r="H150" s="30">
+        <f>$H$139/$H$143</f>
+        <v>11.006800261331398</v>
+      </c>
+      <c r="I150" s="30">
+        <f>$H$139/$H$143</f>
+        <v>11.006800261331398</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>116</v>
+      </c>
+      <c r="E151" s="30"/>
+      <c r="F151" s="30"/>
+      <c r="G151" s="30"/>
+      <c r="H151" s="30"/>
+      <c r="I151" s="30">
+        <f>$I$139/$I$143</f>
+        <v>11.722242278317939</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="E152" s="30">
+        <f>SUM(E145:E151)</f>
+        <v>93.98162683887827</v>
+      </c>
+      <c r="F152" s="30">
+        <f>SUM(F145:F151)</f>
+        <v>103.68587446287827</v>
+      </c>
+      <c r="G152" s="30">
+        <f>SUM(G145:G151)</f>
+        <v>114.02089818243827</v>
+      </c>
+      <c r="H152" s="30">
+        <f>SUM(H145:H151)</f>
+        <v>125.02769844376967</v>
+      </c>
+      <c r="I152" s="30">
+        <f>SUM(I145:I151)</f>
+        <v>136.74994072208762</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E154" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MKC.xlsx
+++ b/MKC.xlsx
@@ -206,12 +206,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="A139" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Jathar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+less allowances of $5.6 and $6.4 for 2019 and 2018 respectively</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="139">
   <si>
     <t>SG&amp;A</t>
   </si>
@@ -673,6 +697,145 @@
   <si>
     <t>PP&amp;E, machinery</t>
   </si>
+  <si>
+    <t>BALANCE SHEET</t>
+  </si>
+  <si>
+    <t>ASSETS</t>
+  </si>
+  <si>
+    <r>
+      <t>Cash and cash equivalents [</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cash</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Trade accounts receivable [</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Receivables</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>Prepaid expenses and other current assets</t>
+  </si>
+  <si>
+    <t>Total current assets</t>
+  </si>
+  <si>
+    <r>
+      <t>Property, plant, and equipment, net [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PP&amp;E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>Land and improvements</t>
+  </si>
+  <si>
+    <t>Buildings (including capital leases)</t>
+  </si>
+  <si>
+    <t>Machinery, equipment and other</t>
+  </si>
+  <si>
+    <t>Construction-in-progress</t>
+  </si>
+  <si>
+    <t>Accumulated depreciation</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <r>
+      <t>Intangible assets, net [</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Intangibles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>Other long-term assets</t>
+  </si>
+  <si>
+    <t>Total assets</t>
+  </si>
 </sst>
 </file>
 
@@ -683,7 +846,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -755,6 +918,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -801,7 +971,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -843,6 +1013,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1158,13 +1332,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I154"/>
+  <dimension ref="A1:I202"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B141" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B130" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K88" sqref="K88"/>
+      <selection pane="bottomRight" activeCell="D152" sqref="D152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4339,7 +4513,7 @@
     </row>
     <row r="136" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="19" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="B136" s="20" t="s">
         <v>54</v>
@@ -4367,266 +4541,515 @@
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+      <c r="A137" s="22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>125</v>
+      </c>
+      <c r="B138" s="12"/>
+      <c r="C138" s="11">
+        <v>96.6</v>
+      </c>
+      <c r="D138" s="11">
+        <v>155.4</v>
+      </c>
+      <c r="E138" s="12"/>
+      <c r="F138" s="12"/>
+      <c r="G138" s="12"/>
+      <c r="H138" s="12"/>
+      <c r="I138" s="12"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>126</v>
+      </c>
+      <c r="B139" s="12"/>
+      <c r="C139" s="11">
+        <v>518.1</v>
+      </c>
+      <c r="D139" s="11">
+        <v>502.9</v>
+      </c>
+      <c r="E139" s="12"/>
+      <c r="F139" s="12"/>
+      <c r="G139" s="12"/>
+      <c r="H139" s="12"/>
+      <c r="I139" s="12"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>77</v>
+      </c>
+      <c r="B140" s="11"/>
+      <c r="C140" s="11">
+        <v>786.3</v>
+      </c>
+      <c r="D140" s="11">
+        <v>801.2</v>
+      </c>
+      <c r="E140" s="11"/>
+      <c r="F140" s="11"/>
+      <c r="G140" s="11"/>
+      <c r="H140" s="11"/>
+      <c r="I140" s="11"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>127</v>
+      </c>
+      <c r="C141" s="11">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="D141" s="11">
+        <v>90.7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C142" s="12">
+        <f>SUM(C138:C141)</f>
+        <v>1479.9</v>
+      </c>
+      <c r="D142" s="12">
+        <f>SUM(D138:D141)</f>
+        <v>1550.2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="C143" s="12">
+        <f>SUM(C144:C148)</f>
+        <v>941.50000000000011</v>
+      </c>
+      <c r="D143" s="12">
+        <f>SUM(D144:D148)</f>
+        <v>952.59999999999991</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C144" s="11">
+        <v>62.6</v>
+      </c>
+      <c r="D144" s="11">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C145" s="11">
+        <v>626.20000000000005</v>
+      </c>
+      <c r="D145" s="11">
+        <v>658.5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C146" s="11">
+        <v>947.5</v>
+      </c>
+      <c r="D146" s="11">
+        <v>1007.8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C147" s="11">
+        <v>105.1</v>
+      </c>
+      <c r="D147" s="11">
+        <v>85.8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C148" s="11">
+        <v>-799.9</v>
+      </c>
+      <c r="D148" s="11">
+        <v>-867</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>135</v>
+      </c>
+      <c r="C149" s="11">
+        <v>4527.8999999999996</v>
+      </c>
+      <c r="D149" s="11">
+        <v>4505.2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>136</v>
+      </c>
+      <c r="C150" s="11">
+        <v>2873.3</v>
+      </c>
+      <c r="D150" s="11">
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>137</v>
+      </c>
+      <c r="C151" s="11">
+        <v>433.8</v>
+      </c>
+      <c r="D151" s="11">
+        <v>507.1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="C152" s="12">
+        <f>SUM(C142:C143)+SUM(C149:C151)</f>
+        <v>10256.4</v>
+      </c>
+      <c r="D152" s="12">
+        <f>SUM(D142:D143)+SUM(D149:D151)</f>
+        <v>10362.1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B183" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C183" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D183" s="2">
+        <v>2019</v>
+      </c>
+      <c r="E183" s="2">
+        <v>2020</v>
+      </c>
+      <c r="F183" s="2">
+        <v>2021</v>
+      </c>
+      <c r="G183" s="2">
+        <v>2022</v>
+      </c>
+      <c r="H183" s="2">
+        <v>2023</v>
+      </c>
+      <c r="I183" s="2">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B184" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C184" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D184" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E184" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="F184" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="G184" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="H184" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="I184" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
         <v>118</v>
       </c>
-      <c r="E137" s="12">
+      <c r="E185" s="12">
         <f>658.8-(658.5/(658.5+1007.8))*867</f>
         <v>316.17292204284939</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
         <v>120</v>
       </c>
-      <c r="E138" s="12">
+      <c r="E186" s="12">
         <f>1007.8-(1007.8/(658.5+1007.8))*867</f>
         <v>483.42707795715057</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
         <v>108</v>
       </c>
-      <c r="E139" s="12">
+      <c r="E187" s="12">
         <f>-E107</f>
         <v>182.23939200000001</v>
       </c>
-      <c r="F139" s="12">
-        <f t="shared" ref="F139:I139" si="68">-F107</f>
+      <c r="F187" s="12">
+        <f t="shared" ref="F187:I187" si="68">-F107</f>
         <v>194.08495247999997</v>
       </c>
-      <c r="G139" s="12">
+      <c r="G187" s="12">
         <f t="shared" si="68"/>
         <v>206.70047439119998</v>
       </c>
-      <c r="H139" s="12">
+      <c r="H187" s="12">
         <f t="shared" si="68"/>
         <v>220.13600522662796</v>
       </c>
-      <c r="I139" s="12">
+      <c r="I187" s="12">
         <f t="shared" si="68"/>
         <v>234.44484556635877</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" s="22" t="s">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" s="22" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A141" s="8" t="s">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="E141" s="29">
+      <c r="E189" s="29">
         <v>20</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" s="8" t="s">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="E142" s="29">
+      <c r="E190" s="29">
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" s="8" t="s">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E143" s="29">
+      <c r="E191" s="29">
         <v>20</v>
       </c>
-      <c r="F143" s="29">
+      <c r="F191" s="29">
         <v>20</v>
       </c>
-      <c r="G143" s="29">
+      <c r="G191" s="29">
         <v>20</v>
       </c>
-      <c r="H143" s="29">
+      <c r="H191" s="29">
         <v>20</v>
       </c>
-      <c r="I143" s="29">
+      <c r="I191" s="29">
         <v>20</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" s="22" t="s">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192" s="22" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
         <v>121</v>
       </c>
-      <c r="E145" s="30">
-        <f>$E$137/$E$141</f>
+      <c r="E193" s="30">
+        <f>$E$185/$E$189</f>
         <v>15.80864610214247</v>
       </c>
-      <c r="F145" s="30">
-        <f>$E$137/$E$141</f>
+      <c r="F193" s="30">
+        <f>$E$185/$E$189</f>
         <v>15.80864610214247</v>
       </c>
-      <c r="G145" s="30">
-        <f>$E$137/$E$141</f>
+      <c r="G193" s="30">
+        <f>$E$185/$E$189</f>
         <v>15.80864610214247</v>
       </c>
-      <c r="H145" s="30">
-        <f>$E$137/$E$141</f>
+      <c r="H193" s="30">
+        <f>$E$185/$E$189</f>
         <v>15.80864610214247</v>
       </c>
-      <c r="I145" s="30">
-        <f>$E$137/$E$141</f>
+      <c r="I193" s="30">
+        <f>$E$185/$E$189</f>
         <v>15.80864610214247</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
         <v>122</v>
       </c>
-      <c r="E146" s="30">
-        <f>$E$138/$E$142</f>
+      <c r="E194" s="30">
+        <f>$E$186/$E$190</f>
         <v>69.0610111367358</v>
       </c>
-      <c r="F146" s="30">
-        <f t="shared" ref="F146:I146" si="69">$E$138/$E$142</f>
+      <c r="F194" s="30">
+        <f t="shared" ref="F194:I194" si="69">$E$186/$E$190</f>
         <v>69.0610111367358</v>
       </c>
-      <c r="G146" s="30">
+      <c r="G194" s="30">
         <f t="shared" si="69"/>
         <v>69.0610111367358</v>
       </c>
-      <c r="H146" s="30">
+      <c r="H194" s="30">
         <f t="shared" si="69"/>
         <v>69.0610111367358</v>
       </c>
-      <c r="I146" s="30">
+      <c r="I194" s="30">
         <f t="shared" si="69"/>
         <v>69.0610111367358</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
         <v>112</v>
       </c>
-      <c r="E147" s="30">
-        <f>$E$139/$E$143</f>
+      <c r="E195" s="30">
+        <f>$E$187/$E$191</f>
         <v>9.1119696000000001</v>
       </c>
-      <c r="F147" s="30">
-        <f>$E$139/$E$143</f>
+      <c r="F195" s="30">
+        <f>$E$187/$E$191</f>
         <v>9.1119696000000001</v>
       </c>
-      <c r="G147" s="30">
-        <f>$E$139/$E$143</f>
+      <c r="G195" s="30">
+        <f>$E$187/$E$191</f>
         <v>9.1119696000000001</v>
       </c>
-      <c r="H147" s="30">
-        <f>$E$139/$E$143</f>
+      <c r="H195" s="30">
+        <f>$E$187/$E$191</f>
         <v>9.1119696000000001</v>
       </c>
-      <c r="I147" s="30">
-        <f>$E$139/$E$143</f>
+      <c r="I195" s="30">
+        <f>$E$187/$E$191</f>
         <v>9.1119696000000001</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
         <v>113</v>
       </c>
-      <c r="E148" s="30"/>
-      <c r="F148" s="30">
-        <f>$F$139/$F$143</f>
+      <c r="E196" s="30"/>
+      <c r="F196" s="30">
+        <f>$F$187/$F$191</f>
         <v>9.7042476239999989</v>
       </c>
-      <c r="G148" s="30">
-        <f>$F$139/$F$143</f>
+      <c r="G196" s="30">
+        <f>$F$187/$F$191</f>
         <v>9.7042476239999989</v>
       </c>
-      <c r="H148" s="30">
-        <f>$F$139/$F$143</f>
+      <c r="H196" s="30">
+        <f>$F$187/$F$191</f>
         <v>9.7042476239999989</v>
       </c>
-      <c r="I148" s="30">
-        <f>$F$139/$F$143</f>
+      <c r="I196" s="30">
+        <f>$F$187/$F$191</f>
         <v>9.7042476239999989</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
         <v>114</v>
       </c>
-      <c r="E149" s="30"/>
-      <c r="F149" s="30"/>
-      <c r="G149" s="30">
-        <f>$G$139/$G$143</f>
+      <c r="E197" s="30"/>
+      <c r="F197" s="30"/>
+      <c r="G197" s="30">
+        <f>$G$187/$G$191</f>
         <v>10.335023719559999</v>
       </c>
-      <c r="H149" s="30">
-        <f t="shared" ref="H149:I149" si="70">$G$139/$G$143</f>
+      <c r="H197" s="30">
+        <f t="shared" ref="H197:I197" si="70">$G$187/$G$191</f>
         <v>10.335023719559999</v>
       </c>
-      <c r="I149" s="30">
+      <c r="I197" s="30">
         <f t="shared" si="70"/>
         <v>10.335023719559999</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
         <v>115</v>
       </c>
-      <c r="E150" s="30"/>
-      <c r="F150" s="30"/>
-      <c r="G150" s="30"/>
-      <c r="H150" s="30">
-        <f>$H$139/$H$143</f>
+      <c r="E198" s="30"/>
+      <c r="F198" s="30"/>
+      <c r="G198" s="30"/>
+      <c r="H198" s="30">
+        <f>$H$187/$H$191</f>
         <v>11.006800261331398</v>
       </c>
-      <c r="I150" s="30">
-        <f>$H$139/$H$143</f>
+      <c r="I198" s="30">
+        <f>$H$187/$H$191</f>
         <v>11.006800261331398</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
         <v>116</v>
       </c>
-      <c r="E151" s="30"/>
-      <c r="F151" s="30"/>
-      <c r="G151" s="30"/>
-      <c r="H151" s="30"/>
-      <c r="I151" s="30">
-        <f>$I$139/$I$143</f>
+      <c r="E199" s="30"/>
+      <c r="F199" s="30"/>
+      <c r="G199" s="30"/>
+      <c r="H199" s="30"/>
+      <c r="I199" s="30">
+        <f>$I$187/$I$191</f>
         <v>11.722242278317939</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="22" t="s">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="E152" s="30">
-        <f>SUM(E145:E151)</f>
+      <c r="E200" s="30">
+        <f>SUM(E193:E199)</f>
         <v>93.98162683887827</v>
       </c>
-      <c r="F152" s="30">
-        <f>SUM(F145:F151)</f>
+      <c r="F200" s="30">
+        <f>SUM(F193:F199)</f>
         <v>103.68587446287827</v>
       </c>
-      <c r="G152" s="30">
-        <f>SUM(G145:G151)</f>
+      <c r="G200" s="30">
+        <f>SUM(G193:G199)</f>
         <v>114.02089818243827</v>
       </c>
-      <c r="H152" s="30">
-        <f>SUM(H145:H151)</f>
+      <c r="H200" s="30">
+        <f>SUM(H193:H199)</f>
         <v>125.02769844376967</v>
       </c>
-      <c r="I152" s="30">
-        <f>SUM(I145:I151)</f>
+      <c r="I200" s="30">
+        <f>SUM(I193:I199)</f>
         <v>136.74994072208762</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E154" s="30"/>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E202" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MKC.xlsx
+++ b/MKC.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njathar\Desktop\parcap-github\python-academy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7874bdcc0642262c/Desktop/parcap-github/python-academy/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="401" documentId="114_{B04F58CF-75ED-48D5-9A46-B59BB6CEDC40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{44793E0E-9F7D-4473-9973-85437C42BD57}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="21780" windowHeight="13980"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="21786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,13 +33,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Nick Jathar</author>
     <author>Nikhil Jathar</author>
   </authors>
   <commentList>
-    <comment ref="A12" authorId="0" shapeId="0">
+    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -62,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A15" authorId="1" shapeId="0">
+    <comment ref="A15" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -86,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A39" authorId="1" shapeId="0">
+    <comment ref="A39" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -110,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A62" authorId="1" shapeId="0">
+    <comment ref="A62" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -134,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A90" authorId="1" shapeId="0">
+    <comment ref="A90" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -158,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A92" authorId="1" shapeId="0">
+    <comment ref="A92" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -182,7 +183,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A97" authorId="1" shapeId="0">
+    <comment ref="A97" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -211,7 +212,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="163">
   <si>
     <t>SG&amp;A</t>
   </si>
@@ -656,15 +657,9 @@
     <t>2024 CAPEX</t>
   </si>
   <si>
-    <t>Total projected book (GAAP) depreciation</t>
-  </si>
-  <si>
     <t>PP&amp;E, buildings (including capital lease), beginning of year</t>
   </si>
   <si>
-    <t>PP&amp;E, buildings, years</t>
-  </si>
-  <si>
     <t>PP&amp;E, machinery, beginning of year</t>
   </si>
   <si>
@@ -672,18 +667,144 @@
   </si>
   <si>
     <t>PP&amp;E, machinery</t>
+  </si>
+  <si>
+    <t>Other long-term assets, capitalized software, net</t>
+  </si>
+  <si>
+    <t>Other long-term assets, capitalized software</t>
+  </si>
+  <si>
+    <t>Definite-lived intangible assets, net</t>
+  </si>
+  <si>
+    <t>Definite-lived intangible assets, years</t>
+  </si>
+  <si>
+    <t>Definite-lived intangible assets</t>
+  </si>
+  <si>
+    <t>PP&amp;E, buildings, years, min</t>
+  </si>
+  <si>
+    <t>PP&amp;E, buildings, years, max</t>
+  </si>
+  <si>
+    <t>PP&amp;E, machinery, years, min</t>
+  </si>
+  <si>
+    <t>PP&amp;E, machinery, years, max</t>
+  </si>
+  <si>
+    <t>Other long-term assets, capitalized software, years, min</t>
+  </si>
+  <si>
+    <t>Other long-term assets, capitalized software, years, max</t>
+  </si>
+  <si>
+    <t>Total projected book (GAAP) depreciation, min</t>
+  </si>
+  <si>
+    <t>PP&amp;E, buildings, max</t>
+  </si>
+  <si>
+    <t>PP&amp;E, buildings, min</t>
+  </si>
+  <si>
+    <t>PP&amp;E, machinery, max</t>
+  </si>
+  <si>
+    <t>PP&amp;E, machinery, min</t>
+  </si>
+  <si>
+    <t>Other long-term assets, capitalized software, max</t>
+  </si>
+  <si>
+    <t>Other long-term assets, capitalized software, min</t>
+  </si>
+  <si>
+    <t>Total projected book (GAAP) depreciation, max</t>
+  </si>
+  <si>
+    <t>Total projected book (GAAP) depreciation, difference, min</t>
+  </si>
+  <si>
+    <t>Total projected book (GAAP) depreciation, difference, max</t>
+  </si>
+  <si>
+    <t>Total projected book (GAAP) depreciation, between</t>
+  </si>
+  <si>
+    <t>PP&amp;E, buildings, between</t>
+  </si>
+  <si>
+    <t>PP&amp;E, machinery, between</t>
+  </si>
+  <si>
+    <t>Other long-term assets, capitalized software, between</t>
+  </si>
+  <si>
+    <t>PP&amp;E, buildings, years, between</t>
+  </si>
+  <si>
+    <t>PP&amp;E, machinery, years, between</t>
+  </si>
+  <si>
+    <t>Other long-term assets, capitalized software, years, between</t>
+  </si>
+  <si>
+    <t>Total projected book (GAAP) depreciation, trend based estimate, low</t>
+  </si>
+  <si>
+    <t>Total projected book (GAAP) depreciation, trend based estimate, high</t>
+  </si>
+  <si>
+    <t>Depreciation trend, low</t>
+  </si>
+  <si>
+    <t>Depreciation trend, high</t>
+  </si>
+  <si>
+    <t>Total projected book (GAAP) depreciation, range results</t>
+  </si>
+  <si>
+    <t>MACRS depreciation</t>
+  </si>
+  <si>
+    <t>Accelerated depreciation (%)</t>
+  </si>
+  <si>
+    <t>Accelerated depreciation</t>
+  </si>
+  <si>
+    <t>Total projected accelerated depreciation</t>
+  </si>
+  <si>
+    <t>Deferred tax liability</t>
+  </si>
+  <si>
+    <t>GAAP depreciation</t>
+  </si>
+  <si>
+    <t>Accelerated minus GAAP</t>
+  </si>
+  <si>
+    <t>Tax rate</t>
+  </si>
+  <si>
+    <t>Projected deferred tax liability</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -755,6 +876,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -801,7 +930,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -843,6 +972,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1157,23 +1295,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I154"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M209"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B141" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K88" sqref="K88"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A83" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I94" sqref="I94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="62.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="62.1171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="10.41015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
       <c r="B1" s="2">
         <v>2017</v>
       </c>
@@ -1199,7 +1334,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="19" t="s">
         <v>55</v>
       </c>
@@ -1228,7 +1363,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1262,7 +1397,7 @@
         <v>7326.4014239487115</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A4" s="18" t="s">
         <v>23</v>
       </c>
@@ -1291,7 +1426,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1325,7 +1460,7 @@
         <v>4469.1048686087142</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
@@ -1357,7 +1492,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A7" s="9" t="s">
         <v>16</v>
       </c>
@@ -1391,7 +1526,7 @@
         <v>6.5000000000000169E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1428,7 +1563,7 @@
         <v>2857.2965553399972</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1465,7 +1600,7 @@
         <v>0.38999999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1499,7 +1634,7 @@
         <v>6.4999999999999725E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1509,7 +1644,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1546,7 +1681,7 @@
         <v>1392.0162705502553</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -1578,7 +1713,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -1612,7 +1747,7 @@
         <v>6.4999999999999947E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1641,7 +1776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="5" t="s">
         <v>6</v>
       </c>
@@ -1670,7 +1805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A17" s="6" t="s">
         <v>1</v>
       </c>
@@ -1707,7 +1842,7 @@
         <v>1392.0162705502553</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A18" s="6" t="s">
         <v>26</v>
       </c>
@@ -1744,7 +1879,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
@@ -1778,7 +1913,7 @@
         <v>6.4999999999999947E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1788,7 +1923,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -1825,7 +1960,7 @@
         <v>1465.2802847897419</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1862,7 +1997,7 @@
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1896,7 +2031,7 @@
         <v>6.4999999999999503E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1906,7 +2041,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -1919,13 +2054,28 @@
       <c r="D25" s="11">
         <v>158.80000000000001</v>
       </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E25" s="24">
+        <f>E170</f>
+        <v>154.65125694321551</v>
+      </c>
+      <c r="F25" s="24">
+        <f t="shared" ref="F25:I25" si="21">F170</f>
+        <v>164.35550456721552</v>
+      </c>
+      <c r="G25" s="24">
+        <f t="shared" si="21"/>
+        <v>174.6905282867755</v>
+      </c>
+      <c r="H25" s="24">
+        <f t="shared" si="21"/>
+        <v>185.6973285481069</v>
+      </c>
+      <c r="I25" s="24">
+        <f t="shared" si="21"/>
+        <v>197.41957082642483</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1934,11 +2084,11 @@
         <v>2.6467665898568801E-2</v>
       </c>
       <c r="C26" s="3">
-        <f t="shared" ref="C26:D26" si="21">C25/C$3</f>
+        <f t="shared" ref="C26:D26" si="22">C25/C$3</f>
         <v>2.8418948480048275E-2</v>
       </c>
       <c r="D26" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2.9696675019635715E-2</v>
       </c>
       <c r="E26" s="3"/>
@@ -1947,7 +2097,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -1957,7 +2107,7 @@
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -1966,35 +2116,35 @@
         <v>699.8</v>
       </c>
       <c r="C28" s="12">
-        <f t="shared" ref="C28:D28" si="22">C21-C25</f>
+        <f t="shared" ref="C28:D28" si="23">C21-C25</f>
         <v>891.10000000000014</v>
       </c>
       <c r="D28" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>957.69999999999982</v>
       </c>
       <c r="E28" s="12">
-        <f t="shared" ref="E28:I28" si="23">E21-E25</f>
-        <v>1138.9962</v>
+        <f t="shared" ref="E28:I28" si="24">E21-E25</f>
+        <v>984.34494305678459</v>
       </c>
       <c r="F28" s="12">
-        <f t="shared" si="23"/>
-        <v>1213.0309530000002</v>
+        <f t="shared" si="24"/>
+        <v>1048.6754484327846</v>
       </c>
       <c r="G28" s="12">
-        <f t="shared" si="23"/>
-        <v>1291.877964945</v>
+        <f t="shared" si="24"/>
+        <v>1117.1874366582244</v>
       </c>
       <c r="H28" s="12">
-        <f t="shared" si="23"/>
-        <v>1375.850032666425</v>
+        <f t="shared" si="24"/>
+        <v>1190.1527041183181</v>
       </c>
       <c r="I28" s="12">
-        <f t="shared" si="23"/>
-        <v>1465.2802847897419</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="24"/>
+        <v>1267.860713963317</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -2003,35 +2153,35 @@
         <v>0.1479398769634061</v>
       </c>
       <c r="C29" s="3">
-        <f t="shared" ref="C29:D29" si="24">C28/C$3</f>
+        <f t="shared" ref="C29:D29" si="25">C28/C$3</f>
         <v>0.16804329788036512</v>
       </c>
       <c r="D29" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.17909638328907504</v>
       </c>
       <c r="E29" s="3">
-        <f t="shared" ref="E29:I29" si="25">E28/E$3</f>
-        <v>0.2</v>
+        <f t="shared" ref="E29:I29" si="26">E28/E$3</f>
+        <v>0.17284428921831077</v>
       </c>
       <c r="F29" s="3">
-        <f t="shared" si="25"/>
-        <v>0.20000000000000004</v>
+        <f t="shared" si="26"/>
+        <v>0.17290168001719322</v>
       </c>
       <c r="G29" s="3">
-        <f t="shared" si="25"/>
-        <v>0.20000000000000004</v>
+        <f t="shared" si="26"/>
+        <v>0.17295556809126122</v>
       </c>
       <c r="H29" s="3">
-        <f t="shared" si="25"/>
-        <v>0.20000000000000004</v>
+        <f t="shared" si="26"/>
+        <v>0.17300616722184153</v>
       </c>
       <c r="I29" s="3">
-        <f t="shared" si="25"/>
-        <v>0.19999999999999996</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="26"/>
+        <v>0.17305367814257411</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -2045,27 +2195,27 @@
         <v>7.4739086522275455E-2</v>
       </c>
       <c r="E30" s="3">
-        <f t="shared" ref="E30:I30" si="26">E28/D28-1</f>
-        <v>0.18930374856426879</v>
+        <f t="shared" ref="E30:I30" si="27">E28/D28-1</f>
+        <v>2.7821805426317958E-2</v>
       </c>
       <c r="F30" s="3">
-        <f t="shared" si="26"/>
-        <v>6.5000000000000169E-2</v>
+        <f t="shared" si="27"/>
+        <v>6.5353620018840264E-2</v>
       </c>
       <c r="G30" s="3">
-        <f t="shared" si="26"/>
-        <v>6.4999999999999947E-2</v>
+        <f t="shared" si="27"/>
+        <v>6.533192736401805E-2</v>
       </c>
       <c r="H30" s="3">
-        <f t="shared" si="26"/>
-        <v>6.4999999999999947E-2</v>
+        <f t="shared" si="27"/>
+        <v>6.5311571779172795E-2</v>
       </c>
       <c r="I30" s="3">
-        <f t="shared" si="26"/>
-        <v>6.4999999999999503E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="27"/>
+        <v>6.5292470097411792E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.5">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -2075,7 +2225,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -2094,7 +2244,7 @@
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -2113,7 +2263,7 @@
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A34" s="5" t="s">
         <v>9</v>
       </c>
@@ -2132,7 +2282,7 @@
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A35" s="6" t="s">
         <v>14</v>
       </c>
@@ -2154,7 +2304,7 @@
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A36" s="6" t="s">
         <v>30</v>
       </c>
@@ -2176,7 +2326,7 @@
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A37" s="6" t="s">
         <v>52</v>
       </c>
@@ -2195,7 +2345,7 @@
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.5">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -2205,7 +2355,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -2222,27 +2372,27 @@
         <v>819.19999999999982</v>
       </c>
       <c r="E39" s="12">
-        <f t="shared" ref="E39:I39" si="27">E28-E35</f>
-        <v>1138.9962</v>
+        <f t="shared" ref="E39:I39" si="28">E28-E35</f>
+        <v>984.34494305678459</v>
       </c>
       <c r="F39" s="12">
-        <f t="shared" si="27"/>
-        <v>1213.0309530000002</v>
+        <f t="shared" si="28"/>
+        <v>1048.6754484327846</v>
       </c>
       <c r="G39" s="12">
-        <f t="shared" si="27"/>
-        <v>1291.877964945</v>
+        <f t="shared" si="28"/>
+        <v>1117.1874366582244</v>
       </c>
       <c r="H39" s="12">
-        <f t="shared" si="27"/>
-        <v>1375.850032666425</v>
+        <f t="shared" si="28"/>
+        <v>1190.1527041183181</v>
       </c>
       <c r="I39" s="12">
-        <f t="shared" si="27"/>
-        <v>1465.2802847897419</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="28"/>
+        <v>1267.860713963317</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -2251,35 +2401,35 @@
         <v>0.12574255332642748</v>
       </c>
       <c r="C40" s="3">
-        <f t="shared" ref="C40:D40" si="28">C39/C$3</f>
+        <f t="shared" ref="C40:D40" si="29">C39/C$3</f>
         <v>0.13979407105680022</v>
       </c>
       <c r="D40" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.15319594569323408</v>
       </c>
       <c r="E40" s="3">
-        <f t="shared" ref="E40:I40" si="29">E39/E$3</f>
-        <v>0.2</v>
+        <f t="shared" ref="E40:I40" si="30">E39/E$3</f>
+        <v>0.17284428921831077</v>
       </c>
       <c r="F40" s="3">
-        <f t="shared" si="29"/>
-        <v>0.20000000000000004</v>
+        <f t="shared" si="30"/>
+        <v>0.17290168001719322</v>
       </c>
       <c r="G40" s="3">
-        <f t="shared" si="29"/>
-        <v>0.20000000000000004</v>
+        <f t="shared" si="30"/>
+        <v>0.17295556809126122</v>
       </c>
       <c r="H40" s="3">
-        <f t="shared" si="29"/>
-        <v>0.20000000000000004</v>
+        <f t="shared" si="30"/>
+        <v>0.17300616722184153</v>
       </c>
       <c r="I40" s="3">
-        <f t="shared" si="29"/>
-        <v>0.19999999999999996</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="30"/>
+        <v>0.17305367814257411</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>32</v>
       </c>
@@ -2293,27 +2443,27 @@
         <v>0.10508566032645295</v>
       </c>
       <c r="E41" s="3">
-        <f t="shared" ref="E41:I41" si="30">E39/D39-1</f>
-        <v>0.39037622070312539</v>
+        <f t="shared" ref="E41:I41" si="31">E39/D39-1</f>
+        <v>0.20159294806736416</v>
       </c>
       <c r="F41" s="3">
-        <f t="shared" si="30"/>
-        <v>6.5000000000000169E-2</v>
+        <f t="shared" si="31"/>
+        <v>6.5353620018840264E-2</v>
       </c>
       <c r="G41" s="3">
-        <f t="shared" si="30"/>
-        <v>6.4999999999999947E-2</v>
+        <f t="shared" si="31"/>
+        <v>6.533192736401805E-2</v>
       </c>
       <c r="H41" s="3">
-        <f t="shared" si="30"/>
-        <v>6.4999999999999947E-2</v>
+        <f t="shared" si="31"/>
+        <v>6.5311571779172795E-2</v>
       </c>
       <c r="I41" s="3">
-        <f t="shared" si="30"/>
-        <v>6.4999999999999503E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="31"/>
+        <v>6.5292470097411792E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -2328,26 +2478,26 @@
       </c>
       <c r="E43" s="12">
         <f>E39*E44</f>
-        <v>284.74905000000001</v>
+        <v>246.08623576419615</v>
       </c>
       <c r="F43" s="12">
-        <f t="shared" ref="F43:I43" si="31">F39*F44</f>
-        <v>303.25773825000005</v>
+        <f t="shared" ref="F43:I43" si="32">F39*F44</f>
+        <v>262.16886210819615</v>
       </c>
       <c r="G43" s="12">
-        <f t="shared" si="31"/>
-        <v>322.96949123625001</v>
+        <f t="shared" si="32"/>
+        <v>279.29685916455611</v>
       </c>
       <c r="H43" s="12">
-        <f t="shared" si="31"/>
-        <v>343.96250816660626</v>
+        <f t="shared" si="32"/>
+        <v>297.53817602957952</v>
       </c>
       <c r="I43" s="12">
-        <f t="shared" si="31"/>
-        <v>366.32007119743548</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="32"/>
+        <v>316.96517849082926</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -2379,7 +2529,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>34</v>
       </c>
@@ -2396,27 +2546,27 @@
         <v>661.79999999999984</v>
       </c>
       <c r="E46" s="12">
-        <f t="shared" ref="E46:I46" si="32">E39-E43</f>
-        <v>854.24715000000003</v>
+        <f t="shared" ref="E46:I46" si="33">E39-E43</f>
+        <v>738.2587072925885</v>
       </c>
       <c r="F46" s="12">
-        <f t="shared" si="32"/>
-        <v>909.77321475000008</v>
+        <f t="shared" si="33"/>
+        <v>786.5065863245884</v>
       </c>
       <c r="G46" s="12">
-        <f t="shared" si="32"/>
-        <v>968.90847370875008</v>
+        <f t="shared" si="33"/>
+        <v>837.89057749366839</v>
       </c>
       <c r="H46" s="12">
-        <f t="shared" si="32"/>
-        <v>1031.8875244998187</v>
+        <f t="shared" si="33"/>
+        <v>892.61452808873855</v>
       </c>
       <c r="I46" s="12">
-        <f t="shared" si="32"/>
-        <v>1098.9602135923064</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="33"/>
+        <v>950.89553547248784</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
         <v>35</v>
       </c>
@@ -2425,35 +2575,35 @@
         <v>9.3757266980952561E-2</v>
       </c>
       <c r="C47" s="3">
-        <f t="shared" ref="C47:D47" si="33">C46/C$3</f>
+        <f t="shared" ref="C47:D47" si="34">C46/C$3</f>
         <v>0.1694576450177265</v>
       </c>
       <c r="D47" s="3">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.12376108015110145</v>
       </c>
       <c r="E47" s="3">
-        <f t="shared" ref="E47:I47" si="34">E46/E$3</f>
-        <v>0.15000000000000002</v>
+        <f t="shared" ref="E47:I47" si="35">E46/E$3</f>
+        <v>0.12963321691373308</v>
       </c>
       <c r="F47" s="3">
-        <f t="shared" si="34"/>
-        <v>0.15000000000000002</v>
+        <f t="shared" si="35"/>
+        <v>0.1296762600128949</v>
       </c>
       <c r="G47" s="3">
-        <f t="shared" si="34"/>
-        <v>0.15000000000000002</v>
+        <f t="shared" si="35"/>
+        <v>0.12971667606844592</v>
       </c>
       <c r="H47" s="3">
-        <f t="shared" si="34"/>
-        <v>0.15000000000000002</v>
+        <f t="shared" si="35"/>
+        <v>0.12975462541638116</v>
       </c>
       <c r="I47" s="3">
-        <f t="shared" si="34"/>
-        <v>0.14999999999999997</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="35"/>
+        <v>0.12979025860693061</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
         <v>36</v>
       </c>
@@ -2467,27 +2617,27 @@
         <v>-0.26352103271756089</v>
       </c>
       <c r="E48" s="3">
-        <f t="shared" ref="E48:I48" si="35">E46/D46-1</f>
-        <v>0.29079351767905748</v>
+        <f t="shared" ref="E48:I48" si="36">E46/D46-1</f>
+        <v>0.11553144045419872</v>
       </c>
       <c r="F48" s="3">
-        <f t="shared" si="35"/>
-        <v>6.4999999999999947E-2</v>
+        <f t="shared" si="36"/>
+        <v>6.5353620018840042E-2</v>
       </c>
       <c r="G48" s="3">
-        <f t="shared" si="35"/>
-        <v>6.4999999999999947E-2</v>
+        <f t="shared" si="36"/>
+        <v>6.5331927364018272E-2</v>
       </c>
       <c r="H48" s="3">
-        <f t="shared" si="35"/>
-        <v>6.4999999999999947E-2</v>
+        <f t="shared" si="36"/>
+        <v>6.5311571779172573E-2</v>
       </c>
       <c r="I48" s="3">
-        <f t="shared" si="35"/>
-        <v>6.4999999999999503E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="36"/>
+        <v>6.5292470097411792E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
         <v>11</v>
       </c>
@@ -2502,26 +2652,26 @@
       </c>
       <c r="E50" s="12">
         <f>E46*E51</f>
-        <v>59.797300500000006</v>
+        <v>51.6781095104812</v>
       </c>
       <c r="F50" s="12">
-        <f t="shared" ref="F50:I50" si="36">F46*F51</f>
-        <v>63.684125032500013</v>
+        <f t="shared" ref="F50:I50" si="37">F46*F51</f>
+        <v>55.055461042721191</v>
       </c>
       <c r="G50" s="12">
-        <f t="shared" si="36"/>
-        <v>67.823593159612514</v>
+        <f t="shared" si="37"/>
+        <v>58.65234042455679</v>
       </c>
       <c r="H50" s="12">
-        <f t="shared" si="36"/>
-        <v>72.232126714987317</v>
+        <f t="shared" si="37"/>
+        <v>62.483016966211707</v>
       </c>
       <c r="I50" s="12">
-        <f t="shared" si="36"/>
-        <v>76.927214951461465</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="37"/>
+        <v>66.562687483074157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
         <v>40</v>
       </c>
@@ -2553,7 +2703,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A52" t="s">
         <v>41</v>
       </c>
@@ -2567,27 +2717,27 @@
         <v>0.17528735632183912</v>
       </c>
       <c r="E52" s="3">
-        <f t="shared" ref="E52:I52" si="37">E50/D50-1</f>
-        <v>0.46203668704156509</v>
+        <f t="shared" ref="E52:I52" si="38">E50/D50-1</f>
+        <v>0.26352345991396575</v>
       </c>
       <c r="F52" s="3">
-        <f t="shared" si="37"/>
-        <v>6.5000000000000169E-2</v>
+        <f t="shared" si="38"/>
+        <v>6.5353620018840042E-2</v>
       </c>
       <c r="G52" s="3">
-        <f t="shared" si="37"/>
-        <v>6.4999999999999947E-2</v>
+        <f t="shared" si="38"/>
+        <v>6.5331927364018272E-2</v>
       </c>
       <c r="H52" s="3">
-        <f t="shared" si="37"/>
-        <v>6.4999999999999947E-2</v>
+        <f t="shared" si="38"/>
+        <v>6.5311571779172795E-2</v>
       </c>
       <c r="I52" s="3">
-        <f t="shared" si="37"/>
-        <v>6.4999999999999725E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="38"/>
+        <v>6.5292470097411792E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.5">
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
@@ -2597,7 +2747,7 @@
       <c r="H53" s="11"/>
       <c r="I53" s="11"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A54" t="s">
         <v>38</v>
       </c>
@@ -2614,27 +2764,27 @@
         <v>702.69999999999982</v>
       </c>
       <c r="E54" s="12">
-        <f t="shared" ref="E54:I54" si="38">E46+E50</f>
-        <v>914.04445050000004</v>
+        <f t="shared" ref="E54:I54" si="39">E46+E50</f>
+        <v>789.93681680306975</v>
       </c>
       <c r="F54" s="12">
-        <f t="shared" si="38"/>
-        <v>973.45733978250007</v>
+        <f t="shared" si="39"/>
+        <v>841.56204736730956</v>
       </c>
       <c r="G54" s="12">
-        <f t="shared" si="38"/>
-        <v>1036.7320668683626</v>
+        <f t="shared" si="39"/>
+        <v>896.54291791822516</v>
       </c>
       <c r="H54" s="12">
-        <f t="shared" si="38"/>
-        <v>1104.119651214806</v>
+        <f t="shared" si="39"/>
+        <v>955.09754505495027</v>
       </c>
       <c r="I54" s="12">
-        <f t="shared" si="38"/>
-        <v>1175.887428543768</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="39"/>
+        <v>1017.458222955562</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -2643,35 +2793,35 @@
         <v>0.10092383146946281</v>
       </c>
       <c r="C55" s="3">
-        <f t="shared" ref="C55:D55" si="39">C54/C$3</f>
+        <f t="shared" ref="C55:D55" si="40">C54/C$3</f>
         <v>0.17602021573508336</v>
       </c>
       <c r="D55" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0.13140965702958446</v>
       </c>
       <c r="E55" s="3">
-        <f t="shared" ref="E55:I55" si="40">E54/E$3</f>
-        <v>0.1605</v>
+        <f t="shared" ref="E55:I55" si="41">E54/E$3</f>
+        <v>0.1387075420976944</v>
       </c>
       <c r="F55" s="3">
-        <f t="shared" si="40"/>
-        <v>0.16050000000000003</v>
+        <f t="shared" si="41"/>
+        <v>0.13875359821379754</v>
       </c>
       <c r="G55" s="3">
-        <f t="shared" si="40"/>
-        <v>0.16050000000000003</v>
+        <f t="shared" si="41"/>
+        <v>0.13879684339323714</v>
       </c>
       <c r="H55" s="3">
-        <f t="shared" si="40"/>
-        <v>0.16050000000000003</v>
+        <f t="shared" si="41"/>
+        <v>0.13883744919552785</v>
       </c>
       <c r="I55" s="3">
-        <f t="shared" si="40"/>
-        <v>0.16049999999999998</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="41"/>
+        <v>0.13887557670941575</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A56" t="s">
         <v>39</v>
       </c>
@@ -2685,27 +2835,27 @@
         <v>-0.24716091707735188</v>
       </c>
       <c r="E56" s="3">
-        <f t="shared" ref="E56:I56" si="41">E54/D54-1</f>
-        <v>0.30076056709833532</v>
+        <f t="shared" ref="E56:I56" si="42">E54/D54-1</f>
+        <v>0.124145178316593</v>
       </c>
       <c r="F56" s="3">
-        <f t="shared" si="41"/>
-        <v>6.4999999999999947E-2</v>
+        <f t="shared" si="42"/>
+        <v>6.5353620018840042E-2</v>
       </c>
       <c r="G56" s="3">
-        <f t="shared" si="41"/>
-        <v>6.4999999999999947E-2</v>
+        <f t="shared" si="42"/>
+        <v>6.5331927364018272E-2</v>
       </c>
       <c r="H56" s="3">
-        <f t="shared" si="41"/>
-        <v>6.4999999999999947E-2</v>
+        <f t="shared" si="42"/>
+        <v>6.5311571779172795E-2</v>
       </c>
       <c r="I56" s="3">
-        <f t="shared" si="41"/>
-        <v>6.4999999999999725E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="42"/>
+        <v>6.5292470097411792E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -2720,68 +2870,68 @@
       </c>
       <c r="E58" s="12">
         <f>E46*AVERAGE($B$59:$D$59)</f>
-        <v>2.8904886148011029</v>
+        <v>2.4980222505945813</v>
       </c>
       <c r="F58" s="12">
         <f>F46*AVERAGE($B$59:$D$59)</f>
-        <v>3.0783703747631748</v>
+        <v>2.661277047558547</v>
       </c>
       <c r="G58" s="12">
         <f>G46*AVERAGE($B$59:$D$59)</f>
-        <v>3.2784644491227808</v>
+        <v>2.8351434063251713</v>
       </c>
       <c r="H58" s="12">
         <f>H46*AVERAGE($B$59:$D$59)</f>
-        <v>3.4915646383157615</v>
+        <v>3.0203110784116256</v>
       </c>
       <c r="I58" s="12">
         <f>I46*AVERAGE($B$59:$D$59)</f>
-        <v>3.7185163398062842</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3.2175146491836983</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A59" t="s">
         <v>58</v>
       </c>
       <c r="B59" s="3">
-        <f t="shared" ref="B59:I59" si="42">B58/B46</f>
+        <f t="shared" ref="B59:I59" si="43">B58/B46</f>
         <v>3.6076662908680955E-3</v>
       </c>
       <c r="C59" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>3.6723792566214102E-3</v>
       </c>
       <c r="D59" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>2.8709579933514661E-3</v>
       </c>
       <c r="E59" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>3.3836678469469903E-3</v>
       </c>
       <c r="F59" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
+        <v>3.3836678469469899E-3</v>
+      </c>
+      <c r="G59" s="3">
+        <f t="shared" si="43"/>
         <v>3.3836678469469903E-3</v>
       </c>
-      <c r="G59" s="3">
-        <f t="shared" si="42"/>
+      <c r="H59" s="3">
+        <f t="shared" si="43"/>
+        <v>3.3836678469469899E-3</v>
+      </c>
+      <c r="I59" s="3">
+        <f t="shared" si="43"/>
         <v>3.3836678469469903E-3</v>
       </c>
-      <c r="H59" s="3">
-        <f t="shared" si="42"/>
-        <v>3.3836678469469903E-3</v>
-      </c>
-      <c r="I59" s="3">
-        <f t="shared" si="42"/>
-        <v>3.3836678469469903E-3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A61" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -2800,7 +2950,7 @@
       <c r="H62" s="11"/>
       <c r="I62" s="11"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -2819,7 +2969,7 @@
       <c r="H63" s="11"/>
       <c r="I63" s="11"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -2838,7 +2988,7 @@
       <c r="H64" s="11"/>
       <c r="I64" s="11"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -2857,44 +3007,44 @@
       <c r="H65" s="11"/>
       <c r="I65" s="11"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A66" t="s">
         <v>64</v>
       </c>
       <c r="B66" s="12">
-        <f t="shared" ref="B66:I66" si="43">SUM(B62:B65)</f>
+        <f t="shared" ref="B66:I66" si="44">SUM(B62:B65)</f>
         <v>234.5</v>
       </c>
       <c r="C66" s="12">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>-62.100000000000009</v>
       </c>
       <c r="D66" s="12">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>-141</v>
       </c>
       <c r="E66" s="12">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="F66" s="12">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="G66" s="12">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="H66" s="12">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="I66" s="12">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -2903,35 +3053,35 @@
         <v>713.5</v>
       </c>
       <c r="C68" s="12">
-        <f t="shared" ref="C68:I68" si="44">C54+C58+C66</f>
+        <f t="shared" ref="C68:I68" si="45">C54+C58+C66</f>
         <v>874.6</v>
       </c>
       <c r="D68" s="12">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>563.5999999999998</v>
       </c>
       <c r="E68" s="12">
-        <f t="shared" si="44"/>
-        <v>916.93493911480118</v>
+        <f t="shared" si="45"/>
+        <v>792.43483905366429</v>
       </c>
       <c r="F68" s="12">
-        <f t="shared" si="44"/>
-        <v>976.53571015726322</v>
+        <f t="shared" si="45"/>
+        <v>844.2233244148681</v>
       </c>
       <c r="G68" s="12">
-        <f t="shared" si="44"/>
-        <v>1040.0105313174854</v>
+        <f t="shared" si="45"/>
+        <v>899.37806132455034</v>
       </c>
       <c r="H68" s="12">
-        <f t="shared" si="44"/>
-        <v>1107.6112158531218</v>
+        <f t="shared" si="45"/>
+        <v>958.1178561333619</v>
       </c>
       <c r="I68" s="12">
-        <f t="shared" si="44"/>
-        <v>1179.6059448835742</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="45"/>
+        <v>1020.6757376047457</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A70" t="s">
         <v>3</v>
       </c>
@@ -2949,23 +3099,23 @@
         <v>132.6</v>
       </c>
       <c r="F70" s="11">
-        <f t="shared" ref="F70:I70" si="45">E70</f>
+        <f t="shared" ref="F70:I70" si="46">E70</f>
         <v>132.6</v>
       </c>
       <c r="G70" s="11">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>132.6</v>
       </c>
       <c r="H70" s="11">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>132.6</v>
       </c>
       <c r="I70" s="11">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>132.6</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -2983,60 +3133,60 @@
         <v>134.1</v>
       </c>
       <c r="F71" s="11">
-        <f t="shared" ref="F71:I71" si="46">E71</f>
+        <f t="shared" ref="F71:I71" si="47">E71</f>
         <v>134.1</v>
       </c>
       <c r="G71" s="11">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>134.1</v>
       </c>
       <c r="H71" s="11">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>134.1</v>
       </c>
       <c r="I71" s="11">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>134.1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A73" t="s">
         <v>44</v>
       </c>
       <c r="B73" s="7">
-        <f t="shared" ref="B73:I73" si="47">B$46/B$70</f>
+        <f t="shared" ref="B73:I73" si="48">B$46/B$70</f>
         <v>3.4990138067061141</v>
       </c>
       <c r="C73" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>6.8334600760456281</v>
       </c>
       <c r="D73" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>4.990950226244343</v>
       </c>
       <c r="E73" s="7">
-        <f t="shared" si="47"/>
-        <v>6.4422861990950233</v>
+        <f t="shared" si="48"/>
+        <v>5.5675618951175609</v>
       </c>
       <c r="F73" s="7">
-        <f t="shared" si="47"/>
-        <v>6.8610348020362002</v>
+        <f t="shared" si="48"/>
+        <v>5.9314222196424469</v>
       </c>
       <c r="G73" s="7">
-        <f t="shared" si="47"/>
-        <v>7.3070020641685529</v>
+        <f t="shared" si="48"/>
+        <v>6.3189334652614511</v>
       </c>
       <c r="H73" s="7">
-        <f t="shared" si="47"/>
-        <v>7.7819571983395077</v>
+        <f t="shared" si="48"/>
+        <v>6.7316329418456906</v>
       </c>
       <c r="I73" s="7">
-        <f t="shared" si="47"/>
-        <v>8.2877844162315721</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="48"/>
+        <v>7.1711578844079025</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A74" t="s">
         <v>46</v>
       </c>
@@ -3050,64 +3200,64 @@
         <v>-0.26963058674479079</v>
       </c>
       <c r="E74" s="3">
-        <f t="shared" ref="E74:I74" si="48">E73/D73-1</f>
-        <v>0.29079351767905748</v>
+        <f t="shared" ref="E74:I74" si="49">E73/D73-1</f>
+        <v>0.11553144045419872</v>
       </c>
       <c r="F74" s="3">
-        <f t="shared" si="48"/>
-        <v>6.4999999999999947E-2</v>
+        <f t="shared" si="49"/>
+        <v>6.5353620018840042E-2</v>
       </c>
       <c r="G74" s="3">
-        <f t="shared" si="48"/>
-        <v>6.4999999999999947E-2</v>
+        <f t="shared" si="49"/>
+        <v>6.5331927364018272E-2</v>
       </c>
       <c r="H74" s="3">
-        <f t="shared" si="48"/>
-        <v>6.4999999999999947E-2</v>
+        <f t="shared" si="49"/>
+        <v>6.5311571779172573E-2</v>
       </c>
       <c r="I74" s="3">
-        <f t="shared" si="48"/>
-        <v>6.4999999999999503E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="49"/>
+        <v>6.5292470097411792E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A75" t="s">
         <v>45</v>
       </c>
       <c r="B75" s="7">
-        <f t="shared" ref="B75:I75" si="49">B$46/B$71</f>
+        <f t="shared" ref="B75:I75" si="50">B$46/B$71</f>
         <v>3.4540498442367595</v>
       </c>
       <c r="C75" s="7">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>6.7437654316355111</v>
       </c>
       <c r="D75" s="7">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>4.9351230425055919</v>
       </c>
       <c r="E75" s="7">
-        <f t="shared" si="49"/>
-        <v>6.3702248322147659</v>
+        <f t="shared" si="50"/>
+        <v>5.5052849164249702</v>
       </c>
       <c r="F75" s="7">
-        <f t="shared" si="49"/>
-        <v>6.7842894463087253</v>
+        <f t="shared" si="50"/>
+        <v>5.86507521494846</v>
       </c>
       <c r="G75" s="7">
-        <f t="shared" si="49"/>
-        <v>7.225268260318793</v>
+        <f t="shared" si="50"/>
+        <v>6.2482518828759765</v>
       </c>
       <c r="H75" s="7">
-        <f t="shared" si="49"/>
-        <v>7.6949106972395134</v>
+        <f t="shared" si="50"/>
+        <v>6.656335034218781</v>
       </c>
       <c r="I75" s="7">
-        <f t="shared" si="49"/>
-        <v>8.195079892560079</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="50"/>
+        <v>7.090943590398866</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A76" t="s">
         <v>47</v>
       </c>
@@ -3121,27 +3271,27 @@
         <v>-0.26819473593275378</v>
       </c>
       <c r="E76" s="3">
-        <f t="shared" ref="E76:I76" si="50">E75/D75-1</f>
-        <v>0.29079351767905748</v>
+        <f t="shared" ref="E76:I76" si="51">E75/D75-1</f>
+        <v>0.11553144045419872</v>
       </c>
       <c r="F76" s="3">
-        <f t="shared" si="50"/>
-        <v>6.4999999999999947E-2</v>
+        <f t="shared" si="51"/>
+        <v>6.5353620018840264E-2</v>
       </c>
       <c r="G76" s="3">
-        <f t="shared" si="50"/>
-        <v>6.5000000000000169E-2</v>
+        <f t="shared" si="51"/>
+        <v>6.5331927364018272E-2</v>
       </c>
       <c r="H76" s="3">
-        <f t="shared" si="50"/>
-        <v>6.4999999999999947E-2</v>
+        <f t="shared" si="51"/>
+        <v>6.5311571779172573E-2</v>
       </c>
       <c r="I76" s="3">
-        <f t="shared" si="50"/>
-        <v>6.4999999999999725E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="51"/>
+        <v>6.5292470097411792E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.5">
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -3151,44 +3301,44 @@
       <c r="H77" s="7"/>
       <c r="I77" s="7"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A78" t="s">
         <v>42</v>
       </c>
       <c r="B78" s="7">
-        <f t="shared" ref="B78:I78" si="51">B$54/B$70</f>
+        <f t="shared" ref="B78:I78" si="52">B$54/B$70</f>
         <v>3.766469428007889</v>
       </c>
       <c r="C78" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>7.0980988593155905</v>
       </c>
       <c r="D78" s="7">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>5.2993966817496219</v>
       </c>
       <c r="E78" s="7">
-        <f t="shared" si="51"/>
-        <v>6.8932462330316744</v>
+        <f t="shared" si="52"/>
+        <v>5.9572912277757899</v>
       </c>
       <c r="F78" s="7">
-        <f t="shared" si="51"/>
-        <v>7.3413072381787341</v>
+        <f t="shared" si="52"/>
+        <v>6.3466217750174181</v>
       </c>
       <c r="G78" s="7">
-        <f t="shared" si="51"/>
-        <v>7.8184922086603521</v>
+        <f t="shared" si="52"/>
+        <v>6.7612588078297522</v>
       </c>
       <c r="H78" s="7">
-        <f t="shared" si="51"/>
-        <v>8.3266942022232744</v>
+        <f t="shared" si="52"/>
+        <v>7.2028472477748888</v>
       </c>
       <c r="I78" s="7">
-        <f t="shared" si="51"/>
-        <v>8.8679293253677827</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="52"/>
+        <v>7.6731389363164553</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A79" t="s">
         <v>48</v>
       </c>
@@ -3202,64 +3352,64 @@
         <v>-0.25340618850431207</v>
       </c>
       <c r="E79" s="3">
-        <f t="shared" ref="E79:I79" si="52">E78/D78-1</f>
-        <v>0.30076056709833532</v>
+        <f t="shared" ref="E79:I79" si="53">E78/D78-1</f>
+        <v>0.124145178316593</v>
       </c>
       <c r="F79" s="3">
-        <f t="shared" si="52"/>
-        <v>6.5000000000000169E-2</v>
+        <f t="shared" si="53"/>
+        <v>6.5353620018840042E-2</v>
       </c>
       <c r="G79" s="3">
-        <f t="shared" si="52"/>
-        <v>6.4999999999999947E-2</v>
+        <f t="shared" si="53"/>
+        <v>6.5331927364018272E-2</v>
       </c>
       <c r="H79" s="3">
-        <f t="shared" si="52"/>
-        <v>6.4999999999999947E-2</v>
+        <f t="shared" si="53"/>
+        <v>6.5311571779172795E-2</v>
       </c>
       <c r="I79" s="3">
-        <f t="shared" si="52"/>
-        <v>6.4999999999999503E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="53"/>
+        <v>6.5292470097411792E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A80" t="s">
         <v>43</v>
       </c>
       <c r="B80" s="7">
-        <f t="shared" ref="B80:I80" si="53">B$54/B$71</f>
+        <f t="shared" ref="B80:I80" si="54">B$54/B$71</f>
         <v>3.7180685358255445</v>
       </c>
       <c r="C80" s="7">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>7.0049306186162754</v>
       </c>
       <c r="D80" s="7">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>5.2401193139448159</v>
       </c>
       <c r="E80" s="7">
-        <f t="shared" si="53"/>
-        <v>6.8161405704697993</v>
+        <f t="shared" si="54"/>
+        <v>5.8906548605747187</v>
       </c>
       <c r="F80" s="7">
-        <f t="shared" si="53"/>
-        <v>7.2591897075503367</v>
+        <f t="shared" si="54"/>
+        <v>6.2756304799948515</v>
       </c>
       <c r="G80" s="7">
-        <f t="shared" si="53"/>
-        <v>7.7310370385411087</v>
+        <f t="shared" si="54"/>
+        <v>6.6856295146772942</v>
       </c>
       <c r="H80" s="7">
-        <f t="shared" si="53"/>
-        <v>8.2335544460462788</v>
+        <f t="shared" si="54"/>
+        <v>7.1222784866140962</v>
       </c>
       <c r="I80" s="7">
-        <f t="shared" si="53"/>
-        <v>8.7687354850392847</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="54"/>
+        <v>7.5873096417267858</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A81" t="s">
         <v>49</v>
       </c>
@@ -3272,61 +3422,61 @@
         <v>-0.2519384417571966</v>
       </c>
       <c r="E81" s="3">
-        <f t="shared" ref="E81:I81" si="54">E80/D80-1</f>
-        <v>0.30076056709833554</v>
+        <f t="shared" ref="E81:I81" si="55">E80/D80-1</f>
+        <v>0.12414517831659322</v>
       </c>
       <c r="F81" s="3">
-        <f t="shared" si="54"/>
-        <v>6.5000000000000169E-2</v>
+        <f t="shared" si="55"/>
+        <v>6.5353620018840042E-2</v>
       </c>
       <c r="G81" s="3">
-        <f t="shared" si="54"/>
-        <v>6.4999999999999947E-2</v>
+        <f t="shared" si="55"/>
+        <v>6.5331927364018272E-2</v>
       </c>
       <c r="H81" s="3">
-        <f t="shared" si="54"/>
-        <v>6.4999999999999725E-2</v>
+        <f t="shared" si="55"/>
+        <v>6.5311571779172795E-2</v>
       </c>
       <c r="I81" s="3">
-        <f t="shared" si="54"/>
-        <v>6.4999999999999725E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="55"/>
+        <v>6.5292470097411792E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.5">
       <c r="B84" s="2">
         <f>B1</f>
         <v>2017</v>
       </c>
       <c r="C84" s="2">
-        <f t="shared" ref="C84:I84" si="55">C1</f>
+        <f t="shared" ref="C84:I84" si="56">C1</f>
         <v>2018</v>
       </c>
       <c r="D84" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>2019</v>
       </c>
       <c r="E84" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>2020</v>
       </c>
       <c r="F84" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>2021</v>
       </c>
       <c r="G84" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>2022</v>
       </c>
       <c r="H84" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>2023</v>
       </c>
       <c r="I84" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>2024</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="19" t="s">
         <v>56</v>
       </c>
@@ -3335,40 +3485,40 @@
         <v>Actual</v>
       </c>
       <c r="C85" s="20" t="str">
-        <f t="shared" ref="C85:I85" si="56">C2</f>
+        <f t="shared" ref="C85:I85" si="57">C2</f>
         <v>Actual</v>
       </c>
       <c r="D85" s="20" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>Actual</v>
       </c>
       <c r="E85" s="20" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>Est</v>
       </c>
       <c r="F85" s="20" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>Est</v>
       </c>
       <c r="G85" s="20" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>Est</v>
       </c>
       <c r="H85" s="20" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>Est</v>
       </c>
       <c r="I85" s="20" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>Est</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A86" s="22" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A87" t="s">
         <v>38</v>
       </c>
@@ -3377,35 +3527,35 @@
         <v>477.39999999999992</v>
       </c>
       <c r="C87" s="12">
-        <f t="shared" ref="C87:I87" si="57">C54</f>
+        <f t="shared" ref="C87:I87" si="58">C54</f>
         <v>933.40000000000009</v>
       </c>
       <c r="D87" s="12">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>702.69999999999982</v>
       </c>
       <c r="E87" s="12">
-        <f t="shared" si="57"/>
-        <v>914.04445050000004</v>
+        <f t="shared" si="58"/>
+        <v>789.93681680306975</v>
       </c>
       <c r="F87" s="12">
-        <f t="shared" si="57"/>
-        <v>973.45733978250007</v>
+        <f t="shared" si="58"/>
+        <v>841.56204736730956</v>
       </c>
       <c r="G87" s="12">
-        <f t="shared" si="57"/>
-        <v>1036.7320668683626</v>
+        <f t="shared" si="58"/>
+        <v>896.54291791822516</v>
       </c>
       <c r="H87" s="12">
-        <f t="shared" si="57"/>
-        <v>1104.119651214806</v>
+        <f t="shared" si="58"/>
+        <v>955.09754505495027</v>
       </c>
       <c r="I87" s="12">
-        <f t="shared" si="57"/>
-        <v>1175.887428543768</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="58"/>
+        <v>1017.458222955562</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A88" t="s">
         <v>67</v>
       </c>
@@ -3414,20 +3564,35 @@
         <v>125.2</v>
       </c>
       <c r="C88" s="12">
-        <f t="shared" ref="C88:D88" si="58">C25</f>
+        <f t="shared" ref="C88:I88" si="59">C25</f>
         <v>150.69999999999999</v>
       </c>
       <c r="D88" s="12">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>158.80000000000001</v>
       </c>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12"/>
-      <c r="G88" s="12"/>
-      <c r="H88" s="12"/>
-      <c r="I88" s="12"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E88" s="12">
+        <f t="shared" si="59"/>
+        <v>154.65125694321551</v>
+      </c>
+      <c r="F88" s="12">
+        <f t="shared" si="59"/>
+        <v>164.35550456721552</v>
+      </c>
+      <c r="G88" s="12">
+        <f t="shared" si="59"/>
+        <v>174.6905282867755</v>
+      </c>
+      <c r="H88" s="12">
+        <f t="shared" si="59"/>
+        <v>185.6973285481069</v>
+      </c>
+      <c r="I88" s="12">
+        <f t="shared" si="59"/>
+        <v>197.41957082642483</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A89" t="s">
         <v>68</v>
       </c>
@@ -3446,7 +3611,7 @@
       <c r="H89" s="11"/>
       <c r="I89" s="11"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A90" t="s">
         <v>69</v>
       </c>
@@ -3471,7 +3636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A91" t="s">
         <v>70</v>
       </c>
@@ -3496,7 +3661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A92" t="s">
         <v>71</v>
       </c>
@@ -3523,7 +3688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A93" t="s">
         <v>73</v>
       </c>
@@ -3542,7 +3707,7 @@
       <c r="H93" s="11"/>
       <c r="I93" s="11"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A94" t="s">
         <v>72</v>
       </c>
@@ -3555,13 +3720,28 @@
       <c r="D94" s="11">
         <v>20.9</v>
       </c>
-      <c r="E94" s="11"/>
-      <c r="F94" s="11"/>
-      <c r="G94" s="11"/>
-      <c r="H94" s="11"/>
-      <c r="I94" s="11"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E94" s="12">
+        <f>E209</f>
+        <v>27.424755128104849</v>
+      </c>
+      <c r="F94" s="12">
+        <f>F209</f>
+        <v>15.62154827897637</v>
+      </c>
+      <c r="G94" s="12">
+        <f>G209</f>
+        <v>-0.2426797803270091</v>
+      </c>
+      <c r="H94" s="12">
+        <f>H209</f>
+        <v>-7.7840047662135419</v>
+      </c>
+      <c r="I94" s="12">
+        <f>I209</f>
+        <v>-8.7677171313509135</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A95" t="s">
         <v>11</v>
       </c>
@@ -3570,35 +3750,35 @@
         <v>-33.9</v>
       </c>
       <c r="C95" s="11">
-        <f t="shared" ref="C95:I95" si="59">-C50</f>
+        <f t="shared" ref="C95:I95" si="60">-C50</f>
         <v>-34.799999999999997</v>
       </c>
       <c r="D95" s="11">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>-40.9</v>
       </c>
       <c r="E95" s="12">
-        <f t="shared" si="59"/>
-        <v>-59.797300500000006</v>
+        <f t="shared" si="60"/>
+        <v>-51.6781095104812</v>
       </c>
       <c r="F95" s="12">
-        <f t="shared" si="59"/>
-        <v>-63.684125032500013</v>
+        <f t="shared" si="60"/>
+        <v>-55.055461042721191</v>
       </c>
       <c r="G95" s="12">
-        <f t="shared" si="59"/>
-        <v>-67.823593159612514</v>
+        <f t="shared" si="60"/>
+        <v>-58.65234042455679</v>
       </c>
       <c r="H95" s="12">
-        <f t="shared" si="59"/>
-        <v>-72.232126714987317</v>
+        <f t="shared" si="60"/>
+        <v>-62.483016966211707</v>
       </c>
       <c r="I95" s="12">
-        <f t="shared" si="59"/>
-        <v>-76.927214951461465</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v>-66.562687483074157</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A96" t="s">
         <v>74</v>
       </c>
@@ -3623,12 +3803,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A97" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A98" s="8" t="s">
         <v>76</v>
       </c>
@@ -3642,7 +3822,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A99" s="8" t="s">
         <v>77</v>
       </c>
@@ -3656,7 +3836,7 @@
         <v>-20.9</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A100" s="8" t="s">
         <v>78</v>
       </c>
@@ -3670,7 +3850,7 @@
         <v>128.19999999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A101" s="8" t="s">
         <v>79</v>
       </c>
@@ -3684,7 +3864,7 @@
         <v>-81.5</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A102" t="s">
         <v>105</v>
       </c>
@@ -3703,7 +3883,7 @@
       <c r="H102" s="12"/>
       <c r="I102" s="12"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A103" s="21" t="s">
         <v>80</v>
       </c>
@@ -3720,27 +3900,27 @@
         <v>946.79999999999973</v>
       </c>
       <c r="E103" s="12">
-        <f t="shared" ref="E103:I103" si="60">E87+SUM(E88:E102)</f>
-        <v>854.24715000000003</v>
+        <f t="shared" ref="E103:I103" si="61">E87+SUM(E88:E102)</f>
+        <v>920.3347193639089</v>
       </c>
       <c r="F103" s="12">
-        <f t="shared" si="60"/>
-        <v>909.77321475000008</v>
+        <f t="shared" si="61"/>
+        <v>966.48363917078029</v>
       </c>
       <c r="G103" s="12">
-        <f t="shared" si="60"/>
-        <v>968.90847370875008</v>
+        <f t="shared" si="61"/>
+        <v>1012.3384260001169</v>
       </c>
       <c r="H103" s="12">
-        <f t="shared" si="60"/>
-        <v>1031.8875244998187</v>
+        <f t="shared" si="61"/>
+        <v>1070.5278518706318</v>
       </c>
       <c r="I103" s="12">
-        <f t="shared" si="60"/>
-        <v>1098.9602135923064</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="61"/>
+        <v>1139.5473891675617</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A104" s="21"/>
       <c r="B104" s="12"/>
       <c r="C104" s="12"/>
@@ -3751,12 +3931,12 @@
       <c r="H104" s="12"/>
       <c r="I104" s="12"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A105" s="22" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A106" t="s">
         <v>81</v>
       </c>
@@ -3783,7 +3963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A107" t="s">
         <v>102</v>
       </c>
@@ -3801,23 +3981,23 @@
         <v>-182.23939200000001</v>
       </c>
       <c r="F107" s="24">
-        <f t="shared" ref="F107:I107" si="61">-F108*F3</f>
+        <f t="shared" ref="F107:I107" si="62">-F108*F3</f>
         <v>-194.08495247999997</v>
       </c>
       <c r="G107" s="24">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>-206.70047439119998</v>
       </c>
       <c r="H107" s="24">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>-220.13600522662796</v>
       </c>
       <c r="I107" s="24">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>-234.44484556635877</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A108" s="8" t="s">
         <v>103</v>
       </c>
@@ -3849,7 +4029,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A109" t="s">
         <v>82</v>
       </c>
@@ -3867,23 +4047,23 @@
         <v>1.5</v>
       </c>
       <c r="F109" s="12">
-        <f t="shared" ref="F109:I109" si="62">MIN($B$109:$D$109)</f>
+        <f t="shared" ref="F109:I109" si="63">MIN($B$109:$D$109)</f>
         <v>1.5</v>
       </c>
       <c r="G109" s="12">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>1.5</v>
       </c>
       <c r="H109" s="12">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>1.5</v>
       </c>
       <c r="I109" s="12">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A110" s="21" t="s">
         <v>83</v>
       </c>
@@ -3900,32 +4080,32 @@
         <v>-171</v>
       </c>
       <c r="E110" s="12">
-        <f t="shared" ref="E110:I110" si="63">E106+E107+E109</f>
+        <f t="shared" ref="E110:I110" si="64">E106+E107+E109</f>
         <v>-180.73939200000001</v>
       </c>
       <c r="F110" s="12">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>-192.58495247999997</v>
       </c>
       <c r="G110" s="12">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>-205.20047439119998</v>
       </c>
       <c r="H110" s="12">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>-218.63600522662796</v>
       </c>
       <c r="I110" s="12">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>-232.94484556635877</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A112" s="22" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A113" t="s">
         <v>86</v>
       </c>
@@ -3939,7 +4119,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A114" t="s">
         <v>87</v>
       </c>
@@ -3951,7 +4131,7 @@
       </c>
       <c r="D114" s="11"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A115" t="s">
         <v>88</v>
       </c>
@@ -3961,7 +4141,7 @@
       <c r="C115" s="11"/>
       <c r="D115" s="11"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A116" s="21" t="s">
         <v>89</v>
       </c>
@@ -3975,7 +4155,7 @@
         <v>-447.7</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A117" s="21" t="s">
         <v>90</v>
       </c>
@@ -3989,7 +4169,7 @@
         <v>90.9</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A118" s="21" t="s">
         <v>91</v>
       </c>
@@ -4003,7 +4183,7 @@
         <v>-12.7</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A119" s="21" t="s">
         <v>92</v>
       </c>
@@ -4015,7 +4195,7 @@
       </c>
       <c r="D119" s="11"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A120" s="21" t="s">
         <v>93</v>
       </c>
@@ -4027,7 +4207,7 @@
       </c>
       <c r="D120" s="11"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A121" s="21" t="s">
         <v>94</v>
       </c>
@@ -4052,7 +4232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A122" s="21" t="s">
         <v>95</v>
       </c>
@@ -4066,7 +4246,7 @@
         <v>-95.1</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A123" s="21" t="s">
         <v>96</v>
       </c>
@@ -4084,23 +4264,23 @@
         <v>-302.2</v>
       </c>
       <c r="F123" s="28">
-        <f t="shared" ref="F123:I123" si="64">-F124*F70</f>
+        <f t="shared" ref="F123:I123" si="65">-F124*F70</f>
         <v>-302.2</v>
       </c>
       <c r="G123" s="28">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-302.2</v>
       </c>
       <c r="H123" s="28">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-302.2</v>
       </c>
       <c r="I123" s="28">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>-302.2</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A124" s="8" t="s">
         <v>104</v>
       </c>
@@ -4137,7 +4317,7 @@
         <v>2.2790346907993966</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A125" s="21" t="s">
         <v>97</v>
       </c>
@@ -4154,27 +4334,27 @@
         <v>-725.8</v>
       </c>
       <c r="E125" s="12">
-        <f t="shared" ref="E125:I125" si="65">SUM(E113:E123)</f>
+        <f t="shared" ref="E125:I125" si="66">SUM(E113:E123)</f>
         <v>-302.2</v>
       </c>
       <c r="F125" s="12">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-302.2</v>
       </c>
       <c r="G125" s="12">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-302.2</v>
       </c>
       <c r="H125" s="12">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-302.2</v>
       </c>
       <c r="I125" s="12">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>-302.2</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A127" s="21" t="s">
         <v>98</v>
       </c>
@@ -4203,7 +4383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A129" s="21" t="s">
         <v>99</v>
       </c>
@@ -4220,27 +4400,27 @@
         <v>58.79999999999977</v>
       </c>
       <c r="E129" s="12">
-        <f t="shared" ref="E129:I129" si="66">E103+E110+E125+E127</f>
-        <v>371.30775799999998</v>
+        <f t="shared" ref="E129:I129" si="67">E103+E110+E125+E127</f>
+        <v>437.39532736390885</v>
       </c>
       <c r="F129" s="12">
-        <f t="shared" si="66"/>
-        <v>414.98826227000012</v>
+        <f t="shared" si="67"/>
+        <v>471.69868669078033</v>
       </c>
       <c r="G129" s="12">
-        <f t="shared" si="66"/>
-        <v>461.50799931755006</v>
+        <f t="shared" si="67"/>
+        <v>504.93795160891688</v>
       </c>
       <c r="H129" s="12">
-        <f t="shared" si="66"/>
-        <v>511.05151927319076</v>
+        <f t="shared" si="67"/>
+        <v>549.69184664400382</v>
       </c>
       <c r="I129" s="12">
-        <f t="shared" si="66"/>
-        <v>563.81536802594769</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="67"/>
+        <v>604.40254360120298</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A131" t="s">
         <v>100</v>
       </c>
@@ -4259,22 +4439,22 @@
       </c>
       <c r="F131" s="12">
         <f>E132</f>
-        <v>526.70775799999979</v>
+        <v>592.79532736390865</v>
       </c>
       <c r="G131" s="12">
         <f>F132</f>
-        <v>941.69602026999996</v>
+        <v>1064.4940140546889</v>
       </c>
       <c r="H131" s="12">
         <f>G132</f>
-        <v>1403.20401958755</v>
+        <v>1569.4319656636058</v>
       </c>
       <c r="I131" s="12">
         <f>H132</f>
-        <v>1914.2555388607407</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2119.1238123076096</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A132" t="s">
         <v>101</v>
       </c>
@@ -4283,35 +4463,35 @@
         <v>186.80000000000138</v>
       </c>
       <c r="C132" s="12">
-        <f t="shared" ref="C132:D132" si="67">C131+C129</f>
+        <f t="shared" ref="C132:D132" si="68">C131+C129</f>
         <v>96.600000000000151</v>
       </c>
       <c r="D132" s="12">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>155.39999999999975</v>
       </c>
       <c r="E132" s="12">
         <f>E131+E129</f>
-        <v>526.70775799999979</v>
+        <v>592.79532736390865</v>
       </c>
       <c r="F132" s="12">
         <f>F131+F129</f>
-        <v>941.69602026999996</v>
+        <v>1064.4940140546889</v>
       </c>
       <c r="G132" s="12">
         <f>G131+G129</f>
-        <v>1403.20401958755</v>
+        <v>1569.4319656636058</v>
       </c>
       <c r="H132" s="12">
         <f>H131+H129</f>
-        <v>1914.2555388607407</v>
+        <v>2119.1238123076096</v>
       </c>
       <c r="I132" s="12">
         <f>I131+I129</f>
-        <v>2478.0709068866881</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2723.5263559088125</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.5">
       <c r="B135" s="2">
         <v>2017</v>
       </c>
@@ -4337,7 +4517,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="19" t="s">
         <v>107</v>
       </c>
@@ -4366,267 +4546,1273 @@
         <v>106</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A137" t="s">
-        <v>118</v>
-      </c>
-      <c r="E137" s="12">
+        <v>117</v>
+      </c>
+      <c r="E137" s="25">
         <f>658.8-(658.5/(658.5+1007.8))*867</f>
         <v>316.17292204284939</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A138" t="s">
-        <v>120</v>
-      </c>
-      <c r="E138" s="12">
+        <v>118</v>
+      </c>
+      <c r="E138" s="25">
         <f>1007.8-(1007.8/(658.5+1007.8))*867</f>
         <v>483.42707795715057</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A139" t="s">
+        <v>121</v>
+      </c>
+      <c r="E139" s="25">
+        <f>76.4</f>
+        <v>76.400000000000006</v>
+      </c>
+      <c r="F139" s="25"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A140" t="s">
+        <v>123</v>
+      </c>
+      <c r="E140" s="25">
+        <f>308.3-104.3</f>
+        <v>204</v>
+      </c>
+      <c r="F140" s="25"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A141" t="s">
         <v>108</v>
       </c>
-      <c r="E139" s="12">
+      <c r="E141" s="12">
         <f>-E107</f>
         <v>182.23939200000001</v>
       </c>
-      <c r="F139" s="12">
-        <f t="shared" ref="F139:I139" si="68">-F107</f>
+      <c r="F141" s="12">
+        <f t="shared" ref="F141:I141" si="69">-F107</f>
         <v>194.08495247999997</v>
       </c>
-      <c r="G139" s="12">
-        <f t="shared" si="68"/>
+      <c r="G141" s="12">
+        <f t="shared" si="69"/>
         <v>206.70047439119998</v>
       </c>
-      <c r="H139" s="12">
-        <f t="shared" si="68"/>
+      <c r="H141" s="12">
+        <f t="shared" si="69"/>
         <v>220.13600522662796</v>
       </c>
-      <c r="I139" s="12">
-        <f t="shared" si="68"/>
+      <c r="I141" s="12">
+        <f t="shared" si="69"/>
         <v>234.44484556635877</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" s="22" t="s">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A142" s="22" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A141" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E141" s="29">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E142" s="29">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A143" s="8" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="E143" s="29">
         <v>20</v>
       </c>
-      <c r="F143" s="29">
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A144" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E144" s="31">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A145" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E145" s="29">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A146" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E146" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A147" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E147" s="31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A148" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E148" s="29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A149" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E149" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A150" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E150" s="31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A151" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E151" s="29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A152" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E152" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A153" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E153" s="29">
         <v>20</v>
       </c>
-      <c r="G143" s="29">
+      <c r="F153" s="29">
         <v>20</v>
       </c>
-      <c r="H143" s="29">
+      <c r="G153" s="29">
         <v>20</v>
       </c>
-      <c r="I143" s="29">
+      <c r="H153" s="29">
         <v>20</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" s="22" t="s">
+      <c r="I153" s="29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A154" s="22" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>121</v>
-      </c>
-      <c r="E145" s="30">
-        <f>$E$137/$E$141</f>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A155" t="s">
+        <v>133</v>
+      </c>
+      <c r="E155" s="30">
+        <f>$E$137/$E$143</f>
         <v>15.80864610214247</v>
       </c>
-      <c r="F145" s="30">
-        <f>$E$137/$E$141</f>
+      <c r="F155" s="30">
+        <f t="shared" ref="F155:I155" si="70">$E$137/$E$143</f>
         <v>15.80864610214247</v>
       </c>
-      <c r="G145" s="30">
-        <f>$E$137/$E$141</f>
+      <c r="G155" s="30">
+        <f t="shared" si="70"/>
         <v>15.80864610214247</v>
       </c>
-      <c r="H145" s="30">
-        <f>$E$137/$E$141</f>
+      <c r="H155" s="30">
+        <f t="shared" si="70"/>
         <v>15.80864610214247</v>
       </c>
-      <c r="I145" s="30">
-        <f>$E$137/$E$141</f>
+      <c r="I155" s="30">
+        <f t="shared" si="70"/>
         <v>15.80864610214247</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A156" t="s">
+        <v>143</v>
+      </c>
+      <c r="E156" s="30">
+        <f>$E$137/$E$144</f>
+        <v>13.173871751785391</v>
+      </c>
+      <c r="F156" s="30">
+        <f>$E$137/$E$144</f>
+        <v>13.173871751785391</v>
+      </c>
+      <c r="G156" s="30">
+        <f>$E$137/$E$144</f>
+        <v>13.173871751785391</v>
+      </c>
+      <c r="H156" s="30">
+        <f>$E$137/$E$144</f>
+        <v>13.173871751785391</v>
+      </c>
+      <c r="I156" s="30">
+        <f>$E$137/$E$144</f>
+        <v>13.173871751785391</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A157" t="s">
+        <v>134</v>
+      </c>
+      <c r="E157" s="30">
+        <f>$E$137/$E$145</f>
+        <v>6.3234584408569878</v>
+      </c>
+      <c r="F157" s="30">
+        <f t="shared" ref="F157:I157" si="71">$E$137/$E$145</f>
+        <v>6.3234584408569878</v>
+      </c>
+      <c r="G157" s="30">
+        <f t="shared" si="71"/>
+        <v>6.3234584408569878</v>
+      </c>
+      <c r="H157" s="30">
+        <f t="shared" si="71"/>
+        <v>6.3234584408569878</v>
+      </c>
+      <c r="I157" s="30">
+        <f t="shared" si="71"/>
+        <v>6.3234584408569878</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A158" t="s">
+        <v>135</v>
+      </c>
+      <c r="E158" s="30">
+        <f>$E$138/$E$146</f>
+        <v>161.1423593190502</v>
+      </c>
+      <c r="F158" s="30">
+        <f t="shared" ref="F158:I158" si="72">$E$138/$E$146</f>
+        <v>161.1423593190502</v>
+      </c>
+      <c r="G158" s="30">
+        <f t="shared" si="72"/>
+        <v>161.1423593190502</v>
+      </c>
+      <c r="H158" s="30">
+        <f t="shared" si="72"/>
+        <v>161.1423593190502</v>
+      </c>
+      <c r="I158" s="30">
+        <f t="shared" si="72"/>
+        <v>161.1423593190502</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A159" t="s">
+        <v>144</v>
+      </c>
+      <c r="E159" s="30">
+        <f>$E$138/$E$147</f>
+        <v>96.685415591430115</v>
+      </c>
+      <c r="F159" s="30">
+        <f>$E$138/$E$147</f>
+        <v>96.685415591430115</v>
+      </c>
+      <c r="G159" s="30">
+        <f>$E$138/$E$147</f>
+        <v>96.685415591430115</v>
+      </c>
+      <c r="H159" s="30">
+        <f>$E$138/$E$147</f>
+        <v>96.685415591430115</v>
+      </c>
+      <c r="I159" s="30">
+        <f>$E$138/$E$147</f>
+        <v>96.685415591430115</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A160" t="s">
+        <v>136</v>
+      </c>
+      <c r="E160" s="30">
+        <f>$E$138/$E$148</f>
+        <v>40.28558982976255</v>
+      </c>
+      <c r="F160" s="30">
+        <f t="shared" ref="F160:I160" si="73">$E$138/$E$148</f>
+        <v>40.28558982976255</v>
+      </c>
+      <c r="G160" s="30">
+        <f t="shared" si="73"/>
+        <v>40.28558982976255</v>
+      </c>
+      <c r="H160" s="30">
+        <f t="shared" si="73"/>
+        <v>40.28558982976255</v>
+      </c>
+      <c r="I160" s="30">
+        <f t="shared" si="73"/>
+        <v>40.28558982976255</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A161" t="s">
+        <v>137</v>
+      </c>
+      <c r="E161" s="30">
+        <f>$E$139/$E$149</f>
+        <v>25.466666666666669</v>
+      </c>
+      <c r="F161" s="30">
+        <f t="shared" ref="F161:I161" si="74">$E$139/$E$149</f>
+        <v>25.466666666666669</v>
+      </c>
+      <c r="G161" s="30">
+        <f t="shared" si="74"/>
+        <v>25.466666666666669</v>
+      </c>
+      <c r="H161" s="30">
+        <f t="shared" si="74"/>
+        <v>25.466666666666669</v>
+      </c>
+      <c r="I161" s="30">
+        <f t="shared" si="74"/>
+        <v>25.466666666666669</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A162" t="s">
+        <v>145</v>
+      </c>
+      <c r="E162" s="30">
+        <f>$E$139/$E$150</f>
+        <v>15.280000000000001</v>
+      </c>
+      <c r="F162" s="30">
+        <f t="shared" ref="F162:I162" si="75">$E$139/$E$150</f>
+        <v>15.280000000000001</v>
+      </c>
+      <c r="G162" s="30">
+        <f t="shared" si="75"/>
+        <v>15.280000000000001</v>
+      </c>
+      <c r="H162" s="30">
+        <f t="shared" si="75"/>
+        <v>15.280000000000001</v>
+      </c>
+      <c r="I162" s="30">
+        <f t="shared" si="75"/>
+        <v>15.280000000000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A163" t="s">
+        <v>138</v>
+      </c>
+      <c r="E163" s="30">
+        <f>$E$139/$E$151</f>
+        <v>5.8769230769230774</v>
+      </c>
+      <c r="F163" s="30">
+        <f t="shared" ref="F163:I163" si="76">$E$139/$E$151</f>
+        <v>5.8769230769230774</v>
+      </c>
+      <c r="G163" s="30">
+        <f t="shared" si="76"/>
+        <v>5.8769230769230774</v>
+      </c>
+      <c r="H163" s="30">
+        <f t="shared" si="76"/>
+        <v>5.8769230769230774</v>
+      </c>
+      <c r="I163" s="30">
+        <f t="shared" si="76"/>
+        <v>5.8769230769230774</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A164" t="s">
+        <v>125</v>
+      </c>
+      <c r="E164" s="30">
+        <f>$E$140/$E$152</f>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="F164" s="30">
+        <f>$E$140/$E$152</f>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="G164" s="30">
+        <f>$E$140/$E$152</f>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="H164" s="30">
+        <f>$E$140/$E$152</f>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="I164" s="30">
+        <f>$E$140/$E$152</f>
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A165" t="s">
+        <v>112</v>
+      </c>
+      <c r="E165" s="30">
+        <f>$E$141/$E$153</f>
+        <v>9.1119696000000001</v>
+      </c>
+      <c r="F165" s="30">
+        <f>$E$141/$E$153</f>
+        <v>9.1119696000000001</v>
+      </c>
+      <c r="G165" s="30">
+        <f>$E$141/$E$153</f>
+        <v>9.1119696000000001</v>
+      </c>
+      <c r="H165" s="30">
+        <f>$E$141/$E$153</f>
+        <v>9.1119696000000001</v>
+      </c>
+      <c r="I165" s="30">
+        <f>$E$141/$E$153</f>
+        <v>9.1119696000000001</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A166" t="s">
+        <v>113</v>
+      </c>
+      <c r="E166" s="30"/>
+      <c r="F166" s="30">
+        <f>$F$141/$F$153</f>
+        <v>9.7042476239999989</v>
+      </c>
+      <c r="G166" s="30">
+        <f>$F$141/$F$153</f>
+        <v>9.7042476239999989</v>
+      </c>
+      <c r="H166" s="30">
+        <f>$F$141/$F$153</f>
+        <v>9.7042476239999989</v>
+      </c>
+      <c r="I166" s="30">
+        <f>$F$141/$F$153</f>
+        <v>9.7042476239999989</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A167" t="s">
+        <v>114</v>
+      </c>
+      <c r="E167" s="30"/>
+      <c r="F167" s="30"/>
+      <c r="G167" s="30">
+        <f>$G$141/$G$153</f>
+        <v>10.335023719559999</v>
+      </c>
+      <c r="H167" s="30">
+        <f>$G$141/$G$153</f>
+        <v>10.335023719559999</v>
+      </c>
+      <c r="I167" s="30">
+        <f>$G$141/$G$153</f>
+        <v>10.335023719559999</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A168" t="s">
+        <v>115</v>
+      </c>
+      <c r="E168" s="30"/>
+      <c r="F168" s="30"/>
+      <c r="G168" s="30"/>
+      <c r="H168" s="30">
+        <f>$H$141/$H$153</f>
+        <v>11.006800261331398</v>
+      </c>
+      <c r="I168" s="30">
+        <f>$H$141/$H$153</f>
+        <v>11.006800261331398</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A169" t="s">
+        <v>116</v>
+      </c>
+      <c r="E169" s="30"/>
+      <c r="F169" s="30"/>
+      <c r="G169" s="30"/>
+      <c r="H169" s="30"/>
+      <c r="I169" s="30">
+        <f>$I$141/$I$153</f>
+        <v>11.722242278317939</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A170" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="E170" s="33">
+        <f>E156+E159+E162+E164+SUM(E$165:E$169)</f>
+        <v>154.65125694321551</v>
+      </c>
+      <c r="F170" s="33">
+        <f t="shared" ref="F170:I170" si="77">F156+F159+F162+F164+SUM(F165:F169)</f>
+        <v>164.35550456721552</v>
+      </c>
+      <c r="G170" s="33">
+        <f t="shared" si="77"/>
+        <v>174.6905282867755</v>
+      </c>
+      <c r="H170" s="33">
+        <f t="shared" si="77"/>
+        <v>185.6973285481069</v>
+      </c>
+      <c r="I170" s="33">
+        <f t="shared" si="77"/>
+        <v>197.41957082642483</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A171" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E171" s="30">
+        <f>E157+E160+E163+E164+SUM(E$165:E$169)</f>
+        <v>81.997940947542602</v>
+      </c>
+      <c r="F171" s="30">
+        <f t="shared" ref="F171:I171" si="78">F157+F160+F163+F164+SUM(F$165:F$169)</f>
+        <v>91.702188571542607</v>
+      </c>
+      <c r="G171" s="30">
+        <f t="shared" si="78"/>
+        <v>102.03721229110261</v>
+      </c>
+      <c r="H171" s="30">
+        <f t="shared" si="78"/>
+        <v>113.044012552434</v>
+      </c>
+      <c r="I171" s="30">
+        <f t="shared" si="78"/>
+        <v>124.76625483075195</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A172" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="E172" s="30">
+        <f>E155+E158+E161+E164+SUM(E$165:E$169)</f>
+        <v>231.92964168785934</v>
+      </c>
+      <c r="F172" s="30">
+        <f t="shared" ref="F172:I172" si="79">F155+F158+F161+F164+SUM(F$165:F$169)</f>
+        <v>241.63388931185932</v>
+      </c>
+      <c r="G172" s="30">
+        <f t="shared" si="79"/>
+        <v>251.96891303141933</v>
+      </c>
+      <c r="H172" s="30">
+        <f t="shared" si="79"/>
+        <v>262.97571329275075</v>
+      </c>
+      <c r="I172" s="30">
+        <f t="shared" si="79"/>
+        <v>274.69795557106869</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A173" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="E173" s="3">
+        <f>108.7/105.9-1</f>
+        <v>2.6440037771482405E-2</v>
+      </c>
+      <c r="F173" s="30"/>
+      <c r="G173" s="30"/>
+      <c r="H173" s="30"/>
+      <c r="I173" s="30"/>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A174" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E174" s="3">
+        <f>D88/C88-1</f>
+        <v>5.3749170537491953E-2</v>
+      </c>
+      <c r="G174" s="30"/>
+      <c r="H174" s="30"/>
+      <c r="I174" s="30"/>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A175" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="E175" s="30">
+        <f>$D$88*(1+$E$173)</f>
+        <v>162.99867799811142</v>
+      </c>
+      <c r="F175" s="30">
+        <f>E175*(1+$E$173)</f>
+        <v>167.3083692010832</v>
+      </c>
+      <c r="G175" s="30">
+        <f t="shared" ref="G175:I175" si="80">F175*(1+$E$173)</f>
+        <v>171.73200880224496</v>
+      </c>
+      <c r="H175" s="30">
+        <f t="shared" si="80"/>
+        <v>176.27260960154888</v>
+      </c>
+      <c r="I175" s="30">
+        <f t="shared" si="80"/>
+        <v>180.93326405749161</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A176" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="E176" s="30">
+        <f>$D$88*(1+$E$174)</f>
+        <v>167.33536828135374</v>
+      </c>
+      <c r="F176" s="30">
+        <f>E176*(1+$E$174)</f>
+        <v>176.32950552806224</v>
+      </c>
+      <c r="G176" s="30">
+        <f t="shared" ref="G176:I176" si="81">F176*(1+$E$174)</f>
+        <v>185.8070701914817</v>
+      </c>
+      <c r="H176" s="30">
+        <f t="shared" si="81"/>
+        <v>195.79404609427539</v>
+      </c>
+      <c r="I176" s="30">
+        <f t="shared" si="81"/>
+        <v>206.31781366802215</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A177" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="E177" s="30">
+        <f>E171-E175</f>
+        <v>-81.000737050568816</v>
+      </c>
+      <c r="F177" s="30">
+        <f>F171-F175</f>
+        <v>-75.606180629540589</v>
+      </c>
+      <c r="G177" s="30">
+        <f>G171-G175</f>
+        <v>-69.694796511142357</v>
+      </c>
+      <c r="H177" s="30">
+        <f>H171-H175</f>
+        <v>-63.228597049114882</v>
+      </c>
+      <c r="I177" s="30">
+        <f>I171-I175</f>
+        <v>-56.167009226739665</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A178" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E178" s="30">
+        <f>E172-E175</f>
+        <v>68.930963689747927</v>
+      </c>
+      <c r="F178" s="30">
+        <f>F172-F175</f>
+        <v>74.325520110776125</v>
+      </c>
+      <c r="G178" s="30">
+        <f>G172-G175</f>
+        <v>80.236904229174371</v>
+      </c>
+      <c r="H178" s="30">
+        <f>H172-H175</f>
+        <v>86.703103691201875</v>
+      </c>
+      <c r="I178" s="30">
+        <f>I172-I175</f>
+        <v>93.764691513577077</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A179" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="E179" s="32" t="str">
+        <f>IF(AND(E170&gt;=E175,E170&lt;=E176),"IN",IF(E170&lt;E175,"BELOW","ABOVE"))</f>
+        <v>BELOW</v>
+      </c>
+      <c r="F179" s="32" t="str">
+        <f t="shared" ref="F179:I179" si="82">IF(AND(F170&gt;=F175,F170&lt;=F176),"IN",IF(F170&lt;F175,"BELOW","ABOVE"))</f>
+        <v>BELOW</v>
+      </c>
+      <c r="G179" s="32" t="str">
+        <f t="shared" si="82"/>
+        <v>IN</v>
+      </c>
+      <c r="H179" s="32" t="str">
+        <f t="shared" si="82"/>
+        <v>IN</v>
+      </c>
+      <c r="I179" s="32" t="str">
+        <f t="shared" si="82"/>
+        <v>IN</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A181" s="22" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A182" s="22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A183" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E183" s="35">
+        <v>6.5629999999999994E-2</v>
+      </c>
+      <c r="F183" s="35">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G183" s="35">
+        <v>6.4820000000000003E-2</v>
+      </c>
+      <c r="H183" s="35">
+        <v>5.9959999999999999E-2</v>
+      </c>
+      <c r="I183" s="35">
+        <v>5.5460000000000002E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A184" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E184" s="35">
+        <v>0.35</v>
+      </c>
+      <c r="F184" s="35">
+        <v>0.26</v>
+      </c>
+      <c r="G184" s="35">
+        <v>0.156</v>
+      </c>
+      <c r="H184" s="35">
+        <v>0.1101</v>
+      </c>
+      <c r="I184" s="35">
+        <v>0.1101</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A185" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E146" s="30">
-        <f>$E$138/$E$142</f>
-        <v>69.0610111367358</v>
-      </c>
-      <c r="F146" s="30">
-        <f t="shared" ref="F146:I146" si="69">$E$138/$E$142</f>
-        <v>69.0610111367358</v>
-      </c>
-      <c r="G146" s="30">
-        <f t="shared" si="69"/>
-        <v>69.0610111367358</v>
-      </c>
-      <c r="H146" s="30">
-        <f t="shared" si="69"/>
-        <v>69.0610111367358</v>
-      </c>
-      <c r="I146" s="30">
-        <f t="shared" si="69"/>
-        <v>69.0610111367358</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+      <c r="E185" s="35">
+        <v>0.35</v>
+      </c>
+      <c r="F185" s="35">
+        <v>0.26</v>
+      </c>
+      <c r="G185" s="35">
+        <v>0.156</v>
+      </c>
+      <c r="H185" s="35">
+        <v>0.1101</v>
+      </c>
+      <c r="I185" s="35">
+        <v>0.1101</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A186" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E186" s="35">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="F186" s="35">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="G186" s="35">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="H186" s="35">
+        <v>0.1056</v>
+      </c>
+      <c r="I186" s="35">
+        <v>8.4500000000000006E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A187" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E147" s="30">
-        <f>$E$139/$E$143</f>
-        <v>9.1119696000000001</v>
-      </c>
-      <c r="F147" s="30">
-        <f>$E$139/$E$143</f>
-        <v>9.1119696000000001</v>
-      </c>
-      <c r="G147" s="30">
-        <f>$E$139/$E$143</f>
-        <v>9.1119696000000001</v>
-      </c>
-      <c r="H147" s="30">
-        <f>$E$139/$E$143</f>
-        <v>9.1119696000000001</v>
-      </c>
-      <c r="I147" s="30">
-        <f>$E$139/$E$143</f>
-        <v>9.1119696000000001</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+      <c r="E187" s="35">
+        <v>6.5629999999999994E-2</v>
+      </c>
+      <c r="F187" s="35">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G187" s="35">
+        <v>6.4820000000000003E-2</v>
+      </c>
+      <c r="H187" s="35">
+        <v>5.9959999999999999E-2</v>
+      </c>
+      <c r="I187" s="35">
+        <v>5.5460000000000002E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A188" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="E148" s="30"/>
-      <c r="F148" s="30">
-        <f>$F$139/$F$143</f>
-        <v>9.7042476239999989</v>
-      </c>
-      <c r="G148" s="30">
-        <f>$F$139/$F$143</f>
-        <v>9.7042476239999989</v>
-      </c>
-      <c r="H148" s="30">
-        <f>$F$139/$F$143</f>
-        <v>9.7042476239999989</v>
-      </c>
-      <c r="I148" s="30">
-        <f>$F$139/$F$143</f>
-        <v>9.7042476239999989</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="E188" s="36"/>
+      <c r="F188" s="35">
+        <v>6.5629999999999994E-2</v>
+      </c>
+      <c r="G188" s="35">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H188" s="35">
+        <v>6.4820000000000003E-2</v>
+      </c>
+      <c r="I188" s="35">
+        <v>5.9959999999999999E-2</v>
+      </c>
+      <c r="J188" s="34"/>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A189" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E149" s="30"/>
-      <c r="F149" s="30"/>
-      <c r="G149" s="30">
-        <f>$G$139/$G$143</f>
-        <v>10.335023719559999</v>
-      </c>
-      <c r="H149" s="30">
-        <f t="shared" ref="H149:I149" si="70">$G$139/$G$143</f>
-        <v>10.335023719559999</v>
-      </c>
-      <c r="I149" s="30">
-        <f t="shared" si="70"/>
-        <v>10.335023719559999</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="E189" s="36"/>
+      <c r="F189" s="36"/>
+      <c r="G189" s="35">
+        <v>6.5629999999999994E-2</v>
+      </c>
+      <c r="H189" s="35">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I189" s="35">
+        <v>6.4820000000000003E-2</v>
+      </c>
+      <c r="J189" s="34"/>
+      <c r="K189" s="34"/>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A190" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="E150" s="30"/>
-      <c r="F150" s="30"/>
-      <c r="G150" s="30"/>
-      <c r="H150" s="30">
-        <f>$H$139/$H$143</f>
-        <v>11.006800261331398</v>
-      </c>
-      <c r="I150" s="30">
-        <f>$H$139/$H$143</f>
-        <v>11.006800261331398</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+      <c r="E190" s="36"/>
+      <c r="F190" s="36"/>
+      <c r="G190" s="36"/>
+      <c r="H190" s="35">
+        <v>6.5629999999999994E-2</v>
+      </c>
+      <c r="I190" s="35">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J190" s="34"/>
+      <c r="K190" s="34"/>
+      <c r="L190" s="34"/>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A191" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="E151" s="30"/>
-      <c r="F151" s="30"/>
-      <c r="G151" s="30"/>
-      <c r="H151" s="30"/>
-      <c r="I151" s="30">
-        <f>$I$139/$I$143</f>
-        <v>11.722242278317939</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="E152" s="30">
-        <f>SUM(E145:E151)</f>
-        <v>93.98162683887827</v>
-      </c>
-      <c r="F152" s="30">
-        <f>SUM(F145:F151)</f>
-        <v>103.68587446287827</v>
-      </c>
-      <c r="G152" s="30">
-        <f>SUM(G145:G151)</f>
-        <v>114.02089818243827</v>
-      </c>
-      <c r="H152" s="30">
-        <f>SUM(H145:H151)</f>
-        <v>125.02769844376967</v>
-      </c>
-      <c r="I152" s="30">
-        <f>SUM(I145:I151)</f>
-        <v>136.74994072208762</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E154" s="30"/>
+      <c r="E191" s="36"/>
+      <c r="F191" s="36"/>
+      <c r="G191" s="36"/>
+      <c r="H191" s="36"/>
+      <c r="I191" s="35">
+        <v>6.5629999999999994E-2</v>
+      </c>
+      <c r="J191" s="34"/>
+      <c r="K191" s="34"/>
+      <c r="L191" s="34"/>
+      <c r="M191" s="34"/>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A192" s="22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A193" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E193" s="30">
+        <f>$E$137*E183</f>
+        <v>20.750428873672202</v>
+      </c>
+      <c r="F193" s="30">
+        <f t="shared" ref="F193:I194" si="83">$E$137*F183</f>
+        <v>22.132104542999461</v>
+      </c>
+      <c r="G193" s="30">
+        <f t="shared" si="83"/>
+        <v>20.494328806817499</v>
+      </c>
+      <c r="H193" s="30">
+        <f t="shared" si="83"/>
+        <v>18.957728405689249</v>
+      </c>
+      <c r="I193" s="30">
+        <f t="shared" si="83"/>
+        <v>17.53495025649643</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A194" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E194" s="30">
+        <f>$E$138*E184</f>
+        <v>169.1994772850027</v>
+      </c>
+      <c r="F194" s="30">
+        <f t="shared" ref="F194:I195" si="84">$E$138*F184</f>
+        <v>125.69104026885915</v>
+      </c>
+      <c r="G194" s="30">
+        <f t="shared" si="84"/>
+        <v>75.414624161315487</v>
+      </c>
+      <c r="H194" s="30">
+        <f t="shared" si="84"/>
+        <v>53.22532128308228</v>
+      </c>
+      <c r="I194" s="30">
+        <f t="shared" si="84"/>
+        <v>53.22532128308228</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A195" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E195" s="30">
+        <f>$E$139*E185</f>
+        <v>26.740000000000002</v>
+      </c>
+      <c r="F195" s="30">
+        <f t="shared" ref="F195:I196" si="85">$E$139*F185</f>
+        <v>19.864000000000001</v>
+      </c>
+      <c r="G195" s="30">
+        <f t="shared" si="85"/>
+        <v>11.9184</v>
+      </c>
+      <c r="H195" s="30">
+        <f t="shared" si="85"/>
+        <v>8.4116400000000002</v>
+      </c>
+      <c r="I195" s="30">
+        <f t="shared" si="85"/>
+        <v>8.4116400000000002</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A196" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E196" s="30">
+        <f>$E$140*E186</f>
+        <v>35.699999999999996</v>
+      </c>
+      <c r="F196" s="30">
+        <f t="shared" ref="F196:I196" si="86">$E$140*F186</f>
+        <v>33.660000000000004</v>
+      </c>
+      <c r="G196" s="30">
+        <f t="shared" si="86"/>
+        <v>26.928000000000001</v>
+      </c>
+      <c r="H196" s="30">
+        <f t="shared" si="86"/>
+        <v>21.542400000000001</v>
+      </c>
+      <c r="I196" s="30">
+        <f t="shared" si="86"/>
+        <v>17.238</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A197" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E197" s="30">
+        <f>$E$141*E187</f>
+        <v>11.96037129696</v>
+      </c>
+      <c r="F197" s="30">
+        <f t="shared" ref="F197:I197" si="87">$E$141*F187</f>
+        <v>12.756757440000001</v>
+      </c>
+      <c r="G197" s="30">
+        <f>$E$141*G187</f>
+        <v>11.812757389440002</v>
+      </c>
+      <c r="H197" s="30">
+        <f t="shared" si="87"/>
+        <v>10.92707394432</v>
+      </c>
+      <c r="I197" s="30">
+        <f t="shared" si="87"/>
+        <v>10.106996680320002</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A198" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F198" s="30">
+        <f>$F$141*F188</f>
+        <v>12.737795431262397</v>
+      </c>
+      <c r="G198" s="30">
+        <f t="shared" ref="G198:I198" si="88">$F$141*G188</f>
+        <v>13.585946673599999</v>
+      </c>
+      <c r="H198" s="30">
+        <f t="shared" si="88"/>
+        <v>12.580586619753598</v>
+      </c>
+      <c r="I198" s="30">
+        <f t="shared" si="88"/>
+        <v>11.637333750700797</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A199" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G199" s="30">
+        <f>$G$141*G189</f>
+        <v>13.565752134294453</v>
+      </c>
+      <c r="H199" s="30">
+        <f t="shared" ref="H199:I199" si="89">$G$141*H189</f>
+        <v>14.469033207383999</v>
+      </c>
+      <c r="I199" s="30">
+        <f t="shared" si="89"/>
+        <v>13.398324750037583</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A200" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H200" s="30">
+        <f>$H$141*H190</f>
+        <v>14.447526023023592</v>
+      </c>
+      <c r="I200" s="30">
+        <f>$H$141*I190</f>
+        <v>15.409520365863958</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A201" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="I201" s="30">
+        <f>$I$141*I191</f>
+        <v>15.386615214520125</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A202" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E202" s="33">
+        <f>SUM(E193:E201)</f>
+        <v>264.35027745563491</v>
+      </c>
+      <c r="F202" s="33">
+        <f t="shared" ref="F202:I202" si="90">SUM(F193:F201)</f>
+        <v>226.841697683121</v>
+      </c>
+      <c r="G202" s="33">
+        <f t="shared" si="90"/>
+        <v>173.71980916546747</v>
+      </c>
+      <c r="H202" s="33">
+        <f t="shared" si="90"/>
+        <v>154.56130948325273</v>
+      </c>
+      <c r="I202" s="33">
+        <f t="shared" si="90"/>
+        <v>162.34870230102118</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A204" s="22" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A205" t="s">
+        <v>159</v>
+      </c>
+      <c r="E205" s="30">
+        <f>E170</f>
+        <v>154.65125694321551</v>
+      </c>
+      <c r="F205" s="30">
+        <f t="shared" ref="F205:I205" si="91">F170</f>
+        <v>164.35550456721552</v>
+      </c>
+      <c r="G205" s="30">
+        <f t="shared" si="91"/>
+        <v>174.6905282867755</v>
+      </c>
+      <c r="H205" s="30">
+        <f t="shared" si="91"/>
+        <v>185.6973285481069</v>
+      </c>
+      <c r="I205" s="30">
+        <f t="shared" si="91"/>
+        <v>197.41957082642483</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A206" t="s">
+        <v>156</v>
+      </c>
+      <c r="E206" s="30">
+        <f>E202</f>
+        <v>264.35027745563491</v>
+      </c>
+      <c r="F206" s="30">
+        <f t="shared" ref="F206:I206" si="92">F202</f>
+        <v>226.841697683121</v>
+      </c>
+      <c r="G206" s="30">
+        <f t="shared" si="92"/>
+        <v>173.71980916546747</v>
+      </c>
+      <c r="H206" s="30">
+        <f t="shared" si="92"/>
+        <v>154.56130948325273</v>
+      </c>
+      <c r="I206" s="30">
+        <f t="shared" si="92"/>
+        <v>162.34870230102118</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A207" t="s">
+        <v>160</v>
+      </c>
+      <c r="E207" s="30">
+        <f>E206-E205</f>
+        <v>109.69902051241939</v>
+      </c>
+      <c r="F207" s="30">
+        <f>F206-F205</f>
+        <v>62.486193115905479</v>
+      </c>
+      <c r="G207" s="30">
+        <f t="shared" ref="G207:I207" si="93">G206-G205</f>
+        <v>-0.97071912130803639</v>
+      </c>
+      <c r="H207" s="30">
+        <f t="shared" si="93"/>
+        <v>-31.136019064854167</v>
+      </c>
+      <c r="I207" s="30">
+        <f t="shared" si="93"/>
+        <v>-35.070868525403654</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A208" t="s">
+        <v>161</v>
+      </c>
+      <c r="E208" s="37">
+        <f>E44</f>
+        <v>0.25</v>
+      </c>
+      <c r="F208" s="37">
+        <f>F44</f>
+        <v>0.25</v>
+      </c>
+      <c r="G208" s="37">
+        <f>G44</f>
+        <v>0.25</v>
+      </c>
+      <c r="H208" s="37">
+        <f>H44</f>
+        <v>0.25</v>
+      </c>
+      <c r="I208" s="37">
+        <f>I44</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="A209" t="s">
+        <v>162</v>
+      </c>
+      <c r="E209" s="30">
+        <f>E207*E208</f>
+        <v>27.424755128104849</v>
+      </c>
+      <c r="F209" s="30">
+        <f t="shared" ref="F209:I209" si="94">F207*F208</f>
+        <v>15.62154827897637</v>
+      </c>
+      <c r="G209" s="30">
+        <f t="shared" si="94"/>
+        <v>-0.2426797803270091</v>
+      </c>
+      <c r="H209" s="30">
+        <f t="shared" si="94"/>
+        <v>-7.7840047662135419</v>
+      </c>
+      <c r="I209" s="30">
+        <f t="shared" si="94"/>
+        <v>-8.7677171313509135</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MKC.xlsx
+++ b/MKC.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7874bdcc0642262c/Desktop/parcap-github/python-academy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njathar\Desktop\parcap-github\python-academy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="401" documentId="114_{B04F58CF-75ED-48D5-9A46-B59BB6CEDC40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{44793E0E-9F7D-4473-9973-85437C42BD57}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="21786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="21780" windowHeight="13980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,13 +32,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Nick Jathar</author>
     <author>Nikhil Jathar</author>
   </authors>
   <commentList>
-    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A15" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="A15" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A39" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="A39" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -111,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A62" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="A62" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -135,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A90" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="A90" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -159,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A92" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="A92" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -183,7 +182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A97" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="A97" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -207,12 +206,84 @@
         </r>
       </text>
     </comment>
+    <comment ref="A140" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick Jathar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+less allowances of $5.6 and $6.4 for 2019 and 2018 respectively</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A171" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nick Jathar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+authorized 320.0; 9.3 and 9.6 shares issued and outstanding as of 2019 and 2018 respectively</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A172" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nick Jathar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+authorized 320.0; 123.6 and 233.6 shares issued and outstanding as of 2019 and 2018 respectively</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="214">
   <si>
     <t>SG&amp;A</t>
   </si>
@@ -794,17 +865,284 @@
   <si>
     <t>Projected deferred tax liability</t>
   </si>
+  <si>
+    <t>BALANCE SHEET</t>
+  </si>
+  <si>
+    <t>ASSETS</t>
+  </si>
+  <si>
+    <r>
+      <t>Cash and cash equivalents [</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cash</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Trade accounts receivable [</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Receivables</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>Prepaid expenses and other current assets</t>
+  </si>
+  <si>
+    <t>Total current assets</t>
+  </si>
+  <si>
+    <r>
+      <t>Property, plant, and equipment, net [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PP&amp;E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>Land and improvements</t>
+  </si>
+  <si>
+    <t>Buildings (including capital leases)</t>
+  </si>
+  <si>
+    <t>Machinery, equipment and other</t>
+  </si>
+  <si>
+    <t>Construction-in-progress</t>
+  </si>
+  <si>
+    <t>Accumulated depreciation</t>
+  </si>
+  <si>
+    <t>Goodwill</t>
+  </si>
+  <si>
+    <r>
+      <t>Intangible assets, net [</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Intangibles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>Other long-term assets</t>
+  </si>
+  <si>
+    <t>Total assets</t>
+  </si>
+  <si>
+    <t>Capitalized software, net</t>
+  </si>
+  <si>
+    <t>Definite-lived intangible assets, accumulated amortization</t>
+  </si>
+  <si>
+    <t>Brand names and trademarks</t>
+  </si>
+  <si>
+    <t>LIABILITIES</t>
+  </si>
+  <si>
+    <t>Short-term borrowings</t>
+  </si>
+  <si>
+    <t>Current portion of long-term debt</t>
+  </si>
+  <si>
+    <r>
+      <t>Trade accounts payable [</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Payables</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t>Other accrued liabilities</t>
+  </si>
+  <si>
+    <t>Total current liabilities</t>
+  </si>
+  <si>
+    <t>Long-term debt</t>
+  </si>
+  <si>
+    <t>Other long-term liabilities</t>
+  </si>
+  <si>
+    <t>Total liabilities</t>
+  </si>
+  <si>
+    <t>SHAREHOLDERS EQUITY</t>
+  </si>
+  <si>
+    <t>Common stock, no par value</t>
+  </si>
+  <si>
+    <t>Common stock, non-voting, no par value</t>
+  </si>
+  <si>
+    <t>Retained earnings</t>
+  </si>
+  <si>
+    <t>Accumulated other comprehensive loss</t>
+  </si>
+  <si>
+    <t>Total McCormick shareholder's equity</t>
+  </si>
+  <si>
+    <t>Non-controlling interests</t>
+  </si>
+  <si>
+    <t>Total shareholder's equity</t>
+  </si>
+  <si>
+    <t>Total liabilities and shareholder's equity</t>
+  </si>
+  <si>
+    <t>OPERATING WORKING CAPITAL SCHEDULE</t>
+  </si>
+  <si>
+    <t>Current assets</t>
+  </si>
+  <si>
+    <t>Receivables</t>
+  </si>
+  <si>
+    <t>Days receivables</t>
+  </si>
+  <si>
+    <t>Inventory turnover</t>
+  </si>
+  <si>
+    <t>Prepaid expenses</t>
+  </si>
+  <si>
+    <t>Days prepaid</t>
+  </si>
+  <si>
+    <t>Current liabilities</t>
+  </si>
+  <si>
+    <t>Payables</t>
+  </si>
+  <si>
+    <t>Days payables</t>
+  </si>
+  <si>
+    <t>Accrued liabilities</t>
+  </si>
+  <si>
+    <t>Days accrued liabilities</t>
+  </si>
+  <si>
+    <t>Total operating working capital</t>
+  </si>
+  <si>
+    <t>Change in total operating working capital</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -884,6 +1222,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -930,7 +1296,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -981,6 +1347,19 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1295,20 +1674,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M209"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M275"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A83" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I94" sqref="I94"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A85" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62.1171875" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="10.41015625" customWidth="1"/>
+    <col min="1" max="1" width="62.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="2">
         <v>2017</v>
       </c>
@@ -1334,7 +1713,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>55</v>
       </c>
@@ -1363,7 +1742,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -1397,7 +1776,7 @@
         <v>7326.4014239487115</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>23</v>
       </c>
@@ -1426,7 +1805,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1460,7 +1839,7 @@
         <v>4469.1048686087142</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
@@ -1492,7 +1871,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>16</v>
       </c>
@@ -1526,7 +1905,7 @@
         <v>6.5000000000000169E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1563,7 +1942,7 @@
         <v>2857.2965553399972</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1600,7 +1979,7 @@
         <v>0.38999999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1634,7 +2013,7 @@
         <v>6.4999999999999725E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1644,7 +2023,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1681,7 +2060,7 @@
         <v>1392.0162705502553</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -1713,7 +2092,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -1747,7 +2126,7 @@
         <v>6.4999999999999947E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1776,7 +2155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>6</v>
       </c>
@@ -1805,7 +2184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>1</v>
       </c>
@@ -1842,7 +2221,7 @@
         <v>1392.0162705502553</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>26</v>
       </c>
@@ -1879,7 +2258,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
@@ -1913,7 +2292,7 @@
         <v>6.4999999999999947E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1923,7 +2302,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -1960,7 +2339,7 @@
         <v>1465.2802847897419</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1997,7 +2376,7 @@
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -2031,7 +2410,7 @@
         <v>6.4999999999999503E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -2041,7 +2420,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -2055,27 +2434,27 @@
         <v>158.80000000000001</v>
       </c>
       <c r="E25" s="24">
-        <f>E170</f>
-        <v>154.65125694321551</v>
+        <f>E216</f>
+        <v>154.63875694321553</v>
       </c>
       <c r="F25" s="24">
-        <f t="shared" ref="F25:I25" si="21">F170</f>
-        <v>164.35550456721552</v>
+        <f t="shared" ref="F25:I25" si="21">F216</f>
+        <v>164.34300456721553</v>
       </c>
       <c r="G25" s="24">
         <f t="shared" si="21"/>
-        <v>174.6905282867755</v>
+        <v>174.67802828677551</v>
       </c>
       <c r="H25" s="24">
         <f t="shared" si="21"/>
-        <v>185.6973285481069</v>
+        <v>185.68482854810691</v>
       </c>
       <c r="I25" s="24">
         <f t="shared" si="21"/>
-        <v>197.41957082642483</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.5">
+        <v>197.40707082642484</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -2097,7 +2476,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -2107,7 +2486,7 @@
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -2125,26 +2504,26 @@
       </c>
       <c r="E28" s="12">
         <f t="shared" ref="E28:I28" si="24">E21-E25</f>
-        <v>984.34494305678459</v>
+        <v>984.35744305678452</v>
       </c>
       <c r="F28" s="12">
         <f t="shared" si="24"/>
-        <v>1048.6754484327846</v>
+        <v>1048.6879484327847</v>
       </c>
       <c r="G28" s="12">
         <f t="shared" si="24"/>
-        <v>1117.1874366582244</v>
+        <v>1117.1999366582245</v>
       </c>
       <c r="H28" s="12">
         <f t="shared" si="24"/>
-        <v>1190.1527041183181</v>
+        <v>1190.1652041183181</v>
       </c>
       <c r="I28" s="12">
         <f t="shared" si="24"/>
-        <v>1267.860713963317</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.5">
+        <v>1267.8732139633171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -2162,26 +2541,26 @@
       </c>
       <c r="E29" s="3">
         <f t="shared" ref="E29:I29" si="26">E28/E$3</f>
-        <v>0.17284428921831077</v>
+        <v>0.17284648413344741</v>
       </c>
       <c r="F29" s="3">
         <f t="shared" si="26"/>
-        <v>0.17290168001719322</v>
+        <v>0.1729037409703732</v>
       </c>
       <c r="G29" s="3">
         <f t="shared" si="26"/>
-        <v>0.17295556809126122</v>
+        <v>0.17295750325856638</v>
       </c>
       <c r="H29" s="3">
         <f t="shared" si="26"/>
-        <v>0.17300616722184153</v>
+        <v>0.17300798428034403</v>
       </c>
       <c r="I29" s="3">
         <f t="shared" si="26"/>
-        <v>0.17305367814257411</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.5">
+        <v>0.17305538430079243</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -2196,26 +2575,26 @@
       </c>
       <c r="E30" s="3">
         <f t="shared" ref="E30:I30" si="27">E28/D28-1</f>
-        <v>2.7821805426317958E-2</v>
+        <v>2.7834857530317114E-2</v>
       </c>
       <c r="F30" s="3">
         <f t="shared" si="27"/>
-        <v>6.5353620018840264E-2</v>
+        <v>6.5352790116800286E-2</v>
       </c>
       <c r="G30" s="3">
         <f t="shared" si="27"/>
-        <v>6.533192736401805E-2</v>
+        <v>6.5331148629893088E-2</v>
       </c>
       <c r="H30" s="3">
         <f t="shared" si="27"/>
-        <v>6.5311571779172795E-2</v>
+        <v>6.5310841028462407E-2</v>
       </c>
       <c r="I30" s="3">
         <f t="shared" si="27"/>
-        <v>6.5292470097411792E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.5">
+        <v>6.5291784347338178E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -2225,7 +2604,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -2244,7 +2623,7 @@
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -2263,7 +2642,7 @@
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>9</v>
       </c>
@@ -2282,7 +2661,7 @@
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>14</v>
       </c>
@@ -2304,7 +2683,7 @@
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>30</v>
       </c>
@@ -2326,7 +2705,7 @@
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>52</v>
       </c>
@@ -2345,7 +2724,7 @@
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -2355,7 +2734,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -2373,26 +2752,26 @@
       </c>
       <c r="E39" s="12">
         <f t="shared" ref="E39:I39" si="28">E28-E35</f>
-        <v>984.34494305678459</v>
+        <v>984.35744305678452</v>
       </c>
       <c r="F39" s="12">
         <f t="shared" si="28"/>
-        <v>1048.6754484327846</v>
+        <v>1048.6879484327847</v>
       </c>
       <c r="G39" s="12">
         <f t="shared" si="28"/>
-        <v>1117.1874366582244</v>
+        <v>1117.1999366582245</v>
       </c>
       <c r="H39" s="12">
         <f t="shared" si="28"/>
-        <v>1190.1527041183181</v>
+        <v>1190.1652041183181</v>
       </c>
       <c r="I39" s="12">
         <f t="shared" si="28"/>
-        <v>1267.860713963317</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.5">
+        <v>1267.8732139633171</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -2410,26 +2789,26 @@
       </c>
       <c r="E40" s="3">
         <f t="shared" ref="E40:I40" si="30">E39/E$3</f>
-        <v>0.17284428921831077</v>
+        <v>0.17284648413344741</v>
       </c>
       <c r="F40" s="3">
         <f t="shared" si="30"/>
-        <v>0.17290168001719322</v>
+        <v>0.1729037409703732</v>
       </c>
       <c r="G40" s="3">
         <f t="shared" si="30"/>
-        <v>0.17295556809126122</v>
+        <v>0.17295750325856638</v>
       </c>
       <c r="H40" s="3">
         <f t="shared" si="30"/>
-        <v>0.17300616722184153</v>
+        <v>0.17300798428034403</v>
       </c>
       <c r="I40" s="3">
         <f t="shared" si="30"/>
-        <v>0.17305367814257411</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.5">
+        <v>0.17305538430079243</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>32</v>
       </c>
@@ -2444,26 +2823,26 @@
       </c>
       <c r="E41" s="3">
         <f t="shared" ref="E41:I41" si="31">E39/D39-1</f>
-        <v>0.20159294806736416</v>
+        <v>0.20160820685642666</v>
       </c>
       <c r="F41" s="3">
         <f t="shared" si="31"/>
-        <v>6.5353620018840264E-2</v>
+        <v>6.5352790116800286E-2</v>
       </c>
       <c r="G41" s="3">
         <f t="shared" si="31"/>
-        <v>6.533192736401805E-2</v>
+        <v>6.5331148629893088E-2</v>
       </c>
       <c r="H41" s="3">
         <f t="shared" si="31"/>
-        <v>6.5311571779172795E-2</v>
+        <v>6.5310841028462407E-2</v>
       </c>
       <c r="I41" s="3">
         <f t="shared" si="31"/>
-        <v>6.5292470097411792E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.5">
+        <v>6.5291784347338178E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -2478,26 +2857,26 @@
       </c>
       <c r="E43" s="12">
         <f>E39*E44</f>
-        <v>246.08623576419615</v>
+        <v>246.08936076419613</v>
       </c>
       <c r="F43" s="12">
         <f t="shared" ref="F43:I43" si="32">F39*F44</f>
-        <v>262.16886210819615</v>
+        <v>262.17198710819616</v>
       </c>
       <c r="G43" s="12">
         <f t="shared" si="32"/>
-        <v>279.29685916455611</v>
+        <v>279.29998416455612</v>
       </c>
       <c r="H43" s="12">
         <f t="shared" si="32"/>
-        <v>297.53817602957952</v>
+        <v>297.54130102957953</v>
       </c>
       <c r="I43" s="12">
         <f t="shared" si="32"/>
-        <v>316.96517849082926</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.5">
+        <v>316.96830349082927</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -2529,7 +2908,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>34</v>
       </c>
@@ -2547,26 +2926,26 @@
       </c>
       <c r="E46" s="12">
         <f t="shared" ref="E46:I46" si="33">E39-E43</f>
-        <v>738.2587072925885</v>
+        <v>738.26808229258836</v>
       </c>
       <c r="F46" s="12">
         <f t="shared" si="33"/>
-        <v>786.5065863245884</v>
+        <v>786.51596132458849</v>
       </c>
       <c r="G46" s="12">
         <f t="shared" si="33"/>
-        <v>837.89057749366839</v>
+        <v>837.89995249366837</v>
       </c>
       <c r="H46" s="12">
         <f t="shared" si="33"/>
-        <v>892.61452808873855</v>
+        <v>892.62390308873864</v>
       </c>
       <c r="I46" s="12">
         <f t="shared" si="33"/>
-        <v>950.89553547248784</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.5">
+        <v>950.90491047248781</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>35</v>
       </c>
@@ -2584,26 +2963,26 @@
       </c>
       <c r="E47" s="3">
         <f t="shared" ref="E47:I47" si="35">E46/E$3</f>
-        <v>0.12963321691373308</v>
+        <v>0.12963486310008557</v>
       </c>
       <c r="F47" s="3">
         <f t="shared" si="35"/>
-        <v>0.1296762600128949</v>
+        <v>0.1296778057277799</v>
       </c>
       <c r="G47" s="3">
         <f t="shared" si="35"/>
-        <v>0.12971667606844592</v>
+        <v>0.12971812744392477</v>
       </c>
       <c r="H47" s="3">
         <f t="shared" si="35"/>
-        <v>0.12975462541638116</v>
+        <v>0.12975598821025802</v>
       </c>
       <c r="I47" s="3">
         <f t="shared" si="35"/>
-        <v>0.12979025860693061</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.5">
+        <v>0.12979153822559431</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>36</v>
       </c>
@@ -2618,26 +2997,26 @@
       </c>
       <c r="E48" s="3">
         <f t="shared" ref="E48:I48" si="36">E46/D46-1</f>
-        <v>0.11553144045419872</v>
+        <v>0.11554560636534994</v>
       </c>
       <c r="F48" s="3">
         <f t="shared" si="36"/>
-        <v>6.5353620018840042E-2</v>
+        <v>6.5352790116800286E-2</v>
       </c>
       <c r="G48" s="3">
         <f t="shared" si="36"/>
-        <v>6.5331927364018272E-2</v>
+        <v>6.5331148629893088E-2</v>
       </c>
       <c r="H48" s="3">
         <f t="shared" si="36"/>
-        <v>6.5311571779172573E-2</v>
+        <v>6.531084102846263E-2</v>
       </c>
       <c r="I48" s="3">
         <f t="shared" si="36"/>
-        <v>6.5292470097411792E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.5">
+        <v>6.5291784347338178E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>11</v>
       </c>
@@ -2652,26 +3031,26 @@
       </c>
       <c r="E50" s="12">
         <f>E46*E51</f>
-        <v>51.6781095104812</v>
+        <v>51.678765760481191</v>
       </c>
       <c r="F50" s="12">
         <f t="shared" ref="F50:I50" si="37">F46*F51</f>
-        <v>55.055461042721191</v>
+        <v>55.056117292721197</v>
       </c>
       <c r="G50" s="12">
         <f t="shared" si="37"/>
-        <v>58.65234042455679</v>
+        <v>58.652996674556789</v>
       </c>
       <c r="H50" s="12">
         <f t="shared" si="37"/>
-        <v>62.483016966211707</v>
+        <v>62.483673216211713</v>
       </c>
       <c r="I50" s="12">
         <f t="shared" si="37"/>
-        <v>66.562687483074157</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.5">
+        <v>66.563343733074149</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>40</v>
       </c>
@@ -2703,7 +3082,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>41</v>
       </c>
@@ -2718,26 +3097,26 @@
       </c>
       <c r="E52" s="3">
         <f t="shared" ref="E52:I52" si="38">E50/D50-1</f>
-        <v>0.26352345991396575</v>
+        <v>0.26353950514623947</v>
       </c>
       <c r="F52" s="3">
         <f t="shared" si="38"/>
-        <v>6.5353620018840042E-2</v>
+        <v>6.5352790116800064E-2</v>
       </c>
       <c r="G52" s="3">
         <f t="shared" si="38"/>
-        <v>6.5331927364018272E-2</v>
+        <v>6.5331148629893088E-2</v>
       </c>
       <c r="H52" s="3">
         <f t="shared" si="38"/>
-        <v>6.5311571779172795E-2</v>
+        <v>6.531084102846263E-2</v>
       </c>
       <c r="I52" s="3">
         <f t="shared" si="38"/>
-        <v>6.5292470097411792E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.5">
+        <v>6.5291784347337956E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
@@ -2747,7 +3126,7 @@
       <c r="H53" s="11"/>
       <c r="I53" s="11"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>38</v>
       </c>
@@ -2765,26 +3144,26 @@
       </c>
       <c r="E54" s="12">
         <f t="shared" ref="E54:I54" si="39">E46+E50</f>
-        <v>789.93681680306975</v>
+        <v>789.94684805306952</v>
       </c>
       <c r="F54" s="12">
         <f t="shared" si="39"/>
-        <v>841.56204736730956</v>
+        <v>841.57207861730967</v>
       </c>
       <c r="G54" s="12">
         <f t="shared" si="39"/>
-        <v>896.54291791822516</v>
+        <v>896.55294916822515</v>
       </c>
       <c r="H54" s="12">
         <f t="shared" si="39"/>
-        <v>955.09754505495027</v>
+        <v>955.10757630495038</v>
       </c>
       <c r="I54" s="12">
         <f t="shared" si="39"/>
-        <v>1017.458222955562</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.5">
+        <v>1017.4682542055619</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -2802,26 +3181,26 @@
       </c>
       <c r="E55" s="3">
         <f t="shared" ref="E55:I55" si="41">E54/E$3</f>
-        <v>0.1387075420976944</v>
+        <v>0.13870930351709154</v>
       </c>
       <c r="F55" s="3">
         <f t="shared" si="41"/>
-        <v>0.13875359821379754</v>
+        <v>0.1387552521287245</v>
       </c>
       <c r="G55" s="3">
         <f t="shared" si="41"/>
-        <v>0.13879684339323714</v>
+        <v>0.13879839636499952</v>
       </c>
       <c r="H55" s="3">
         <f t="shared" si="41"/>
-        <v>0.13883744919552785</v>
+        <v>0.13883890738497609</v>
       </c>
       <c r="I55" s="3">
         <f t="shared" si="41"/>
-        <v>0.13887557670941575</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.5">
+        <v>0.13887694590138591</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>39</v>
       </c>
@@ -2836,26 +3215,26 @@
       </c>
       <c r="E56" s="3">
         <f t="shared" ref="E56:I56" si="42">E54/D54-1</f>
-        <v>0.124145178316593</v>
+        <v>0.12415945361188241</v>
       </c>
       <c r="F56" s="3">
         <f t="shared" si="42"/>
-        <v>6.5353620018840042E-2</v>
+        <v>6.5352790116800286E-2</v>
       </c>
       <c r="G56" s="3">
         <f t="shared" si="42"/>
-        <v>6.5331927364018272E-2</v>
+        <v>6.5331148629893088E-2</v>
       </c>
       <c r="H56" s="3">
         <f t="shared" si="42"/>
-        <v>6.5311571779172795E-2</v>
+        <v>6.531084102846263E-2</v>
       </c>
       <c r="I56" s="3">
         <f t="shared" si="42"/>
-        <v>6.5292470097411792E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.5">
+        <v>6.5291784347338178E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -2870,26 +3249,26 @@
       </c>
       <c r="E58" s="12">
         <f>E46*AVERAGE($B$59:$D$59)</f>
-        <v>2.4980222505945813</v>
+        <v>2.4980539724806459</v>
       </c>
       <c r="F58" s="12">
         <f>F46*AVERAGE($B$59:$D$59)</f>
-        <v>2.661277047558547</v>
+        <v>2.6613087694446125</v>
       </c>
       <c r="G58" s="12">
         <f>G46*AVERAGE($B$59:$D$59)</f>
-        <v>2.8351434063251713</v>
+        <v>2.8351751282112363</v>
       </c>
       <c r="H58" s="12">
         <f>H46*AVERAGE($B$59:$D$59)</f>
-        <v>3.0203110784116256</v>
+        <v>3.0203428002976911</v>
       </c>
       <c r="I58" s="12">
         <f>I46*AVERAGE($B$59:$D$59)</f>
-        <v>3.2175146491836983</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.5">
+        <v>3.2175463710697634</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -2919,19 +3298,19 @@
       </c>
       <c r="H59" s="3">
         <f t="shared" si="43"/>
-        <v>3.3836678469469899E-3</v>
+        <v>3.3836678469469903E-3</v>
       </c>
       <c r="I59" s="3">
         <f t="shared" si="43"/>
         <v>3.3836678469469903E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -2950,7 +3329,7 @@
       <c r="H62" s="11"/>
       <c r="I62" s="11"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -2969,7 +3348,7 @@
       <c r="H63" s="11"/>
       <c r="I63" s="11"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -2988,7 +3367,7 @@
       <c r="H64" s="11"/>
       <c r="I64" s="11"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -3007,7 +3386,7 @@
       <c r="H65" s="11"/>
       <c r="I65" s="11"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -3044,7 +3423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -3062,26 +3441,26 @@
       </c>
       <c r="E68" s="12">
         <f t="shared" si="45"/>
-        <v>792.43483905366429</v>
+        <v>792.44490202555016</v>
       </c>
       <c r="F68" s="12">
         <f t="shared" si="45"/>
-        <v>844.2233244148681</v>
+        <v>844.23338738675432</v>
       </c>
       <c r="G68" s="12">
         <f t="shared" si="45"/>
-        <v>899.37806132455034</v>
+        <v>899.38812429643644</v>
       </c>
       <c r="H68" s="12">
         <f t="shared" si="45"/>
-        <v>958.1178561333619</v>
+        <v>958.12791910524811</v>
       </c>
       <c r="I68" s="12">
         <f t="shared" si="45"/>
-        <v>1020.6757376047457</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.5">
+        <v>1020.6858005766317</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>3</v>
       </c>
@@ -3115,7 +3494,7 @@
         <v>132.6</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -3149,7 +3528,7 @@
         <v>134.1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>44</v>
       </c>
@@ -3167,26 +3546,26 @@
       </c>
       <c r="E73" s="7">
         <f t="shared" si="48"/>
-        <v>5.5675618951175609</v>
+        <v>5.5676325964750255</v>
       </c>
       <c r="F73" s="7">
         <f t="shared" si="48"/>
-        <v>5.9314222196424469</v>
+        <v>5.9314929209999132</v>
       </c>
       <c r="G73" s="7">
         <f t="shared" si="48"/>
-        <v>6.3189334652614511</v>
+        <v>6.3190041666189174</v>
       </c>
       <c r="H73" s="7">
         <f t="shared" si="48"/>
-        <v>6.7316329418456906</v>
+        <v>6.7317036432031578</v>
       </c>
       <c r="I73" s="7">
         <f t="shared" si="48"/>
-        <v>7.1711578844079025</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.5">
+        <v>7.1712285857653688</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>46</v>
       </c>
@@ -3201,26 +3580,26 @@
       </c>
       <c r="E74" s="3">
         <f t="shared" ref="E74:I74" si="49">E73/D73-1</f>
-        <v>0.11553144045419872</v>
+        <v>0.11554560636534972</v>
       </c>
       <c r="F74" s="3">
         <f t="shared" si="49"/>
-        <v>6.5353620018840042E-2</v>
+        <v>6.5352790116800286E-2</v>
       </c>
       <c r="G74" s="3">
         <f t="shared" si="49"/>
-        <v>6.5331927364018272E-2</v>
+        <v>6.5331148629893088E-2</v>
       </c>
       <c r="H74" s="3">
         <f t="shared" si="49"/>
-        <v>6.5311571779172573E-2</v>
+        <v>6.531084102846263E-2</v>
       </c>
       <c r="I74" s="3">
         <f t="shared" si="49"/>
-        <v>6.5292470097411792E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.5">
+        <v>6.5291784347338178E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>45</v>
       </c>
@@ -3238,26 +3617,26 @@
       </c>
       <c r="E75" s="7">
         <f t="shared" si="50"/>
-        <v>5.5052849164249702</v>
+        <v>5.5053548269395112</v>
       </c>
       <c r="F75" s="7">
         <f t="shared" si="50"/>
-        <v>5.86507521494846</v>
+        <v>5.8651451254630018</v>
       </c>
       <c r="G75" s="7">
         <f t="shared" si="50"/>
-        <v>6.2482518828759765</v>
+        <v>6.2483217933905175</v>
       </c>
       <c r="H75" s="7">
         <f t="shared" si="50"/>
-        <v>6.656335034218781</v>
+        <v>6.6564049447333238</v>
       </c>
       <c r="I75" s="7">
         <f t="shared" si="50"/>
-        <v>7.090943590398866</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.5">
+        <v>7.091013500913407</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>47</v>
       </c>
@@ -3272,26 +3651,26 @@
       </c>
       <c r="E76" s="3">
         <f t="shared" ref="E76:I76" si="51">E75/D75-1</f>
-        <v>0.11553144045419872</v>
+        <v>0.11554560636534994</v>
       </c>
       <c r="F76" s="3">
         <f t="shared" si="51"/>
-        <v>6.5353620018840264E-2</v>
+        <v>6.5352790116800286E-2</v>
       </c>
       <c r="G76" s="3">
         <f t="shared" si="51"/>
-        <v>6.5331927364018272E-2</v>
+        <v>6.5331148629893088E-2</v>
       </c>
       <c r="H76" s="3">
         <f t="shared" si="51"/>
-        <v>6.5311571779172573E-2</v>
+        <v>6.531084102846263E-2</v>
       </c>
       <c r="I76" s="3">
         <f t="shared" si="51"/>
-        <v>6.5292470097411792E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.5">
+        <v>6.5291784347338178E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -3301,7 +3680,7 @@
       <c r="H77" s="7"/>
       <c r="I77" s="7"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>42</v>
       </c>
@@ -3319,26 +3698,26 @@
       </c>
       <c r="E78" s="7">
         <f t="shared" si="52"/>
-        <v>5.9572912277757899</v>
+        <v>5.9573668782282772</v>
       </c>
       <c r="F78" s="7">
         <f t="shared" si="52"/>
-        <v>6.3466217750174181</v>
+        <v>6.3466974254699071</v>
       </c>
       <c r="G78" s="7">
         <f t="shared" si="52"/>
-        <v>6.7612588078297522</v>
+        <v>6.7613344582822412</v>
       </c>
       <c r="H78" s="7">
         <f t="shared" si="52"/>
-        <v>7.2028472477748888</v>
+        <v>7.2029228982273787</v>
       </c>
       <c r="I78" s="7">
         <f t="shared" si="52"/>
-        <v>7.6731389363164553</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.5">
+        <v>7.6732145867689443</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>48</v>
       </c>
@@ -3353,26 +3732,26 @@
       </c>
       <c r="E79" s="3">
         <f t="shared" ref="E79:I79" si="53">E78/D78-1</f>
-        <v>0.124145178316593</v>
+        <v>0.12415945361188241</v>
       </c>
       <c r="F79" s="3">
         <f t="shared" si="53"/>
-        <v>6.5353620018840042E-2</v>
+        <v>6.5352790116800286E-2</v>
       </c>
       <c r="G79" s="3">
         <f t="shared" si="53"/>
-        <v>6.5331927364018272E-2</v>
+        <v>6.5331148629893088E-2</v>
       </c>
       <c r="H79" s="3">
         <f t="shared" si="53"/>
-        <v>6.5311571779172795E-2</v>
+        <v>6.531084102846263E-2</v>
       </c>
       <c r="I79" s="3">
         <f t="shared" si="53"/>
-        <v>6.5292470097411792E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.5">
+        <v>6.5291784347338178E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>43</v>
       </c>
@@ -3390,26 +3769,26 @@
       </c>
       <c r="E80" s="7">
         <f t="shared" si="54"/>
-        <v>5.8906548605747187</v>
+        <v>5.890729664825276</v>
       </c>
       <c r="F80" s="7">
         <f t="shared" si="54"/>
-        <v>6.2756304799948515</v>
+        <v>6.2757052842454115</v>
       </c>
       <c r="G80" s="7">
         <f t="shared" si="54"/>
-        <v>6.6856295146772942</v>
+        <v>6.6857043189278542</v>
       </c>
       <c r="H80" s="7">
         <f t="shared" si="54"/>
-        <v>7.1222784866140962</v>
+        <v>7.1223532908646563</v>
       </c>
       <c r="I80" s="7">
         <f t="shared" si="54"/>
-        <v>7.5873096417267858</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.5">
+        <v>7.587384445977345</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>49</v>
       </c>
@@ -3423,26 +3802,26 @@
       </c>
       <c r="E81" s="3">
         <f t="shared" ref="E81:I81" si="55">E80/D80-1</f>
-        <v>0.12414517831659322</v>
+        <v>0.12415945361188241</v>
       </c>
       <c r="F81" s="3">
         <f t="shared" si="55"/>
-        <v>6.5353620018840042E-2</v>
+        <v>6.5352790116800286E-2</v>
       </c>
       <c r="G81" s="3">
         <f t="shared" si="55"/>
-        <v>6.5331927364018272E-2</v>
+        <v>6.5331148629893088E-2</v>
       </c>
       <c r="H81" s="3">
         <f t="shared" si="55"/>
-        <v>6.5311571779172795E-2</v>
+        <v>6.5310841028462407E-2</v>
       </c>
       <c r="I81" s="3">
         <f t="shared" si="55"/>
-        <v>6.5292470097411792E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.5">
+        <v>6.5291784347337956E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B84" s="2">
         <f>B1</f>
         <v>2017</v>
@@ -3476,7 +3855,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="19" t="s">
         <v>56</v>
       </c>
@@ -3513,12 +3892,12 @@
         <v>Est</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="22" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>38</v>
       </c>
@@ -3536,26 +3915,26 @@
       </c>
       <c r="E87" s="12">
         <f t="shared" si="58"/>
-        <v>789.93681680306975</v>
+        <v>789.94684805306952</v>
       </c>
       <c r="F87" s="12">
         <f t="shared" si="58"/>
-        <v>841.56204736730956</v>
+        <v>841.57207861730967</v>
       </c>
       <c r="G87" s="12">
         <f t="shared" si="58"/>
-        <v>896.54291791822516</v>
+        <v>896.55294916822515</v>
       </c>
       <c r="H87" s="12">
         <f t="shared" si="58"/>
-        <v>955.09754505495027</v>
+        <v>955.10757630495038</v>
       </c>
       <c r="I87" s="12">
         <f t="shared" si="58"/>
-        <v>1017.458222955562</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.5">
+        <v>1017.4682542055619</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>67</v>
       </c>
@@ -3573,26 +3952,26 @@
       </c>
       <c r="E88" s="12">
         <f t="shared" si="59"/>
-        <v>154.65125694321551</v>
+        <v>154.63875694321553</v>
       </c>
       <c r="F88" s="12">
         <f t="shared" si="59"/>
-        <v>164.35550456721552</v>
+        <v>164.34300456721553</v>
       </c>
       <c r="G88" s="12">
         <f t="shared" si="59"/>
-        <v>174.6905282867755</v>
+        <v>174.67802828677551</v>
       </c>
       <c r="H88" s="12">
         <f t="shared" si="59"/>
-        <v>185.6973285481069</v>
+        <v>185.68482854810691</v>
       </c>
       <c r="I88" s="12">
         <f t="shared" si="59"/>
-        <v>197.41957082642483</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.5">
+        <v>197.40707082642484</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>68</v>
       </c>
@@ -3611,7 +3990,7 @@
       <c r="H89" s="11"/>
       <c r="I89" s="11"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>69</v>
       </c>
@@ -3636,7 +4015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>70</v>
       </c>
@@ -3661,7 +4040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>71</v>
       </c>
@@ -3688,7 +4067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>73</v>
       </c>
@@ -3707,7 +4086,7 @@
       <c r="H93" s="11"/>
       <c r="I93" s="11"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>72</v>
       </c>
@@ -3721,27 +4100,27 @@
         <v>20.9</v>
       </c>
       <c r="E94" s="12">
-        <f>E209</f>
-        <v>27.424755128104849</v>
+        <f>E255</f>
+        <v>27.422957878104839</v>
       </c>
       <c r="F94" s="12">
-        <f>F209</f>
-        <v>15.62154827897637</v>
+        <f>F255</f>
+        <v>15.61942327897637</v>
       </c>
       <c r="G94" s="12">
-        <f>G209</f>
-        <v>-0.2426797803270091</v>
+        <f>G255</f>
+        <v>-0.24441628032700891</v>
       </c>
       <c r="H94" s="12">
-        <f>H209</f>
-        <v>-7.7840047662135419</v>
+        <f>H255</f>
+        <v>-7.7853767662135454</v>
       </c>
       <c r="I94" s="12">
-        <f>I209</f>
-        <v>-8.7677171313509135</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.5">
+        <f>I255</f>
+        <v>-8.7687516313509164</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>11</v>
       </c>
@@ -3759,26 +4138,26 @@
       </c>
       <c r="E95" s="12">
         <f t="shared" si="60"/>
-        <v>-51.6781095104812</v>
+        <v>-51.678765760481191</v>
       </c>
       <c r="F95" s="12">
         <f t="shared" si="60"/>
-        <v>-55.055461042721191</v>
+        <v>-55.056117292721197</v>
       </c>
       <c r="G95" s="12">
         <f t="shared" si="60"/>
-        <v>-58.65234042455679</v>
+        <v>-58.652996674556789</v>
       </c>
       <c r="H95" s="12">
         <f t="shared" si="60"/>
-        <v>-62.483016966211707</v>
+        <v>-62.483673216211713</v>
       </c>
       <c r="I95" s="12">
         <f t="shared" si="60"/>
-        <v>-66.562687483074157</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.5">
+        <v>-66.563343733074149</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>74</v>
       </c>
@@ -3803,12 +4182,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>76</v>
       </c>
@@ -3821,8 +4200,28 @@
       <c r="D98" s="11">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="E98" s="12">
+        <f>-(E261-D261)</f>
+        <v>-34.959316666666609</v>
+      </c>
+      <c r="F98" s="12">
+        <f t="shared" ref="F98:I99" si="61">-(F261-E261)</f>
+        <v>-34.960855583333341</v>
+      </c>
+      <c r="G98" s="12">
+        <f t="shared" si="61"/>
+        <v>-37.233311196249929</v>
+      </c>
+      <c r="H98" s="12">
+        <f t="shared" si="61"/>
+        <v>-39.653476424006271</v>
+      </c>
+      <c r="I98" s="12">
+        <f t="shared" si="61"/>
+        <v>-42.230952391566575</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
         <v>77</v>
       </c>
@@ -3835,8 +4234,28 @@
       <c r="D99" s="11">
         <v>-20.9</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.5">
+      <c r="E99" s="12">
+        <f>-(E263-D263)</f>
+        <v>-57.634773583333299</v>
+      </c>
+      <c r="F99" s="12">
+        <f t="shared" ref="F99:I99" si="62">-(F263-E263)</f>
+        <v>-55.824260282916498</v>
+      </c>
+      <c r="G99" s="12">
+        <f t="shared" si="62"/>
+        <v>-59.452837201306238</v>
+      </c>
+      <c r="H99" s="12">
+        <f t="shared" si="62"/>
+        <v>-63.317271619391136</v>
+      </c>
+      <c r="I99" s="12">
+        <f t="shared" si="62"/>
+        <v>-67.432894274651517</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
         <v>78</v>
       </c>
@@ -3850,7 +4269,7 @@
         <v>128.19999999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
         <v>79</v>
       </c>
@@ -3864,7 +4283,7 @@
         <v>-81.5</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>105</v>
       </c>
@@ -3883,7 +4302,7 @@
       <c r="H102" s="12"/>
       <c r="I102" s="12"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="21" t="s">
         <v>80</v>
       </c>
@@ -3900,27 +4319,27 @@
         <v>946.79999999999973</v>
       </c>
       <c r="E103" s="12">
-        <f t="shared" ref="E103:I103" si="61">E87+SUM(E88:E102)</f>
-        <v>920.3347193639089</v>
+        <f t="shared" ref="E103:I103" si="63">E87+SUM(E88:E102)</f>
+        <v>827.73570686390883</v>
       </c>
       <c r="F103" s="12">
-        <f t="shared" si="61"/>
-        <v>966.48363917078029</v>
+        <f t="shared" si="63"/>
+        <v>875.69327330453052</v>
       </c>
       <c r="G103" s="12">
-        <f t="shared" si="61"/>
-        <v>1012.3384260001169</v>
+        <f t="shared" si="63"/>
+        <v>915.64741610256067</v>
       </c>
       <c r="H103" s="12">
-        <f t="shared" si="61"/>
-        <v>1070.5278518706318</v>
+        <f t="shared" si="63"/>
+        <v>967.55260682723463</v>
       </c>
       <c r="I103" s="12">
-        <f t="shared" si="61"/>
-        <v>1139.5473891675617</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.5">
+        <f t="shared" si="63"/>
+        <v>1029.8793830013437</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="21"/>
       <c r="B104" s="12"/>
       <c r="C104" s="12"/>
@@ -3931,12 +4350,12 @@
       <c r="H104" s="12"/>
       <c r="I104" s="12"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="22" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>81</v>
       </c>
@@ -3963,7 +4382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>102</v>
       </c>
@@ -3981,23 +4400,23 @@
         <v>-182.23939200000001</v>
       </c>
       <c r="F107" s="24">
-        <f t="shared" ref="F107:I107" si="62">-F108*F3</f>
+        <f t="shared" ref="F107:I107" si="64">-F108*F3</f>
         <v>-194.08495247999997</v>
       </c>
       <c r="G107" s="24">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>-206.70047439119998</v>
       </c>
       <c r="H107" s="24">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>-220.13600522662796</v>
       </c>
       <c r="I107" s="24">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>-234.44484556635877</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
         <v>103</v>
       </c>
@@ -4029,7 +4448,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>82</v>
       </c>
@@ -4047,23 +4466,23 @@
         <v>1.5</v>
       </c>
       <c r="F109" s="12">
-        <f t="shared" ref="F109:I109" si="63">MIN($B$109:$D$109)</f>
+        <f t="shared" ref="F109:I109" si="65">MIN($B$109:$D$109)</f>
         <v>1.5</v>
       </c>
       <c r="G109" s="12">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1.5</v>
       </c>
       <c r="H109" s="12">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1.5</v>
       </c>
       <c r="I109" s="12">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="21" t="s">
         <v>83</v>
       </c>
@@ -4080,32 +4499,32 @@
         <v>-171</v>
       </c>
       <c r="E110" s="12">
-        <f t="shared" ref="E110:I110" si="64">E106+E107+E109</f>
+        <f t="shared" ref="E110:I110" si="66">E106+E107+E109</f>
         <v>-180.73939200000001</v>
       </c>
       <c r="F110" s="12">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>-192.58495247999997</v>
       </c>
       <c r="G110" s="12">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>-205.20047439119998</v>
       </c>
       <c r="H110" s="12">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>-218.63600522662796</v>
       </c>
       <c r="I110" s="12">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>-232.94484556635877</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="22" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>86</v>
       </c>
@@ -4119,7 +4538,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>87</v>
       </c>
@@ -4131,7 +4550,7 @@
       </c>
       <c r="D114" s="11"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>88</v>
       </c>
@@ -4141,7 +4560,7 @@
       <c r="C115" s="11"/>
       <c r="D115" s="11"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="21" t="s">
         <v>89</v>
       </c>
@@ -4155,7 +4574,7 @@
         <v>-447.7</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="21" t="s">
         <v>90</v>
       </c>
@@ -4169,7 +4588,7 @@
         <v>90.9</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="21" t="s">
         <v>91</v>
       </c>
@@ -4183,7 +4602,7 @@
         <v>-12.7</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="21" t="s">
         <v>92</v>
       </c>
@@ -4195,7 +4614,7 @@
       </c>
       <c r="D119" s="11"/>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="21" t="s">
         <v>93</v>
       </c>
@@ -4207,7 +4626,7 @@
       </c>
       <c r="D120" s="11"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="21" t="s">
         <v>94</v>
       </c>
@@ -4232,7 +4651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="21" t="s">
         <v>95</v>
       </c>
@@ -4246,7 +4665,7 @@
         <v>-95.1</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="21" t="s">
         <v>96</v>
       </c>
@@ -4264,23 +4683,23 @@
         <v>-302.2</v>
       </c>
       <c r="F123" s="28">
-        <f t="shared" ref="F123:I123" si="65">-F124*F70</f>
+        <f t="shared" ref="F123:I123" si="67">-F124*F70</f>
         <v>-302.2</v>
       </c>
       <c r="G123" s="28">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>-302.2</v>
       </c>
       <c r="H123" s="28">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>-302.2</v>
       </c>
       <c r="I123" s="28">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>-302.2</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
         <v>104</v>
       </c>
@@ -4317,7 +4736,7 @@
         <v>2.2790346907993966</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="21" t="s">
         <v>97</v>
       </c>
@@ -4334,27 +4753,27 @@
         <v>-725.8</v>
       </c>
       <c r="E125" s="12">
-        <f t="shared" ref="E125:I125" si="66">SUM(E113:E123)</f>
+        <f t="shared" ref="E125:I125" si="68">SUM(E113:E123)</f>
         <v>-302.2</v>
       </c>
       <c r="F125" s="12">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>-302.2</v>
       </c>
       <c r="G125" s="12">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>-302.2</v>
       </c>
       <c r="H125" s="12">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>-302.2</v>
       </c>
       <c r="I125" s="12">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>-302.2</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="21" t="s">
         <v>98</v>
       </c>
@@ -4383,7 +4802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="21" t="s">
         <v>99</v>
       </c>
@@ -4400,27 +4819,27 @@
         <v>58.79999999999977</v>
       </c>
       <c r="E129" s="12">
-        <f t="shared" ref="E129:I129" si="67">E103+E110+E125+E127</f>
-        <v>437.39532736390885</v>
+        <f t="shared" ref="E129:I129" si="69">E103+E110+E125+E127</f>
+        <v>344.79631486390878</v>
       </c>
       <c r="F129" s="12">
-        <f t="shared" si="67"/>
-        <v>471.69868669078033</v>
+        <f t="shared" si="69"/>
+        <v>380.90832082453056</v>
       </c>
       <c r="G129" s="12">
-        <f t="shared" si="67"/>
-        <v>504.93795160891688</v>
+        <f t="shared" si="69"/>
+        <v>408.24694171136076</v>
       </c>
       <c r="H129" s="12">
-        <f t="shared" si="67"/>
-        <v>549.69184664400382</v>
+        <f t="shared" si="69"/>
+        <v>446.71660160060668</v>
       </c>
       <c r="I129" s="12">
-        <f t="shared" si="67"/>
-        <v>604.40254360120298</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.5">
+        <f t="shared" si="69"/>
+        <v>494.73453743498504</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>100</v>
       </c>
@@ -4439,22 +4858,22 @@
       </c>
       <c r="F131" s="12">
         <f>E132</f>
-        <v>592.79532736390865</v>
+        <v>500.19631486390853</v>
       </c>
       <c r="G131" s="12">
         <f>F132</f>
-        <v>1064.4940140546889</v>
+        <v>881.10463568843909</v>
       </c>
       <c r="H131" s="12">
         <f>G132</f>
-        <v>1569.4319656636058</v>
+        <v>1289.3515773997999</v>
       </c>
       <c r="I131" s="12">
         <f>H132</f>
-        <v>2119.1238123076096</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.5">
+        <v>1736.0681790004066</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>101</v>
       </c>
@@ -4463,1355 +4882,2381 @@
         <v>186.80000000000138</v>
       </c>
       <c r="C132" s="12">
-        <f t="shared" ref="C132:D132" si="68">C131+C129</f>
+        <f t="shared" ref="C132:D132" si="70">C131+C129</f>
         <v>96.600000000000151</v>
       </c>
       <c r="D132" s="12">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>155.39999999999975</v>
       </c>
       <c r="E132" s="12">
         <f>E131+E129</f>
-        <v>592.79532736390865</v>
+        <v>500.19631486390853</v>
       </c>
       <c r="F132" s="12">
         <f>F131+F129</f>
-        <v>1064.4940140546889</v>
+        <v>881.10463568843909</v>
       </c>
       <c r="G132" s="12">
         <f>G131+G129</f>
-        <v>1569.4319656636058</v>
+        <v>1289.3515773997999</v>
       </c>
       <c r="H132" s="12">
         <f>H131+H129</f>
-        <v>2119.1238123076096</v>
+        <v>1736.0681790004066</v>
       </c>
       <c r="I132" s="12">
         <f>I131+I129</f>
-        <v>2723.5263559088125</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="B135" s="2">
+        <v>2230.8027164353916</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B136" s="2">
         <v>2017</v>
       </c>
-      <c r="C135" s="2">
+      <c r="C136" s="2">
         <v>2018</v>
       </c>
-      <c r="D135" s="2">
+      <c r="D136" s="2">
         <v>2019</v>
       </c>
-      <c r="E135" s="2">
+      <c r="E136" s="2">
         <v>2020</v>
       </c>
-      <c r="F135" s="2">
+      <c r="F136" s="2">
         <v>2021</v>
       </c>
-      <c r="G135" s="2">
+      <c r="G136" s="2">
         <v>2022</v>
       </c>
-      <c r="H135" s="2">
+      <c r="H136" s="2">
         <v>2023</v>
       </c>
-      <c r="I135" s="2">
+      <c r="I136" s="2">
         <v>2024</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A136" s="19" t="s">
+    <row r="137" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="B137" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C137" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D137" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E137" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="F137" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="G137" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="H137" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="I137" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" s="22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>165</v>
+      </c>
+      <c r="B139" s="12"/>
+      <c r="C139" s="11">
+        <v>96.6</v>
+      </c>
+      <c r="D139" s="11">
+        <v>155.4</v>
+      </c>
+      <c r="E139" s="12"/>
+      <c r="F139" s="12"/>
+      <c r="G139" s="12"/>
+      <c r="H139" s="12"/>
+      <c r="I139" s="12"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>166</v>
+      </c>
+      <c r="B140" s="12"/>
+      <c r="C140" s="11">
+        <v>518.1</v>
+      </c>
+      <c r="D140" s="11">
+        <v>502.9</v>
+      </c>
+      <c r="K140" s="38"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>77</v>
+      </c>
+      <c r="B141" s="11"/>
+      <c r="C141" s="11">
+        <v>786.3</v>
+      </c>
+      <c r="D141" s="11">
+        <v>801.2</v>
+      </c>
+      <c r="K141" s="39"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>167</v>
+      </c>
+      <c r="C142" s="11">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="D142" s="11">
+        <v>90.7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C143" s="12">
+        <f>SUM(C139:C142)</f>
+        <v>1479.9</v>
+      </c>
+      <c r="D143" s="12">
+        <f>SUM(D139:D142)</f>
+        <v>1550.2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="C144" s="12">
+        <f>SUM(C145:C149)</f>
+        <v>941.50000000000011</v>
+      </c>
+      <c r="D144" s="12">
+        <f>SUM(D145:D149)</f>
+        <v>952.59999999999991</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C145" s="11">
+        <v>62.6</v>
+      </c>
+      <c r="D145" s="11">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="C146" s="11">
+        <v>626.20000000000005</v>
+      </c>
+      <c r="D146" s="11">
+        <v>658.5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="C147" s="11">
+        <v>947.5</v>
+      </c>
+      <c r="D147" s="11">
+        <v>1007.8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="C148" s="11">
+        <v>105.1</v>
+      </c>
+      <c r="D148" s="11">
+        <v>85.8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="C149" s="11">
+        <v>-799.9</v>
+      </c>
+      <c r="D149" s="11">
+        <v>-867</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>175</v>
+      </c>
+      <c r="C150" s="11">
+        <v>4527.8999999999996</v>
+      </c>
+      <c r="D150" s="11">
+        <v>4505.2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>176</v>
+      </c>
+      <c r="C151" s="30">
+        <f>SUM(C152:C154)</f>
+        <v>2873.3</v>
+      </c>
+      <c r="D151" s="30">
+        <f>SUM(D152:D154)</f>
+        <v>2847</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C152" s="11">
+        <v>311.3</v>
+      </c>
+      <c r="D152" s="11">
+        <v>308.3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C153" s="11">
+        <v>-84.9</v>
+      </c>
+      <c r="D153" s="11">
+        <v>-104.3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C154" s="11">
+        <v>2646.9</v>
+      </c>
+      <c r="D154" s="11">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>177</v>
+      </c>
+      <c r="C155" s="12">
+        <f>SUM(C156:C157)</f>
+        <v>433.8</v>
+      </c>
+      <c r="D155" s="12">
+        <f>SUM(D156:D157)</f>
+        <v>507.1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C156" s="11">
+        <v>43.6</v>
+      </c>
+      <c r="D156" s="11">
+        <v>76.400000000000006</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="C157" s="11">
+        <f>433.8-43.6</f>
+        <v>390.2</v>
+      </c>
+      <c r="D157" s="11">
+        <f>507.1-76.4</f>
+        <v>430.70000000000005</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C158" s="11"/>
+      <c r="D158" s="11"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="C159" s="12">
+        <f>SUM(C143:C144)+SUM(C150:C151)+C155</f>
+        <v>10256.4</v>
+      </c>
+      <c r="D159" s="12">
+        <f>SUM(D143:D144)+SUM(D150:D151)+D155</f>
+        <v>10362.1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="22" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>183</v>
+      </c>
+      <c r="B161" s="12"/>
+      <c r="C161" s="11">
+        <v>560</v>
+      </c>
+      <c r="D161" s="11">
+        <v>600.70000000000005</v>
+      </c>
+      <c r="E161" s="12"/>
+      <c r="F161" s="12"/>
+      <c r="G161" s="12"/>
+      <c r="H161" s="12"/>
+      <c r="I161" s="12"/>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>184</v>
+      </c>
+      <c r="B162" s="12"/>
+      <c r="C162" s="11">
+        <v>83.5</v>
+      </c>
+      <c r="D162" s="11">
+        <v>97.7</v>
+      </c>
+      <c r="E162" s="12"/>
+      <c r="F162" s="12"/>
+      <c r="G162" s="12"/>
+      <c r="H162" s="12"/>
+      <c r="I162" s="12"/>
+      <c r="K162" s="38"/>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>185</v>
+      </c>
+      <c r="B163" s="11"/>
+      <c r="C163" s="11">
+        <v>710</v>
+      </c>
+      <c r="D163" s="11">
+        <v>846.9</v>
+      </c>
+      <c r="E163" s="11"/>
+      <c r="F163" s="11"/>
+      <c r="G163" s="11"/>
+      <c r="H163" s="11"/>
+      <c r="I163" s="11"/>
+      <c r="K163" s="39"/>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>186</v>
+      </c>
+      <c r="C164" s="11">
+        <v>648.20000000000005</v>
+      </c>
+      <c r="D164" s="11">
+        <v>609.1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="C165" s="12">
+        <f>SUM(C161:C164)</f>
+        <v>2001.7</v>
+      </c>
+      <c r="D165" s="12">
+        <f>SUM(D161:D164)</f>
+        <v>2154.4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A166" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="C166" s="11">
+        <v>4052.9</v>
+      </c>
+      <c r="D166" s="11">
+        <v>3625.8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A167" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C167" s="11">
+        <v>706.5</v>
+      </c>
+      <c r="D167" s="11">
+        <v>697.6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A168" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="C168" s="11">
+        <v>313.10000000000002</v>
+      </c>
+      <c r="D168" s="11">
+        <v>427.6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A169" s="41" t="s">
+        <v>190</v>
+      </c>
+      <c r="C169" s="12">
+        <f>SUM(C165:C168)</f>
+        <v>7074.2000000000007</v>
+      </c>
+      <c r="D169" s="12">
+        <f>SUM(D165:D168)</f>
+        <v>6905.4000000000015</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A170" s="22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="C171" s="11">
+        <v>400.2</v>
+      </c>
+      <c r="D171" s="11">
+        <v>447.6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="C172" s="11">
+        <v>1370.4</v>
+      </c>
+      <c r="D172" s="11">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="C173" s="11">
+        <v>1760.2</v>
+      </c>
+      <c r="D173" s="11">
+        <v>2055.8000000000002</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="C174" s="11">
+        <v>-359.9</v>
+      </c>
+      <c r="D174" s="11">
+        <v>-500.2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A175" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="C175" s="12">
+        <f>SUM(C171:C174)</f>
+        <v>3170.9</v>
+      </c>
+      <c r="D175" s="12">
+        <f>SUM(D171:D174)</f>
+        <v>3444.2000000000003</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A176" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="C176" s="11">
+        <v>11.3</v>
+      </c>
+      <c r="D176" s="11">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="C177" s="12">
+        <f>SUM(C175:C176)</f>
+        <v>3182.2000000000003</v>
+      </c>
+      <c r="D177" s="12">
+        <f>SUM(D175:D176)</f>
+        <v>3456.7000000000003</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="C178" s="12">
+        <f>C169+C177</f>
+        <v>10256.400000000001</v>
+      </c>
+      <c r="D178" s="12">
+        <f>D169+D177</f>
+        <v>10362.100000000002</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" s="18"/>
+      <c r="C179" s="11"/>
+      <c r="D179" s="11"/>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" s="18"/>
+      <c r="C180" s="11"/>
+      <c r="D180" s="11"/>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B181" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C181" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D181" s="2">
+        <v>2019</v>
+      </c>
+      <c r="E181" s="2">
+        <v>2020</v>
+      </c>
+      <c r="F181" s="2">
+        <v>2021</v>
+      </c>
+      <c r="G181" s="2">
+        <v>2022</v>
+      </c>
+      <c r="H181" s="2">
+        <v>2023</v>
+      </c>
+      <c r="I181" s="2">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="B136" s="20" t="s">
+      <c r="B182" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C136" s="20" t="s">
+      <c r="C182" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D136" s="20" t="s">
+      <c r="D182" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="E136" s="20" t="s">
+      <c r="E182" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="F136" s="20" t="s">
+      <c r="F182" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="G136" s="20" t="s">
+      <c r="G182" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="H136" s="20" t="s">
+      <c r="H182" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="I136" s="20" t="s">
+      <c r="I182" s="20" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A137" t="s">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
         <v>117</v>
       </c>
-      <c r="E137" s="25">
-        <f>658.8-(658.5/(658.5+1007.8))*867</f>
-        <v>316.17292204284939</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A138" t="s">
+      <c r="E183" s="12">
+        <f>D146-(D146/(D146+D147))*(-D149)</f>
+        <v>315.87292204284944</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
         <v>118</v>
       </c>
-      <c r="E138" s="25">
-        <f>1007.8-(1007.8/(658.5+1007.8))*867</f>
+      <c r="E184" s="12">
+        <f>D147-(D147/(D146+D147))*(-D149)</f>
         <v>483.42707795715057</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A139" t="s">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
         <v>121</v>
       </c>
-      <c r="E139" s="25">
-        <f>76.4</f>
+      <c r="E185" s="12">
+        <f>D156</f>
         <v>76.400000000000006</v>
       </c>
-      <c r="F139" s="25"/>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A140" t="s">
+      <c r="F185" s="25"/>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
         <v>123</v>
       </c>
-      <c r="E140" s="25">
-        <f>308.3-104.3</f>
+      <c r="E186" s="12">
+        <f>SUM(D152:D153)</f>
         <v>204</v>
       </c>
-      <c r="F140" s="25"/>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A141" t="s">
+      <c r="F186" s="25"/>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
         <v>108</v>
       </c>
-      <c r="E141" s="12">
+      <c r="E187" s="12">
         <f>-E107</f>
         <v>182.23939200000001</v>
       </c>
-      <c r="F141" s="12">
-        <f t="shared" ref="F141:I141" si="69">-F107</f>
+      <c r="F187" s="12">
+        <f>-F107</f>
         <v>194.08495247999997</v>
       </c>
-      <c r="G141" s="12">
-        <f t="shared" si="69"/>
+      <c r="G187" s="12">
+        <f>-G107</f>
         <v>206.70047439119998</v>
       </c>
-      <c r="H141" s="12">
-        <f t="shared" si="69"/>
+      <c r="H187" s="12">
+        <f>-H107</f>
         <v>220.13600522662796</v>
       </c>
-      <c r="I141" s="12">
-        <f t="shared" si="69"/>
+      <c r="I187" s="12">
+        <f>-I107</f>
         <v>234.44484556635877</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A142" s="22" t="s">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" s="22" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A143" s="8" t="s">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E143" s="29">
+      <c r="E189" s="29">
         <v>20</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A144" s="8" t="s">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="E144" s="31">
+      <c r="E190" s="31">
         <v>24</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A145" s="8" t="s">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="E145" s="29">
+      <c r="E191" s="29">
         <v>50</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A146" s="8" t="s">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="E146" s="29">
+      <c r="E192" s="29">
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A147" s="8" t="s">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="E147" s="31">
+      <c r="E193" s="31">
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A148" s="8" t="s">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E148" s="29">
+      <c r="E194" s="29">
         <v>12</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A149" s="8" t="s">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="E149" s="29">
+      <c r="E195" s="29">
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A150" s="8" t="s">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="E150" s="31">
+      <c r="E196" s="31">
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A151" s="8" t="s">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="E151" s="29">
+      <c r="E197" s="29">
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A152" s="8" t="s">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E152" s="29">
+      <c r="E198" s="29">
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A153" s="8" t="s">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E153" s="29">
+      <c r="E199" s="29">
         <v>20</v>
       </c>
-      <c r="F153" s="29">
+      <c r="F199" s="29">
         <v>20</v>
       </c>
-      <c r="G153" s="29">
+      <c r="G199" s="29">
         <v>20</v>
       </c>
-      <c r="H153" s="29">
+      <c r="H199" s="29">
         <v>20</v>
       </c>
-      <c r="I153" s="29">
+      <c r="I199" s="29">
         <v>20</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A154" s="22" t="s">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200" s="22" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A155" t="s">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
         <v>133</v>
       </c>
-      <c r="E155" s="30">
-        <f>$E$137/$E$143</f>
-        <v>15.80864610214247</v>
-      </c>
-      <c r="F155" s="30">
-        <f t="shared" ref="F155:I155" si="70">$E$137/$E$143</f>
-        <v>15.80864610214247</v>
-      </c>
-      <c r="G155" s="30">
-        <f t="shared" si="70"/>
-        <v>15.80864610214247</v>
-      </c>
-      <c r="H155" s="30">
-        <f t="shared" si="70"/>
-        <v>15.80864610214247</v>
-      </c>
-      <c r="I155" s="30">
-        <f t="shared" si="70"/>
-        <v>15.80864610214247</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A156" t="s">
+      <c r="E201" s="30">
+        <f>$E$183/$E$189</f>
+        <v>15.793646102142471</v>
+      </c>
+      <c r="F201" s="30">
+        <f t="shared" ref="F201:I201" si="71">$E$183/$E$189</f>
+        <v>15.793646102142471</v>
+      </c>
+      <c r="G201" s="30">
+        <f t="shared" si="71"/>
+        <v>15.793646102142471</v>
+      </c>
+      <c r="H201" s="30">
+        <f t="shared" si="71"/>
+        <v>15.793646102142471</v>
+      </c>
+      <c r="I201" s="30">
+        <f t="shared" si="71"/>
+        <v>15.793646102142471</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
         <v>143</v>
       </c>
-      <c r="E156" s="30">
-        <f>$E$137/$E$144</f>
-        <v>13.173871751785391</v>
-      </c>
-      <c r="F156" s="30">
-        <f>$E$137/$E$144</f>
-        <v>13.173871751785391</v>
-      </c>
-      <c r="G156" s="30">
-        <f>$E$137/$E$144</f>
-        <v>13.173871751785391</v>
-      </c>
-      <c r="H156" s="30">
-        <f>$E$137/$E$144</f>
-        <v>13.173871751785391</v>
-      </c>
-      <c r="I156" s="30">
-        <f>$E$137/$E$144</f>
-        <v>13.173871751785391</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A157" t="s">
+      <c r="E202" s="30">
+        <f>$E$183/$E$190</f>
+        <v>13.161371751785394</v>
+      </c>
+      <c r="F202" s="30">
+        <f>$E$183/$E$190</f>
+        <v>13.161371751785394</v>
+      </c>
+      <c r="G202" s="30">
+        <f>$E$183/$E$190</f>
+        <v>13.161371751785394</v>
+      </c>
+      <c r="H202" s="30">
+        <f>$E$183/$E$190</f>
+        <v>13.161371751785394</v>
+      </c>
+      <c r="I202" s="30">
+        <f>$E$183/$E$190</f>
+        <v>13.161371751785394</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
         <v>134</v>
       </c>
-      <c r="E157" s="30">
-        <f>$E$137/$E$145</f>
-        <v>6.3234584408569878</v>
-      </c>
-      <c r="F157" s="30">
-        <f t="shared" ref="F157:I157" si="71">$E$137/$E$145</f>
-        <v>6.3234584408569878</v>
-      </c>
-      <c r="G157" s="30">
-        <f t="shared" si="71"/>
-        <v>6.3234584408569878</v>
-      </c>
-      <c r="H157" s="30">
-        <f t="shared" si="71"/>
-        <v>6.3234584408569878</v>
-      </c>
-      <c r="I157" s="30">
-        <f t="shared" si="71"/>
-        <v>6.3234584408569878</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A158" t="s">
+      <c r="E203" s="30">
+        <f>$E$183/$E$191</f>
+        <v>6.3174584408569885</v>
+      </c>
+      <c r="F203" s="30">
+        <f t="shared" ref="F203:I203" si="72">$E$183/$E$191</f>
+        <v>6.3174584408569885</v>
+      </c>
+      <c r="G203" s="30">
+        <f t="shared" si="72"/>
+        <v>6.3174584408569885</v>
+      </c>
+      <c r="H203" s="30">
+        <f t="shared" si="72"/>
+        <v>6.3174584408569885</v>
+      </c>
+      <c r="I203" s="30">
+        <f t="shared" si="72"/>
+        <v>6.3174584408569885</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
         <v>135</v>
       </c>
-      <c r="E158" s="30">
-        <f>$E$138/$E$146</f>
+      <c r="E204" s="30">
+        <f>$E$184/$E$192</f>
         <v>161.1423593190502</v>
       </c>
-      <c r="F158" s="30">
-        <f t="shared" ref="F158:I158" si="72">$E$138/$E$146</f>
+      <c r="F204" s="30">
+        <f t="shared" ref="F204:I204" si="73">$E$184/$E$192</f>
         <v>161.1423593190502</v>
       </c>
-      <c r="G158" s="30">
-        <f t="shared" si="72"/>
+      <c r="G204" s="30">
+        <f t="shared" si="73"/>
         <v>161.1423593190502</v>
       </c>
-      <c r="H158" s="30">
-        <f t="shared" si="72"/>
+      <c r="H204" s="30">
+        <f t="shared" si="73"/>
         <v>161.1423593190502</v>
       </c>
-      <c r="I158" s="30">
-        <f t="shared" si="72"/>
+      <c r="I204" s="30">
+        <f t="shared" si="73"/>
         <v>161.1423593190502</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A159" t="s">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
         <v>144</v>
       </c>
-      <c r="E159" s="30">
-        <f>$E$138/$E$147</f>
+      <c r="E205" s="30">
+        <f>$E$184/$E$193</f>
         <v>96.685415591430115</v>
       </c>
-      <c r="F159" s="30">
-        <f>$E$138/$E$147</f>
+      <c r="F205" s="30">
+        <f>$E$184/$E$193</f>
         <v>96.685415591430115</v>
       </c>
-      <c r="G159" s="30">
-        <f>$E$138/$E$147</f>
+      <c r="G205" s="30">
+        <f>$E$184/$E$193</f>
         <v>96.685415591430115</v>
       </c>
-      <c r="H159" s="30">
-        <f>$E$138/$E$147</f>
+      <c r="H205" s="30">
+        <f>$E$184/$E$193</f>
         <v>96.685415591430115</v>
       </c>
-      <c r="I159" s="30">
-        <f>$E$138/$E$147</f>
+      <c r="I205" s="30">
+        <f>$E$184/$E$193</f>
         <v>96.685415591430115</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A160" t="s">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
         <v>136</v>
       </c>
-      <c r="E160" s="30">
-        <f>$E$138/$E$148</f>
+      <c r="E206" s="30">
+        <f>$E$184/$E$194</f>
         <v>40.28558982976255</v>
       </c>
-      <c r="F160" s="30">
-        <f t="shared" ref="F160:I160" si="73">$E$138/$E$148</f>
+      <c r="F206" s="30">
+        <f t="shared" ref="F206:I206" si="74">$E$184/$E$194</f>
         <v>40.28558982976255</v>
       </c>
-      <c r="G160" s="30">
-        <f t="shared" si="73"/>
+      <c r="G206" s="30">
+        <f t="shared" si="74"/>
         <v>40.28558982976255</v>
       </c>
-      <c r="H160" s="30">
-        <f t="shared" si="73"/>
+      <c r="H206" s="30">
+        <f t="shared" si="74"/>
         <v>40.28558982976255</v>
       </c>
-      <c r="I160" s="30">
-        <f t="shared" si="73"/>
+      <c r="I206" s="30">
+        <f t="shared" si="74"/>
         <v>40.28558982976255</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A161" t="s">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
         <v>137</v>
       </c>
-      <c r="E161" s="30">
-        <f>$E$139/$E$149</f>
+      <c r="E207" s="30">
+        <f>$E$185/$E$195</f>
         <v>25.466666666666669</v>
       </c>
-      <c r="F161" s="30">
-        <f t="shared" ref="F161:I161" si="74">$E$139/$E$149</f>
+      <c r="F207" s="30">
+        <f t="shared" ref="F207:I207" si="75">$E$185/$E$195</f>
         <v>25.466666666666669</v>
       </c>
-      <c r="G161" s="30">
-        <f t="shared" si="74"/>
+      <c r="G207" s="30">
+        <f t="shared" si="75"/>
         <v>25.466666666666669</v>
       </c>
-      <c r="H161" s="30">
-        <f t="shared" si="74"/>
+      <c r="H207" s="30">
+        <f t="shared" si="75"/>
         <v>25.466666666666669</v>
       </c>
-      <c r="I161" s="30">
-        <f t="shared" si="74"/>
+      <c r="I207" s="30">
+        <f t="shared" si="75"/>
         <v>25.466666666666669</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A162" t="s">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
         <v>145</v>
       </c>
-      <c r="E162" s="30">
-        <f>$E$139/$E$150</f>
+      <c r="E208" s="30">
+        <f>$E$185/$E$196</f>
         <v>15.280000000000001</v>
       </c>
-      <c r="F162" s="30">
-        <f t="shared" ref="F162:I162" si="75">$E$139/$E$150</f>
+      <c r="F208" s="30">
+        <f t="shared" ref="F208:I208" si="76">$E$185/$E$196</f>
         <v>15.280000000000001</v>
       </c>
-      <c r="G162" s="30">
-        <f t="shared" si="75"/>
+      <c r="G208" s="30">
+        <f t="shared" si="76"/>
         <v>15.280000000000001</v>
       </c>
-      <c r="H162" s="30">
-        <f t="shared" si="75"/>
+      <c r="H208" s="30">
+        <f t="shared" si="76"/>
         <v>15.280000000000001</v>
       </c>
-      <c r="I162" s="30">
-        <f t="shared" si="75"/>
+      <c r="I208" s="30">
+        <f t="shared" si="76"/>
         <v>15.280000000000001</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A163" t="s">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
         <v>138</v>
       </c>
-      <c r="E163" s="30">
-        <f>$E$139/$E$151</f>
+      <c r="E209" s="30">
+        <f>$E$185/$E$197</f>
         <v>5.8769230769230774</v>
       </c>
-      <c r="F163" s="30">
-        <f t="shared" ref="F163:I163" si="76">$E$139/$E$151</f>
+      <c r="F209" s="30">
+        <f t="shared" ref="F209:I209" si="77">$E$185/$E$197</f>
         <v>5.8769230769230774</v>
       </c>
-      <c r="G163" s="30">
-        <f t="shared" si="76"/>
+      <c r="G209" s="30">
+        <f t="shared" si="77"/>
         <v>5.8769230769230774</v>
       </c>
-      <c r="H163" s="30">
-        <f t="shared" si="76"/>
+      <c r="H209" s="30">
+        <f t="shared" si="77"/>
         <v>5.8769230769230774</v>
       </c>
-      <c r="I163" s="30">
-        <f t="shared" si="76"/>
+      <c r="I209" s="30">
+        <f t="shared" si="77"/>
         <v>5.8769230769230774</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A164" t="s">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
         <v>125</v>
       </c>
-      <c r="E164" s="30">
-        <f>$E$140/$E$152</f>
+      <c r="E210" s="30">
+        <f>$E$186/$E$198</f>
         <v>20.399999999999999</v>
       </c>
-      <c r="F164" s="30">
-        <f>$E$140/$E$152</f>
+      <c r="F210" s="30">
+        <f>$E$186/$E$198</f>
         <v>20.399999999999999</v>
       </c>
-      <c r="G164" s="30">
-        <f>$E$140/$E$152</f>
+      <c r="G210" s="30">
+        <f>$E$186/$E$198</f>
         <v>20.399999999999999</v>
       </c>
-      <c r="H164" s="30">
-        <f>$E$140/$E$152</f>
+      <c r="H210" s="30">
+        <f>$E$186/$E$198</f>
         <v>20.399999999999999</v>
       </c>
-      <c r="I164" s="30">
-        <f>$E$140/$E$152</f>
+      <c r="I210" s="30">
+        <f>$E$186/$E$198</f>
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A165" t="s">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
         <v>112</v>
       </c>
-      <c r="E165" s="30">
-        <f>$E$141/$E$153</f>
+      <c r="E211" s="30">
+        <f>$E$187/$E$199</f>
         <v>9.1119696000000001</v>
       </c>
-      <c r="F165" s="30">
-        <f>$E$141/$E$153</f>
+      <c r="F211" s="30">
+        <f>$E$187/$E$199</f>
         <v>9.1119696000000001</v>
       </c>
-      <c r="G165" s="30">
-        <f>$E$141/$E$153</f>
+      <c r="G211" s="30">
+        <f>$E$187/$E$199</f>
         <v>9.1119696000000001</v>
       </c>
-      <c r="H165" s="30">
-        <f>$E$141/$E$153</f>
+      <c r="H211" s="30">
+        <f>$E$187/$E$199</f>
         <v>9.1119696000000001</v>
       </c>
-      <c r="I165" s="30">
-        <f>$E$141/$E$153</f>
+      <c r="I211" s="30">
+        <f>$E$187/$E$199</f>
         <v>9.1119696000000001</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A166" t="s">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
         <v>113</v>
       </c>
-      <c r="E166" s="30"/>
-      <c r="F166" s="30">
-        <f>$F$141/$F$153</f>
+      <c r="E212" s="30"/>
+      <c r="F212" s="30">
+        <f>$F$187/$F$199</f>
         <v>9.7042476239999989</v>
       </c>
-      <c r="G166" s="30">
-        <f>$F$141/$F$153</f>
+      <c r="G212" s="30">
+        <f>$F$187/$F$199</f>
         <v>9.7042476239999989</v>
       </c>
-      <c r="H166" s="30">
-        <f>$F$141/$F$153</f>
+      <c r="H212" s="30">
+        <f>$F$187/$F$199</f>
         <v>9.7042476239999989</v>
       </c>
-      <c r="I166" s="30">
-        <f>$F$141/$F$153</f>
+      <c r="I212" s="30">
+        <f>$F$187/$F$199</f>
         <v>9.7042476239999989</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A167" t="s">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
         <v>114</v>
       </c>
-      <c r="E167" s="30"/>
-      <c r="F167" s="30"/>
-      <c r="G167" s="30">
-        <f>$G$141/$G$153</f>
+      <c r="E213" s="30"/>
+      <c r="F213" s="30"/>
+      <c r="G213" s="30">
+        <f>$G$187/$G$199</f>
         <v>10.335023719559999</v>
       </c>
-      <c r="H167" s="30">
-        <f>$G$141/$G$153</f>
+      <c r="H213" s="30">
+        <f>$G$187/$G$199</f>
         <v>10.335023719559999</v>
       </c>
-      <c r="I167" s="30">
-        <f>$G$141/$G$153</f>
+      <c r="I213" s="30">
+        <f>$G$187/$G$199</f>
         <v>10.335023719559999</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A168" t="s">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
         <v>115</v>
       </c>
-      <c r="E168" s="30"/>
-      <c r="F168" s="30"/>
-      <c r="G168" s="30"/>
-      <c r="H168" s="30">
-        <f>$H$141/$H$153</f>
+      <c r="E214" s="30"/>
+      <c r="F214" s="30"/>
+      <c r="G214" s="30"/>
+      <c r="H214" s="30">
+        <f>$H$187/$H$199</f>
         <v>11.006800261331398</v>
       </c>
-      <c r="I168" s="30">
-        <f>$H$141/$H$153</f>
+      <c r="I214" s="30">
+        <f>$H$187/$H$199</f>
         <v>11.006800261331398</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A169" t="s">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
         <v>116</v>
       </c>
-      <c r="E169" s="30"/>
-      <c r="F169" s="30"/>
-      <c r="G169" s="30"/>
-      <c r="H169" s="30"/>
-      <c r="I169" s="30">
-        <f>$I$141/$I$153</f>
+      <c r="E215" s="30"/>
+      <c r="F215" s="30"/>
+      <c r="G215" s="30"/>
+      <c r="H215" s="30"/>
+      <c r="I215" s="30">
+        <f>$I$187/$I$199</f>
         <v>11.722242278317939</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A170" s="22" t="s">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A216" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="E170" s="33">
-        <f>E156+E159+E162+E164+SUM(E$165:E$169)</f>
-        <v>154.65125694321551</v>
-      </c>
-      <c r="F170" s="33">
-        <f t="shared" ref="F170:I170" si="77">F156+F159+F162+F164+SUM(F165:F169)</f>
-        <v>164.35550456721552</v>
-      </c>
-      <c r="G170" s="33">
-        <f t="shared" si="77"/>
-        <v>174.6905282867755</v>
-      </c>
-      <c r="H170" s="33">
-        <f t="shared" si="77"/>
-        <v>185.6973285481069</v>
-      </c>
-      <c r="I170" s="33">
-        <f t="shared" si="77"/>
-        <v>197.41957082642483</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A171" s="22" t="s">
+      <c r="E216" s="33">
+        <f>E202+E205+E208+E210+SUM(E$211:E$215)</f>
+        <v>154.63875694321553</v>
+      </c>
+      <c r="F216" s="33">
+        <f t="shared" ref="F216:I216" si="78">F202+F205+F208+F210+SUM(F211:F215)</f>
+        <v>164.34300456721553</v>
+      </c>
+      <c r="G216" s="33">
+        <f t="shared" si="78"/>
+        <v>174.67802828677551</v>
+      </c>
+      <c r="H216" s="33">
+        <f t="shared" si="78"/>
+        <v>185.68482854810691</v>
+      </c>
+      <c r="I216" s="33">
+        <f t="shared" si="78"/>
+        <v>197.40707082642484</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A217" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="E171" s="30">
-        <f>E157+E160+E163+E164+SUM(E$165:E$169)</f>
-        <v>81.997940947542602</v>
-      </c>
-      <c r="F171" s="30">
-        <f t="shared" ref="F171:I171" si="78">F157+F160+F163+F164+SUM(F$165:F$169)</f>
-        <v>91.702188571542607</v>
-      </c>
-      <c r="G171" s="30">
-        <f t="shared" si="78"/>
-        <v>102.03721229110261</v>
-      </c>
-      <c r="H171" s="30">
-        <f t="shared" si="78"/>
-        <v>113.044012552434</v>
-      </c>
-      <c r="I171" s="30">
-        <f t="shared" si="78"/>
-        <v>124.76625483075195</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A172" s="22" t="s">
+      <c r="E217" s="30">
+        <f>E203+E206+E209+E210+SUM(E$211:E$215)</f>
+        <v>81.991940947542602</v>
+      </c>
+      <c r="F217" s="30">
+        <f t="shared" ref="F217:I217" si="79">F203+F206+F209+F210+SUM(F$211:F$215)</f>
+        <v>91.696188571542606</v>
+      </c>
+      <c r="G217" s="30">
+        <f t="shared" si="79"/>
+        <v>102.03121229110261</v>
+      </c>
+      <c r="H217" s="30">
+        <f t="shared" si="79"/>
+        <v>113.038012552434</v>
+      </c>
+      <c r="I217" s="30">
+        <f t="shared" si="79"/>
+        <v>124.76025483075195</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A218" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="E172" s="30">
-        <f>E155+E158+E161+E164+SUM(E$165:E$169)</f>
-        <v>231.92964168785934</v>
-      </c>
-      <c r="F172" s="30">
-        <f t="shared" ref="F172:I172" si="79">F155+F158+F161+F164+SUM(F$165:F$169)</f>
-        <v>241.63388931185932</v>
-      </c>
-      <c r="G172" s="30">
-        <f t="shared" si="79"/>
-        <v>251.96891303141933</v>
-      </c>
-      <c r="H172" s="30">
-        <f t="shared" si="79"/>
-        <v>262.97571329275075</v>
-      </c>
-      <c r="I172" s="30">
-        <f t="shared" si="79"/>
-        <v>274.69795557106869</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A173" s="22" t="s">
+      <c r="E218" s="30">
+        <f>E201+E204+E207+E210+SUM(E$211:E$215)</f>
+        <v>231.91464168785936</v>
+      </c>
+      <c r="F218" s="30">
+        <f t="shared" ref="F218:I218" si="80">F201+F204+F207+F210+SUM(F$211:F$215)</f>
+        <v>241.61888931185933</v>
+      </c>
+      <c r="G218" s="30">
+        <f t="shared" si="80"/>
+        <v>251.95391303141935</v>
+      </c>
+      <c r="H218" s="30">
+        <f t="shared" si="80"/>
+        <v>262.96071329275077</v>
+      </c>
+      <c r="I218" s="30">
+        <f t="shared" si="80"/>
+        <v>274.6829555710687</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A219" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="E173" s="3">
+      <c r="E219" s="3">
         <f>108.7/105.9-1</f>
         <v>2.6440037771482405E-2</v>
       </c>
-      <c r="F173" s="30"/>
-      <c r="G173" s="30"/>
-      <c r="H173" s="30"/>
-      <c r="I173" s="30"/>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A174" s="22" t="s">
+      <c r="F219" s="30"/>
+      <c r="G219" s="30"/>
+      <c r="H219" s="30"/>
+      <c r="I219" s="30"/>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A220" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="E174" s="3">
+      <c r="E220" s="3">
         <f>D88/C88-1</f>
         <v>5.3749170537491953E-2</v>
       </c>
-      <c r="G174" s="30"/>
-      <c r="H174" s="30"/>
-      <c r="I174" s="30"/>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A175" s="22" t="s">
+      <c r="G220" s="30"/>
+      <c r="H220" s="30"/>
+      <c r="I220" s="30"/>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A221" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="E175" s="30">
-        <f>$D$88*(1+$E$173)</f>
+      <c r="E221" s="30">
+        <f>$D$88*(1+$E$219)</f>
         <v>162.99867799811142</v>
       </c>
-      <c r="F175" s="30">
-        <f>E175*(1+$E$173)</f>
+      <c r="F221" s="30">
+        <f>E221*(1+$E$219)</f>
         <v>167.3083692010832</v>
       </c>
-      <c r="G175" s="30">
-        <f t="shared" ref="G175:I175" si="80">F175*(1+$E$173)</f>
+      <c r="G221" s="30">
+        <f t="shared" ref="G221:I221" si="81">F221*(1+$E$219)</f>
         <v>171.73200880224496</v>
       </c>
-      <c r="H175" s="30">
-        <f t="shared" si="80"/>
+      <c r="H221" s="30">
+        <f t="shared" si="81"/>
         <v>176.27260960154888</v>
       </c>
-      <c r="I175" s="30">
-        <f t="shared" si="80"/>
+      <c r="I221" s="30">
+        <f t="shared" si="81"/>
         <v>180.93326405749161</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A176" s="22" t="s">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A222" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="E176" s="30">
-        <f>$D$88*(1+$E$174)</f>
+      <c r="E222" s="30">
+        <f>$D$88*(1+$E$220)</f>
         <v>167.33536828135374</v>
       </c>
-      <c r="F176" s="30">
-        <f>E176*(1+$E$174)</f>
+      <c r="F222" s="30">
+        <f>E222*(1+$E$220)</f>
         <v>176.32950552806224</v>
       </c>
-      <c r="G176" s="30">
-        <f t="shared" ref="G176:I176" si="81">F176*(1+$E$174)</f>
+      <c r="G222" s="30">
+        <f t="shared" ref="G222:I222" si="82">F222*(1+$E$220)</f>
         <v>185.8070701914817</v>
       </c>
-      <c r="H176" s="30">
-        <f t="shared" si="81"/>
+      <c r="H222" s="30">
+        <f t="shared" si="82"/>
         <v>195.79404609427539</v>
       </c>
-      <c r="I176" s="30">
-        <f t="shared" si="81"/>
+      <c r="I222" s="30">
+        <f t="shared" si="82"/>
         <v>206.31781366802215</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A177" s="22" t="s">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A223" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="E177" s="30">
-        <f>E171-E175</f>
-        <v>-81.000737050568816</v>
-      </c>
-      <c r="F177" s="30">
-        <f>F171-F175</f>
-        <v>-75.606180629540589</v>
-      </c>
-      <c r="G177" s="30">
-        <f>G171-G175</f>
-        <v>-69.694796511142357</v>
-      </c>
-      <c r="H177" s="30">
-        <f>H171-H175</f>
-        <v>-63.228597049114882</v>
-      </c>
-      <c r="I177" s="30">
-        <f>I171-I175</f>
-        <v>-56.167009226739665</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A178" s="22" t="s">
+      <c r="E223" s="30">
+        <f>E217-E221</f>
+        <v>-81.006737050568816</v>
+      </c>
+      <c r="F223" s="30">
+        <f>F217-F221</f>
+        <v>-75.612180629540589</v>
+      </c>
+      <c r="G223" s="30">
+        <f>G217-G221</f>
+        <v>-69.700796511142357</v>
+      </c>
+      <c r="H223" s="30">
+        <f>H217-H221</f>
+        <v>-63.234597049114882</v>
+      </c>
+      <c r="I223" s="30">
+        <f>I217-I221</f>
+        <v>-56.173009226739666</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A224" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="E178" s="30">
-        <f>E172-E175</f>
-        <v>68.930963689747927</v>
-      </c>
-      <c r="F178" s="30">
-        <f>F172-F175</f>
-        <v>74.325520110776125</v>
-      </c>
-      <c r="G178" s="30">
-        <f>G172-G175</f>
-        <v>80.236904229174371</v>
-      </c>
-      <c r="H178" s="30">
-        <f>H172-H175</f>
-        <v>86.703103691201875</v>
-      </c>
-      <c r="I178" s="30">
-        <f>I172-I175</f>
-        <v>93.764691513577077</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A179" s="22" t="s">
+      <c r="E224" s="30">
+        <f>E218-E221</f>
+        <v>68.91596368974794</v>
+      </c>
+      <c r="F224" s="30">
+        <f>F218-F221</f>
+        <v>74.310520110776139</v>
+      </c>
+      <c r="G224" s="30">
+        <f>G218-G221</f>
+        <v>80.221904229174385</v>
+      </c>
+      <c r="H224" s="30">
+        <f>H218-H221</f>
+        <v>86.688103691201889</v>
+      </c>
+      <c r="I224" s="30">
+        <f>I218-I221</f>
+        <v>93.749691513577091</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A225" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="E179" s="32" t="str">
-        <f>IF(AND(E170&gt;=E175,E170&lt;=E176),"IN",IF(E170&lt;E175,"BELOW","ABOVE"))</f>
+      <c r="E225" s="32" t="str">
+        <f>IF(AND(E216&gt;=E221,E216&lt;=E222),"IN",IF(E216&lt;E221,"BELOW","ABOVE"))</f>
         <v>BELOW</v>
       </c>
-      <c r="F179" s="32" t="str">
-        <f t="shared" ref="F179:I179" si="82">IF(AND(F170&gt;=F175,F170&lt;=F176),"IN",IF(F170&lt;F175,"BELOW","ABOVE"))</f>
+      <c r="F225" s="32" t="str">
+        <f t="shared" ref="F225:I225" si="83">IF(AND(F216&gt;=F221,F216&lt;=F222),"IN",IF(F216&lt;F221,"BELOW","ABOVE"))</f>
         <v>BELOW</v>
       </c>
-      <c r="G179" s="32" t="str">
-        <f t="shared" si="82"/>
+      <c r="G225" s="32" t="str">
+        <f t="shared" si="83"/>
         <v>IN</v>
       </c>
-      <c r="H179" s="32" t="str">
-        <f t="shared" si="82"/>
+      <c r="H225" s="32" t="str">
+        <f t="shared" si="83"/>
         <v>IN</v>
       </c>
-      <c r="I179" s="32" t="str">
-        <f t="shared" si="82"/>
+      <c r="I225" s="32" t="str">
+        <f t="shared" si="83"/>
         <v>IN</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A181" s="22" t="s">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A227" s="22" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A182" s="22" t="s">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A228" s="22" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A183" s="8" t="s">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A229" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="E183" s="35">
+      <c r="E229" s="35">
         <v>6.5629999999999994E-2</v>
       </c>
-      <c r="F183" s="35">
+      <c r="F229" s="35">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G183" s="35">
+      <c r="G229" s="35">
         <v>6.4820000000000003E-2</v>
       </c>
-      <c r="H183" s="35">
+      <c r="H229" s="35">
         <v>5.9959999999999999E-2</v>
       </c>
-      <c r="I183" s="35">
+      <c r="I229" s="35">
         <v>5.5460000000000002E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A184" s="8" t="s">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A230" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E184" s="35">
+      <c r="E230" s="35">
         <v>0.35</v>
       </c>
-      <c r="F184" s="35">
+      <c r="F230" s="35">
         <v>0.26</v>
       </c>
-      <c r="G184" s="35">
+      <c r="G230" s="35">
         <v>0.156</v>
       </c>
-      <c r="H184" s="35">
+      <c r="H230" s="35">
         <v>0.1101</v>
       </c>
-      <c r="I184" s="35">
+      <c r="I230" s="35">
         <v>0.1101</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A185" s="8" t="s">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A231" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E185" s="35">
+      <c r="E231" s="35">
         <v>0.35</v>
       </c>
-      <c r="F185" s="35">
+      <c r="F231" s="35">
         <v>0.26</v>
       </c>
-      <c r="G185" s="35">
+      <c r="G231" s="35">
         <v>0.156</v>
       </c>
-      <c r="H185" s="35">
+      <c r="H231" s="35">
         <v>0.1101</v>
       </c>
-      <c r="I185" s="35">
+      <c r="I231" s="35">
         <v>0.1101</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A186" s="8" t="s">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A232" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E186" s="35">
+      <c r="E232" s="35">
         <v>0.17499999999999999</v>
       </c>
-      <c r="F186" s="35">
+      <c r="F232" s="35">
         <v>0.16500000000000001</v>
       </c>
-      <c r="G186" s="35">
+      <c r="G232" s="35">
         <v>0.13200000000000001</v>
       </c>
-      <c r="H186" s="35">
+      <c r="H232" s="35">
         <v>0.1056</v>
       </c>
-      <c r="I186" s="35">
+      <c r="I232" s="35">
         <v>8.4500000000000006E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A187" s="8" t="s">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A233" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E187" s="35">
+      <c r="E233" s="35">
         <v>6.5629999999999994E-2</v>
       </c>
-      <c r="F187" s="35">
+      <c r="F233" s="35">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G187" s="35">
+      <c r="G233" s="35">
         <v>6.4820000000000003E-2</v>
       </c>
-      <c r="H187" s="35">
+      <c r="H233" s="35">
         <v>5.9959999999999999E-2</v>
       </c>
-      <c r="I187" s="35">
+      <c r="I233" s="35">
         <v>5.5460000000000002E-2</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A188" s="8" t="s">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A234" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="E188" s="36"/>
-      <c r="F188" s="35">
+      <c r="E234" s="36"/>
+      <c r="F234" s="35">
         <v>6.5629999999999994E-2</v>
       </c>
-      <c r="G188" s="35">
+      <c r="G234" s="35">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H188" s="35">
+      <c r="H234" s="35">
         <v>6.4820000000000003E-2</v>
       </c>
-      <c r="I188" s="35">
+      <c r="I234" s="35">
         <v>5.9959999999999999E-2</v>
       </c>
-      <c r="J188" s="34"/>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A189" s="8" t="s">
+      <c r="J234" s="34"/>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A235" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E189" s="36"/>
-      <c r="F189" s="36"/>
-      <c r="G189" s="35">
+      <c r="E235" s="36"/>
+      <c r="F235" s="36"/>
+      <c r="G235" s="35">
         <v>6.5629999999999994E-2</v>
       </c>
-      <c r="H189" s="35">
+      <c r="H235" s="35">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I189" s="35">
+      <c r="I235" s="35">
         <v>6.4820000000000003E-2</v>
       </c>
-      <c r="J189" s="34"/>
-      <c r="K189" s="34"/>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A190" s="8" t="s">
+      <c r="J235" s="34"/>
+      <c r="K235" s="34"/>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A236" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="E190" s="36"/>
-      <c r="F190" s="36"/>
-      <c r="G190" s="36"/>
-      <c r="H190" s="35">
+      <c r="E236" s="36"/>
+      <c r="F236" s="36"/>
+      <c r="G236" s="36"/>
+      <c r="H236" s="35">
         <v>6.5629999999999994E-2</v>
       </c>
-      <c r="I190" s="35">
+      <c r="I236" s="35">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J190" s="34"/>
-      <c r="K190" s="34"/>
-      <c r="L190" s="34"/>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A191" s="8" t="s">
+      <c r="J236" s="34"/>
+      <c r="K236" s="34"/>
+      <c r="L236" s="34"/>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A237" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="E191" s="36"/>
-      <c r="F191" s="36"/>
-      <c r="G191" s="36"/>
-      <c r="H191" s="36"/>
-      <c r="I191" s="35">
+      <c r="E237" s="36"/>
+      <c r="F237" s="36"/>
+      <c r="G237" s="36"/>
+      <c r="H237" s="36"/>
+      <c r="I237" s="35">
         <v>6.5629999999999994E-2</v>
       </c>
-      <c r="J191" s="34"/>
-      <c r="K191" s="34"/>
-      <c r="L191" s="34"/>
-      <c r="M191" s="34"/>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A192" s="22" t="s">
+      <c r="J237" s="34"/>
+      <c r="K237" s="34"/>
+      <c r="L237" s="34"/>
+      <c r="M237" s="34"/>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A238" s="22" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A193" s="8" t="s">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A239" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="E193" s="30">
-        <f>$E$137*E183</f>
-        <v>20.750428873672202</v>
-      </c>
-      <c r="F193" s="30">
-        <f t="shared" ref="F193:I194" si="83">$E$137*F183</f>
-        <v>22.132104542999461</v>
-      </c>
-      <c r="G193" s="30">
-        <f t="shared" si="83"/>
-        <v>20.494328806817499</v>
-      </c>
-      <c r="H193" s="30">
-        <f t="shared" si="83"/>
-        <v>18.957728405689249</v>
-      </c>
-      <c r="I193" s="30">
-        <f t="shared" si="83"/>
-        <v>17.53495025649643</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A194" s="8" t="s">
+      <c r="E239" s="30">
+        <f>$E$183*E229</f>
+        <v>20.730739873672206</v>
+      </c>
+      <c r="F239" s="30">
+        <f t="shared" ref="F239:I239" si="84">$E$183*F229</f>
+        <v>22.111104542999463</v>
+      </c>
+      <c r="G239" s="30">
+        <f t="shared" si="84"/>
+        <v>20.474882806817501</v>
+      </c>
+      <c r="H239" s="30">
+        <f t="shared" si="84"/>
+        <v>18.939740405689253</v>
+      </c>
+      <c r="I239" s="30">
+        <f t="shared" si="84"/>
+        <v>17.518312256496429</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A240" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E194" s="30">
-        <f>$E$138*E184</f>
+      <c r="E240" s="30">
+        <f>$E$184*E230</f>
         <v>169.1994772850027</v>
       </c>
-      <c r="F194" s="30">
-        <f t="shared" ref="F194:I195" si="84">$E$138*F184</f>
+      <c r="F240" s="30">
+        <f t="shared" ref="F240:I240" si="85">$E$184*F230</f>
         <v>125.69104026885915</v>
       </c>
-      <c r="G194" s="30">
-        <f t="shared" si="84"/>
+      <c r="G240" s="30">
+        <f t="shared" si="85"/>
         <v>75.414624161315487</v>
       </c>
-      <c r="H194" s="30">
-        <f t="shared" si="84"/>
+      <c r="H240" s="30">
+        <f t="shared" si="85"/>
         <v>53.22532128308228</v>
       </c>
-      <c r="I194" s="30">
-        <f t="shared" si="84"/>
+      <c r="I240" s="30">
+        <f t="shared" si="85"/>
         <v>53.22532128308228</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A195" s="8" t="s">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A241" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E195" s="30">
-        <f>$E$139*E185</f>
+      <c r="E241" s="30">
+        <f>$E$185*E231</f>
         <v>26.740000000000002</v>
       </c>
-      <c r="F195" s="30">
-        <f t="shared" ref="F195:I196" si="85">$E$139*F185</f>
+      <c r="F241" s="30">
+        <f t="shared" ref="F241:I241" si="86">$E$185*F231</f>
         <v>19.864000000000001</v>
       </c>
-      <c r="G195" s="30">
-        <f t="shared" si="85"/>
+      <c r="G241" s="30">
+        <f t="shared" si="86"/>
         <v>11.9184</v>
       </c>
-      <c r="H195" s="30">
-        <f t="shared" si="85"/>
+      <c r="H241" s="30">
+        <f t="shared" si="86"/>
         <v>8.4116400000000002</v>
       </c>
-      <c r="I195" s="30">
-        <f t="shared" si="85"/>
+      <c r="I241" s="30">
+        <f t="shared" si="86"/>
         <v>8.4116400000000002</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A196" s="8" t="s">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A242" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E196" s="30">
-        <f>$E$140*E186</f>
+      <c r="E242" s="30">
+        <f>$E$186*E232</f>
         <v>35.699999999999996</v>
       </c>
-      <c r="F196" s="30">
-        <f t="shared" ref="F196:I196" si="86">$E$140*F186</f>
+      <c r="F242" s="30">
+        <f t="shared" ref="F242:I242" si="87">$E$186*F232</f>
         <v>33.660000000000004</v>
       </c>
-      <c r="G196" s="30">
-        <f t="shared" si="86"/>
+      <c r="G242" s="30">
+        <f t="shared" si="87"/>
         <v>26.928000000000001</v>
       </c>
-      <c r="H196" s="30">
-        <f t="shared" si="86"/>
+      <c r="H242" s="30">
+        <f t="shared" si="87"/>
         <v>21.542400000000001</v>
       </c>
-      <c r="I196" s="30">
-        <f t="shared" si="86"/>
+      <c r="I242" s="30">
+        <f t="shared" si="87"/>
         <v>17.238</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A197" s="8" t="s">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A243" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E197" s="30">
-        <f>$E$141*E187</f>
+      <c r="E243" s="30">
+        <f>$E$187*E233</f>
         <v>11.96037129696</v>
       </c>
-      <c r="F197" s="30">
-        <f t="shared" ref="F197:I197" si="87">$E$141*F187</f>
+      <c r="F243" s="30">
+        <f t="shared" ref="F243:I243" si="88">$E$187*F233</f>
         <v>12.756757440000001</v>
       </c>
-      <c r="G197" s="30">
-        <f>$E$141*G187</f>
+      <c r="G243" s="30">
+        <f>$E$187*G233</f>
         <v>11.812757389440002</v>
       </c>
-      <c r="H197" s="30">
-        <f t="shared" si="87"/>
+      <c r="H243" s="30">
+        <f t="shared" si="88"/>
         <v>10.92707394432</v>
       </c>
-      <c r="I197" s="30">
-        <f t="shared" si="87"/>
+      <c r="I243" s="30">
+        <f t="shared" si="88"/>
         <v>10.106996680320002</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A198" s="8" t="s">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A244" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="F198" s="30">
-        <f>$F$141*F188</f>
+      <c r="F244" s="30">
+        <f>$F$187*F234</f>
         <v>12.737795431262397</v>
       </c>
-      <c r="G198" s="30">
-        <f t="shared" ref="G198:I198" si="88">$F$141*G188</f>
+      <c r="G244" s="30">
+        <f t="shared" ref="G244:I244" si="89">$F$187*G234</f>
         <v>13.585946673599999</v>
       </c>
-      <c r="H198" s="30">
-        <f t="shared" si="88"/>
+      <c r="H244" s="30">
+        <f t="shared" si="89"/>
         <v>12.580586619753598</v>
       </c>
-      <c r="I198" s="30">
-        <f t="shared" si="88"/>
+      <c r="I244" s="30">
+        <f t="shared" si="89"/>
         <v>11.637333750700797</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A199" s="8" t="s">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A245" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="G199" s="30">
-        <f>$G$141*G189</f>
+      <c r="G245" s="30">
+        <f>$G$187*G235</f>
         <v>13.565752134294453</v>
       </c>
-      <c r="H199" s="30">
-        <f t="shared" ref="H199:I199" si="89">$G$141*H189</f>
+      <c r="H245" s="30">
+        <f t="shared" ref="H245:I245" si="90">$G$187*H235</f>
         <v>14.469033207383999</v>
       </c>
-      <c r="I199" s="30">
-        <f t="shared" si="89"/>
+      <c r="I245" s="30">
+        <f t="shared" si="90"/>
         <v>13.398324750037583</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A200" s="8" t="s">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A246" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="H200" s="30">
-        <f>$H$141*H190</f>
+      <c r="H246" s="30">
+        <f>$H$187*H236</f>
         <v>14.447526023023592</v>
       </c>
-      <c r="I200" s="30">
-        <f>$H$141*I190</f>
+      <c r="I246" s="30">
+        <f>$H$187*I236</f>
         <v>15.409520365863958</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A201" s="8" t="s">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A247" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="I201" s="30">
-        <f>$I$141*I191</f>
+      <c r="I247" s="30">
+        <f>$I$187*I237</f>
         <v>15.386615214520125</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A202" s="22" t="s">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A248" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="E202" s="33">
-        <f>SUM(E193:E201)</f>
-        <v>264.35027745563491</v>
-      </c>
-      <c r="F202" s="33">
-        <f t="shared" ref="F202:I202" si="90">SUM(F193:F201)</f>
-        <v>226.841697683121</v>
-      </c>
-      <c r="G202" s="33">
-        <f t="shared" si="90"/>
-        <v>173.71980916546747</v>
-      </c>
-      <c r="H202" s="33">
-        <f t="shared" si="90"/>
-        <v>154.56130948325273</v>
-      </c>
-      <c r="I202" s="33">
-        <f t="shared" si="90"/>
-        <v>162.34870230102118</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A204" s="22" t="s">
+      <c r="E248" s="33">
+        <f>SUM(E239:E247)</f>
+        <v>264.33058845563488</v>
+      </c>
+      <c r="F248" s="33">
+        <f t="shared" ref="F248:I248" si="91">SUM(F239:F247)</f>
+        <v>226.82069768312101</v>
+      </c>
+      <c r="G248" s="33">
+        <f t="shared" si="91"/>
+        <v>173.70036316546748</v>
+      </c>
+      <c r="H248" s="33">
+        <f t="shared" si="91"/>
+        <v>154.54332148325273</v>
+      </c>
+      <c r="I248" s="33">
+        <f t="shared" si="91"/>
+        <v>162.33206430102118</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A250" s="22" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A205" t="s">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
         <v>159</v>
       </c>
-      <c r="E205" s="30">
-        <f>E170</f>
-        <v>154.65125694321551</v>
-      </c>
-      <c r="F205" s="30">
-        <f t="shared" ref="F205:I205" si="91">F170</f>
-        <v>164.35550456721552</v>
-      </c>
-      <c r="G205" s="30">
-        <f t="shared" si="91"/>
-        <v>174.6905282867755</v>
-      </c>
-      <c r="H205" s="30">
-        <f t="shared" si="91"/>
-        <v>185.6973285481069</v>
-      </c>
-      <c r="I205" s="30">
-        <f t="shared" si="91"/>
-        <v>197.41957082642483</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A206" t="s">
+      <c r="E251" s="30">
+        <f>E216</f>
+        <v>154.63875694321553</v>
+      </c>
+      <c r="F251" s="30">
+        <f t="shared" ref="F251:I251" si="92">F216</f>
+        <v>164.34300456721553</v>
+      </c>
+      <c r="G251" s="30">
+        <f t="shared" si="92"/>
+        <v>174.67802828677551</v>
+      </c>
+      <c r="H251" s="30">
+        <f t="shared" si="92"/>
+        <v>185.68482854810691</v>
+      </c>
+      <c r="I251" s="30">
+        <f t="shared" si="92"/>
+        <v>197.40707082642484</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
         <v>156</v>
       </c>
-      <c r="E206" s="30">
-        <f>E202</f>
-        <v>264.35027745563491</v>
-      </c>
-      <c r="F206" s="30">
-        <f t="shared" ref="F206:I206" si="92">F202</f>
-        <v>226.841697683121</v>
-      </c>
-      <c r="G206" s="30">
-        <f t="shared" si="92"/>
-        <v>173.71980916546747</v>
-      </c>
-      <c r="H206" s="30">
-        <f t="shared" si="92"/>
-        <v>154.56130948325273</v>
-      </c>
-      <c r="I206" s="30">
-        <f t="shared" si="92"/>
-        <v>162.34870230102118</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A207" t="s">
+      <c r="E252" s="30">
+        <f>E248</f>
+        <v>264.33058845563488</v>
+      </c>
+      <c r="F252" s="30">
+        <f t="shared" ref="F252:I252" si="93">F248</f>
+        <v>226.82069768312101</v>
+      </c>
+      <c r="G252" s="30">
+        <f t="shared" si="93"/>
+        <v>173.70036316546748</v>
+      </c>
+      <c r="H252" s="30">
+        <f t="shared" si="93"/>
+        <v>154.54332148325273</v>
+      </c>
+      <c r="I252" s="30">
+        <f t="shared" si="93"/>
+        <v>162.33206430102118</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
         <v>160</v>
       </c>
-      <c r="E207" s="30">
-        <f>E206-E205</f>
-        <v>109.69902051241939</v>
-      </c>
-      <c r="F207" s="30">
-        <f>F206-F205</f>
-        <v>62.486193115905479</v>
-      </c>
-      <c r="G207" s="30">
-        <f t="shared" ref="G207:I207" si="93">G206-G205</f>
-        <v>-0.97071912130803639</v>
-      </c>
-      <c r="H207" s="30">
-        <f t="shared" si="93"/>
-        <v>-31.136019064854167</v>
-      </c>
-      <c r="I207" s="30">
-        <f t="shared" si="93"/>
-        <v>-35.070868525403654</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A208" t="s">
+      <c r="E253" s="30">
+        <f>E252-E251</f>
+        <v>109.69183151241936</v>
+      </c>
+      <c r="F253" s="30">
+        <f>F252-F251</f>
+        <v>62.477693115905481</v>
+      </c>
+      <c r="G253" s="30">
+        <f t="shared" ref="G253:I253" si="94">G252-G251</f>
+        <v>-0.97766512130803562</v>
+      </c>
+      <c r="H253" s="30">
+        <f t="shared" si="94"/>
+        <v>-31.141507064854181</v>
+      </c>
+      <c r="I253" s="30">
+        <f t="shared" si="94"/>
+        <v>-35.075006525403666</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
         <v>161</v>
       </c>
-      <c r="E208" s="37">
+      <c r="E254" s="37">
         <f>E44</f>
         <v>0.25</v>
       </c>
-      <c r="F208" s="37">
+      <c r="F254" s="37">
         <f>F44</f>
         <v>0.25</v>
       </c>
-      <c r="G208" s="37">
+      <c r="G254" s="37">
         <f>G44</f>
         <v>0.25</v>
       </c>
-      <c r="H208" s="37">
+      <c r="H254" s="37">
         <f>H44</f>
         <v>0.25</v>
       </c>
-      <c r="I208" s="37">
+      <c r="I254" s="37">
         <f>I44</f>
         <v>0.25</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A209" t="s">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
         <v>162</v>
       </c>
-      <c r="E209" s="30">
-        <f>E207*E208</f>
-        <v>27.424755128104849</v>
-      </c>
-      <c r="F209" s="30">
-        <f t="shared" ref="F209:I209" si="94">F207*F208</f>
-        <v>15.62154827897637</v>
-      </c>
-      <c r="G209" s="30">
-        <f t="shared" si="94"/>
-        <v>-0.2426797803270091</v>
-      </c>
-      <c r="H209" s="30">
-        <f t="shared" si="94"/>
-        <v>-7.7840047662135419</v>
-      </c>
-      <c r="I209" s="30">
-        <f t="shared" si="94"/>
-        <v>-8.7677171313509135</v>
+      <c r="E255" s="30">
+        <f>E253*E254</f>
+        <v>27.422957878104839</v>
+      </c>
+      <c r="F255" s="30">
+        <f t="shared" ref="F255:I255" si="95">F253*F254</f>
+        <v>15.61942327897637</v>
+      </c>
+      <c r="G255" s="30">
+        <f t="shared" si="95"/>
+        <v>-0.24441628032700891</v>
+      </c>
+      <c r="H255" s="30">
+        <f t="shared" si="95"/>
+        <v>-7.7853767662135454</v>
+      </c>
+      <c r="I255" s="30">
+        <f t="shared" si="95"/>
+        <v>-8.7687516313509164</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B258" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C258" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D258" s="2">
+        <v>2019</v>
+      </c>
+      <c r="E258" s="2">
+        <v>2020</v>
+      </c>
+      <c r="F258" s="2">
+        <v>2021</v>
+      </c>
+      <c r="G258" s="2">
+        <v>2022</v>
+      </c>
+      <c r="H258" s="2">
+        <v>2023</v>
+      </c>
+      <c r="I258" s="2">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="B259" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C259" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D259" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E259" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="F259" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="G259" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="H259" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="I259" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A260" s="42" t="s">
+        <v>201</v>
+      </c>
+      <c r="C260" s="12"/>
+      <c r="D260" s="12"/>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>202</v>
+      </c>
+      <c r="C261" s="12">
+        <f>C140</f>
+        <v>518.1</v>
+      </c>
+      <c r="D261" s="12">
+        <f>D140</f>
+        <v>502.9</v>
+      </c>
+      <c r="E261" s="12">
+        <f>E262/360*E3</f>
+        <v>537.85931666666659</v>
+      </c>
+      <c r="F261" s="12">
+        <f>F262/360*F3</f>
+        <v>572.82017224999993</v>
+      </c>
+      <c r="G261" s="12">
+        <f>G262/360*G3</f>
+        <v>610.05348344624986</v>
+      </c>
+      <c r="H261" s="12">
+        <f>H262/360*H3</f>
+        <v>649.70695987025613</v>
+      </c>
+      <c r="I261" s="12">
+        <f>I262/360*I3</f>
+        <v>691.9379122618227</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A262" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="C262" s="12"/>
+      <c r="D262" s="12">
+        <f>AVERAGE(C261:D261)/D3*360</f>
+        <v>34.368104125369342</v>
+      </c>
+      <c r="E262" s="11">
+        <v>34</v>
+      </c>
+      <c r="F262" s="11">
+        <v>34</v>
+      </c>
+      <c r="G262" s="11">
+        <v>34</v>
+      </c>
+      <c r="H262" s="11">
+        <v>34</v>
+      </c>
+      <c r="I262" s="11">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>77</v>
+      </c>
+      <c r="C263" s="12">
+        <f>C141</f>
+        <v>786.3</v>
+      </c>
+      <c r="D263" s="12">
+        <f>D141</f>
+        <v>801.2</v>
+      </c>
+      <c r="E263" s="12">
+        <f>E264/360*E5</f>
+        <v>858.83477358333334</v>
+      </c>
+      <c r="F263" s="12">
+        <f t="shared" ref="F263:I263" si="96">F264/360*F5</f>
+        <v>914.65903386624984</v>
+      </c>
+      <c r="G263" s="12">
+        <f t="shared" si="96"/>
+        <v>974.11187106755608</v>
+      </c>
+      <c r="H263" s="12">
+        <f t="shared" si="96"/>
+        <v>1037.4291426869472</v>
+      </c>
+      <c r="I263" s="12">
+        <f t="shared" si="96"/>
+        <v>1104.8620369615987</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A264" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="C264" s="12"/>
+      <c r="D264" s="12">
+        <f>AVERAGE(C263:D263)/D5*360</f>
+        <v>89.238312357515383</v>
+      </c>
+      <c r="E264" s="11">
+        <v>89</v>
+      </c>
+      <c r="F264" s="11">
+        <v>89</v>
+      </c>
+      <c r="G264" s="11">
+        <v>89</v>
+      </c>
+      <c r="H264" s="11">
+        <v>89</v>
+      </c>
+      <c r="I264" s="11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>205</v>
+      </c>
+      <c r="C265" s="12">
+        <f>C142</f>
+        <v>78.900000000000006</v>
+      </c>
+      <c r="D265" s="12">
+        <f>D142</f>
+        <v>90.7</v>
+      </c>
+      <c r="E265" s="12">
+        <f>E266/360*E12</f>
+        <v>90.170532499999993</v>
+      </c>
+      <c r="F265" s="12">
+        <f>F266/360*F12</f>
+        <v>96.031617112499987</v>
+      </c>
+      <c r="G265" s="12">
+        <f>G266/360*G12</f>
+        <v>102.27367222481247</v>
+      </c>
+      <c r="H265" s="12">
+        <f>H266/360*H12</f>
+        <v>108.92146091942529</v>
+      </c>
+      <c r="I265" s="12">
+        <f>I266/360*I12</f>
+        <v>116.00135587918794</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A266" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="C266" s="12"/>
+      <c r="D266" s="12">
+        <f>AVERAGE(C265:D265)/D12*360</f>
+        <v>30.285714285714288</v>
+      </c>
+      <c r="E266" s="11">
+        <v>30</v>
+      </c>
+      <c r="F266" s="11">
+        <v>30</v>
+      </c>
+      <c r="G266" s="11">
+        <v>30</v>
+      </c>
+      <c r="H266" s="11">
+        <v>30</v>
+      </c>
+      <c r="I266" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A267" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C267" s="12">
+        <f>C261+C263+C265</f>
+        <v>1383.3000000000002</v>
+      </c>
+      <c r="D267" s="12">
+        <f>D261+D263+D265</f>
+        <v>1394.8</v>
+      </c>
+      <c r="E267" s="12">
+        <f t="shared" ref="E267:I267" si="97">E261+E263+E265</f>
+        <v>1486.8646227500001</v>
+      </c>
+      <c r="F267" s="12">
+        <f t="shared" si="97"/>
+        <v>1583.5108232287498</v>
+      </c>
+      <c r="G267" s="12">
+        <f t="shared" si="97"/>
+        <v>1686.4390267386186</v>
+      </c>
+      <c r="H267" s="12">
+        <f t="shared" si="97"/>
+        <v>1796.0575634766285</v>
+      </c>
+      <c r="I267" s="12">
+        <f t="shared" si="97"/>
+        <v>1912.8013051026094</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A268" s="42" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>208</v>
+      </c>
+      <c r="C269" s="12">
+        <f>C163</f>
+        <v>710</v>
+      </c>
+      <c r="D269" s="12">
+        <f>D163</f>
+        <v>846.9</v>
+      </c>
+      <c r="E269" s="12">
+        <f>E270/360*E5</f>
+        <v>844.36003020833323</v>
+      </c>
+      <c r="F269" s="12">
+        <f t="shared" ref="F269:I269" si="98">F270/360*F5</f>
+        <v>899.24343217187482</v>
+      </c>
+      <c r="G269" s="12">
+        <f t="shared" si="98"/>
+        <v>957.69425526304667</v>
+      </c>
+      <c r="H269" s="12">
+        <f t="shared" si="98"/>
+        <v>1019.9443818551446</v>
+      </c>
+      <c r="I269" s="12">
+        <f t="shared" si="98"/>
+        <v>1086.2407666757292</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A270" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="D270" s="12">
+        <f>AVERAGE(C269:D269)/D5*360</f>
+        <v>87.518191187033523</v>
+      </c>
+      <c r="E270" s="11">
+        <v>87.5</v>
+      </c>
+      <c r="F270" s="11">
+        <v>87.5</v>
+      </c>
+      <c r="G270" s="11">
+        <v>87.5</v>
+      </c>
+      <c r="H270" s="11">
+        <v>87.5</v>
+      </c>
+      <c r="I270" s="11">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>210</v>
+      </c>
+      <c r="C271" s="12">
+        <f>C164</f>
+        <v>648.20000000000005</v>
+      </c>
+      <c r="D271" s="12">
+        <f>D164</f>
+        <v>609.1</v>
+      </c>
+      <c r="E271" s="12">
+        <f>E272/360*E12</f>
+        <v>676.27899374999993</v>
+      </c>
+      <c r="F271" s="12">
+        <f>F272/360*F12</f>
+        <v>720.23712834374987</v>
+      </c>
+      <c r="G271" s="12">
+        <f>G272/360*G12</f>
+        <v>767.0525416860936</v>
+      </c>
+      <c r="H271" s="12">
+        <f>H272/360*H12</f>
+        <v>816.91095689568965</v>
+      </c>
+      <c r="I271" s="12">
+        <f>I272/360*I12</f>
+        <v>870.01016909390955</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A272" s="43" t="s">
+        <v>211</v>
+      </c>
+      <c r="D272" s="12">
+        <f>AVERAGE(C271:D271)/D12*360</f>
+        <v>224.51785714285717</v>
+      </c>
+      <c r="E272" s="11">
+        <v>225</v>
+      </c>
+      <c r="F272" s="11">
+        <v>225</v>
+      </c>
+      <c r="G272" s="11">
+        <v>225</v>
+      </c>
+      <c r="H272" s="11">
+        <v>225</v>
+      </c>
+      <c r="I272" s="11">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A273" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="C273" s="12">
+        <f>C269+C271</f>
+        <v>1358.2</v>
+      </c>
+      <c r="D273" s="12">
+        <f>D269+D271</f>
+        <v>1456</v>
+      </c>
+      <c r="E273" s="12">
+        <f t="shared" ref="E273:I273" si="99">E269+E271</f>
+        <v>1520.6390239583332</v>
+      </c>
+      <c r="F273" s="12">
+        <f t="shared" si="99"/>
+        <v>1619.4805605156248</v>
+      </c>
+      <c r="G273" s="12">
+        <f t="shared" si="99"/>
+        <v>1724.7467969491404</v>
+      </c>
+      <c r="H273" s="12">
+        <f t="shared" si="99"/>
+        <v>1836.8553387508341</v>
+      </c>
+      <c r="I273" s="12">
+        <f t="shared" si="99"/>
+        <v>1956.2509357696388</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A274" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="C274" s="44">
+        <f>C267-C273</f>
+        <v>25.100000000000136</v>
+      </c>
+      <c r="D274" s="44">
+        <f>D267-D273</f>
+        <v>-61.200000000000045</v>
+      </c>
+      <c r="E274" s="44">
+        <f t="shared" ref="E274:I274" si="100">E267-E273</f>
+        <v>-33.774401208333074</v>
+      </c>
+      <c r="F274" s="44">
+        <f t="shared" si="100"/>
+        <v>-35.969737286874988</v>
+      </c>
+      <c r="G274" s="44">
+        <f t="shared" si="100"/>
+        <v>-38.307770210521767</v>
+      </c>
+      <c r="H274" s="44">
+        <f t="shared" si="100"/>
+        <v>-40.797775274205605</v>
+      </c>
+      <c r="I274" s="44">
+        <f t="shared" si="100"/>
+        <v>-43.449630667029396</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A275" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="D275" s="12">
+        <f>D274-C274</f>
+        <v>-86.300000000000182</v>
+      </c>
+      <c r="E275" s="12">
+        <f>E274-D274</f>
+        <v>27.425598791666971</v>
+      </c>
+      <c r="F275" s="12">
+        <f>F274-E274</f>
+        <v>-2.1953360785419136</v>
+      </c>
+      <c r="G275" s="12">
+        <f>G274-F274</f>
+        <v>-2.3380329236467787</v>
+      </c>
+      <c r="H275" s="12">
+        <f>H274-G274</f>
+        <v>-2.4900050636838387</v>
+      </c>
+      <c r="I275" s="12">
+        <f>I274-H274</f>
+        <v>-2.6518553928237907</v>
       </c>
     </row>
   </sheetData>

--- a/MKC.xlsx
+++ b/MKC.xlsx
@@ -206,7 +206,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A140" authorId="0" shapeId="0">
+    <comment ref="A142" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -230,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A171" authorId="0" shapeId="0">
+    <comment ref="A173" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -238,7 +238,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nick Jathar:</t>
         </r>
@@ -247,14 +247,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 authorized 320.0; 9.3 and 9.6 shares issued and outstanding as of 2019 and 2018 respectively</t>
         </r>
       </text>
     </comment>
-    <comment ref="A172" authorId="0" shapeId="0">
+    <comment ref="A174" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -262,7 +262,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nick Jathar:</t>
         </r>
@@ -271,7 +271,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 authorized 320.0; 123.6 and 233.6 shares issued and outstanding as of 2019 and 2018 respectively</t>
@@ -283,7 +283,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="214">
   <si>
     <t>SG&amp;A</t>
   </si>
@@ -1142,7 +1142,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1230,19 +1230,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1251,7 +1238,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1261,6 +1248,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1296,7 +1289,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1356,10 +1349,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1675,10 +1669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M275"/>
+  <dimension ref="A1:M277"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A85" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A115" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="N146" sqref="N146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2434,11 +2428,11 @@
         <v>158.80000000000001</v>
       </c>
       <c r="E25" s="24">
-        <f>E216</f>
+        <f>E218</f>
         <v>154.63875694321553</v>
       </c>
       <c r="F25" s="24">
-        <f t="shared" ref="F25:I25" si="21">F216</f>
+        <f t="shared" ref="F25:I25" si="21">F218</f>
         <v>164.34300456721553</v>
       </c>
       <c r="G25" s="24">
@@ -4100,23 +4094,23 @@
         <v>20.9</v>
       </c>
       <c r="E94" s="12">
-        <f>E255</f>
+        <f>E257</f>
         <v>27.422957878104839</v>
       </c>
       <c r="F94" s="12">
-        <f>F255</f>
+        <f>F257</f>
         <v>15.61942327897637</v>
       </c>
       <c r="G94" s="12">
-        <f>G255</f>
+        <f>G257</f>
         <v>-0.24441628032700891</v>
       </c>
       <c r="H94" s="12">
-        <f>H255</f>
+        <f>H257</f>
         <v>-7.7853767662135454</v>
       </c>
       <c r="I94" s="12">
-        <f>I255</f>
+        <f>I257</f>
         <v>-8.7687516313509164</v>
       </c>
     </row>
@@ -4201,11 +4195,11 @@
         <v>12.2</v>
       </c>
       <c r="E98" s="12">
-        <f>-(E261-D261)</f>
+        <f>-(E263-D263)</f>
         <v>-34.959316666666609</v>
       </c>
       <c r="F98" s="12">
-        <f t="shared" ref="F98:I99" si="61">-(F261-E261)</f>
+        <f t="shared" ref="F98:I98" si="61">-(F263-E263)</f>
         <v>-34.960855583333341</v>
       </c>
       <c r="G98" s="12">
@@ -4235,11 +4229,11 @@
         <v>-20.9</v>
       </c>
       <c r="E99" s="12">
-        <f>-(E263-D263)</f>
+        <f>-(E265-D265)</f>
         <v>-57.634773583333299</v>
       </c>
       <c r="F99" s="12">
-        <f t="shared" ref="F99:I99" si="62">-(F263-E263)</f>
+        <f t="shared" ref="F99:I99" si="62">-(F265-E265)</f>
         <v>-55.824260282916498</v>
       </c>
       <c r="G99" s="12">
@@ -4257,93 +4251,148 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
-        <v>78</v>
+        <v>205</v>
       </c>
       <c r="B100" s="11">
-        <v>98.2</v>
+        <v>0</v>
       </c>
       <c r="C100" s="11">
-        <v>72.8</v>
+        <v>0</v>
       </c>
       <c r="D100" s="11">
-        <v>128.19999999999999</v>
+        <v>0</v>
+      </c>
+      <c r="E100" s="12">
+        <f>-(E267-D267)</f>
+        <v>0.52946750000000975</v>
+      </c>
+      <c r="F100" s="12">
+        <f t="shared" ref="F100:I100" si="63">-(F267-E267)</f>
+        <v>-5.8610846124999938</v>
+      </c>
+      <c r="G100" s="12">
+        <f t="shared" si="63"/>
+        <v>-6.2420551123124852</v>
+      </c>
+      <c r="H100" s="12">
+        <f t="shared" si="63"/>
+        <v>-6.6477886946128137</v>
+      </c>
+      <c r="I100" s="12">
+        <f t="shared" si="63"/>
+        <v>-7.0798949597626546</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B101" s="11">
+        <v>98.2</v>
+      </c>
+      <c r="C101" s="11">
+        <v>72.8</v>
+      </c>
+      <c r="D101" s="11">
+        <v>128.19999999999999</v>
+      </c>
+      <c r="E101" s="12">
+        <f>E271-D271</f>
+        <v>-2.5399697916667492</v>
+      </c>
+      <c r="F101" s="12">
+        <f>F271-E271</f>
+        <v>54.883401963541587</v>
+      </c>
+      <c r="G101" s="12">
+        <f>G271-F271</f>
+        <v>58.450823091171856</v>
+      </c>
+      <c r="H101" s="12">
+        <f>H271-G271</f>
+        <v>62.250126592097899</v>
+      </c>
+      <c r="I101" s="12">
+        <f>I271-H271</f>
+        <v>66.296384820584649</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B102" s="11">
+        <v>0</v>
+      </c>
+      <c r="C102" s="11">
+        <v>0</v>
+      </c>
+      <c r="D102" s="11">
+        <v>0</v>
+      </c>
+      <c r="E102" s="12">
+        <f>E273-D273</f>
+        <v>67.178993749999904</v>
+      </c>
+      <c r="F102" s="12">
+        <f t="shared" ref="F102:I102" si="64">F273-E273</f>
+        <v>43.958134593749946</v>
+      </c>
+      <c r="G102" s="12">
+        <f t="shared" si="64"/>
+        <v>46.815413342343732</v>
+      </c>
+      <c r="H102" s="12">
+        <f t="shared" si="64"/>
+        <v>49.858415209596046</v>
+      </c>
+      <c r="I102" s="12">
+        <f t="shared" si="64"/>
+        <v>53.099212198219902</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B101" s="11">
+      <c r="B103" s="11">
         <v>6.8</v>
       </c>
-      <c r="C101" s="11">
+      <c r="C103" s="11">
         <v>-91.8</v>
       </c>
-      <c r="D101" s="11">
+      <c r="D103" s="11">
         <v>-81.5</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="E103" s="25">
+        <v>0</v>
+      </c>
+      <c r="F103" s="25">
+        <v>0</v>
+      </c>
+      <c r="G103" s="25">
+        <v>0</v>
+      </c>
+      <c r="H103" s="25">
+        <v>0</v>
+      </c>
+      <c r="I103" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>105</v>
       </c>
-      <c r="B102" s="11">
+      <c r="B104" s="11">
         <v>23.6</v>
       </c>
-      <c r="C102" s="11">
+      <c r="C104" s="11">
         <v>27.2</v>
       </c>
-      <c r="D102" s="11">
+      <c r="D104" s="11">
         <v>31.7</v>
       </c>
-      <c r="E102" s="12"/>
-      <c r="F102" s="12"/>
-      <c r="G102" s="12"/>
-      <c r="H102" s="12"/>
-      <c r="I102" s="12"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="B103" s="12">
-        <f>B87+SUM(B88:B102)</f>
-        <v>815.3</v>
-      </c>
-      <c r="C103" s="12">
-        <f>C87+SUM(C88:C102)</f>
-        <v>821.20000000000016</v>
-      </c>
-      <c r="D103" s="12">
-        <f>D87+SUM(D88:D102)</f>
-        <v>946.79999999999973</v>
-      </c>
-      <c r="E103" s="12">
-        <f t="shared" ref="E103:I103" si="63">E87+SUM(E88:E102)</f>
-        <v>827.73570686390883</v>
-      </c>
-      <c r="F103" s="12">
-        <f t="shared" si="63"/>
-        <v>875.69327330453052</v>
-      </c>
-      <c r="G103" s="12">
-        <f t="shared" si="63"/>
-        <v>915.64741610256067</v>
-      </c>
-      <c r="H103" s="12">
-        <f t="shared" si="63"/>
-        <v>967.55260682723463</v>
-      </c>
-      <c r="I103" s="12">
-        <f t="shared" si="63"/>
-        <v>1029.8793830013437</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="21"/>
-      <c r="B104" s="12"/>
-      <c r="C104" s="12"/>
-      <c r="D104" s="12"/>
       <c r="E104" s="12"/>
       <c r="F104" s="12"/>
       <c r="G104" s="12"/>
@@ -4351,2913 +4400,3130 @@
       <c r="I104" s="12"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="22" t="s">
+      <c r="A105" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B105" s="12">
+        <f>B87+SUM(B88:B104)</f>
+        <v>815.3</v>
+      </c>
+      <c r="C105" s="12">
+        <f>C87+SUM(C88:C104)</f>
+        <v>821.20000000000016</v>
+      </c>
+      <c r="D105" s="12">
+        <f>D87+SUM(D88:D104)</f>
+        <v>946.79999999999973</v>
+      </c>
+      <c r="E105" s="12">
+        <f t="shared" ref="E105:I105" si="65">E87+SUM(E88:E104)</f>
+        <v>892.904198322242</v>
+      </c>
+      <c r="F105" s="12">
+        <f t="shared" si="65"/>
+        <v>968.67372524932205</v>
+      </c>
+      <c r="G105" s="12">
+        <f t="shared" si="65"/>
+        <v>1014.6715974237638</v>
+      </c>
+      <c r="H105" s="12">
+        <f t="shared" si="65"/>
+        <v>1073.0133599343158</v>
+      </c>
+      <c r="I105" s="12">
+        <f t="shared" si="65"/>
+        <v>1142.1950850603855</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="21"/>
+      <c r="B106" s="12"/>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="12"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="22" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>81</v>
       </c>
-      <c r="B106" s="11">
+      <c r="B108" s="11">
         <v>-4327.3999999999996</v>
       </c>
-      <c r="C106" s="11">
+      <c r="C108" s="11">
         <v>-4.2</v>
       </c>
-      <c r="D106" s="11"/>
-      <c r="E106" s="25">
+      <c r="D108" s="11"/>
+      <c r="E108" s="25">
         <v>0</v>
       </c>
-      <c r="F106" s="25">
+      <c r="F108" s="25">
         <v>0</v>
       </c>
-      <c r="G106" s="25">
+      <c r="G108" s="25">
         <v>0</v>
       </c>
-      <c r="H106" s="25">
+      <c r="H108" s="25">
         <v>0</v>
       </c>
-      <c r="I106" s="25">
+      <c r="I108" s="25">
         <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>102</v>
-      </c>
-      <c r="B107" s="11">
-        <v>-182.4</v>
-      </c>
-      <c r="C107" s="11">
-        <v>-169.1</v>
-      </c>
-      <c r="D107" s="11">
-        <v>-173.7</v>
-      </c>
-      <c r="E107" s="24">
-        <f>-E108*E3</f>
-        <v>-182.23939200000001</v>
-      </c>
-      <c r="F107" s="24">
-        <f t="shared" ref="F107:I107" si="64">-F108*F3</f>
-        <v>-194.08495247999997</v>
-      </c>
-      <c r="G107" s="24">
-        <f t="shared" si="64"/>
-        <v>-206.70047439119998</v>
-      </c>
-      <c r="H107" s="24">
-        <f t="shared" si="64"/>
-        <v>-220.13600522662796</v>
-      </c>
-      <c r="I107" s="24">
-        <f t="shared" si="64"/>
-        <v>-234.44484556635877</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B108" s="23">
-        <f>-B107/B3</f>
-        <v>3.8559922203665727E-2</v>
-      </c>
-      <c r="C108" s="23">
-        <f>-C107/C3</f>
-        <v>3.1888813457041559E-2</v>
-      </c>
-      <c r="D108" s="23">
-        <f>-D107/D3</f>
-        <v>3.248307588734712E-2</v>
-      </c>
-      <c r="E108" s="15">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="F108" s="15">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="G108" s="15">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="H108" s="15">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="I108" s="15">
-        <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>102</v>
+      </c>
+      <c r="B109" s="11">
+        <v>-182.4</v>
+      </c>
+      <c r="C109" s="11">
+        <v>-169.1</v>
+      </c>
+      <c r="D109" s="11">
+        <v>-173.7</v>
+      </c>
+      <c r="E109" s="24">
+        <f>-E110*E3</f>
+        <v>-182.23939200000001</v>
+      </c>
+      <c r="F109" s="24">
+        <f t="shared" ref="F109:I109" si="66">-F110*F3</f>
+        <v>-194.08495247999997</v>
+      </c>
+      <c r="G109" s="24">
+        <f t="shared" si="66"/>
+        <v>-206.70047439119998</v>
+      </c>
+      <c r="H109" s="24">
+        <f t="shared" si="66"/>
+        <v>-220.13600522662796</v>
+      </c>
+      <c r="I109" s="24">
+        <f t="shared" si="66"/>
+        <v>-234.44484556635877</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B110" s="23">
+        <f>-B109/B3</f>
+        <v>3.8559922203665727E-2</v>
+      </c>
+      <c r="C110" s="23">
+        <f>-C109/C3</f>
+        <v>3.1888813457041559E-2</v>
+      </c>
+      <c r="D110" s="23">
+        <f>-D109/D3</f>
+        <v>3.248307588734712E-2</v>
+      </c>
+      <c r="E110" s="15">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F110" s="15">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G110" s="15">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="H110" s="15">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="I110" s="15">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>82</v>
       </c>
-      <c r="B109" s="11">
+      <c r="B111" s="11">
         <v>1.5</v>
       </c>
-      <c r="C109" s="11">
+      <c r="C111" s="11">
         <v>14.8</v>
       </c>
-      <c r="D109" s="11">
+      <c r="D111" s="11">
         <v>2.7</v>
       </c>
-      <c r="E109" s="12">
-        <f>MIN($B$109:$D$109)</f>
+      <c r="E111" s="12">
+        <f>MIN($B$111:$D$111)</f>
         <v>1.5</v>
       </c>
-      <c r="F109" s="12">
-        <f t="shared" ref="F109:I109" si="65">MIN($B$109:$D$109)</f>
+      <c r="F111" s="12">
+        <f t="shared" ref="F111:I111" si="67">MIN($B$111:$D$111)</f>
         <v>1.5</v>
       </c>
-      <c r="G109" s="12">
-        <f t="shared" si="65"/>
+      <c r="G111" s="12">
+        <f t="shared" si="67"/>
         <v>1.5</v>
       </c>
-      <c r="H109" s="12">
-        <f t="shared" si="65"/>
+      <c r="H111" s="12">
+        <f t="shared" si="67"/>
         <v>1.5</v>
       </c>
-      <c r="I109" s="12">
-        <f t="shared" si="65"/>
+      <c r="I111" s="12">
+        <f t="shared" si="67"/>
         <v>1.5</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="21" t="s">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="B110" s="12">
-        <f>B106+B107+B109</f>
+      <c r="B112" s="12">
+        <f>B108+B109+B111</f>
         <v>-4508.2999999999993</v>
       </c>
-      <c r="C110" s="12">
-        <f>C106+C107+C109</f>
+      <c r="C112" s="12">
+        <f>C108+C109+C111</f>
         <v>-158.49999999999997</v>
       </c>
-      <c r="D110" s="12">
-        <f>D106+D107+D109</f>
+      <c r="D112" s="12">
+        <f>D108+D109+D111</f>
         <v>-171</v>
       </c>
-      <c r="E110" s="12">
-        <f t="shared" ref="E110:I110" si="66">E106+E107+E109</f>
+      <c r="E112" s="12">
+        <f t="shared" ref="E112:I112" si="68">E108+E109+E111</f>
         <v>-180.73939200000001</v>
       </c>
-      <c r="F110" s="12">
-        <f t="shared" si="66"/>
+      <c r="F112" s="12">
+        <f t="shared" si="68"/>
         <v>-192.58495247999997</v>
       </c>
-      <c r="G110" s="12">
-        <f t="shared" si="66"/>
+      <c r="G112" s="12">
+        <f t="shared" si="68"/>
         <v>-205.20047439119998</v>
       </c>
-      <c r="H110" s="12">
-        <f t="shared" si="66"/>
+      <c r="H112" s="12">
+        <f t="shared" si="68"/>
         <v>-218.63600522662796</v>
       </c>
-      <c r="I110" s="12">
-        <f t="shared" si="66"/>
+      <c r="I112" s="12">
+        <f t="shared" si="68"/>
         <v>-232.94484556635877</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="22" t="s">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="22" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>86</v>
-      </c>
-      <c r="B113" s="11">
-        <v>-134.6</v>
-      </c>
-      <c r="C113" s="11">
-        <v>305.5</v>
-      </c>
-      <c r="D113" s="11">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>87</v>
-      </c>
-      <c r="B114" s="11">
-        <v>3989.6</v>
-      </c>
-      <c r="C114" s="11">
-        <v>25.9</v>
-      </c>
-      <c r="D114" s="11"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>86</v>
+      </c>
+      <c r="B115" s="11">
+        <v>-134.6</v>
+      </c>
+      <c r="C115" s="11">
+        <v>305.5</v>
+      </c>
+      <c r="D115" s="11">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>87</v>
+      </c>
+      <c r="B116" s="11">
+        <v>3989.6</v>
+      </c>
+      <c r="C116" s="11">
+        <v>25.9</v>
+      </c>
+      <c r="D116" s="11"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>88</v>
       </c>
-      <c r="B115" s="11">
+      <c r="B117" s="11">
         <v>-7.7</v>
       </c>
-      <c r="C115" s="11"/>
-      <c r="D115" s="11"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="B116" s="11">
-        <v>-272.7</v>
-      </c>
-      <c r="C116" s="11">
-        <v>-797.9</v>
-      </c>
-      <c r="D116" s="11">
-        <v>-447.7</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="B117" s="11">
-        <v>29.5</v>
-      </c>
-      <c r="C117" s="11">
-        <v>78.2</v>
-      </c>
-      <c r="D117" s="11">
-        <v>90.9</v>
-      </c>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B118" s="11">
-        <v>-5.8</v>
+        <v>-272.7</v>
       </c>
       <c r="C118" s="11">
-        <v>-11.6</v>
+        <v>-797.9</v>
       </c>
       <c r="D118" s="11">
-        <v>-12.7</v>
+        <v>-447.7</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B119" s="11">
-        <v>-19.7</v>
+        <v>29.5</v>
       </c>
       <c r="C119" s="11">
-        <v>-2.5</v>
-      </c>
-      <c r="D119" s="11"/>
+        <v>78.2</v>
+      </c>
+      <c r="D119" s="11">
+        <v>90.9</v>
+      </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B120" s="11">
-        <v>-1.2</v>
+        <v>-5.8</v>
       </c>
       <c r="C120" s="11">
-        <v>-13</v>
-      </c>
-      <c r="D120" s="11"/>
+        <v>-11.6</v>
+      </c>
+      <c r="D120" s="11">
+        <v>-12.7</v>
+      </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B121" s="11">
-        <v>554</v>
-      </c>
-      <c r="C121" s="11"/>
+        <v>-19.7</v>
+      </c>
+      <c r="C121" s="11">
+        <v>-2.5</v>
+      </c>
       <c r="D121" s="11"/>
-      <c r="E121" s="25">
-        <v>0</v>
-      </c>
-      <c r="F121" s="25">
-        <v>0</v>
-      </c>
-      <c r="G121" s="25">
-        <v>0</v>
-      </c>
-      <c r="H121" s="25">
-        <v>0</v>
-      </c>
-      <c r="I121" s="25">
-        <v>0</v>
-      </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B122" s="11">
-        <v>-137.80000000000001</v>
+        <v>-1.2</v>
       </c>
       <c r="C122" s="11">
-        <v>-62.3</v>
-      </c>
-      <c r="D122" s="11">
-        <v>-95.1</v>
-      </c>
+        <v>-13</v>
+      </c>
+      <c r="D122" s="11"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B123" s="11">
-        <v>-237.6</v>
-      </c>
-      <c r="C123" s="11">
-        <v>-273.39999999999998</v>
-      </c>
-      <c r="D123" s="11">
-        <v>-302.2</v>
-      </c>
-      <c r="E123" s="28">
-        <f>-E124*E70</f>
-        <v>-302.2</v>
-      </c>
-      <c r="F123" s="28">
-        <f t="shared" ref="F123:I123" si="67">-F124*F70</f>
-        <v>-302.2</v>
-      </c>
-      <c r="G123" s="28">
-        <f t="shared" si="67"/>
-        <v>-302.2</v>
-      </c>
-      <c r="H123" s="28">
-        <f t="shared" si="67"/>
-        <v>-302.2</v>
-      </c>
-      <c r="I123" s="28">
-        <f t="shared" si="67"/>
-        <v>-302.2</v>
+        <v>554</v>
+      </c>
+      <c r="C123" s="11"/>
+      <c r="D123" s="11"/>
+      <c r="E123" s="25">
+        <v>0</v>
+      </c>
+      <c r="F123" s="25">
+        <v>0</v>
+      </c>
+      <c r="G123" s="25">
+        <v>0</v>
+      </c>
+      <c r="H123" s="25">
+        <v>0</v>
+      </c>
+      <c r="I123" s="25">
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B124" s="26">
-        <f>-B123/B70</f>
-        <v>1.8745562130177513</v>
-      </c>
-      <c r="C124" s="26">
-        <f>-C123/C70</f>
-        <v>2.0790874524714829</v>
-      </c>
-      <c r="D124" s="26">
-        <f>-D123/D70</f>
-        <v>2.2790346907993966</v>
-      </c>
-      <c r="E124" s="27">
-        <f>D124</f>
-        <v>2.2790346907993966</v>
-      </c>
-      <c r="F124" s="27">
-        <f>E124</f>
-        <v>2.2790346907993966</v>
-      </c>
-      <c r="G124" s="27">
-        <f>F124</f>
-        <v>2.2790346907993966</v>
-      </c>
-      <c r="H124" s="27">
-        <f>G124</f>
-        <v>2.2790346907993966</v>
-      </c>
-      <c r="I124" s="27">
-        <f>H124</f>
-        <v>2.2790346907993966</v>
+      <c r="A124" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B124" s="11">
+        <v>-137.80000000000001</v>
+      </c>
+      <c r="C124" s="11">
+        <v>-62.3</v>
+      </c>
+      <c r="D124" s="11">
+        <v>-95.1</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="B125" s="12">
-        <f>SUM(B113:B123)</f>
-        <v>3756.0000000000005</v>
-      </c>
-      <c r="C125" s="12">
-        <f>SUM(C113:C123)</f>
-        <v>-751.1</v>
-      </c>
-      <c r="D125" s="12">
-        <f>SUM(D113:D123)</f>
-        <v>-725.8</v>
-      </c>
-      <c r="E125" s="12">
-        <f t="shared" ref="E125:I125" si="68">SUM(E113:E123)</f>
+        <v>96</v>
+      </c>
+      <c r="B125" s="11">
+        <v>-237.6</v>
+      </c>
+      <c r="C125" s="11">
+        <v>-273.39999999999998</v>
+      </c>
+      <c r="D125" s="11">
         <v>-302.2</v>
       </c>
-      <c r="F125" s="12">
-        <f t="shared" si="68"/>
+      <c r="E125" s="28">
+        <f>-E126*E70</f>
         <v>-302.2</v>
       </c>
-      <c r="G125" s="12">
-        <f t="shared" si="68"/>
+      <c r="F125" s="28">
+        <f t="shared" ref="F125:I125" si="69">-F126*F70</f>
         <v>-302.2</v>
       </c>
-      <c r="H125" s="12">
-        <f t="shared" si="68"/>
+      <c r="G125" s="28">
+        <f t="shared" si="69"/>
         <v>-302.2</v>
       </c>
-      <c r="I125" s="12">
-        <f t="shared" si="68"/>
+      <c r="H125" s="28">
+        <f t="shared" si="69"/>
         <v>-302.2</v>
+      </c>
+      <c r="I125" s="28">
+        <f t="shared" si="69"/>
+        <v>-302.2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B126" s="26">
+        <f>-B125/B70</f>
+        <v>1.8745562130177513</v>
+      </c>
+      <c r="C126" s="26">
+        <f>-C125/C70</f>
+        <v>2.0790874524714829</v>
+      </c>
+      <c r="D126" s="26">
+        <f>-D125/D70</f>
+        <v>2.2790346907993966</v>
+      </c>
+      <c r="E126" s="27">
+        <f>D126</f>
+        <v>2.2790346907993966</v>
+      </c>
+      <c r="F126" s="27">
+        <f>E126</f>
+        <v>2.2790346907993966</v>
+      </c>
+      <c r="G126" s="27">
+        <f>F126</f>
+        <v>2.2790346907993966</v>
+      </c>
+      <c r="H126" s="27">
+        <f>G126</f>
+        <v>2.2790346907993966</v>
+      </c>
+      <c r="I126" s="27">
+        <f>H126</f>
+        <v>2.2790346907993966</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="B127" s="11">
-        <v>5.4</v>
-      </c>
-      <c r="C127" s="11">
-        <v>-1.8</v>
-      </c>
-      <c r="D127" s="11">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="E127" s="25">
-        <v>0</v>
-      </c>
-      <c r="F127" s="25">
-        <v>0</v>
-      </c>
-      <c r="G127" s="25">
-        <v>0</v>
-      </c>
-      <c r="H127" s="25">
-        <v>0</v>
-      </c>
-      <c r="I127" s="25">
-        <v>0</v>
+        <v>97</v>
+      </c>
+      <c r="B127" s="12">
+        <f>SUM(B115:B125)</f>
+        <v>3756.0000000000005</v>
+      </c>
+      <c r="C127" s="12">
+        <f>SUM(C115:C125)</f>
+        <v>-751.1</v>
+      </c>
+      <c r="D127" s="12">
+        <f>SUM(D115:D125)</f>
+        <v>-725.8</v>
+      </c>
+      <c r="E127" s="12">
+        <f t="shared" ref="E127:I127" si="70">SUM(E115:E125)</f>
+        <v>-302.2</v>
+      </c>
+      <c r="F127" s="12">
+        <f t="shared" si="70"/>
+        <v>-302.2</v>
+      </c>
+      <c r="G127" s="12">
+        <f t="shared" si="70"/>
+        <v>-302.2</v>
+      </c>
+      <c r="H127" s="12">
+        <f t="shared" si="70"/>
+        <v>-302.2</v>
+      </c>
+      <c r="I127" s="12">
+        <f t="shared" si="70"/>
+        <v>-302.2</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B129" s="11">
+        <v>5.4</v>
+      </c>
+      <c r="C129" s="11">
+        <v>-1.8</v>
+      </c>
+      <c r="D129" s="11">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E129" s="25">
+        <v>0</v>
+      </c>
+      <c r="F129" s="25">
+        <v>0</v>
+      </c>
+      <c r="G129" s="25">
+        <v>0</v>
+      </c>
+      <c r="H129" s="25">
+        <v>0</v>
+      </c>
+      <c r="I129" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="B129" s="12">
-        <f>B103+B110+B125+B127</f>
+      <c r="B131" s="12">
+        <f>B105+B112+B127+B129</f>
         <v>68.40000000000137</v>
       </c>
-      <c r="C129" s="12">
-        <f>C103+C110+C125+C127</f>
+      <c r="C131" s="12">
+        <f>C105+C112+C127+C129</f>
         <v>-90.199999999999861</v>
       </c>
-      <c r="D129" s="12">
-        <f>D103+D110+D125+D127</f>
+      <c r="D131" s="12">
+        <f>D105+D112+D127+D129</f>
         <v>58.79999999999977</v>
       </c>
-      <c r="E129" s="12">
-        <f t="shared" ref="E129:I129" si="69">E103+E110+E125+E127</f>
-        <v>344.79631486390878</v>
-      </c>
-      <c r="F129" s="12">
-        <f t="shared" si="69"/>
-        <v>380.90832082453056</v>
-      </c>
-      <c r="G129" s="12">
-        <f t="shared" si="69"/>
-        <v>408.24694171136076</v>
-      </c>
-      <c r="H129" s="12">
-        <f t="shared" si="69"/>
-        <v>446.71660160060668</v>
-      </c>
-      <c r="I129" s="12">
-        <f t="shared" si="69"/>
-        <v>494.73453743498504</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="E131" s="12">
+        <f t="shared" ref="E131:I131" si="71">E105+E112+E127+E129</f>
+        <v>409.96480632224194</v>
+      </c>
+      <c r="F131" s="12">
+        <f t="shared" si="71"/>
+        <v>473.88877276932209</v>
+      </c>
+      <c r="G131" s="12">
+        <f t="shared" si="71"/>
+        <v>507.27112303256382</v>
+      </c>
+      <c r="H131" s="12">
+        <f t="shared" si="71"/>
+        <v>552.17735470768775</v>
+      </c>
+      <c r="I131" s="12">
+        <f t="shared" si="71"/>
+        <v>607.05023949402675</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>100</v>
       </c>
-      <c r="B131" s="11">
+      <c r="B133" s="11">
         <v>118.4</v>
       </c>
-      <c r="C131" s="11">
+      <c r="C133" s="11">
         <v>186.8</v>
       </c>
-      <c r="D131" s="11">
+      <c r="D133" s="11">
         <v>96.6</v>
       </c>
-      <c r="E131" s="12">
-        <f>D132</f>
+      <c r="E133" s="12">
+        <f>D134</f>
         <v>155.39999999999975</v>
       </c>
-      <c r="F131" s="12">
-        <f>E132</f>
-        <v>500.19631486390853</v>
-      </c>
-      <c r="G131" s="12">
-        <f>F132</f>
-        <v>881.10463568843909</v>
-      </c>
-      <c r="H131" s="12">
-        <f>G132</f>
-        <v>1289.3515773997999</v>
-      </c>
-      <c r="I131" s="12">
-        <f>H132</f>
-        <v>1736.0681790004066</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="F133" s="12">
+        <f>E134</f>
+        <v>565.36480632224175</v>
+      </c>
+      <c r="G133" s="12">
+        <f>F134</f>
+        <v>1039.2535790915638</v>
+      </c>
+      <c r="H133" s="12">
+        <f>G134</f>
+        <v>1546.5247021241275</v>
+      </c>
+      <c r="I133" s="12">
+        <f>H134</f>
+        <v>2098.7020568318153</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>101</v>
       </c>
-      <c r="B132" s="12">
-        <f>B131+B129</f>
+      <c r="B134" s="12">
+        <f>B133+B131</f>
         <v>186.80000000000138</v>
       </c>
-      <c r="C132" s="12">
-        <f t="shared" ref="C132:D132" si="70">C131+C129</f>
+      <c r="C134" s="12">
+        <f t="shared" ref="C134:D134" si="72">C133+C131</f>
         <v>96.600000000000151</v>
       </c>
-      <c r="D132" s="12">
-        <f t="shared" si="70"/>
+      <c r="D134" s="12">
+        <f t="shared" si="72"/>
         <v>155.39999999999975</v>
       </c>
-      <c r="E132" s="12">
-        <f>E131+E129</f>
-        <v>500.19631486390853</v>
-      </c>
-      <c r="F132" s="12">
-        <f>F131+F129</f>
-        <v>881.10463568843909</v>
-      </c>
-      <c r="G132" s="12">
-        <f>G131+G129</f>
-        <v>1289.3515773997999</v>
-      </c>
-      <c r="H132" s="12">
-        <f>H131+H129</f>
-        <v>1736.0681790004066</v>
-      </c>
-      <c r="I132" s="12">
-        <f>I131+I129</f>
-        <v>2230.8027164353916</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B136" s="2">
+      <c r="E134" s="12">
+        <f>E133+E131</f>
+        <v>565.36480632224175</v>
+      </c>
+      <c r="F134" s="12">
+        <f>F133+F131</f>
+        <v>1039.2535790915638</v>
+      </c>
+      <c r="G134" s="12">
+        <f>G133+G131</f>
+        <v>1546.5247021241275</v>
+      </c>
+      <c r="H134" s="12">
+        <f>H133+H131</f>
+        <v>2098.7020568318153</v>
+      </c>
+      <c r="I134" s="12">
+        <f>I133+I131</f>
+        <v>2705.7522963258421</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B138" s="2">
         <v>2017</v>
       </c>
-      <c r="C136" s="2">
+      <c r="C138" s="2">
         <v>2018</v>
       </c>
-      <c r="D136" s="2">
+      <c r="D138" s="2">
         <v>2019</v>
       </c>
-      <c r="E136" s="2">
+      <c r="E138" s="2">
         <v>2020</v>
       </c>
-      <c r="F136" s="2">
+      <c r="F138" s="2">
         <v>2021</v>
       </c>
-      <c r="G136" s="2">
+      <c r="G138" s="2">
         <v>2022</v>
       </c>
-      <c r="H136" s="2">
+      <c r="H138" s="2">
         <v>2023</v>
       </c>
-      <c r="I136" s="2">
+      <c r="I138" s="2">
         <v>2024</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="19" t="s">
+    <row r="139" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="B137" s="20" t="s">
+      <c r="B139" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C137" s="20" t="s">
+      <c r="C139" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D137" s="20" t="s">
+      <c r="D139" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="E137" s="20" t="s">
+      <c r="E139" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="F137" s="20" t="s">
+      <c r="F139" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="G137" s="20" t="s">
+      <c r="G139" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="H137" s="20" t="s">
+      <c r="H139" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="I137" s="20" t="s">
+      <c r="I139" s="20" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" s="22" t="s">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" s="22" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>165</v>
-      </c>
-      <c r="B139" s="12"/>
-      <c r="C139" s="11">
-        <v>96.6</v>
-      </c>
-      <c r="D139" s="11">
-        <v>155.4</v>
-      </c>
-      <c r="E139" s="12"/>
-      <c r="F139" s="12"/>
-      <c r="G139" s="12"/>
-      <c r="H139" s="12"/>
-      <c r="I139" s="12"/>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>166</v>
-      </c>
-      <c r="B140" s="12"/>
-      <c r="C140" s="11">
-        <v>518.1</v>
-      </c>
-      <c r="D140" s="11">
-        <v>502.9</v>
-      </c>
-      <c r="K140" s="38"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>77</v>
-      </c>
-      <c r="B141" s="11"/>
+        <v>165</v>
+      </c>
+      <c r="B141" s="12"/>
       <c r="C141" s="11">
-        <v>786.3</v>
+        <v>96.6</v>
       </c>
       <c r="D141" s="11">
-        <v>801.2</v>
-      </c>
-      <c r="K141" s="39"/>
+        <v>155.4</v>
+      </c>
+      <c r="E141" s="12">
+        <f>D141+E131</f>
+        <v>565.36480632224198</v>
+      </c>
+      <c r="F141" s="12">
+        <f>E141+F131</f>
+        <v>1039.253579091564</v>
+      </c>
+      <c r="G141" s="12">
+        <f>F141+G131</f>
+        <v>1546.5247021241278</v>
+      </c>
+      <c r="H141" s="12">
+        <f>G141+H131</f>
+        <v>2098.7020568318158</v>
+      </c>
+      <c r="I141" s="12">
+        <f>H141+I131</f>
+        <v>2705.7522963258425</v>
+      </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>166</v>
+      </c>
+      <c r="B142" s="12"/>
+      <c r="C142" s="11">
+        <v>518.1</v>
+      </c>
+      <c r="D142" s="11">
+        <v>502.9</v>
+      </c>
+      <c r="E142" s="12">
+        <f>D142-E98</f>
+        <v>537.85931666666659</v>
+      </c>
+      <c r="F142" s="12">
+        <f t="shared" ref="F142:I144" si="73">E142-F98</f>
+        <v>572.82017224999993</v>
+      </c>
+      <c r="G142" s="12">
+        <f t="shared" si="73"/>
+        <v>610.05348344624986</v>
+      </c>
+      <c r="H142" s="12">
+        <f t="shared" si="73"/>
+        <v>649.70695987025613</v>
+      </c>
+      <c r="I142" s="12">
+        <f t="shared" si="73"/>
+        <v>691.9379122618227</v>
+      </c>
+      <c r="K142" s="38"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>77</v>
+      </c>
+      <c r="B143" s="11"/>
+      <c r="C143" s="11">
+        <v>786.3</v>
+      </c>
+      <c r="D143" s="11">
+        <v>801.2</v>
+      </c>
+      <c r="E143" s="12">
+        <f>D143-E99</f>
+        <v>858.83477358333334</v>
+      </c>
+      <c r="F143" s="12">
+        <f t="shared" si="73"/>
+        <v>914.65903386624984</v>
+      </c>
+      <c r="G143" s="12">
+        <f t="shared" si="73"/>
+        <v>974.11187106755608</v>
+      </c>
+      <c r="H143" s="12">
+        <f t="shared" si="73"/>
+        <v>1037.4291426869472</v>
+      </c>
+      <c r="I143" s="12">
+        <f t="shared" si="73"/>
+        <v>1104.8620369615987</v>
+      </c>
+      <c r="K143" s="39"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>167</v>
       </c>
-      <c r="C142" s="11">
+      <c r="C144" s="11">
         <v>78.900000000000006</v>
       </c>
-      <c r="D142" s="11">
+      <c r="D144" s="11">
         <v>90.7</v>
       </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="8" t="s">
+      <c r="E144" s="12">
+        <f>D144-E100</f>
+        <v>90.170532499999993</v>
+      </c>
+      <c r="F144" s="12">
+        <f t="shared" si="73"/>
+        <v>96.031617112499987</v>
+      </c>
+      <c r="G144" s="12">
+        <f t="shared" si="73"/>
+        <v>102.27367222481247</v>
+      </c>
+      <c r="H144" s="12">
+        <f t="shared" si="73"/>
+        <v>108.92146091942529</v>
+      </c>
+      <c r="I144" s="12">
+        <f t="shared" si="73"/>
+        <v>116.00135587918794</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C143" s="12">
-        <f>SUM(C139:C142)</f>
+      <c r="C145" s="12">
+        <f>SUM(C141:C144)</f>
         <v>1479.9</v>
       </c>
-      <c r="D143" s="12">
-        <f>SUM(D139:D142)</f>
+      <c r="D145" s="12">
+        <f>SUM(D141:D144)</f>
         <v>1550.2</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" s="40" t="s">
+      <c r="E145" s="12">
+        <f t="shared" ref="E145:I145" si="74">SUM(E141:E144)</f>
+        <v>2052.2294290722421</v>
+      </c>
+      <c r="F145" s="12">
+        <f t="shared" si="74"/>
+        <v>2622.7644023203138</v>
+      </c>
+      <c r="G145" s="12">
+        <f t="shared" si="74"/>
+        <v>3232.9637288627459</v>
+      </c>
+      <c r="H145" s="12">
+        <f t="shared" si="74"/>
+        <v>3894.7596203084445</v>
+      </c>
+      <c r="I145" s="12">
+        <f t="shared" si="74"/>
+        <v>4618.5536014284526</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="40" t="s">
         <v>169</v>
       </c>
-      <c r="C144" s="12">
-        <f>SUM(C145:C149)</f>
+      <c r="C146" s="12">
+        <f>SUM(C147:C151)</f>
         <v>941.50000000000011</v>
       </c>
-      <c r="D144" s="12">
-        <f>SUM(D145:D149)</f>
+      <c r="D146" s="12">
+        <f>SUM(D147:D151)</f>
         <v>952.59999999999991</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="18" t="s">
+      <c r="E146" s="12">
+        <f>D146-E109-E108-E88</f>
+        <v>980.20063505678434</v>
+      </c>
+      <c r="F146" s="12">
+        <f>E146-F109-F108-F88</f>
+        <v>1009.9425829695688</v>
+      </c>
+      <c r="G146" s="12">
+        <f>F146-G109-G108-G88</f>
+        <v>1041.9650290739933</v>
+      </c>
+      <c r="H146" s="12">
+        <f>G146-H109-H108-H88</f>
+        <v>1076.4162057525143</v>
+      </c>
+      <c r="I146" s="12">
+        <f>H146-I109-I108-I88</f>
+        <v>1113.4539804924482</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="C145" s="11">
+      <c r="C147" s="11">
         <v>62.6</v>
       </c>
-      <c r="D145" s="11">
+      <c r="D147" s="11">
         <v>67.5</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="18" t="s">
+      <c r="E147" s="45"/>
+      <c r="F147" s="45"/>
+      <c r="G147" s="45"/>
+      <c r="H147" s="45"/>
+      <c r="I147" s="45"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="C146" s="11">
+      <c r="C148" s="11">
         <v>626.20000000000005</v>
       </c>
-      <c r="D146" s="11">
+      <c r="D148" s="11">
         <v>658.5</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="18" t="s">
+      <c r="E148" s="45"/>
+      <c r="F148" s="45"/>
+      <c r="G148" s="45"/>
+      <c r="H148" s="45"/>
+      <c r="I148" s="45"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="C147" s="11">
+      <c r="C149" s="11">
         <v>947.5</v>
       </c>
-      <c r="D147" s="11">
+      <c r="D149" s="11">
         <v>1007.8</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="18" t="s">
+      <c r="E149" s="45"/>
+      <c r="F149" s="45"/>
+      <c r="G149" s="45"/>
+      <c r="H149" s="45"/>
+      <c r="I149" s="45"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A150" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="C148" s="11">
+      <c r="C150" s="11">
         <v>105.1</v>
       </c>
-      <c r="D148" s="11">
+      <c r="D150" s="11">
         <v>85.8</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="18" t="s">
+      <c r="E150" s="45"/>
+      <c r="F150" s="45"/>
+      <c r="G150" s="45"/>
+      <c r="H150" s="45"/>
+      <c r="I150" s="45"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A151" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="C149" s="11">
+      <c r="C151" s="11">
         <v>-799.9</v>
       </c>
-      <c r="D149" s="11">
+      <c r="D151" s="11">
         <v>-867</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+      <c r="E151" s="45"/>
+      <c r="F151" s="45"/>
+      <c r="G151" s="45"/>
+      <c r="H151" s="45"/>
+      <c r="I151" s="45"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>175</v>
       </c>
-      <c r="C150" s="11">
+      <c r="C152" s="11">
         <v>4527.8999999999996</v>
       </c>
-      <c r="D150" s="11">
+      <c r="D152" s="11">
         <v>4505.2</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+      <c r="E152" s="12">
+        <f>D152</f>
+        <v>4505.2</v>
+      </c>
+      <c r="F152" s="12">
+        <f t="shared" ref="F152:I152" si="75">E152</f>
+        <v>4505.2</v>
+      </c>
+      <c r="G152" s="12">
+        <f t="shared" si="75"/>
+        <v>4505.2</v>
+      </c>
+      <c r="H152" s="12">
+        <f t="shared" si="75"/>
+        <v>4505.2</v>
+      </c>
+      <c r="I152" s="12">
+        <f t="shared" si="75"/>
+        <v>4505.2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>176</v>
       </c>
-      <c r="C151" s="30">
-        <f>SUM(C152:C154)</f>
+      <c r="C153" s="30">
+        <f>SUM(C154:C156)</f>
         <v>2873.3</v>
       </c>
-      <c r="D151" s="30">
-        <f>SUM(D152:D154)</f>
+      <c r="D153" s="30">
+        <f>SUM(D154:D156)</f>
         <v>2847</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="18" t="s">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A154" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="C152" s="11">
+      <c r="C154" s="11">
         <v>311.3</v>
       </c>
-      <c r="D152" s="11">
+      <c r="D154" s="11">
         <v>308.3</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="18" t="s">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="C153" s="11">
+      <c r="C155" s="11">
         <v>-84.9</v>
       </c>
-      <c r="D153" s="11">
+      <c r="D155" s="11">
         <v>-104.3</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="18" t="s">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="C154" s="11">
+      <c r="C156" s="11">
         <v>2646.9</v>
       </c>
-      <c r="D154" s="11">
+      <c r="D156" s="11">
         <v>2643</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>177</v>
       </c>
-      <c r="C155" s="12">
-        <f>SUM(C156:C157)</f>
+      <c r="C157" s="12">
+        <f>SUM(C158:C159)</f>
         <v>433.8</v>
       </c>
-      <c r="D155" s="12">
-        <f>SUM(D156:D157)</f>
+      <c r="D157" s="12">
+        <f>SUM(D158:D159)</f>
         <v>507.1</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="18" t="s">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="C156" s="11">
+      <c r="C158" s="11">
         <v>43.6</v>
       </c>
-      <c r="D156" s="11">
+      <c r="D158" s="11">
         <v>76.400000000000006</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="18" t="s">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="C157" s="11">
+      <c r="C159" s="11">
         <f>433.8-43.6</f>
         <v>390.2</v>
       </c>
-      <c r="D157" s="11">
+      <c r="D159" s="11">
         <f>507.1-76.4</f>
         <v>430.70000000000005</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C158" s="11"/>
-      <c r="D158" s="11"/>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="41" t="s">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C160" s="11"/>
+      <c r="D160" s="11"/>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="C159" s="12">
-        <f>SUM(C143:C144)+SUM(C150:C151)+C155</f>
+      <c r="C161" s="12">
+        <f>SUM(C145:C146)+SUM(C152:C153)+C157</f>
         <v>10256.4</v>
       </c>
-      <c r="D159" s="12">
-        <f>SUM(D143:D144)+SUM(D150:D151)+D155</f>
+      <c r="D161" s="12">
+        <f>SUM(D145:D146)+SUM(D152:D153)+D157</f>
         <v>10362.1</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="22" t="s">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162" s="22" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>183</v>
-      </c>
-      <c r="B161" s="12"/>
-      <c r="C161" s="11">
-        <v>560</v>
-      </c>
-      <c r="D161" s="11">
-        <v>600.70000000000005</v>
-      </c>
-      <c r="E161" s="12"/>
-      <c r="F161" s="12"/>
-      <c r="G161" s="12"/>
-      <c r="H161" s="12"/>
-      <c r="I161" s="12"/>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>184</v>
-      </c>
-      <c r="B162" s="12"/>
-      <c r="C162" s="11">
-        <v>83.5</v>
-      </c>
-      <c r="D162" s="11">
-        <v>97.7</v>
-      </c>
-      <c r="E162" s="12"/>
-      <c r="F162" s="12"/>
-      <c r="G162" s="12"/>
-      <c r="H162" s="12"/>
-      <c r="I162" s="12"/>
-      <c r="K162" s="38"/>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>185</v>
-      </c>
-      <c r="B163" s="11"/>
+        <v>183</v>
+      </c>
+      <c r="B163" s="12"/>
       <c r="C163" s="11">
-        <v>710</v>
+        <v>560</v>
       </c>
       <c r="D163" s="11">
-        <v>846.9</v>
-      </c>
-      <c r="E163" s="11"/>
+        <v>600.70000000000005</v>
+      </c>
+      <c r="E163" s="12"/>
       <c r="F163" s="11"/>
-      <c r="G163" s="11"/>
-      <c r="H163" s="11"/>
-      <c r="I163" s="11"/>
-      <c r="K163" s="39"/>
+      <c r="G163" s="12"/>
+      <c r="H163" s="12"/>
+      <c r="I163" s="12"/>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>184</v>
+      </c>
+      <c r="B164" s="12"/>
+      <c r="C164" s="11">
+        <v>83.5</v>
+      </c>
+      <c r="D164" s="11">
+        <v>97.7</v>
+      </c>
+      <c r="E164" s="12"/>
+      <c r="F164" s="11"/>
+      <c r="G164" s="12"/>
+      <c r="H164" s="12"/>
+      <c r="I164" s="12"/>
+      <c r="K164" s="38"/>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>185</v>
+      </c>
+      <c r="B165" s="11"/>
+      <c r="C165" s="11">
+        <v>710</v>
+      </c>
+      <c r="D165" s="11">
+        <v>846.9</v>
+      </c>
+      <c r="E165" s="11"/>
+      <c r="F165" s="11"/>
+      <c r="G165" s="11"/>
+      <c r="H165" s="11"/>
+      <c r="I165" s="11"/>
+      <c r="K165" s="39"/>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>186</v>
       </c>
-      <c r="C164" s="11">
+      <c r="C166" s="11">
         <v>648.20000000000005</v>
       </c>
-      <c r="D164" s="11">
+      <c r="D166" s="11">
         <v>609.1</v>
       </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A165" s="8" t="s">
+      <c r="F166" s="11"/>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A167" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C165" s="12">
-        <f>SUM(C161:C164)</f>
+      <c r="C167" s="12">
+        <f>SUM(C163:C166)</f>
         <v>2001.7</v>
       </c>
-      <c r="D165" s="12">
-        <f>SUM(D161:D164)</f>
+      <c r="D167" s="12">
+        <f>SUM(D163:D166)</f>
         <v>2154.4</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A166" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="C166" s="11">
-        <v>4052.9</v>
-      </c>
-      <c r="D166" s="11">
-        <v>3625.8</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A167" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="C167" s="11">
-        <v>706.5</v>
-      </c>
-      <c r="D167" s="11">
-        <v>697.6</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="C168" s="11">
+        <v>4052.9</v>
+      </c>
+      <c r="D168" s="11">
+        <v>3625.8</v>
+      </c>
+      <c r="F168" s="12"/>
+      <c r="H168" s="12"/>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A169" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="C169" s="11">
+        <v>706.5</v>
+      </c>
+      <c r="D169" s="11">
+        <v>697.6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A170" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="C168" s="11">
+      <c r="C170" s="11">
         <v>313.10000000000002</v>
       </c>
-      <c r="D168" s="11">
+      <c r="D170" s="11">
         <v>427.6</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A169" s="41" t="s">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="C169" s="12">
-        <f>SUM(C165:C168)</f>
+      <c r="C171" s="12">
+        <f>SUM(C167:C170)</f>
         <v>7074.2000000000007</v>
       </c>
-      <c r="D169" s="12">
-        <f>SUM(D165:D168)</f>
+      <c r="D171" s="12">
+        <f>SUM(D167:D170)</f>
         <v>6905.4000000000015</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A170" s="22" t="s">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172" s="22" t="s">
         <v>191</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A171" s="40" t="s">
-        <v>192</v>
-      </c>
-      <c r="C171" s="11">
-        <v>400.2</v>
-      </c>
-      <c r="D171" s="11">
-        <v>447.6</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A172" s="40" t="s">
-        <v>193</v>
-      </c>
-      <c r="C172" s="11">
-        <v>1370.4</v>
-      </c>
-      <c r="D172" s="11">
-        <v>1441</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C173" s="11">
-        <v>1760.2</v>
+        <v>400.2</v>
       </c>
       <c r="D173" s="11">
-        <v>2055.8000000000002</v>
+        <v>447.6</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C174" s="11">
-        <v>-359.9</v>
+        <v>1370.4</v>
       </c>
       <c r="D174" s="11">
-        <v>-500.2</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A175" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="C175" s="12">
-        <f>SUM(C171:C174)</f>
-        <v>3170.9</v>
-      </c>
-      <c r="D175" s="12">
-        <f>SUM(D171:D174)</f>
-        <v>3444.2000000000003</v>
+      <c r="A175" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="C175" s="11">
+        <v>1760.2</v>
+      </c>
+      <c r="D175" s="11">
+        <v>2055.8000000000002</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C176" s="11">
-        <v>11.3</v>
+        <v>-359.9</v>
       </c>
       <c r="D176" s="11">
-        <v>12.5</v>
+        <v>-500.2</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="C177" s="12">
+        <f>SUM(C173:C176)</f>
+        <v>3170.9</v>
+      </c>
+      <c r="D177" s="12">
+        <f>SUM(D173:D176)</f>
+        <v>3444.2000000000003</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="C178" s="11">
+        <v>11.3</v>
+      </c>
+      <c r="D178" s="11">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179" s="41" t="s">
         <v>198</v>
       </c>
-      <c r="C177" s="12">
-        <f>SUM(C175:C176)</f>
+      <c r="C179" s="12">
+        <f>SUM(C177:C178)</f>
         <v>3182.2000000000003</v>
       </c>
-      <c r="D177" s="12">
-        <f>SUM(D175:D176)</f>
+      <c r="D179" s="12">
+        <f>SUM(D177:D178)</f>
         <v>3456.7000000000003</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A178" s="41" t="s">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180" s="41" t="s">
         <v>199</v>
       </c>
-      <c r="C178" s="12">
-        <f>C169+C177</f>
+      <c r="C180" s="12">
+        <f>C171+C179</f>
         <v>10256.400000000001</v>
       </c>
-      <c r="D178" s="12">
-        <f>D169+D177</f>
+      <c r="D180" s="12">
+        <f>D171+D179</f>
         <v>10362.100000000002</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A179" s="18"/>
-      <c r="C179" s="11"/>
-      <c r="D179" s="11"/>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A180" s="18"/>
-      <c r="C180" s="11"/>
-      <c r="D180" s="11"/>
-    </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B181" s="2">
+      <c r="A181" s="18"/>
+      <c r="C181" s="11"/>
+      <c r="D181" s="11"/>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182" s="18"/>
+      <c r="C182" s="11"/>
+      <c r="D182" s="11"/>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B183" s="2">
         <v>2017</v>
       </c>
-      <c r="C181" s="2">
+      <c r="C183" s="2">
         <v>2018</v>
       </c>
-      <c r="D181" s="2">
+      <c r="D183" s="2">
         <v>2019</v>
       </c>
-      <c r="E181" s="2">
+      <c r="E183" s="2">
         <v>2020</v>
       </c>
-      <c r="F181" s="2">
+      <c r="F183" s="2">
         <v>2021</v>
       </c>
-      <c r="G181" s="2">
+      <c r="G183" s="2">
         <v>2022</v>
       </c>
-      <c r="H181" s="2">
+      <c r="H183" s="2">
         <v>2023</v>
       </c>
-      <c r="I181" s="2">
+      <c r="I183" s="2">
         <v>2024</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="19" t="s">
+    <row r="184" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="B182" s="20" t="s">
+      <c r="B184" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C182" s="20" t="s">
+      <c r="C184" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D182" s="20" t="s">
+      <c r="D184" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="E182" s="20" t="s">
+      <c r="E184" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="F182" s="20" t="s">
+      <c r="F184" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="G182" s="20" t="s">
+      <c r="G184" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="H182" s="20" t="s">
+      <c r="H184" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="I182" s="20" t="s">
+      <c r="I184" s="20" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
-        <v>117</v>
-      </c>
-      <c r="E183" s="12">
-        <f>D146-(D146/(D146+D147))*(-D149)</f>
-        <v>315.87292204284944</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
-        <v>118</v>
-      </c>
-      <c r="E184" s="12">
-        <f>D147-(D147/(D146+D147))*(-D149)</f>
-        <v>483.42707795715057</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E185" s="12">
-        <f>D156</f>
-        <v>76.400000000000006</v>
-      </c>
-      <c r="F185" s="25"/>
+        <f>D148-(D148/(D148+D149))*(-D151)</f>
+        <v>315.87292204284944</v>
+      </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E186" s="12">
-        <f>SUM(D152:D153)</f>
-        <v>204</v>
-      </c>
-      <c r="F186" s="25"/>
+        <f>D149-(D149/(D148+D149))*(-D151)</f>
+        <v>483.42707795715057</v>
+      </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
+        <v>121</v>
+      </c>
+      <c r="E187" s="12">
+        <f>D158</f>
+        <v>76.400000000000006</v>
+      </c>
+      <c r="F187" s="25"/>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>123</v>
+      </c>
+      <c r="E188" s="12">
+        <f>SUM(D154:D155)</f>
+        <v>204</v>
+      </c>
+      <c r="F188" s="25"/>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
         <v>108</v>
       </c>
-      <c r="E187" s="12">
-        <f>-E107</f>
+      <c r="E189" s="12">
+        <f>-E109</f>
         <v>182.23939200000001</v>
       </c>
-      <c r="F187" s="12">
-        <f>-F107</f>
+      <c r="F189" s="12">
+        <f>-F109</f>
         <v>194.08495247999997</v>
       </c>
-      <c r="G187" s="12">
-        <f>-G107</f>
+      <c r="G189" s="12">
+        <f>-G109</f>
         <v>206.70047439119998</v>
       </c>
-      <c r="H187" s="12">
-        <f>-H107</f>
+      <c r="H189" s="12">
+        <f>-H109</f>
         <v>220.13600522662796</v>
       </c>
-      <c r="I187" s="12">
-        <f>-I107</f>
+      <c r="I189" s="12">
+        <f>-I109</f>
         <v>234.44484556635877</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A188" s="22" t="s">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190" s="22" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A189" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E189" s="29">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A190" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E190" s="31">
-        <v>24</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E191" s="29">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E192" s="29">
-        <v>3</v>
+        <v>146</v>
+      </c>
+      <c r="E192" s="31">
+        <v>24</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="E193" s="31">
-        <v>5</v>
+        <v>127</v>
+      </c>
+      <c r="E193" s="29">
+        <v>50</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E194" s="29">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="E195" s="29">
-        <v>3</v>
+        <v>147</v>
+      </c>
+      <c r="E195" s="31">
+        <v>5</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="E196" s="31">
-        <v>5</v>
+        <v>129</v>
+      </c>
+      <c r="E196" s="29">
+        <v>12</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E197" s="29">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="E198" s="29">
-        <v>10</v>
+        <v>148</v>
+      </c>
+      <c r="E198" s="31">
+        <v>5</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E199" s="29">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E200" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E199" s="29">
+      <c r="E201" s="29">
         <v>20</v>
       </c>
-      <c r="F199" s="29">
+      <c r="F201" s="29">
         <v>20</v>
       </c>
-      <c r="G199" s="29">
+      <c r="G201" s="29">
         <v>20</v>
       </c>
-      <c r="H199" s="29">
+      <c r="H201" s="29">
         <v>20</v>
       </c>
-      <c r="I199" s="29">
+      <c r="I201" s="29">
         <v>20</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A200" s="22" t="s">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202" s="22" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A201" t="s">
-        <v>133</v>
-      </c>
-      <c r="E201" s="30">
-        <f>$E$183/$E$189</f>
-        <v>15.793646102142471</v>
-      </c>
-      <c r="F201" s="30">
-        <f t="shared" ref="F201:I201" si="71">$E$183/$E$189</f>
-        <v>15.793646102142471</v>
-      </c>
-      <c r="G201" s="30">
-        <f t="shared" si="71"/>
-        <v>15.793646102142471</v>
-      </c>
-      <c r="H201" s="30">
-        <f t="shared" si="71"/>
-        <v>15.793646102142471</v>
-      </c>
-      <c r="I201" s="30">
-        <f t="shared" si="71"/>
-        <v>15.793646102142471</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A202" t="s">
-        <v>143</v>
-      </c>
-      <c r="E202" s="30">
-        <f>$E$183/$E$190</f>
-        <v>13.161371751785394</v>
-      </c>
-      <c r="F202" s="30">
-        <f>$E$183/$E$190</f>
-        <v>13.161371751785394</v>
-      </c>
-      <c r="G202" s="30">
-        <f>$E$183/$E$190</f>
-        <v>13.161371751785394</v>
-      </c>
-      <c r="H202" s="30">
-        <f>$E$183/$E$190</f>
-        <v>13.161371751785394</v>
-      </c>
-      <c r="I202" s="30">
-        <f>$E$183/$E$190</f>
-        <v>13.161371751785394</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E203" s="30">
-        <f>$E$183/$E$191</f>
-        <v>6.3174584408569885</v>
+        <f>$E$185/$E$191</f>
+        <v>15.793646102142471</v>
       </c>
       <c r="F203" s="30">
-        <f t="shared" ref="F203:I203" si="72">$E$183/$E$191</f>
-        <v>6.3174584408569885</v>
+        <f t="shared" ref="F203:I203" si="76">$E$185/$E$191</f>
+        <v>15.793646102142471</v>
       </c>
       <c r="G203" s="30">
-        <f t="shared" si="72"/>
-        <v>6.3174584408569885</v>
+        <f t="shared" si="76"/>
+        <v>15.793646102142471</v>
       </c>
       <c r="H203" s="30">
-        <f t="shared" si="72"/>
-        <v>6.3174584408569885</v>
+        <f t="shared" si="76"/>
+        <v>15.793646102142471</v>
       </c>
       <c r="I203" s="30">
-        <f t="shared" si="72"/>
-        <v>6.3174584408569885</v>
+        <f t="shared" si="76"/>
+        <v>15.793646102142471</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E204" s="30">
-        <f>$E$184/$E$192</f>
-        <v>161.1423593190502</v>
+        <f>$E$185/$E$192</f>
+        <v>13.161371751785394</v>
       </c>
       <c r="F204" s="30">
-        <f t="shared" ref="F204:I204" si="73">$E$184/$E$192</f>
-        <v>161.1423593190502</v>
+        <f>$E$185/$E$192</f>
+        <v>13.161371751785394</v>
       </c>
       <c r="G204" s="30">
-        <f t="shared" si="73"/>
-        <v>161.1423593190502</v>
+        <f>$E$185/$E$192</f>
+        <v>13.161371751785394</v>
       </c>
       <c r="H204" s="30">
-        <f t="shared" si="73"/>
-        <v>161.1423593190502</v>
+        <f>$E$185/$E$192</f>
+        <v>13.161371751785394</v>
       </c>
       <c r="I204" s="30">
-        <f t="shared" si="73"/>
-        <v>161.1423593190502</v>
+        <f>$E$185/$E$192</f>
+        <v>13.161371751785394</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E205" s="30">
-        <f>$E$184/$E$193</f>
-        <v>96.685415591430115</v>
+        <f>$E$185/$E$193</f>
+        <v>6.3174584408569885</v>
       </c>
       <c r="F205" s="30">
-        <f>$E$184/$E$193</f>
-        <v>96.685415591430115</v>
+        <f t="shared" ref="F205:I205" si="77">$E$185/$E$193</f>
+        <v>6.3174584408569885</v>
       </c>
       <c r="G205" s="30">
-        <f>$E$184/$E$193</f>
-        <v>96.685415591430115</v>
+        <f t="shared" si="77"/>
+        <v>6.3174584408569885</v>
       </c>
       <c r="H205" s="30">
-        <f>$E$184/$E$193</f>
-        <v>96.685415591430115</v>
+        <f t="shared" si="77"/>
+        <v>6.3174584408569885</v>
       </c>
       <c r="I205" s="30">
-        <f>$E$184/$E$193</f>
-        <v>96.685415591430115</v>
+        <f t="shared" si="77"/>
+        <v>6.3174584408569885</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E206" s="30">
-        <f>$E$184/$E$194</f>
-        <v>40.28558982976255</v>
+        <f>$E$186/$E$194</f>
+        <v>161.1423593190502</v>
       </c>
       <c r="F206" s="30">
-        <f t="shared" ref="F206:I206" si="74">$E$184/$E$194</f>
-        <v>40.28558982976255</v>
+        <f t="shared" ref="F206:I206" si="78">$E$186/$E$194</f>
+        <v>161.1423593190502</v>
       </c>
       <c r="G206" s="30">
-        <f t="shared" si="74"/>
-        <v>40.28558982976255</v>
+        <f t="shared" si="78"/>
+        <v>161.1423593190502</v>
       </c>
       <c r="H206" s="30">
-        <f t="shared" si="74"/>
-        <v>40.28558982976255</v>
+        <f t="shared" si="78"/>
+        <v>161.1423593190502</v>
       </c>
       <c r="I206" s="30">
-        <f t="shared" si="74"/>
-        <v>40.28558982976255</v>
+        <f t="shared" si="78"/>
+        <v>161.1423593190502</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E207" s="30">
-        <f>$E$185/$E$195</f>
-        <v>25.466666666666669</v>
+        <f>$E$186/$E$195</f>
+        <v>96.685415591430115</v>
       </c>
       <c r="F207" s="30">
-        <f t="shared" ref="F207:I207" si="75">$E$185/$E$195</f>
-        <v>25.466666666666669</v>
+        <f>$E$186/$E$195</f>
+        <v>96.685415591430115</v>
       </c>
       <c r="G207" s="30">
-        <f t="shared" si="75"/>
-        <v>25.466666666666669</v>
+        <f>$E$186/$E$195</f>
+        <v>96.685415591430115</v>
       </c>
       <c r="H207" s="30">
-        <f t="shared" si="75"/>
-        <v>25.466666666666669</v>
+        <f>$E$186/$E$195</f>
+        <v>96.685415591430115</v>
       </c>
       <c r="I207" s="30">
-        <f t="shared" si="75"/>
-        <v>25.466666666666669</v>
+        <f>$E$186/$E$195</f>
+        <v>96.685415591430115</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E208" s="30">
-        <f>$E$185/$E$196</f>
-        <v>15.280000000000001</v>
+        <f>$E$186/$E$196</f>
+        <v>40.28558982976255</v>
       </c>
       <c r="F208" s="30">
-        <f t="shared" ref="F208:I208" si="76">$E$185/$E$196</f>
-        <v>15.280000000000001</v>
+        <f t="shared" ref="F208:I208" si="79">$E$186/$E$196</f>
+        <v>40.28558982976255</v>
       </c>
       <c r="G208" s="30">
-        <f t="shared" si="76"/>
-        <v>15.280000000000001</v>
+        <f t="shared" si="79"/>
+        <v>40.28558982976255</v>
       </c>
       <c r="H208" s="30">
-        <f t="shared" si="76"/>
-        <v>15.280000000000001</v>
+        <f t="shared" si="79"/>
+        <v>40.28558982976255</v>
       </c>
       <c r="I208" s="30">
-        <f t="shared" si="76"/>
-        <v>15.280000000000001</v>
+        <f t="shared" si="79"/>
+        <v>40.28558982976255</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E209" s="30">
-        <f>$E$185/$E$197</f>
-        <v>5.8769230769230774</v>
+        <f>$E$187/$E$197</f>
+        <v>25.466666666666669</v>
       </c>
       <c r="F209" s="30">
-        <f t="shared" ref="F209:I209" si="77">$E$185/$E$197</f>
-        <v>5.8769230769230774</v>
+        <f t="shared" ref="F209:I209" si="80">$E$187/$E$197</f>
+        <v>25.466666666666669</v>
       </c>
       <c r="G209" s="30">
-        <f t="shared" si="77"/>
-        <v>5.8769230769230774</v>
+        <f t="shared" si="80"/>
+        <v>25.466666666666669</v>
       </c>
       <c r="H209" s="30">
-        <f t="shared" si="77"/>
-        <v>5.8769230769230774</v>
+        <f t="shared" si="80"/>
+        <v>25.466666666666669</v>
       </c>
       <c r="I209" s="30">
-        <f t="shared" si="77"/>
-        <v>5.8769230769230774</v>
+        <f t="shared" si="80"/>
+        <v>25.466666666666669</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="E210" s="30">
-        <f>$E$186/$E$198</f>
-        <v>20.399999999999999</v>
+        <f>$E$187/$E$198</f>
+        <v>15.280000000000001</v>
       </c>
       <c r="F210" s="30">
-        <f>$E$186/$E$198</f>
-        <v>20.399999999999999</v>
+        <f t="shared" ref="F210:I210" si="81">$E$187/$E$198</f>
+        <v>15.280000000000001</v>
       </c>
       <c r="G210" s="30">
-        <f>$E$186/$E$198</f>
-        <v>20.399999999999999</v>
+        <f t="shared" si="81"/>
+        <v>15.280000000000001</v>
       </c>
       <c r="H210" s="30">
-        <f>$E$186/$E$198</f>
-        <v>20.399999999999999</v>
+        <f t="shared" si="81"/>
+        <v>15.280000000000001</v>
       </c>
       <c r="I210" s="30">
-        <f>$E$186/$E$198</f>
-        <v>20.399999999999999</v>
+        <f t="shared" si="81"/>
+        <v>15.280000000000001</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="E211" s="30">
         <f>$E$187/$E$199</f>
-        <v>9.1119696000000001</v>
+        <v>5.8769230769230774</v>
       </c>
       <c r="F211" s="30">
-        <f>$E$187/$E$199</f>
-        <v>9.1119696000000001</v>
+        <f t="shared" ref="F211:I211" si="82">$E$187/$E$199</f>
+        <v>5.8769230769230774</v>
       </c>
       <c r="G211" s="30">
-        <f>$E$187/$E$199</f>
-        <v>9.1119696000000001</v>
+        <f t="shared" si="82"/>
+        <v>5.8769230769230774</v>
       </c>
       <c r="H211" s="30">
-        <f>$E$187/$E$199</f>
-        <v>9.1119696000000001</v>
+        <f t="shared" si="82"/>
+        <v>5.8769230769230774</v>
       </c>
       <c r="I211" s="30">
-        <f>$E$187/$E$199</f>
-        <v>9.1119696000000001</v>
+        <f t="shared" si="82"/>
+        <v>5.8769230769230774</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>113</v>
-      </c>
-      <c r="E212" s="30"/>
+        <v>125</v>
+      </c>
+      <c r="E212" s="30">
+        <f>$E$188/$E$200</f>
+        <v>20.399999999999999</v>
+      </c>
       <c r="F212" s="30">
-        <f>$F$187/$F$199</f>
-        <v>9.7042476239999989</v>
+        <f>$E$188/$E$200</f>
+        <v>20.399999999999999</v>
       </c>
       <c r="G212" s="30">
-        <f>$F$187/$F$199</f>
-        <v>9.7042476239999989</v>
+        <f>$E$188/$E$200</f>
+        <v>20.399999999999999</v>
       </c>
       <c r="H212" s="30">
-        <f>$F$187/$F$199</f>
-        <v>9.7042476239999989</v>
+        <f>$E$188/$E$200</f>
+        <v>20.399999999999999</v>
       </c>
       <c r="I212" s="30">
-        <f>$F$187/$F$199</f>
-        <v>9.7042476239999989</v>
+        <f>$E$188/$E$200</f>
+        <v>20.399999999999999</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>114</v>
-      </c>
-      <c r="E213" s="30"/>
-      <c r="F213" s="30"/>
+        <v>112</v>
+      </c>
+      <c r="E213" s="30">
+        <f>$E$189/$E$201</f>
+        <v>9.1119696000000001</v>
+      </c>
+      <c r="F213" s="30">
+        <f>$E$189/$E$201</f>
+        <v>9.1119696000000001</v>
+      </c>
       <c r="G213" s="30">
-        <f>$G$187/$G$199</f>
-        <v>10.335023719559999</v>
+        <f>$E$189/$E$201</f>
+        <v>9.1119696000000001</v>
       </c>
       <c r="H213" s="30">
-        <f>$G$187/$G$199</f>
-        <v>10.335023719559999</v>
+        <f>$E$189/$E$201</f>
+        <v>9.1119696000000001</v>
       </c>
       <c r="I213" s="30">
-        <f>$G$187/$G$199</f>
-        <v>10.335023719559999</v>
+        <f>$E$189/$E$201</f>
+        <v>9.1119696000000001</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E214" s="30"/>
-      <c r="F214" s="30"/>
-      <c r="G214" s="30"/>
+      <c r="F214" s="30">
+        <f>$F$189/$F$201</f>
+        <v>9.7042476239999989</v>
+      </c>
+      <c r="G214" s="30">
+        <f>$F$189/$F$201</f>
+        <v>9.7042476239999989</v>
+      </c>
       <c r="H214" s="30">
-        <f>$H$187/$H$199</f>
-        <v>11.006800261331398</v>
+        <f>$F$189/$F$201</f>
+        <v>9.7042476239999989</v>
       </c>
       <c r="I214" s="30">
-        <f>$H$187/$H$199</f>
-        <v>11.006800261331398</v>
+        <f>$F$189/$F$201</f>
+        <v>9.7042476239999989</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E215" s="30"/>
       <c r="F215" s="30"/>
-      <c r="G215" s="30"/>
-      <c r="H215" s="30"/>
+      <c r="G215" s="30">
+        <f>$G$189/$G$201</f>
+        <v>10.335023719559999</v>
+      </c>
+      <c r="H215" s="30">
+        <f>$G$189/$G$201</f>
+        <v>10.335023719559999</v>
+      </c>
       <c r="I215" s="30">
-        <f>$I$187/$I$199</f>
+        <f>$G$189/$G$201</f>
+        <v>10.335023719559999</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>115</v>
+      </c>
+      <c r="E216" s="30"/>
+      <c r="F216" s="30"/>
+      <c r="G216" s="30"/>
+      <c r="H216" s="30">
+        <f>$H$189/$H$201</f>
+        <v>11.006800261331398</v>
+      </c>
+      <c r="I216" s="30">
+        <f>$H$189/$H$201</f>
+        <v>11.006800261331398</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>116</v>
+      </c>
+      <c r="E217" s="30"/>
+      <c r="F217" s="30"/>
+      <c r="G217" s="30"/>
+      <c r="H217" s="30"/>
+      <c r="I217" s="30">
+        <f>$I$189/$I$201</f>
         <v>11.722242278317939</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A216" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="E216" s="33">
-        <f>E202+E205+E208+E210+SUM(E$211:E$215)</f>
-        <v>154.63875694321553</v>
-      </c>
-      <c r="F216" s="33">
-        <f t="shared" ref="F216:I216" si="78">F202+F205+F208+F210+SUM(F211:F215)</f>
-        <v>164.34300456721553</v>
-      </c>
-      <c r="G216" s="33">
-        <f t="shared" si="78"/>
-        <v>174.67802828677551</v>
-      </c>
-      <c r="H216" s="33">
-        <f t="shared" si="78"/>
-        <v>185.68482854810691</v>
-      </c>
-      <c r="I216" s="33">
-        <f t="shared" si="78"/>
-        <v>197.40707082642484</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A217" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="E217" s="30">
-        <f>E203+E206+E209+E210+SUM(E$211:E$215)</f>
-        <v>81.991940947542602</v>
-      </c>
-      <c r="F217" s="30">
-        <f t="shared" ref="F217:I217" si="79">F203+F206+F209+F210+SUM(F$211:F$215)</f>
-        <v>91.696188571542606</v>
-      </c>
-      <c r="G217" s="30">
-        <f t="shared" si="79"/>
-        <v>102.03121229110261</v>
-      </c>
-      <c r="H217" s="30">
-        <f t="shared" si="79"/>
-        <v>113.038012552434</v>
-      </c>
-      <c r="I217" s="30">
-        <f t="shared" si="79"/>
-        <v>124.76025483075195</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="E218" s="30">
-        <f>E201+E204+E207+E210+SUM(E$211:E$215)</f>
-        <v>231.91464168785936</v>
-      </c>
-      <c r="F218" s="30">
-        <f t="shared" ref="F218:I218" si="80">F201+F204+F207+F210+SUM(F$211:F$215)</f>
-        <v>241.61888931185933</v>
-      </c>
-      <c r="G218" s="30">
-        <f t="shared" si="80"/>
-        <v>251.95391303141935</v>
-      </c>
-      <c r="H218" s="30">
-        <f t="shared" si="80"/>
-        <v>262.96071329275077</v>
-      </c>
-      <c r="I218" s="30">
-        <f t="shared" si="80"/>
-        <v>274.6829555710687</v>
+        <v>142</v>
+      </c>
+      <c r="E218" s="33">
+        <f>E204+E207+E210+E212+SUM(E$213:E$217)</f>
+        <v>154.63875694321553</v>
+      </c>
+      <c r="F218" s="33">
+        <f t="shared" ref="F218:I218" si="83">F204+F207+F210+F212+SUM(F213:F217)</f>
+        <v>164.34300456721553</v>
+      </c>
+      <c r="G218" s="33">
+        <f t="shared" si="83"/>
+        <v>174.67802828677551</v>
+      </c>
+      <c r="H218" s="33">
+        <f t="shared" si="83"/>
+        <v>185.68482854810691</v>
+      </c>
+      <c r="I218" s="33">
+        <f t="shared" si="83"/>
+        <v>197.40707082642484</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E219" s="30">
+        <f>E205+E208+E211+E212+SUM(E$213:E$217)</f>
+        <v>81.991940947542602</v>
+      </c>
+      <c r="F219" s="30">
+        <f t="shared" ref="F219:I219" si="84">F205+F208+F211+F212+SUM(F$213:F$217)</f>
+        <v>91.696188571542606</v>
+      </c>
+      <c r="G219" s="30">
+        <f t="shared" si="84"/>
+        <v>102.03121229110261</v>
+      </c>
+      <c r="H219" s="30">
+        <f t="shared" si="84"/>
+        <v>113.038012552434</v>
+      </c>
+      <c r="I219" s="30">
+        <f t="shared" si="84"/>
+        <v>124.76025483075195</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A220" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="E220" s="30">
+        <f>E203+E206+E209+E212+SUM(E$213:E$217)</f>
+        <v>231.91464168785936</v>
+      </c>
+      <c r="F220" s="30">
+        <f t="shared" ref="F220:I220" si="85">F203+F206+F209+F212+SUM(F$213:F$217)</f>
+        <v>241.61888931185933</v>
+      </c>
+      <c r="G220" s="30">
+        <f t="shared" si="85"/>
+        <v>251.95391303141935</v>
+      </c>
+      <c r="H220" s="30">
+        <f t="shared" si="85"/>
+        <v>262.96071329275077</v>
+      </c>
+      <c r="I220" s="30">
+        <f t="shared" si="85"/>
+        <v>274.6829555710687</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A221" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="E219" s="3">
+      <c r="E221" s="3">
         <f>108.7/105.9-1</f>
         <v>2.6440037771482405E-2</v>
       </c>
-      <c r="F219" s="30"/>
-      <c r="G219" s="30"/>
-      <c r="H219" s="30"/>
-      <c r="I219" s="30"/>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A220" s="22" t="s">
+      <c r="F221" s="30"/>
+      <c r="G221" s="30"/>
+      <c r="H221" s="30"/>
+      <c r="I221" s="30"/>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A222" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="E220" s="3">
+      <c r="E222" s="3">
         <f>D88/C88-1</f>
         <v>5.3749170537491953E-2</v>
       </c>
-      <c r="G220" s="30"/>
-      <c r="H220" s="30"/>
-      <c r="I220" s="30"/>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A221" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="E221" s="30">
-        <f>$D$88*(1+$E$219)</f>
-        <v>162.99867799811142</v>
-      </c>
-      <c r="F221" s="30">
-        <f>E221*(1+$E$219)</f>
-        <v>167.3083692010832</v>
-      </c>
-      <c r="G221" s="30">
-        <f t="shared" ref="G221:I221" si="81">F221*(1+$E$219)</f>
-        <v>171.73200880224496</v>
-      </c>
-      <c r="H221" s="30">
-        <f t="shared" si="81"/>
-        <v>176.27260960154888</v>
-      </c>
-      <c r="I221" s="30">
-        <f t="shared" si="81"/>
-        <v>180.93326405749161</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A222" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="E222" s="30">
-        <f>$D$88*(1+$E$220)</f>
-        <v>167.33536828135374</v>
-      </c>
-      <c r="F222" s="30">
-        <f>E222*(1+$E$220)</f>
-        <v>176.32950552806224</v>
-      </c>
-      <c r="G222" s="30">
-        <f t="shared" ref="G222:I222" si="82">F222*(1+$E$220)</f>
-        <v>185.8070701914817</v>
-      </c>
-      <c r="H222" s="30">
-        <f t="shared" si="82"/>
-        <v>195.79404609427539</v>
-      </c>
-      <c r="I222" s="30">
-        <f t="shared" si="82"/>
-        <v>206.31781366802215</v>
-      </c>
+      <c r="G222" s="30"/>
+      <c r="H222" s="30"/>
+      <c r="I222" s="30"/>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="22" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="E223" s="30">
-        <f>E217-E221</f>
-        <v>-81.006737050568816</v>
+        <f>$D$88*(1+$E$221)</f>
+        <v>162.99867799811142</v>
       </c>
       <c r="F223" s="30">
-        <f>F217-F221</f>
-        <v>-75.612180629540589</v>
+        <f>E223*(1+$E$221)</f>
+        <v>167.3083692010832</v>
       </c>
       <c r="G223" s="30">
-        <f>G217-G221</f>
-        <v>-69.700796511142357</v>
+        <f t="shared" ref="G223:I223" si="86">F223*(1+$E$221)</f>
+        <v>171.73200880224496</v>
       </c>
       <c r="H223" s="30">
-        <f>H217-H221</f>
-        <v>-63.234597049114882</v>
+        <f t="shared" si="86"/>
+        <v>176.27260960154888</v>
       </c>
       <c r="I223" s="30">
-        <f>I217-I221</f>
-        <v>-56.173009226739666</v>
+        <f t="shared" si="86"/>
+        <v>180.93326405749161</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="22" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="E224" s="30">
-        <f>E218-E221</f>
-        <v>68.91596368974794</v>
+        <f>$D$88*(1+$E$222)</f>
+        <v>167.33536828135374</v>
       </c>
       <c r="F224" s="30">
-        <f>F218-F221</f>
-        <v>74.310520110776139</v>
+        <f>E224*(1+$E$222)</f>
+        <v>176.32950552806224</v>
       </c>
       <c r="G224" s="30">
-        <f>G218-G221</f>
-        <v>80.221904229174385</v>
+        <f t="shared" ref="G224:I224" si="87">F224*(1+$E$222)</f>
+        <v>185.8070701914817</v>
       </c>
       <c r="H224" s="30">
-        <f>H218-H221</f>
-        <v>86.688103691201889</v>
+        <f t="shared" si="87"/>
+        <v>195.79404609427539</v>
       </c>
       <c r="I224" s="30">
-        <f>I218-I221</f>
-        <v>93.749691513577091</v>
+        <f t="shared" si="87"/>
+        <v>206.31781366802215</v>
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A225" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="E225" s="32" t="str">
-        <f>IF(AND(E216&gt;=E221,E216&lt;=E222),"IN",IF(E216&lt;E221,"BELOW","ABOVE"))</f>
-        <v>BELOW</v>
-      </c>
-      <c r="F225" s="32" t="str">
-        <f t="shared" ref="F225:I225" si="83">IF(AND(F216&gt;=F221,F216&lt;=F222),"IN",IF(F216&lt;F221,"BELOW","ABOVE"))</f>
-        <v>BELOW</v>
-      </c>
-      <c r="G225" s="32" t="str">
-        <f t="shared" si="83"/>
-        <v>IN</v>
-      </c>
-      <c r="H225" s="32" t="str">
-        <f t="shared" si="83"/>
-        <v>IN</v>
-      </c>
-      <c r="I225" s="32" t="str">
-        <f t="shared" si="83"/>
-        <v>IN</v>
+        <v>140</v>
+      </c>
+      <c r="E225" s="30">
+        <f>E219-E223</f>
+        <v>-81.006737050568816</v>
+      </c>
+      <c r="F225" s="30">
+        <f>F219-F223</f>
+        <v>-75.612180629540589</v>
+      </c>
+      <c r="G225" s="30">
+        <f>G219-G223</f>
+        <v>-69.700796511142357</v>
+      </c>
+      <c r="H225" s="30">
+        <f>H219-H223</f>
+        <v>-63.234597049114882</v>
+      </c>
+      <c r="I225" s="30">
+        <f>I219-I223</f>
+        <v>-56.173009226739666</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A226" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="E226" s="30">
+        <f>E220-E223</f>
+        <v>68.91596368974794</v>
+      </c>
+      <c r="F226" s="30">
+        <f>F220-F223</f>
+        <v>74.310520110776139</v>
+      </c>
+      <c r="G226" s="30">
+        <f>G220-G223</f>
+        <v>80.221904229174385</v>
+      </c>
+      <c r="H226" s="30">
+        <f>H220-H223</f>
+        <v>86.688103691201889</v>
+      </c>
+      <c r="I226" s="30">
+        <f>I220-I223</f>
+        <v>93.749691513577091</v>
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="E227" s="32" t="str">
+        <f>IF(AND(E218&gt;=E223,E218&lt;=E224),"IN",IF(E218&lt;E223,"BELOW","ABOVE"))</f>
+        <v>BELOW</v>
+      </c>
+      <c r="F227" s="32" t="str">
+        <f t="shared" ref="F227:I227" si="88">IF(AND(F218&gt;=F223,F218&lt;=F224),"IN",IF(F218&lt;F223,"BELOW","ABOVE"))</f>
+        <v>BELOW</v>
+      </c>
+      <c r="G227" s="32" t="str">
+        <f t="shared" si="88"/>
+        <v>IN</v>
+      </c>
+      <c r="H227" s="32" t="str">
+        <f t="shared" si="88"/>
+        <v>IN</v>
+      </c>
+      <c r="I227" s="32" t="str">
+        <f t="shared" si="88"/>
+        <v>IN</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A229" s="22" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A228" s="22" t="s">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A230" s="22" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A229" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E229" s="35">
-        <v>6.5629999999999994E-2</v>
-      </c>
-      <c r="F229" s="35">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G229" s="35">
-        <v>6.4820000000000003E-2</v>
-      </c>
-      <c r="H229" s="35">
-        <v>5.9959999999999999E-2</v>
-      </c>
-      <c r="I229" s="35">
-        <v>5.5460000000000002E-2</v>
-      </c>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A230" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="E230" s="35">
-        <v>0.35</v>
-      </c>
-      <c r="F230" s="35">
-        <v>0.26</v>
-      </c>
-      <c r="G230" s="35">
-        <v>0.156</v>
-      </c>
-      <c r="H230" s="35">
-        <v>0.1101</v>
-      </c>
-      <c r="I230" s="35">
-        <v>0.1101</v>
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E231" s="35">
-        <v>0.35</v>
+        <v>6.5629999999999994E-2</v>
       </c>
       <c r="F231" s="35">
-        <v>0.26</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="G231" s="35">
-        <v>0.156</v>
+        <v>6.4820000000000003E-2</v>
       </c>
       <c r="H231" s="35">
-        <v>0.1101</v>
+        <v>5.9959999999999999E-2</v>
       </c>
       <c r="I231" s="35">
-        <v>0.1101</v>
+        <v>5.5460000000000002E-2</v>
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A232" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E232" s="35">
-        <v>0.17499999999999999</v>
+        <v>0.35</v>
       </c>
       <c r="F232" s="35">
-        <v>0.16500000000000001</v>
+        <v>0.26</v>
       </c>
       <c r="G232" s="35">
-        <v>0.13200000000000001</v>
+        <v>0.156</v>
       </c>
       <c r="H232" s="35">
-        <v>0.1056</v>
+        <v>0.1101</v>
       </c>
       <c r="I232" s="35">
-        <v>8.4500000000000006E-2</v>
+        <v>0.1101</v>
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" s="8" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E233" s="35">
-        <v>6.5629999999999994E-2</v>
+        <v>0.35</v>
       </c>
       <c r="F233" s="35">
-        <v>7.0000000000000007E-2</v>
+        <v>0.26</v>
       </c>
       <c r="G233" s="35">
-        <v>6.4820000000000003E-2</v>
+        <v>0.156</v>
       </c>
       <c r="H233" s="35">
-        <v>5.9959999999999999E-2</v>
+        <v>0.1101</v>
       </c>
       <c r="I233" s="35">
-        <v>5.5460000000000002E-2</v>
+        <v>0.1101</v>
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E234" s="36"/>
+        <v>124</v>
+      </c>
+      <c r="E234" s="35">
+        <v>0.17499999999999999</v>
+      </c>
       <c r="F234" s="35">
-        <v>6.5629999999999994E-2</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="G234" s="35">
-        <v>7.0000000000000007E-2</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="H234" s="35">
-        <v>6.4820000000000003E-2</v>
+        <v>0.1056</v>
       </c>
       <c r="I234" s="35">
-        <v>5.9959999999999999E-2</v>
-      </c>
-      <c r="J234" s="34"/>
+        <v>8.4500000000000006E-2</v>
+      </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E235" s="36"/>
-      <c r="F235" s="36"/>
+        <v>112</v>
+      </c>
+      <c r="E235" s="35">
+        <v>6.5629999999999994E-2</v>
+      </c>
+      <c r="F235" s="35">
+        <v>7.0000000000000007E-2</v>
+      </c>
       <c r="G235" s="35">
-        <v>6.5629999999999994E-2</v>
+        <v>6.4820000000000003E-2</v>
       </c>
       <c r="H235" s="35">
-        <v>7.0000000000000007E-2</v>
+        <v>5.9959999999999999E-2</v>
       </c>
       <c r="I235" s="35">
-        <v>6.4820000000000003E-2</v>
-      </c>
-      <c r="J235" s="34"/>
-      <c r="K235" s="34"/>
+        <v>5.5460000000000002E-2</v>
+      </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E236" s="36"/>
-      <c r="F236" s="36"/>
-      <c r="G236" s="36"/>
+      <c r="F236" s="35">
+        <v>6.5629999999999994E-2</v>
+      </c>
+      <c r="G236" s="35">
+        <v>7.0000000000000007E-2</v>
+      </c>
       <c r="H236" s="35">
-        <v>6.5629999999999994E-2</v>
+        <v>6.4820000000000003E-2</v>
       </c>
       <c r="I236" s="35">
-        <v>7.0000000000000007E-2</v>
+        <v>5.9959999999999999E-2</v>
       </c>
       <c r="J236" s="34"/>
-      <c r="K236" s="34"/>
-      <c r="L236" s="34"/>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E237" s="36"/>
       <c r="F237" s="36"/>
-      <c r="G237" s="36"/>
-      <c r="H237" s="36"/>
+      <c r="G237" s="35">
+        <v>6.5629999999999994E-2</v>
+      </c>
+      <c r="H237" s="35">
+        <v>7.0000000000000007E-2</v>
+      </c>
       <c r="I237" s="35">
-        <v>6.5629999999999994E-2</v>
+        <v>6.4820000000000003E-2</v>
       </c>
       <c r="J237" s="34"/>
       <c r="K237" s="34"/>
-      <c r="L237" s="34"/>
-      <c r="M237" s="34"/>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A238" s="22" t="s">
-        <v>156</v>
-      </c>
+      <c r="A238" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E238" s="36"/>
+      <c r="F238" s="36"/>
+      <c r="G238" s="36"/>
+      <c r="H238" s="35">
+        <v>6.5629999999999994E-2</v>
+      </c>
+      <c r="I238" s="35">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J238" s="34"/>
+      <c r="K238" s="34"/>
+      <c r="L238" s="34"/>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E239" s="30">
-        <f>$E$183*E229</f>
-        <v>20.730739873672206</v>
-      </c>
-      <c r="F239" s="30">
-        <f t="shared" ref="F239:I239" si="84">$E$183*F229</f>
-        <v>22.111104542999463</v>
-      </c>
-      <c r="G239" s="30">
-        <f t="shared" si="84"/>
-        <v>20.474882806817501</v>
-      </c>
-      <c r="H239" s="30">
-        <f t="shared" si="84"/>
-        <v>18.939740405689253</v>
-      </c>
-      <c r="I239" s="30">
-        <f t="shared" si="84"/>
-        <v>17.518312256496429</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="E239" s="36"/>
+      <c r="F239" s="36"/>
+      <c r="G239" s="36"/>
+      <c r="H239" s="36"/>
+      <c r="I239" s="35">
+        <v>6.5629999999999994E-2</v>
+      </c>
+      <c r="J239" s="34"/>
+      <c r="K239" s="34"/>
+      <c r="L239" s="34"/>
+      <c r="M239" s="34"/>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A240" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="E240" s="30">
-        <f>$E$184*E230</f>
-        <v>169.1994772850027</v>
-      </c>
-      <c r="F240" s="30">
-        <f t="shared" ref="F240:I240" si="85">$E$184*F230</f>
-        <v>125.69104026885915</v>
-      </c>
-      <c r="G240" s="30">
-        <f t="shared" si="85"/>
-        <v>75.414624161315487</v>
-      </c>
-      <c r="H240" s="30">
-        <f t="shared" si="85"/>
-        <v>53.22532128308228</v>
-      </c>
-      <c r="I240" s="30">
-        <f t="shared" si="85"/>
-        <v>53.22532128308228</v>
+      <c r="A240" s="22" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E241" s="30">
         <f>$E$185*E231</f>
-        <v>26.740000000000002</v>
+        <v>20.730739873672206</v>
       </c>
       <c r="F241" s="30">
-        <f t="shared" ref="F241:I241" si="86">$E$185*F231</f>
-        <v>19.864000000000001</v>
+        <f t="shared" ref="F241:I241" si="89">$E$185*F231</f>
+        <v>22.111104542999463</v>
       </c>
       <c r="G241" s="30">
-        <f t="shared" si="86"/>
-        <v>11.9184</v>
+        <f t="shared" si="89"/>
+        <v>20.474882806817501</v>
       </c>
       <c r="H241" s="30">
-        <f t="shared" si="86"/>
-        <v>8.4116400000000002</v>
+        <f t="shared" si="89"/>
+        <v>18.939740405689253</v>
       </c>
       <c r="I241" s="30">
-        <f t="shared" si="86"/>
-        <v>8.4116400000000002</v>
+        <f t="shared" si="89"/>
+        <v>17.518312256496429</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E242" s="30">
         <f>$E$186*E232</f>
-        <v>35.699999999999996</v>
+        <v>169.1994772850027</v>
       </c>
       <c r="F242" s="30">
-        <f t="shared" ref="F242:I242" si="87">$E$186*F232</f>
-        <v>33.660000000000004</v>
+        <f t="shared" ref="F242:I242" si="90">$E$186*F232</f>
+        <v>125.69104026885915</v>
       </c>
       <c r="G242" s="30">
-        <f t="shared" si="87"/>
-        <v>26.928000000000001</v>
+        <f t="shared" si="90"/>
+        <v>75.414624161315487</v>
       </c>
       <c r="H242" s="30">
-        <f t="shared" si="87"/>
-        <v>21.542400000000001</v>
+        <f t="shared" si="90"/>
+        <v>53.22532128308228</v>
       </c>
       <c r="I242" s="30">
-        <f t="shared" si="87"/>
-        <v>17.238</v>
+        <f t="shared" si="90"/>
+        <v>53.22532128308228</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="8" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E243" s="30">
         <f>$E$187*E233</f>
-        <v>11.96037129696</v>
+        <v>26.740000000000002</v>
       </c>
       <c r="F243" s="30">
-        <f t="shared" ref="F243:I243" si="88">$E$187*F233</f>
-        <v>12.756757440000001</v>
+        <f t="shared" ref="F243:I243" si="91">$E$187*F233</f>
+        <v>19.864000000000001</v>
       </c>
       <c r="G243" s="30">
-        <f>$E$187*G233</f>
-        <v>11.812757389440002</v>
+        <f t="shared" si="91"/>
+        <v>11.9184</v>
       </c>
       <c r="H243" s="30">
-        <f t="shared" si="88"/>
-        <v>10.92707394432</v>
+        <f t="shared" si="91"/>
+        <v>8.4116400000000002</v>
       </c>
       <c r="I243" s="30">
-        <f t="shared" si="88"/>
-        <v>10.106996680320002</v>
+        <f t="shared" si="91"/>
+        <v>8.4116400000000002</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="8" t="s">
-        <v>113</v>
+        <v>124</v>
+      </c>
+      <c r="E244" s="30">
+        <f>$E$188*E234</f>
+        <v>35.699999999999996</v>
       </c>
       <c r="F244" s="30">
-        <f>$F$187*F234</f>
-        <v>12.737795431262397</v>
+        <f t="shared" ref="F244:I244" si="92">$E$188*F234</f>
+        <v>33.660000000000004</v>
       </c>
       <c r="G244" s="30">
-        <f t="shared" ref="G244:I244" si="89">$F$187*G234</f>
-        <v>13.585946673599999</v>
+        <f t="shared" si="92"/>
+        <v>26.928000000000001</v>
       </c>
       <c r="H244" s="30">
-        <f t="shared" si="89"/>
-        <v>12.580586619753598</v>
+        <f t="shared" si="92"/>
+        <v>21.542400000000001</v>
       </c>
       <c r="I244" s="30">
-        <f t="shared" si="89"/>
-        <v>11.637333750700797</v>
+        <f t="shared" si="92"/>
+        <v>17.238</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
+      </c>
+      <c r="E245" s="30">
+        <f>$E$189*E235</f>
+        <v>11.96037129696</v>
+      </c>
+      <c r="F245" s="30">
+        <f t="shared" ref="F245:I245" si="93">$E$189*F235</f>
+        <v>12.756757440000001</v>
       </c>
       <c r="G245" s="30">
-        <f>$G$187*G235</f>
-        <v>13.565752134294453</v>
+        <f>$E$189*G235</f>
+        <v>11.812757389440002</v>
       </c>
       <c r="H245" s="30">
-        <f t="shared" ref="H245:I245" si="90">$G$187*H235</f>
-        <v>14.469033207383999</v>
+        <f t="shared" si="93"/>
+        <v>10.92707394432</v>
       </c>
       <c r="I245" s="30">
-        <f t="shared" si="90"/>
-        <v>13.398324750037583</v>
+        <f t="shared" si="93"/>
+        <v>10.106996680320002</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
+      </c>
+      <c r="F246" s="30">
+        <f>$F$189*F236</f>
+        <v>12.737795431262397</v>
+      </c>
+      <c r="G246" s="30">
+        <f t="shared" ref="G246:I246" si="94">$F$189*G236</f>
+        <v>13.585946673599999</v>
       </c>
       <c r="H246" s="30">
-        <f>$H$187*H236</f>
-        <v>14.447526023023592</v>
+        <f t="shared" si="94"/>
+        <v>12.580586619753598</v>
       </c>
       <c r="I246" s="30">
-        <f>$H$187*I236</f>
-        <v>15.409520365863958</v>
+        <f t="shared" si="94"/>
+        <v>11.637333750700797</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G247" s="30">
+        <f>$G$189*G237</f>
+        <v>13.565752134294453</v>
+      </c>
+      <c r="H247" s="30">
+        <f t="shared" ref="H247:I247" si="95">$G$189*H237</f>
+        <v>14.469033207383999</v>
+      </c>
+      <c r="I247" s="30">
+        <f t="shared" si="95"/>
+        <v>13.398324750037583</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A248" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H248" s="30">
+        <f>$H$189*H238</f>
+        <v>14.447526023023592</v>
+      </c>
+      <c r="I248" s="30">
+        <f>$H$189*I238</f>
+        <v>15.409520365863958</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A249" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="I247" s="30">
-        <f>$I$187*I237</f>
+      <c r="I249" s="30">
+        <f>$I$189*I239</f>
         <v>15.386615214520125</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A248" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="E248" s="33">
-        <f>SUM(E239:E247)</f>
-        <v>264.33058845563488</v>
-      </c>
-      <c r="F248" s="33">
-        <f t="shared" ref="F248:I248" si="91">SUM(F239:F247)</f>
-        <v>226.82069768312101</v>
-      </c>
-      <c r="G248" s="33">
-        <f t="shared" si="91"/>
-        <v>173.70036316546748</v>
-      </c>
-      <c r="H248" s="33">
-        <f t="shared" si="91"/>
-        <v>154.54332148325273</v>
-      </c>
-      <c r="I248" s="33">
-        <f t="shared" si="91"/>
-        <v>162.33206430102118</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E250" s="33">
+        <f>SUM(E241:E249)</f>
+        <v>264.33058845563488</v>
+      </c>
+      <c r="F250" s="33">
+        <f t="shared" ref="F250:I250" si="96">SUM(F241:F249)</f>
+        <v>226.82069768312101</v>
+      </c>
+      <c r="G250" s="33">
+        <f t="shared" si="96"/>
+        <v>173.70036316546748</v>
+      </c>
+      <c r="H250" s="33">
+        <f t="shared" si="96"/>
+        <v>154.54332148325273</v>
+      </c>
+      <c r="I250" s="33">
+        <f t="shared" si="96"/>
+        <v>162.33206430102118</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A252" s="22" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A251" t="s">
-        <v>159</v>
-      </c>
-      <c r="E251" s="30">
-        <f>E216</f>
-        <v>154.63875694321553</v>
-      </c>
-      <c r="F251" s="30">
-        <f t="shared" ref="F251:I251" si="92">F216</f>
-        <v>164.34300456721553</v>
-      </c>
-      <c r="G251" s="30">
-        <f t="shared" si="92"/>
-        <v>174.67802828677551</v>
-      </c>
-      <c r="H251" s="30">
-        <f t="shared" si="92"/>
-        <v>185.68482854810691</v>
-      </c>
-      <c r="I251" s="30">
-        <f t="shared" si="92"/>
-        <v>197.40707082642484</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A252" t="s">
-        <v>156</v>
-      </c>
-      <c r="E252" s="30">
-        <f>E248</f>
-        <v>264.33058845563488</v>
-      </c>
-      <c r="F252" s="30">
-        <f t="shared" ref="F252:I252" si="93">F248</f>
-        <v>226.82069768312101</v>
-      </c>
-      <c r="G252" s="30">
-        <f t="shared" si="93"/>
-        <v>173.70036316546748</v>
-      </c>
-      <c r="H252" s="30">
-        <f t="shared" si="93"/>
-        <v>154.54332148325273</v>
-      </c>
-      <c r="I252" s="30">
-        <f t="shared" si="93"/>
-        <v>162.33206430102118</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E253" s="30">
-        <f>E252-E251</f>
-        <v>109.69183151241936</v>
+        <f>E218</f>
+        <v>154.63875694321553</v>
       </c>
       <c r="F253" s="30">
-        <f>F252-F251</f>
-        <v>62.477693115905481</v>
+        <f t="shared" ref="F253:I253" si="97">F218</f>
+        <v>164.34300456721553</v>
       </c>
       <c r="G253" s="30">
-        <f t="shared" ref="G253:I253" si="94">G252-G251</f>
-        <v>-0.97766512130803562</v>
+        <f t="shared" si="97"/>
+        <v>174.67802828677551</v>
       </c>
       <c r="H253" s="30">
-        <f t="shared" si="94"/>
-        <v>-31.141507064854181</v>
+        <f t="shared" si="97"/>
+        <v>185.68482854810691</v>
       </c>
       <c r="I253" s="30">
-        <f t="shared" si="94"/>
-        <v>-35.075006525403666</v>
+        <f t="shared" si="97"/>
+        <v>197.40707082642484</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
+        <v>156</v>
+      </c>
+      <c r="E254" s="30">
+        <f>E250</f>
+        <v>264.33058845563488</v>
+      </c>
+      <c r="F254" s="30">
+        <f t="shared" ref="F254:I254" si="98">F250</f>
+        <v>226.82069768312101</v>
+      </c>
+      <c r="G254" s="30">
+        <f t="shared" si="98"/>
+        <v>173.70036316546748</v>
+      </c>
+      <c r="H254" s="30">
+        <f t="shared" si="98"/>
+        <v>154.54332148325273</v>
+      </c>
+      <c r="I254" s="30">
+        <f t="shared" si="98"/>
+        <v>162.33206430102118</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>160</v>
+      </c>
+      <c r="E255" s="30">
+        <f>E254-E253</f>
+        <v>109.69183151241936</v>
+      </c>
+      <c r="F255" s="30">
+        <f>F254-F253</f>
+        <v>62.477693115905481</v>
+      </c>
+      <c r="G255" s="30">
+        <f t="shared" ref="G255:I255" si="99">G254-G253</f>
+        <v>-0.97766512130803562</v>
+      </c>
+      <c r="H255" s="30">
+        <f t="shared" si="99"/>
+        <v>-31.141507064854181</v>
+      </c>
+      <c r="I255" s="30">
+        <f t="shared" si="99"/>
+        <v>-35.075006525403666</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
         <v>161</v>
       </c>
-      <c r="E254" s="37">
+      <c r="E256" s="37">
         <f>E44</f>
         <v>0.25</v>
       </c>
-      <c r="F254" s="37">
+      <c r="F256" s="37">
         <f>F44</f>
         <v>0.25</v>
       </c>
-      <c r="G254" s="37">
+      <c r="G256" s="37">
         <f>G44</f>
         <v>0.25</v>
       </c>
-      <c r="H254" s="37">
+      <c r="H256" s="37">
         <f>H44</f>
         <v>0.25</v>
       </c>
-      <c r="I254" s="37">
+      <c r="I256" s="37">
         <f>I44</f>
         <v>0.25</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A255" t="s">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
         <v>162</v>
       </c>
-      <c r="E255" s="30">
-        <f>E253*E254</f>
+      <c r="E257" s="30">
+        <f>E255*E256</f>
         <v>27.422957878104839</v>
       </c>
-      <c r="F255" s="30">
-        <f t="shared" ref="F255:I255" si="95">F253*F254</f>
+      <c r="F257" s="30">
+        <f t="shared" ref="F257:I257" si="100">F255*F256</f>
         <v>15.61942327897637</v>
       </c>
-      <c r="G255" s="30">
-        <f t="shared" si="95"/>
+      <c r="G257" s="30">
+        <f t="shared" si="100"/>
         <v>-0.24441628032700891</v>
       </c>
-      <c r="H255" s="30">
-        <f t="shared" si="95"/>
+      <c r="H257" s="30">
+        <f t="shared" si="100"/>
         <v>-7.7853767662135454</v>
       </c>
-      <c r="I255" s="30">
-        <f t="shared" si="95"/>
+      <c r="I257" s="30">
+        <f t="shared" si="100"/>
         <v>-8.7687516313509164</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B258" s="2">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B260" s="2">
         <v>2017</v>
       </c>
-      <c r="C258" s="2">
+      <c r="C260" s="2">
         <v>2018</v>
       </c>
-      <c r="D258" s="2">
+      <c r="D260" s="2">
         <v>2019</v>
       </c>
-      <c r="E258" s="2">
+      <c r="E260" s="2">
         <v>2020</v>
       </c>
-      <c r="F258" s="2">
+      <c r="F260" s="2">
         <v>2021</v>
       </c>
-      <c r="G258" s="2">
+      <c r="G260" s="2">
         <v>2022</v>
       </c>
-      <c r="H258" s="2">
+      <c r="H260" s="2">
         <v>2023</v>
       </c>
-      <c r="I258" s="2">
+      <c r="I260" s="2">
         <v>2024</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A259" s="19" t="s">
+    <row r="261" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="B259" s="20" t="s">
+      <c r="B261" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C259" s="20" t="s">
+      <c r="C261" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D259" s="20" t="s">
+      <c r="D261" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="E259" s="20" t="s">
+      <c r="E261" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="F259" s="20" t="s">
+      <c r="F261" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="G259" s="20" t="s">
+      <c r="G261" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="H259" s="20" t="s">
+      <c r="H261" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="I259" s="20" t="s">
+      <c r="I261" s="20" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A260" s="42" t="s">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A262" s="42" t="s">
         <v>201</v>
       </c>
-      <c r="C260" s="12"/>
-      <c r="D260" s="12"/>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A261" t="s">
+      <c r="C262" s="12"/>
+      <c r="D262" s="12"/>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
         <v>202</v>
       </c>
-      <c r="C261" s="12">
-        <f>C140</f>
+      <c r="C263" s="12">
+        <f>C142</f>
         <v>518.1</v>
       </c>
-      <c r="D261" s="12">
-        <f>D140</f>
+      <c r="D263" s="12">
+        <f>D142</f>
         <v>502.9</v>
       </c>
-      <c r="E261" s="12">
-        <f>E262/360*E3</f>
+      <c r="E263" s="12">
+        <f>E264/360*E3</f>
         <v>537.85931666666659</v>
       </c>
-      <c r="F261" s="12">
-        <f>F262/360*F3</f>
+      <c r="F263" s="12">
+        <f>F264/360*F3</f>
         <v>572.82017224999993</v>
       </c>
-      <c r="G261" s="12">
-        <f>G262/360*G3</f>
+      <c r="G263" s="12">
+        <f>G264/360*G3</f>
         <v>610.05348344624986</v>
       </c>
-      <c r="H261" s="12">
-        <f>H262/360*H3</f>
+      <c r="H263" s="12">
+        <f>H264/360*H3</f>
         <v>649.70695987025613</v>
       </c>
-      <c r="I261" s="12">
-        <f>I262/360*I3</f>
+      <c r="I263" s="12">
+        <f>I264/360*I3</f>
         <v>691.9379122618227</v>
       </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A262" s="43" t="s">
+      <c r="K263" s="12"/>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A264" s="43" t="s">
         <v>203</v>
-      </c>
-      <c r="C262" s="12"/>
-      <c r="D262" s="12">
-        <f>AVERAGE(C261:D261)/D3*360</f>
-        <v>34.368104125369342</v>
-      </c>
-      <c r="E262" s="11">
-        <v>34</v>
-      </c>
-      <c r="F262" s="11">
-        <v>34</v>
-      </c>
-      <c r="G262" s="11">
-        <v>34</v>
-      </c>
-      <c r="H262" s="11">
-        <v>34</v>
-      </c>
-      <c r="I262" s="11">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>77</v>
-      </c>
-      <c r="C263" s="12">
-        <f>C141</f>
-        <v>786.3</v>
-      </c>
-      <c r="D263" s="12">
-        <f>D141</f>
-        <v>801.2</v>
-      </c>
-      <c r="E263" s="12">
-        <f>E264/360*E5</f>
-        <v>858.83477358333334</v>
-      </c>
-      <c r="F263" s="12">
-        <f t="shared" ref="F263:I263" si="96">F264/360*F5</f>
-        <v>914.65903386624984</v>
-      </c>
-      <c r="G263" s="12">
-        <f t="shared" si="96"/>
-        <v>974.11187106755608</v>
-      </c>
-      <c r="H263" s="12">
-        <f t="shared" si="96"/>
-        <v>1037.4291426869472</v>
-      </c>
-      <c r="I263" s="12">
-        <f t="shared" si="96"/>
-        <v>1104.8620369615987</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A264" s="43" t="s">
-        <v>204</v>
       </c>
       <c r="C264" s="12"/>
       <c r="D264" s="12">
-        <f>AVERAGE(C263:D263)/D5*360</f>
-        <v>89.238312357515383</v>
+        <f>AVERAGE(C263:D263)/D3*360</f>
+        <v>34.368104125369342</v>
       </c>
       <c r="E264" s="11">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="F264" s="11">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="G264" s="11">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="H264" s="11">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="I264" s="11">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>205</v>
+        <v>77</v>
       </c>
       <c r="C265" s="12">
-        <f>C142</f>
-        <v>78.900000000000006</v>
+        <f>C143</f>
+        <v>786.3</v>
       </c>
       <c r="D265" s="12">
-        <f>D142</f>
-        <v>90.7</v>
+        <f>D143</f>
+        <v>801.2</v>
       </c>
       <c r="E265" s="12">
-        <f>E266/360*E12</f>
-        <v>90.170532499999993</v>
+        <f>E266/360*E5</f>
+        <v>858.83477358333334</v>
       </c>
       <c r="F265" s="12">
-        <f>F266/360*F12</f>
-        <v>96.031617112499987</v>
+        <f t="shared" ref="F265:I265" si="101">F266/360*F5</f>
+        <v>914.65903386624984</v>
       </c>
       <c r="G265" s="12">
-        <f>G266/360*G12</f>
-        <v>102.27367222481247</v>
+        <f t="shared" si="101"/>
+        <v>974.11187106755608</v>
       </c>
       <c r="H265" s="12">
-        <f>H266/360*H12</f>
-        <v>108.92146091942529</v>
+        <f t="shared" si="101"/>
+        <v>1037.4291426869472</v>
       </c>
       <c r="I265" s="12">
-        <f>I266/360*I12</f>
-        <v>116.00135587918794</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="101"/>
+        <v>1104.8620369615987</v>
+      </c>
+      <c r="K265" s="12"/>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="43" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C266" s="12"/>
       <c r="D266" s="12">
-        <f>AVERAGE(C265:D265)/D12*360</f>
+        <f>AVERAGE(C265:D265)/D5*360</f>
+        <v>89.238312357515383</v>
+      </c>
+      <c r="E266" s="11">
+        <v>89</v>
+      </c>
+      <c r="F266" s="11">
+        <v>89</v>
+      </c>
+      <c r="G266" s="11">
+        <v>89</v>
+      </c>
+      <c r="H266" s="11">
+        <v>89</v>
+      </c>
+      <c r="I266" s="11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>205</v>
+      </c>
+      <c r="C267" s="12">
+        <f>C144</f>
+        <v>78.900000000000006</v>
+      </c>
+      <c r="D267" s="12">
+        <f>D144</f>
+        <v>90.7</v>
+      </c>
+      <c r="E267" s="12">
+        <f>E268/360*E12</f>
+        <v>90.170532499999993</v>
+      </c>
+      <c r="F267" s="12">
+        <f>F268/360*F12</f>
+        <v>96.031617112499987</v>
+      </c>
+      <c r="G267" s="12">
+        <f>G268/360*G12</f>
+        <v>102.27367222481247</v>
+      </c>
+      <c r="H267" s="12">
+        <f>H268/360*H12</f>
+        <v>108.92146091942529</v>
+      </c>
+      <c r="I267" s="12">
+        <f>I268/360*I12</f>
+        <v>116.00135587918794</v>
+      </c>
+      <c r="K267" s="12"/>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A268" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="C268" s="12"/>
+      <c r="D268" s="12">
+        <f>AVERAGE(C267:D267)/D12*360</f>
         <v>30.285714285714288</v>
       </c>
-      <c r="E266" s="11">
+      <c r="E268" s="11">
         <v>30</v>
       </c>
-      <c r="F266" s="11">
+      <c r="F268" s="11">
         <v>30</v>
       </c>
-      <c r="G266" s="11">
+      <c r="G268" s="11">
         <v>30</v>
       </c>
-      <c r="H266" s="11">
+      <c r="H268" s="11">
         <v>30</v>
       </c>
-      <c r="I266" s="11">
+      <c r="I268" s="11">
         <v>30</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A267" s="22" t="s">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A269" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="C267" s="12">
-        <f>C261+C263+C265</f>
+      <c r="C269" s="12">
+        <f>C263+C265+C267</f>
         <v>1383.3000000000002</v>
       </c>
-      <c r="D267" s="12">
-        <f>D261+D263+D265</f>
+      <c r="D269" s="12">
+        <f>D263+D265+D267</f>
         <v>1394.8</v>
       </c>
-      <c r="E267" s="12">
-        <f t="shared" ref="E267:I267" si="97">E261+E263+E265</f>
+      <c r="E269" s="12">
+        <f t="shared" ref="E269:I269" si="102">E263+E265+E267</f>
         <v>1486.8646227500001</v>
       </c>
-      <c r="F267" s="12">
-        <f t="shared" si="97"/>
+      <c r="F269" s="12">
+        <f t="shared" si="102"/>
         <v>1583.5108232287498</v>
       </c>
-      <c r="G267" s="12">
-        <f t="shared" si="97"/>
+      <c r="G269" s="12">
+        <f t="shared" si="102"/>
         <v>1686.4390267386186</v>
       </c>
-      <c r="H267" s="12">
-        <f t="shared" si="97"/>
+      <c r="H269" s="12">
+        <f t="shared" si="102"/>
         <v>1796.0575634766285</v>
       </c>
-      <c r="I267" s="12">
-        <f t="shared" si="97"/>
+      <c r="I269" s="12">
+        <f t="shared" si="102"/>
         <v>1912.8013051026094</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A268" s="42" t="s">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A270" s="42" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
         <v>208</v>
       </c>
-      <c r="C269" s="12">
-        <f>C163</f>
+      <c r="C271" s="12">
+        <f>C165</f>
         <v>710</v>
       </c>
-      <c r="D269" s="12">
-        <f>D163</f>
+      <c r="D271" s="12">
+        <f>D165</f>
         <v>846.9</v>
       </c>
-      <c r="E269" s="12">
-        <f>E270/360*E5</f>
+      <c r="E271" s="12">
+        <f>E272/360*E5</f>
         <v>844.36003020833323</v>
       </c>
-      <c r="F269" s="12">
-        <f t="shared" ref="F269:I269" si="98">F270/360*F5</f>
+      <c r="F271" s="12">
+        <f t="shared" ref="F271:I271" si="103">F272/360*F5</f>
         <v>899.24343217187482</v>
       </c>
-      <c r="G269" s="12">
-        <f t="shared" si="98"/>
+      <c r="G271" s="12">
+        <f t="shared" si="103"/>
         <v>957.69425526304667</v>
       </c>
-      <c r="H269" s="12">
-        <f t="shared" si="98"/>
+      <c r="H271" s="12">
+        <f t="shared" si="103"/>
         <v>1019.9443818551446</v>
       </c>
-      <c r="I269" s="12">
-        <f t="shared" si="98"/>
+      <c r="I271" s="12">
+        <f t="shared" si="103"/>
         <v>1086.2407666757292</v>
       </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A270" s="43" t="s">
+      <c r="K271" s="12"/>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A272" s="43" t="s">
         <v>209</v>
       </c>
-      <c r="D270" s="12">
-        <f>AVERAGE(C269:D269)/D5*360</f>
+      <c r="D272" s="12">
+        <f>AVERAGE(C271:D271)/D5*360</f>
         <v>87.518191187033523</v>
       </c>
-      <c r="E270" s="11">
+      <c r="E272" s="11">
         <v>87.5</v>
       </c>
-      <c r="F270" s="11">
+      <c r="F272" s="11">
         <v>87.5</v>
       </c>
-      <c r="G270" s="11">
+      <c r="G272" s="11">
         <v>87.5</v>
       </c>
-      <c r="H270" s="11">
+      <c r="H272" s="11">
         <v>87.5</v>
       </c>
-      <c r="I270" s="11">
+      <c r="I272" s="11">
         <v>87.5</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
         <v>210</v>
       </c>
-      <c r="C271" s="12">
-        <f>C164</f>
+      <c r="C273" s="12">
+        <f>C166</f>
         <v>648.20000000000005</v>
       </c>
-      <c r="D271" s="12">
-        <f>D164</f>
+      <c r="D273" s="12">
+        <f>D166</f>
         <v>609.1</v>
       </c>
-      <c r="E271" s="12">
-        <f>E272/360*E12</f>
+      <c r="E273" s="12">
+        <f>E274/360*E12</f>
         <v>676.27899374999993</v>
       </c>
-      <c r="F271" s="12">
-        <f>F272/360*F12</f>
+      <c r="F273" s="12">
+        <f>F274/360*F12</f>
         <v>720.23712834374987</v>
       </c>
-      <c r="G271" s="12">
-        <f>G272/360*G12</f>
+      <c r="G273" s="12">
+        <f>G274/360*G12</f>
         <v>767.0525416860936</v>
       </c>
-      <c r="H271" s="12">
-        <f>H272/360*H12</f>
+      <c r="H273" s="12">
+        <f>H274/360*H12</f>
         <v>816.91095689568965</v>
       </c>
-      <c r="I271" s="12">
-        <f>I272/360*I12</f>
+      <c r="I273" s="12">
+        <f>I274/360*I12</f>
         <v>870.01016909390955</v>
       </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A272" s="43" t="s">
+      <c r="K273" s="12"/>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A274" s="43" t="s">
         <v>211</v>
       </c>
-      <c r="D272" s="12">
-        <f>AVERAGE(C271:D271)/D12*360</f>
+      <c r="D274" s="12">
+        <f>AVERAGE(C273:D273)/D12*360</f>
         <v>224.51785714285717</v>
       </c>
-      <c r="E272" s="11">
+      <c r="E274" s="11">
         <v>225</v>
       </c>
-      <c r="F272" s="11">
+      <c r="F274" s="11">
         <v>225</v>
       </c>
-      <c r="G272" s="11">
+      <c r="G274" s="11">
         <v>225</v>
       </c>
-      <c r="H272" s="11">
+      <c r="H274" s="11">
         <v>225</v>
       </c>
-      <c r="I272" s="11">
+      <c r="I274" s="11">
         <v>225</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A273" s="22" t="s">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A275" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="C273" s="12">
-        <f>C269+C271</f>
+      <c r="C275" s="12">
+        <f>C271+C273</f>
         <v>1358.2</v>
       </c>
-      <c r="D273" s="12">
-        <f>D269+D271</f>
+      <c r="D275" s="12">
+        <f>D271+D273</f>
         <v>1456</v>
       </c>
-      <c r="E273" s="12">
-        <f t="shared" ref="E273:I273" si="99">E269+E271</f>
+      <c r="E275" s="12">
+        <f t="shared" ref="E275:I275" si="104">E271+E273</f>
         <v>1520.6390239583332</v>
       </c>
-      <c r="F273" s="12">
-        <f t="shared" si="99"/>
+      <c r="F275" s="12">
+        <f t="shared" si="104"/>
         <v>1619.4805605156248</v>
       </c>
-      <c r="G273" s="12">
-        <f t="shared" si="99"/>
+      <c r="G275" s="12">
+        <f t="shared" si="104"/>
         <v>1724.7467969491404</v>
       </c>
-      <c r="H273" s="12">
-        <f t="shared" si="99"/>
+      <c r="H275" s="12">
+        <f t="shared" si="104"/>
         <v>1836.8553387508341</v>
       </c>
-      <c r="I273" s="12">
-        <f t="shared" si="99"/>
+      <c r="I275" s="12">
+        <f t="shared" si="104"/>
         <v>1956.2509357696388</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A274" s="22" t="s">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A276" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="C274" s="44">
-        <f>C267-C273</f>
+      <c r="C276" s="44">
+        <f>C269-C275</f>
         <v>25.100000000000136</v>
       </c>
-      <c r="D274" s="44">
-        <f>D267-D273</f>
+      <c r="D276" s="44">
+        <f>D269-D275</f>
         <v>-61.200000000000045</v>
       </c>
-      <c r="E274" s="44">
-        <f t="shared" ref="E274:I274" si="100">E267-E273</f>
+      <c r="E276" s="44">
+        <f t="shared" ref="E276:I276" si="105">E269-E275</f>
         <v>-33.774401208333074</v>
       </c>
-      <c r="F274" s="44">
-        <f t="shared" si="100"/>
+      <c r="F276" s="44">
+        <f t="shared" si="105"/>
         <v>-35.969737286874988</v>
       </c>
-      <c r="G274" s="44">
-        <f t="shared" si="100"/>
+      <c r="G276" s="44">
+        <f t="shared" si="105"/>
         <v>-38.307770210521767</v>
       </c>
-      <c r="H274" s="44">
-        <f t="shared" si="100"/>
+      <c r="H276" s="44">
+        <f t="shared" si="105"/>
         <v>-40.797775274205605</v>
       </c>
-      <c r="I274" s="44">
-        <f t="shared" si="100"/>
+      <c r="I276" s="44">
+        <f t="shared" si="105"/>
         <v>-43.449630667029396</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A275" s="22" t="s">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A277" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="D275" s="12">
-        <f>D274-C274</f>
+      <c r="D277" s="12">
+        <f t="shared" ref="D277:I277" si="106">D276-C276</f>
         <v>-86.300000000000182</v>
       </c>
-      <c r="E275" s="12">
-        <f>E274-D274</f>
+      <c r="E277" s="12">
+        <f t="shared" si="106"/>
         <v>27.425598791666971</v>
       </c>
-      <c r="F275" s="12">
-        <f>F274-E274</f>
+      <c r="F277" s="12">
+        <f t="shared" si="106"/>
         <v>-2.1953360785419136</v>
       </c>
-      <c r="G275" s="12">
-        <f>G274-F274</f>
+      <c r="G277" s="12">
+        <f t="shared" si="106"/>
         <v>-2.3380329236467787</v>
       </c>
-      <c r="H275" s="12">
-        <f>H274-G274</f>
+      <c r="H277" s="12">
+        <f t="shared" si="106"/>
         <v>-2.4900050636838387</v>
       </c>
-      <c r="I275" s="12">
-        <f>I274-H274</f>
+      <c r="I277" s="12">
+        <f t="shared" si="106"/>
         <v>-2.6518553928237907</v>
       </c>
+      <c r="K277" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MKC.xlsx
+++ b/MKC.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="-90" yWindow="-90" windowWidth="21780" windowHeight="13980"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Financials" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -283,7 +283,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="215">
   <si>
     <t>SG&amp;A</t>
   </si>
@@ -1131,6 +1131,9 @@
   </si>
   <si>
     <t>Change in total operating working capital</t>
+  </si>
+  <si>
+    <t>BALANCE SHEET ERROR CHECK</t>
   </si>
 </sst>
 </file>
@@ -1238,7 +1241,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1248,12 +1251,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1289,7 +1286,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1340,8 +1337,6 @@
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -1353,7 +1348,9 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1669,10 +1666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M277"/>
+  <dimension ref="A1:L277"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A115" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="N146" sqref="N146"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A63" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="AB101" sqref="AB101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3978,11 +3975,21 @@
       <c r="D89" s="11">
         <v>37.200000000000003</v>
       </c>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11"/>
-      <c r="H89" s="11"/>
-      <c r="I89" s="11"/>
+      <c r="E89" s="25">
+        <v>0</v>
+      </c>
+      <c r="F89" s="25">
+        <v>0</v>
+      </c>
+      <c r="G89" s="25">
+        <v>0</v>
+      </c>
+      <c r="H89" s="25">
+        <v>0</v>
+      </c>
+      <c r="I89" s="25">
+        <v>0</v>
+      </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
@@ -4074,11 +4081,21 @@
       <c r="D93" s="11">
         <v>-1.6</v>
       </c>
-      <c r="E93" s="11"/>
-      <c r="F93" s="11"/>
-      <c r="G93" s="11"/>
-      <c r="H93" s="11"/>
-      <c r="I93" s="11"/>
+      <c r="E93" s="25">
+        <v>0</v>
+      </c>
+      <c r="F93" s="25">
+        <v>0</v>
+      </c>
+      <c r="G93" s="25">
+        <v>0</v>
+      </c>
+      <c r="H93" s="25">
+        <v>0</v>
+      </c>
+      <c r="I93" s="25">
+        <v>0</v>
+      </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
@@ -4393,14 +4410,24 @@
       <c r="D104" s="11">
         <v>31.7</v>
       </c>
-      <c r="E104" s="12"/>
-      <c r="F104" s="12"/>
-      <c r="G104" s="12"/>
-      <c r="H104" s="12"/>
-      <c r="I104" s="12"/>
+      <c r="E104" s="25">
+        <v>0</v>
+      </c>
+      <c r="F104" s="25">
+        <v>0</v>
+      </c>
+      <c r="G104" s="25">
+        <v>0</v>
+      </c>
+      <c r="H104" s="25">
+        <v>0</v>
+      </c>
+      <c r="I104" s="25">
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="21" t="s">
+      <c r="A105" s="8" t="s">
         <v>80</v>
       </c>
       <c r="B105" s="12">
@@ -4558,29 +4585,24 @@
       <c r="D111" s="11">
         <v>2.7</v>
       </c>
-      <c r="E111" s="12">
-        <f>MIN($B$111:$D$111)</f>
-        <v>1.5</v>
-      </c>
-      <c r="F111" s="12">
-        <f t="shared" ref="F111:I111" si="67">MIN($B$111:$D$111)</f>
-        <v>1.5</v>
-      </c>
-      <c r="G111" s="12">
-        <f t="shared" si="67"/>
-        <v>1.5</v>
-      </c>
-      <c r="H111" s="12">
-        <f t="shared" si="67"/>
-        <v>1.5</v>
-      </c>
-      <c r="I111" s="12">
-        <f t="shared" si="67"/>
-        <v>1.5</v>
+      <c r="E111" s="25">
+        <v>0</v>
+      </c>
+      <c r="F111" s="25">
+        <v>0</v>
+      </c>
+      <c r="G111" s="25">
+        <v>0</v>
+      </c>
+      <c r="H111" s="25">
+        <v>0</v>
+      </c>
+      <c r="I111" s="25">
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="21" t="s">
+      <c r="A112" s="8" t="s">
         <v>83</v>
       </c>
       <c r="B112" s="12">
@@ -4596,32 +4618,32 @@
         <v>-171</v>
       </c>
       <c r="E112" s="12">
-        <f t="shared" ref="E112:I112" si="68">E108+E109+E111</f>
-        <v>-180.73939200000001</v>
+        <f t="shared" ref="E112:I112" si="67">E108+E109+E111</f>
+        <v>-182.23939200000001</v>
       </c>
       <c r="F112" s="12">
-        <f t="shared" si="68"/>
-        <v>-192.58495247999997</v>
+        <f t="shared" si="67"/>
+        <v>-194.08495247999997</v>
       </c>
       <c r="G112" s="12">
-        <f t="shared" si="68"/>
-        <v>-205.20047439119998</v>
+        <f t="shared" si="67"/>
+        <v>-206.70047439119998</v>
       </c>
       <c r="H112" s="12">
-        <f t="shared" si="68"/>
-        <v>-218.63600522662796</v>
+        <f t="shared" si="67"/>
+        <v>-220.13600522662796</v>
       </c>
       <c r="I112" s="12">
-        <f t="shared" si="68"/>
-        <v>-232.94484556635877</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="67"/>
+        <v>-234.44484556635877</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="22" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>86</v>
       </c>
@@ -4634,8 +4656,23 @@
       <c r="D115" s="11">
         <v>41</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E115" s="25">
+        <v>0</v>
+      </c>
+      <c r="F115" s="25">
+        <v>0</v>
+      </c>
+      <c r="G115" s="25">
+        <v>0</v>
+      </c>
+      <c r="H115" s="25">
+        <v>0</v>
+      </c>
+      <c r="I115" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>87</v>
       </c>
@@ -4646,8 +4683,23 @@
         <v>25.9</v>
       </c>
       <c r="D116" s="11"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E116" s="25">
+        <v>0</v>
+      </c>
+      <c r="F116" s="25">
+        <v>0</v>
+      </c>
+      <c r="G116" s="25">
+        <v>0</v>
+      </c>
+      <c r="H116" s="25">
+        <v>0</v>
+      </c>
+      <c r="I116" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>88</v>
       </c>
@@ -4656,8 +4708,23 @@
       </c>
       <c r="C117" s="11"/>
       <c r="D117" s="11"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E117" s="25">
+        <v>0</v>
+      </c>
+      <c r="F117" s="25">
+        <v>0</v>
+      </c>
+      <c r="G117" s="25">
+        <v>0</v>
+      </c>
+      <c r="H117" s="25">
+        <v>0</v>
+      </c>
+      <c r="I117" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="21" t="s">
         <v>89</v>
       </c>
@@ -4670,8 +4737,23 @@
       <c r="D118" s="11">
         <v>-447.7</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E118" s="25">
+        <v>0</v>
+      </c>
+      <c r="F118" s="25">
+        <v>0</v>
+      </c>
+      <c r="G118" s="25">
+        <v>0</v>
+      </c>
+      <c r="H118" s="25">
+        <v>0</v>
+      </c>
+      <c r="I118" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="21" t="s">
         <v>90</v>
       </c>
@@ -4684,8 +4766,23 @@
       <c r="D119" s="11">
         <v>90.9</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E119" s="25">
+        <v>0</v>
+      </c>
+      <c r="F119" s="25">
+        <v>0</v>
+      </c>
+      <c r="G119" s="25">
+        <v>0</v>
+      </c>
+      <c r="H119" s="25">
+        <v>0</v>
+      </c>
+      <c r="I119" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="21" t="s">
         <v>91</v>
       </c>
@@ -4698,8 +4795,24 @@
       <c r="D120" s="11">
         <v>-12.7</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E120" s="25">
+        <v>0</v>
+      </c>
+      <c r="F120" s="25">
+        <v>0</v>
+      </c>
+      <c r="G120" s="25">
+        <v>0</v>
+      </c>
+      <c r="H120" s="25">
+        <v>0</v>
+      </c>
+      <c r="I120" s="25">
+        <v>0</v>
+      </c>
+      <c r="L120" s="12"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="21" t="s">
         <v>92</v>
       </c>
@@ -4710,8 +4823,23 @@
         <v>-2.5</v>
       </c>
       <c r="D121" s="11"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E121" s="25">
+        <v>0</v>
+      </c>
+      <c r="F121" s="25">
+        <v>0</v>
+      </c>
+      <c r="G121" s="25">
+        <v>0</v>
+      </c>
+      <c r="H121" s="25">
+        <v>0</v>
+      </c>
+      <c r="I121" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="21" t="s">
         <v>93</v>
       </c>
@@ -4722,8 +4850,23 @@
         <v>-13</v>
       </c>
       <c r="D122" s="11"/>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E122" s="25">
+        <v>0</v>
+      </c>
+      <c r="F122" s="25">
+        <v>0</v>
+      </c>
+      <c r="G122" s="25">
+        <v>0</v>
+      </c>
+      <c r="H122" s="25">
+        <v>0</v>
+      </c>
+      <c r="I122" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="21" t="s">
         <v>94</v>
       </c>
@@ -4748,7 +4891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="21" t="s">
         <v>95</v>
       </c>
@@ -4761,8 +4904,23 @@
       <c r="D124" s="11">
         <v>-95.1</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E124" s="25">
+        <v>0</v>
+      </c>
+      <c r="F124" s="25">
+        <v>0</v>
+      </c>
+      <c r="G124" s="25">
+        <v>0</v>
+      </c>
+      <c r="H124" s="25">
+        <v>0</v>
+      </c>
+      <c r="I124" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="21" t="s">
         <v>96</v>
       </c>
@@ -4780,24 +4938,24 @@
         <v>-302.2</v>
       </c>
       <c r="F125" s="28">
-        <f t="shared" ref="F125:I125" si="69">-F126*F70</f>
+        <f t="shared" ref="F125:I125" si="68">-F126*F70</f>
         <v>-302.2</v>
       </c>
       <c r="G125" s="28">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>-302.2</v>
       </c>
       <c r="H125" s="28">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>-302.2</v>
       </c>
       <c r="I125" s="28">
-        <f t="shared" si="69"/>
+        <f t="shared" si="68"/>
         <v>-302.2</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="8" t="s">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" s="21" t="s">
         <v>104</v>
       </c>
       <c r="B126" s="26">
@@ -4833,8 +4991,8 @@
         <v>2.2790346907993966</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="21" t="s">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" s="8" t="s">
         <v>97</v>
       </c>
       <c r="B127" s="12">
@@ -4850,27 +5008,27 @@
         <v>-725.8</v>
       </c>
       <c r="E127" s="12">
-        <f t="shared" ref="E127:I127" si="70">SUM(E115:E125)</f>
+        <f t="shared" ref="E127:I127" si="69">SUM(E115:E125)</f>
         <v>-302.2</v>
       </c>
       <c r="F127" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>-302.2</v>
       </c>
       <c r="G127" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>-302.2</v>
       </c>
       <c r="H127" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>-302.2</v>
       </c>
       <c r="I127" s="12">
-        <f t="shared" si="70"/>
+        <f t="shared" si="69"/>
         <v>-302.2</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="21" t="s">
         <v>98</v>
       </c>
@@ -4899,7 +5057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="21" t="s">
         <v>99</v>
       </c>
@@ -4916,27 +5074,27 @@
         <v>58.79999999999977</v>
       </c>
       <c r="E131" s="12">
-        <f t="shared" ref="E131:I131" si="71">E105+E112+E127+E129</f>
-        <v>409.96480632224194</v>
+        <f t="shared" ref="E131:I131" si="70">E105+E112+E127+E129</f>
+        <v>408.46480632224194</v>
       </c>
       <c r="F131" s="12">
-        <f t="shared" si="71"/>
-        <v>473.88877276932209</v>
+        <f t="shared" si="70"/>
+        <v>472.38877276932209</v>
       </c>
       <c r="G131" s="12">
-        <f t="shared" si="71"/>
-        <v>507.27112303256382</v>
+        <f t="shared" si="70"/>
+        <v>505.77112303256382</v>
       </c>
       <c r="H131" s="12">
-        <f t="shared" si="71"/>
-        <v>552.17735470768775</v>
+        <f t="shared" si="70"/>
+        <v>550.67735470768775</v>
       </c>
       <c r="I131" s="12">
-        <f t="shared" si="71"/>
-        <v>607.05023949402675</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" si="70"/>
+        <v>605.55023949402675</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>100</v>
       </c>
@@ -4955,22 +5113,22 @@
       </c>
       <c r="F133" s="12">
         <f>E134</f>
-        <v>565.36480632224175</v>
+        <v>563.86480632224175</v>
       </c>
       <c r="G133" s="12">
         <f>F134</f>
-        <v>1039.2535790915638</v>
+        <v>1036.2535790915638</v>
       </c>
       <c r="H133" s="12">
         <f>G134</f>
-        <v>1546.5247021241275</v>
+        <v>1542.0247021241275</v>
       </c>
       <c r="I133" s="12">
         <f>H134</f>
-        <v>2098.7020568318153</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2092.7020568318153</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>101</v>
       </c>
@@ -4979,35 +5137,35 @@
         <v>186.80000000000138</v>
       </c>
       <c r="C134" s="12">
-        <f t="shared" ref="C134:D134" si="72">C133+C131</f>
+        <f t="shared" ref="C134:D134" si="71">C133+C131</f>
         <v>96.600000000000151</v>
       </c>
       <c r="D134" s="12">
-        <f t="shared" si="72"/>
+        <f t="shared" si="71"/>
         <v>155.39999999999975</v>
       </c>
       <c r="E134" s="12">
         <f>E133+E131</f>
-        <v>565.36480632224175</v>
+        <v>563.86480632224175</v>
       </c>
       <c r="F134" s="12">
         <f>F133+F131</f>
-        <v>1039.2535790915638</v>
+        <v>1036.2535790915638</v>
       </c>
       <c r="G134" s="12">
         <f>G133+G131</f>
-        <v>1546.5247021241275</v>
+        <v>1542.0247021241275</v>
       </c>
       <c r="H134" s="12">
         <f>H133+H131</f>
-        <v>2098.7020568318153</v>
+        <v>2092.7020568318153</v>
       </c>
       <c r="I134" s="12">
         <f>I133+I131</f>
-        <v>2705.7522963258421</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2698.2522963258421</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B138" s="2">
         <v>2017</v>
       </c>
@@ -5033,7 +5191,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="19" t="s">
         <v>163</v>
       </c>
@@ -5062,12 +5220,12 @@
         <v>106</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="22" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>165</v>
       </c>
@@ -5080,26 +5238,26 @@
       </c>
       <c r="E141" s="12">
         <f>D141+E131</f>
-        <v>565.36480632224198</v>
+        <v>563.86480632224198</v>
       </c>
       <c r="F141" s="12">
         <f>E141+F131</f>
-        <v>1039.253579091564</v>
+        <v>1036.253579091564</v>
       </c>
       <c r="G141" s="12">
         <f>F141+G131</f>
-        <v>1546.5247021241278</v>
+        <v>1542.0247021241278</v>
       </c>
       <c r="H141" s="12">
         <f>G141+H131</f>
-        <v>2098.7020568318158</v>
+        <v>2092.7020568318158</v>
       </c>
       <c r="I141" s="12">
         <f>H141+I131</f>
-        <v>2705.7522963258425</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2698.2522963258425</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>166</v>
       </c>
@@ -5115,24 +5273,23 @@
         <v>537.85931666666659</v>
       </c>
       <c r="F142" s="12">
-        <f t="shared" ref="F142:I144" si="73">E142-F98</f>
+        <f t="shared" ref="F142:I144" si="72">E142-F98</f>
         <v>572.82017224999993</v>
       </c>
       <c r="G142" s="12">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v>610.05348344624986</v>
       </c>
       <c r="H142" s="12">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v>649.70695987025613</v>
       </c>
       <c r="I142" s="12">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v>691.9379122618227</v>
       </c>
-      <c r="K142" s="38"/>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>77</v>
       </c>
@@ -5148,24 +5305,23 @@
         <v>858.83477358333334</v>
       </c>
       <c r="F143" s="12">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v>914.65903386624984</v>
       </c>
       <c r="G143" s="12">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v>974.11187106755608</v>
       </c>
       <c r="H143" s="12">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v>1037.4291426869472</v>
       </c>
       <c r="I143" s="12">
-        <f t="shared" si="73"/>
+        <f t="shared" si="72"/>
         <v>1104.8620369615987</v>
       </c>
-      <c r="K143" s="39"/>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>167</v>
       </c>
@@ -5176,11 +5332,11 @@
         <v>90.7</v>
       </c>
       <c r="E144" s="12">
-        <f>D144-E100</f>
+        <f>D144-E100-E103</f>
         <v>90.170532499999993</v>
       </c>
       <c r="F144" s="12">
-        <f t="shared" si="73"/>
+        <f t="shared" ref="F144:I144" si="73">E144-F100-F103</f>
         <v>96.031617112499987</v>
       </c>
       <c r="G144" s="12">
@@ -5196,7 +5352,7 @@
         <v>116.00135587918794</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="8" t="s">
         <v>168</v>
       </c>
@@ -5210,27 +5366,27 @@
       </c>
       <c r="E145" s="12">
         <f t="shared" ref="E145:I145" si="74">SUM(E141:E144)</f>
-        <v>2052.2294290722421</v>
+        <v>2050.7294290722421</v>
       </c>
       <c r="F145" s="12">
         <f t="shared" si="74"/>
-        <v>2622.7644023203138</v>
+        <v>2619.7644023203138</v>
       </c>
       <c r="G145" s="12">
         <f t="shared" si="74"/>
-        <v>3232.9637288627459</v>
+        <v>3228.4637288627459</v>
       </c>
       <c r="H145" s="12">
         <f t="shared" si="74"/>
-        <v>3894.7596203084445</v>
+        <v>3888.7596203084445</v>
       </c>
       <c r="I145" s="12">
         <f t="shared" si="74"/>
-        <v>4618.5536014284526</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="40" t="s">
+        <v>4611.0536014284526</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146" s="38" t="s">
         <v>169</v>
       </c>
       <c r="C146" s="12">
@@ -5242,27 +5398,27 @@
         <v>952.59999999999991</v>
       </c>
       <c r="E146" s="12">
-        <f>D146-E109-E108-E88</f>
-        <v>980.20063505678434</v>
+        <f>SUM(E147:E151)</f>
+        <v>1015.8806350567844</v>
       </c>
       <c r="F146" s="12">
-        <f>E146-F109-F108-F88</f>
-        <v>1009.9425829695688</v>
+        <f t="shared" ref="F146:I146" si="75">SUM(F147:F151)</f>
+        <v>1081.3025829695689</v>
       </c>
       <c r="G146" s="12">
-        <f>F146-G109-G108-G88</f>
-        <v>1041.9650290739933</v>
+        <f t="shared" si="75"/>
+        <v>1149.0050290739932</v>
       </c>
       <c r="H146" s="12">
-        <f>G146-H109-H108-H88</f>
-        <v>1076.4162057525143</v>
+        <f t="shared" si="75"/>
+        <v>1219.1362057525146</v>
       </c>
       <c r="I146" s="12">
-        <f>H146-I109-I108-I88</f>
-        <v>1113.4539804924482</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="75"/>
+        <v>1291.8539804924487</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="18" t="s">
         <v>170</v>
       </c>
@@ -5272,13 +5428,29 @@
       <c r="D147" s="11">
         <v>67.5</v>
       </c>
-      <c r="E147" s="45"/>
-      <c r="F147" s="45"/>
-      <c r="G147" s="45"/>
-      <c r="H147" s="45"/>
-      <c r="I147" s="45"/>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E147" s="12">
+        <f>D147</f>
+        <v>67.5</v>
+      </c>
+      <c r="F147" s="12">
+        <f t="shared" ref="F147:I147" si="76">E147</f>
+        <v>67.5</v>
+      </c>
+      <c r="G147" s="12">
+        <f t="shared" si="76"/>
+        <v>67.5</v>
+      </c>
+      <c r="H147" s="12">
+        <f t="shared" si="76"/>
+        <v>67.5</v>
+      </c>
+      <c r="I147" s="12">
+        <f t="shared" si="76"/>
+        <v>67.5</v>
+      </c>
+      <c r="K147" s="12"/>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="18" t="s">
         <v>171</v>
       </c>
@@ -5288,13 +5460,29 @@
       <c r="D148" s="11">
         <v>658.5</v>
       </c>
-      <c r="E148" s="45"/>
-      <c r="F148" s="45"/>
-      <c r="G148" s="45"/>
-      <c r="H148" s="45"/>
-      <c r="I148" s="45"/>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E148" s="12">
+        <f>D148-(E109*1/3)</f>
+        <v>719.24646400000006</v>
+      </c>
+      <c r="F148" s="12">
+        <f t="shared" ref="F148:I148" si="77">E148-(F109*1/3)</f>
+        <v>783.94144816000005</v>
+      </c>
+      <c r="G148" s="12">
+        <f t="shared" si="77"/>
+        <v>852.84160629040002</v>
+      </c>
+      <c r="H148" s="12">
+        <f t="shared" si="77"/>
+        <v>926.22027469927605</v>
+      </c>
+      <c r="I148" s="12">
+        <f t="shared" si="77"/>
+        <v>1004.3685565547289</v>
+      </c>
+      <c r="K148" s="12"/>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="18" t="s">
         <v>172</v>
       </c>
@@ -5304,13 +5492,29 @@
       <c r="D149" s="11">
         <v>1007.8</v>
       </c>
-      <c r="E149" s="45"/>
-      <c r="F149" s="45"/>
-      <c r="G149" s="45"/>
-      <c r="H149" s="45"/>
-      <c r="I149" s="45"/>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E149" s="12">
+        <f>D149-(E109*2/3)</f>
+        <v>1129.2929279999998</v>
+      </c>
+      <c r="F149" s="12">
+        <f t="shared" ref="F149:I149" si="78">E149-(F109*2/3)</f>
+        <v>1258.6828963199998</v>
+      </c>
+      <c r="G149" s="12">
+        <f t="shared" si="78"/>
+        <v>1396.4832125807998</v>
+      </c>
+      <c r="H149" s="12">
+        <f t="shared" si="78"/>
+        <v>1543.2405493985518</v>
+      </c>
+      <c r="I149" s="12">
+        <f t="shared" si="78"/>
+        <v>1699.5371131094576</v>
+      </c>
+      <c r="K149" s="12"/>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="18" t="s">
         <v>173</v>
       </c>
@@ -5320,13 +5524,30 @@
       <c r="D150" s="11">
         <v>85.8</v>
       </c>
-      <c r="E150" s="45"/>
-      <c r="F150" s="45"/>
-      <c r="G150" s="45"/>
-      <c r="H150" s="45"/>
-      <c r="I150" s="45"/>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E150" s="12">
+        <f>D150</f>
+        <v>85.8</v>
+      </c>
+      <c r="F150" s="12">
+        <f>E150-(D150-E150)</f>
+        <v>85.8</v>
+      </c>
+      <c r="G150" s="12">
+        <f>F150-(E150-F150)</f>
+        <v>85.8</v>
+      </c>
+      <c r="H150" s="12">
+        <f>G150-(F150-G150)</f>
+        <v>85.8</v>
+      </c>
+      <c r="I150" s="12">
+        <f>H150-(G150-H150)</f>
+        <v>85.8</v>
+      </c>
+      <c r="K150" s="12"/>
+      <c r="L150" s="12"/>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="18" t="s">
         <v>174</v>
       </c>
@@ -5336,13 +5557,30 @@
       <c r="D151" s="11">
         <v>-867</v>
       </c>
-      <c r="E151" s="45"/>
-      <c r="F151" s="45"/>
-      <c r="G151" s="45"/>
-      <c r="H151" s="45"/>
-      <c r="I151" s="45"/>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E151" s="12">
+        <f>D151-E204-E207-SUM(E213:E217)</f>
+        <v>-985.95875694321546</v>
+      </c>
+      <c r="F151" s="12">
+        <f t="shared" ref="F151:I151" si="79">E151-F204-F207-SUM(F213:F217)</f>
+        <v>-1114.621761510431</v>
+      </c>
+      <c r="G151" s="12">
+        <f t="shared" si="79"/>
+        <v>-1253.6197897972065</v>
+      </c>
+      <c r="H151" s="12">
+        <f t="shared" si="79"/>
+        <v>-1403.6246183453134</v>
+      </c>
+      <c r="I151" s="12">
+        <f t="shared" si="79"/>
+        <v>-1565.3516891717379</v>
+      </c>
+      <c r="K151" s="12"/>
+      <c r="L151" s="12"/>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>175</v>
       </c>
@@ -5353,27 +5591,27 @@
         <v>4505.2</v>
       </c>
       <c r="E152" s="12">
-        <f>D152</f>
+        <f>D152-E108</f>
         <v>4505.2</v>
       </c>
       <c r="F152" s="12">
-        <f t="shared" ref="F152:I152" si="75">E152</f>
+        <f t="shared" ref="F152:I152" si="80">E152-F108</f>
         <v>4505.2</v>
       </c>
       <c r="G152" s="12">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>4505.2</v>
       </c>
       <c r="H152" s="12">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>4505.2</v>
       </c>
       <c r="I152" s="12">
-        <f t="shared" si="75"/>
+        <f t="shared" si="80"/>
         <v>4505.2</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>176</v>
       </c>
@@ -5385,8 +5623,28 @@
         <f>SUM(D154:D156)</f>
         <v>2847</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E153" s="30">
+        <f t="shared" ref="E153:I153" si="81">SUM(E154:E156)</f>
+        <v>2826.6</v>
+      </c>
+      <c r="F153" s="30">
+        <f t="shared" si="81"/>
+        <v>2806.2</v>
+      </c>
+      <c r="G153" s="30">
+        <f t="shared" si="81"/>
+        <v>2785.8</v>
+      </c>
+      <c r="H153" s="30">
+        <f t="shared" si="81"/>
+        <v>2765.4</v>
+      </c>
+      <c r="I153" s="30">
+        <f t="shared" si="81"/>
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="18" t="s">
         <v>125</v>
       </c>
@@ -5396,8 +5654,28 @@
       <c r="D154" s="11">
         <v>308.3</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E154" s="12">
+        <f>D154</f>
+        <v>308.3</v>
+      </c>
+      <c r="F154" s="12">
+        <f>E154-(D154-E154)</f>
+        <v>308.3</v>
+      </c>
+      <c r="G154" s="12">
+        <f>F154-(E154-F154)</f>
+        <v>308.3</v>
+      </c>
+      <c r="H154" s="12">
+        <f>G154-(F154-G154)</f>
+        <v>308.3</v>
+      </c>
+      <c r="I154" s="12">
+        <f>H154-(G154-H154)</f>
+        <v>308.3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="18" t="s">
         <v>180</v>
       </c>
@@ -5407,8 +5685,30 @@
       <c r="D155" s="11">
         <v>-104.3</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E155" s="12">
+        <f>D155-E212</f>
+        <v>-124.69999999999999</v>
+      </c>
+      <c r="F155" s="12">
+        <f t="shared" ref="F155:I155" si="82">E155-F212</f>
+        <v>-145.1</v>
+      </c>
+      <c r="G155" s="12">
+        <f t="shared" si="82"/>
+        <v>-165.5</v>
+      </c>
+      <c r="H155" s="12">
+        <f t="shared" si="82"/>
+        <v>-185.9</v>
+      </c>
+      <c r="I155" s="12">
+        <f t="shared" si="82"/>
+        <v>-206.3</v>
+      </c>
+      <c r="K155" s="12"/>
+      <c r="L155" s="12"/>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="18" t="s">
         <v>181</v>
       </c>
@@ -5418,8 +5718,28 @@
       <c r="D156" s="11">
         <v>2643</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E156" s="12">
+        <f>D156</f>
+        <v>2643</v>
+      </c>
+      <c r="F156" s="12">
+        <f>E156-(D156-E156)</f>
+        <v>2643</v>
+      </c>
+      <c r="G156" s="12">
+        <f>F156-(E156-F156)</f>
+        <v>2643</v>
+      </c>
+      <c r="H156" s="12">
+        <f>G156-(F156-G156)</f>
+        <v>2643</v>
+      </c>
+      <c r="I156" s="12">
+        <f>H156-(G156-H156)</f>
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>177</v>
       </c>
@@ -5431,8 +5751,28 @@
         <f>SUM(D158:D159)</f>
         <v>507.1</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E157" s="12">
+        <f t="shared" ref="E157:I157" si="83">SUM(E158:E159)</f>
+        <v>491.82000000000005</v>
+      </c>
+      <c r="F157" s="12">
+        <f t="shared" si="83"/>
+        <v>476.54000000000008</v>
+      </c>
+      <c r="G157" s="12">
+        <f t="shared" si="83"/>
+        <v>461.26000000000005</v>
+      </c>
+      <c r="H157" s="12">
+        <f t="shared" si="83"/>
+        <v>445.98</v>
+      </c>
+      <c r="I157" s="12">
+        <f t="shared" si="83"/>
+        <v>430.70000000000005</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="18" t="s">
         <v>179</v>
       </c>
@@ -5442,8 +5782,30 @@
       <c r="D158" s="11">
         <v>76.400000000000006</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E158" s="12">
+        <f>D158-E210</f>
+        <v>61.120000000000005</v>
+      </c>
+      <c r="F158" s="12">
+        <f t="shared" ref="F158:I158" si="84">E158-F210</f>
+        <v>45.84</v>
+      </c>
+      <c r="G158" s="12">
+        <f t="shared" si="84"/>
+        <v>30.560000000000002</v>
+      </c>
+      <c r="H158" s="12">
+        <f t="shared" si="84"/>
+        <v>15.280000000000001</v>
+      </c>
+      <c r="I158" s="12">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="K158" s="12"/>
+      <c r="L158" s="12"/>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="18" t="s">
         <v>177</v>
       </c>
@@ -5455,13 +5817,33 @@
         <f>507.1-76.4</f>
         <v>430.70000000000005</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E159" s="12">
+        <f>D159</f>
+        <v>430.70000000000005</v>
+      </c>
+      <c r="F159" s="12">
+        <f t="shared" ref="F159:I159" si="85">E159</f>
+        <v>430.70000000000005</v>
+      </c>
+      <c r="G159" s="12">
+        <f t="shared" si="85"/>
+        <v>430.70000000000005</v>
+      </c>
+      <c r="H159" s="12">
+        <f t="shared" si="85"/>
+        <v>430.70000000000005</v>
+      </c>
+      <c r="I159" s="12">
+        <f t="shared" si="85"/>
+        <v>430.70000000000005</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C160" s="11"/>
       <c r="D160" s="11"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A161" s="41" t="s">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" s="39" t="s">
         <v>178</v>
       </c>
       <c r="C161" s="12">
@@ -5472,13 +5854,33 @@
         <f>SUM(D145:D146)+SUM(D152:D153)+D157</f>
         <v>10362.1</v>
       </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E161" s="12">
+        <f t="shared" ref="E161:I161" si="86">SUM(E145:E146)+SUM(E152:E153)+E157</f>
+        <v>10890.230064129026</v>
+      </c>
+      <c r="F161" s="12">
+        <f t="shared" si="86"/>
+        <v>11489.006985289883</v>
+      </c>
+      <c r="G161" s="12">
+        <f t="shared" si="86"/>
+        <v>12129.728757936738</v>
+      </c>
+      <c r="H161" s="12">
+        <f t="shared" si="86"/>
+        <v>12824.47582606096</v>
+      </c>
+      <c r="I161" s="12">
+        <f t="shared" si="86"/>
+        <v>13583.807581920901</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="22" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>183</v>
       </c>
@@ -5489,13 +5891,28 @@
       <c r="D163" s="11">
         <v>600.70000000000005</v>
       </c>
-      <c r="E163" s="12"/>
-      <c r="F163" s="11"/>
-      <c r="G163" s="12"/>
-      <c r="H163" s="12"/>
-      <c r="I163" s="12"/>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E163" s="12">
+        <f>D163+E115</f>
+        <v>600.70000000000005</v>
+      </c>
+      <c r="F163" s="12">
+        <f t="shared" ref="F163:I163" si="87">E163+F115</f>
+        <v>600.70000000000005</v>
+      </c>
+      <c r="G163" s="12">
+        <f t="shared" si="87"/>
+        <v>600.70000000000005</v>
+      </c>
+      <c r="H163" s="12">
+        <f t="shared" si="87"/>
+        <v>600.70000000000005</v>
+      </c>
+      <c r="I163" s="12">
+        <f t="shared" si="87"/>
+        <v>600.70000000000005</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>184</v>
       </c>
@@ -5506,14 +5923,28 @@
       <c r="D164" s="11">
         <v>97.7</v>
       </c>
-      <c r="E164" s="12"/>
-      <c r="F164" s="11"/>
-      <c r="G164" s="12"/>
-      <c r="H164" s="12"/>
-      <c r="I164" s="12"/>
-      <c r="K164" s="38"/>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E164" s="12">
+        <f>D164</f>
+        <v>97.7</v>
+      </c>
+      <c r="F164" s="12">
+        <f t="shared" ref="F164:I164" si="88">E164</f>
+        <v>97.7</v>
+      </c>
+      <c r="G164" s="12">
+        <f t="shared" si="88"/>
+        <v>97.7</v>
+      </c>
+      <c r="H164" s="12">
+        <f t="shared" si="88"/>
+        <v>97.7</v>
+      </c>
+      <c r="I164" s="12">
+        <f t="shared" si="88"/>
+        <v>97.7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>185</v>
       </c>
@@ -5524,14 +5955,28 @@
       <c r="D165" s="11">
         <v>846.9</v>
       </c>
-      <c r="E165" s="11"/>
-      <c r="F165" s="11"/>
-      <c r="G165" s="11"/>
-      <c r="H165" s="11"/>
-      <c r="I165" s="11"/>
-      <c r="K165" s="39"/>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E165" s="12">
+        <f>D165+E101</f>
+        <v>844.36003020833323</v>
+      </c>
+      <c r="F165" s="12">
+        <f>E165+F101</f>
+        <v>899.24343217187482</v>
+      </c>
+      <c r="G165" s="12">
+        <f>F165+G101</f>
+        <v>957.69425526304667</v>
+      </c>
+      <c r="H165" s="12">
+        <f>G165+H101</f>
+        <v>1019.9443818551446</v>
+      </c>
+      <c r="I165" s="12">
+        <f>H165+I101</f>
+        <v>1086.2407666757292</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>186</v>
       </c>
@@ -5541,9 +5986,28 @@
       <c r="D166" s="11">
         <v>609.1</v>
       </c>
-      <c r="F166" s="11"/>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E166" s="12">
+        <f>D166+E102</f>
+        <v>676.27899374999993</v>
+      </c>
+      <c r="F166" s="12">
+        <f t="shared" ref="F166:I166" si="89">E166+F102</f>
+        <v>720.23712834374987</v>
+      </c>
+      <c r="G166" s="12">
+        <f t="shared" si="89"/>
+        <v>767.0525416860936</v>
+      </c>
+      <c r="H166" s="12">
+        <f t="shared" si="89"/>
+        <v>816.91095689568965</v>
+      </c>
+      <c r="I166" s="12">
+        <f t="shared" si="89"/>
+        <v>870.01016909390955</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="8" t="s">
         <v>187</v>
       </c>
@@ -5555,9 +6019,29 @@
         <f>SUM(D163:D166)</f>
         <v>2154.4</v>
       </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A168" s="40" t="s">
+      <c r="E167" s="12">
+        <f t="shared" ref="E167:I167" si="90">SUM(E163:E166)</f>
+        <v>2219.039023958333</v>
+      </c>
+      <c r="F167" s="12">
+        <f t="shared" si="90"/>
+        <v>2317.8805605156249</v>
+      </c>
+      <c r="G167" s="12">
+        <f t="shared" si="90"/>
+        <v>2423.1467969491405</v>
+      </c>
+      <c r="H167" s="12">
+        <f t="shared" si="90"/>
+        <v>2535.2553387508342</v>
+      </c>
+      <c r="I167" s="12">
+        <f t="shared" si="90"/>
+        <v>2654.6509357696386</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" s="38" t="s">
         <v>188</v>
       </c>
       <c r="C168" s="11">
@@ -5566,11 +6050,29 @@
       <c r="D168" s="11">
         <v>3625.8</v>
       </c>
-      <c r="F168" s="12"/>
-      <c r="H168" s="12"/>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A169" s="40" t="s">
+      <c r="E168" s="12">
+        <f>D168+E118+E116+E117</f>
+        <v>3625.8</v>
+      </c>
+      <c r="F168" s="12">
+        <f t="shared" ref="F168:I168" si="91">E168+F118+F116+F117</f>
+        <v>3625.8</v>
+      </c>
+      <c r="G168" s="12">
+        <f t="shared" si="91"/>
+        <v>3625.8</v>
+      </c>
+      <c r="H168" s="12">
+        <f t="shared" si="91"/>
+        <v>3625.8</v>
+      </c>
+      <c r="I168" s="12">
+        <f t="shared" si="91"/>
+        <v>3625.8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A169" s="38" t="s">
         <v>63</v>
       </c>
       <c r="C169" s="11">
@@ -5579,9 +6081,29 @@
       <c r="D169" s="11">
         <v>697.6</v>
       </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A170" s="40" t="s">
+      <c r="E169" s="12">
+        <f>D169+E94</f>
+        <v>725.02295787810488</v>
+      </c>
+      <c r="F169" s="12">
+        <f t="shared" ref="F169:I169" si="92">E169+F94</f>
+        <v>740.64238115708122</v>
+      </c>
+      <c r="G169" s="12">
+        <f t="shared" si="92"/>
+        <v>740.39796487675426</v>
+      </c>
+      <c r="H169" s="12">
+        <f t="shared" si="92"/>
+        <v>732.61258811054074</v>
+      </c>
+      <c r="I169" s="12">
+        <f t="shared" si="92"/>
+        <v>723.8438364791898</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A170" s="38" t="s">
         <v>189</v>
       </c>
       <c r="C170" s="11">
@@ -5590,9 +6112,29 @@
       <c r="D170" s="11">
         <v>427.6</v>
       </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A171" s="41" t="s">
+      <c r="E170" s="12">
+        <f>D170+E119+E89+E120</f>
+        <v>427.6</v>
+      </c>
+      <c r="F170" s="12">
+        <f t="shared" ref="F170:I170" si="93">E170+F119+F89+F120</f>
+        <v>427.6</v>
+      </c>
+      <c r="G170" s="12">
+        <f t="shared" si="93"/>
+        <v>427.6</v>
+      </c>
+      <c r="H170" s="12">
+        <f t="shared" si="93"/>
+        <v>427.6</v>
+      </c>
+      <c r="I170" s="12">
+        <f t="shared" si="93"/>
+        <v>427.6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A171" s="39" t="s">
         <v>190</v>
       </c>
       <c r="C171" s="12">
@@ -5603,14 +6145,34 @@
         <f>SUM(D167:D170)</f>
         <v>6905.4000000000015</v>
       </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E171" s="12">
+        <f t="shared" ref="E171:I171" si="94">SUM(E167:E170)</f>
+        <v>6997.4619818364381</v>
+      </c>
+      <c r="F171" s="12">
+        <f t="shared" si="94"/>
+        <v>7111.9229416727067</v>
+      </c>
+      <c r="G171" s="12">
+        <f t="shared" si="94"/>
+        <v>7216.9447618258955</v>
+      </c>
+      <c r="H171" s="12">
+        <f t="shared" si="94"/>
+        <v>7321.2679268613756</v>
+      </c>
+      <c r="I171" s="12">
+        <f t="shared" si="94"/>
+        <v>7431.8947722488292</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="22" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A173" s="40" t="s">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A173" s="38" t="s">
         <v>192</v>
       </c>
       <c r="C173" s="11">
@@ -5619,9 +6181,29 @@
       <c r="D173" s="11">
         <v>447.6</v>
       </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A174" s="40" t="s">
+      <c r="E173" s="12">
+        <f>D173</f>
+        <v>447.6</v>
+      </c>
+      <c r="F173" s="12">
+        <f t="shared" ref="F173:I173" si="95">E173</f>
+        <v>447.6</v>
+      </c>
+      <c r="G173" s="12">
+        <f t="shared" si="95"/>
+        <v>447.6</v>
+      </c>
+      <c r="H173" s="12">
+        <f t="shared" si="95"/>
+        <v>447.6</v>
+      </c>
+      <c r="I173" s="12">
+        <f t="shared" si="95"/>
+        <v>447.6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A174" s="38" t="s">
         <v>193</v>
       </c>
       <c r="C174" s="11">
@@ -5630,9 +6212,29 @@
       <c r="D174" s="11">
         <v>1441</v>
       </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A175" s="40" t="s">
+      <c r="E174" s="12">
+        <f>D174+E123</f>
+        <v>1441</v>
+      </c>
+      <c r="F174" s="12">
+        <f t="shared" ref="F174:I174" si="96">E174+F123+F124</f>
+        <v>1441</v>
+      </c>
+      <c r="G174" s="12">
+        <f t="shared" si="96"/>
+        <v>1441</v>
+      </c>
+      <c r="H174" s="12">
+        <f t="shared" si="96"/>
+        <v>1441</v>
+      </c>
+      <c r="I174" s="12">
+        <f t="shared" si="96"/>
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A175" s="38" t="s">
         <v>194</v>
       </c>
       <c r="C175" s="11">
@@ -5641,9 +6243,29 @@
       <c r="D175" s="11">
         <v>2055.8000000000002</v>
       </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A176" s="40" t="s">
+      <c r="E175" s="12">
+        <f>D175+E87+E125+E124+E95+E104+E121</f>
+        <v>2491.8680822925885</v>
+      </c>
+      <c r="F175" s="12">
+        <f t="shared" ref="F175:I175" si="97">E175+F87+F125+F124+F95+F104+F121</f>
+        <v>2976.1840436171769</v>
+      </c>
+      <c r="G175" s="12">
+        <f t="shared" si="97"/>
+        <v>3511.8839961108451</v>
+      </c>
+      <c r="H175" s="12">
+        <f t="shared" si="97"/>
+        <v>4102.3078991995835</v>
+      </c>
+      <c r="I175" s="12">
+        <f t="shared" si="97"/>
+        <v>4751.0128096720709</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A176" s="38" t="s">
         <v>195</v>
       </c>
       <c r="C176" s="11">
@@ -5652,9 +6274,29 @@
       <c r="D176" s="11">
         <v>-500.2</v>
       </c>
+      <c r="E176" s="12">
+        <f>D176+E129</f>
+        <v>-500.2</v>
+      </c>
+      <c r="F176" s="12">
+        <f t="shared" ref="F176:I176" si="98">E176+F129</f>
+        <v>-500.2</v>
+      </c>
+      <c r="G176" s="12">
+        <f t="shared" si="98"/>
+        <v>-500.2</v>
+      </c>
+      <c r="H176" s="12">
+        <f t="shared" si="98"/>
+        <v>-500.2</v>
+      </c>
+      <c r="I176" s="12">
+        <f t="shared" si="98"/>
+        <v>-500.2</v>
+      </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A177" s="41" t="s">
+      <c r="A177" s="39" t="s">
         <v>196</v>
       </c>
       <c r="C177" s="12">
@@ -5665,9 +6307,29 @@
         <f>SUM(D173:D176)</f>
         <v>3444.2000000000003</v>
       </c>
+      <c r="E177" s="12">
+        <f t="shared" ref="E177:I177" si="99">SUM(E173:E176)</f>
+        <v>3880.2680822925886</v>
+      </c>
+      <c r="F177" s="12">
+        <f t="shared" si="99"/>
+        <v>4364.5840436171775</v>
+      </c>
+      <c r="G177" s="12">
+        <f t="shared" si="99"/>
+        <v>4900.2839961108448</v>
+      </c>
+      <c r="H177" s="12">
+        <f t="shared" si="99"/>
+        <v>5490.7078991995832</v>
+      </c>
+      <c r="I177" s="12">
+        <f t="shared" si="99"/>
+        <v>6139.4128096720715</v>
+      </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A178" s="40" t="s">
+      <c r="A178" s="38" t="s">
         <v>197</v>
       </c>
       <c r="C178" s="11">
@@ -5676,9 +6338,29 @@
       <c r="D178" s="11">
         <v>12.5</v>
       </c>
+      <c r="E178" s="12">
+        <f>D178+E122</f>
+        <v>12.5</v>
+      </c>
+      <c r="F178" s="12">
+        <f t="shared" ref="F178:I178" si="100">E178+F122</f>
+        <v>12.5</v>
+      </c>
+      <c r="G178" s="12">
+        <f t="shared" si="100"/>
+        <v>12.5</v>
+      </c>
+      <c r="H178" s="12">
+        <f t="shared" si="100"/>
+        <v>12.5</v>
+      </c>
+      <c r="I178" s="12">
+        <f t="shared" si="100"/>
+        <v>12.5</v>
+      </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A179" s="41" t="s">
+      <c r="A179" s="39" t="s">
         <v>198</v>
       </c>
       <c r="C179" s="12">
@@ -5689,9 +6371,29 @@
         <f>SUM(D177:D178)</f>
         <v>3456.7000000000003</v>
       </c>
+      <c r="E179" s="12">
+        <f t="shared" ref="E179:I179" si="101">SUM(E177:E178)</f>
+        <v>3892.7680822925886</v>
+      </c>
+      <c r="F179" s="12">
+        <f t="shared" si="101"/>
+        <v>4377.0840436171775</v>
+      </c>
+      <c r="G179" s="12">
+        <f t="shared" si="101"/>
+        <v>4912.7839961108448</v>
+      </c>
+      <c r="H179" s="12">
+        <f t="shared" si="101"/>
+        <v>5503.2078991995832</v>
+      </c>
+      <c r="I179" s="12">
+        <f t="shared" si="101"/>
+        <v>6151.9128096720715</v>
+      </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A180" s="41" t="s">
+      <c r="A180" s="39" t="s">
         <v>199</v>
       </c>
       <c r="C180" s="12">
@@ -5702,11 +6404,59 @@
         <f>D171+D179</f>
         <v>10362.100000000002</v>
       </c>
+      <c r="E180" s="12">
+        <f t="shared" ref="E180:I180" si="102">E171+E179</f>
+        <v>10890.230064129028</v>
+      </c>
+      <c r="F180" s="12">
+        <f t="shared" si="102"/>
+        <v>11489.006985289885</v>
+      </c>
+      <c r="G180" s="12">
+        <f t="shared" si="102"/>
+        <v>12129.72875793674</v>
+      </c>
+      <c r="H180" s="12">
+        <f t="shared" si="102"/>
+        <v>12824.47582606096</v>
+      </c>
+      <c r="I180" s="12">
+        <f t="shared" si="102"/>
+        <v>13583.807581920901</v>
+      </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A181" s="18"/>
-      <c r="C181" s="11"/>
-      <c r="D181" s="11"/>
+      <c r="A181" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="C181" s="11" t="str">
+        <f>IF(C161=C180,"","ERROR")</f>
+        <v/>
+      </c>
+      <c r="D181" s="11" t="str">
+        <f t="shared" ref="D181:I181" si="103">IF(D161=D180,"","ERROR")</f>
+        <v/>
+      </c>
+      <c r="E181" s="11" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
+      <c r="F181" s="11" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
+      <c r="G181" s="11" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
+      <c r="H181" s="11" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
+      <c r="I181" s="11" t="str">
+        <f t="shared" si="103"/>
+        <v/>
+      </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="18"/>
@@ -5950,19 +6700,19 @@
         <v>15.793646102142471</v>
       </c>
       <c r="F203" s="30">
-        <f t="shared" ref="F203:I203" si="76">$E$185/$E$191</f>
+        <f t="shared" ref="F203:I203" si="104">$E$185/$E$191</f>
         <v>15.793646102142471</v>
       </c>
       <c r="G203" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="104"/>
         <v>15.793646102142471</v>
       </c>
       <c r="H203" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="104"/>
         <v>15.793646102142471</v>
       </c>
       <c r="I203" s="30">
-        <f t="shared" si="76"/>
+        <f t="shared" si="104"/>
         <v>15.793646102142471</v>
       </c>
     </row>
@@ -6000,19 +6750,19 @@
         <v>6.3174584408569885</v>
       </c>
       <c r="F205" s="30">
-        <f t="shared" ref="F205:I205" si="77">$E$185/$E$193</f>
+        <f t="shared" ref="F205:I205" si="105">$E$185/$E$193</f>
         <v>6.3174584408569885</v>
       </c>
       <c r="G205" s="30">
-        <f t="shared" si="77"/>
+        <f t="shared" si="105"/>
         <v>6.3174584408569885</v>
       </c>
       <c r="H205" s="30">
-        <f t="shared" si="77"/>
+        <f t="shared" si="105"/>
         <v>6.3174584408569885</v>
       </c>
       <c r="I205" s="30">
-        <f t="shared" si="77"/>
+        <f t="shared" si="105"/>
         <v>6.3174584408569885</v>
       </c>
     </row>
@@ -6025,19 +6775,19 @@
         <v>161.1423593190502</v>
       </c>
       <c r="F206" s="30">
-        <f t="shared" ref="F206:I206" si="78">$E$186/$E$194</f>
+        <f t="shared" ref="F206:I206" si="106">$E$186/$E$194</f>
         <v>161.1423593190502</v>
       </c>
       <c r="G206" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="106"/>
         <v>161.1423593190502</v>
       </c>
       <c r="H206" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="106"/>
         <v>161.1423593190502</v>
       </c>
       <c r="I206" s="30">
-        <f t="shared" si="78"/>
+        <f t="shared" si="106"/>
         <v>161.1423593190502</v>
       </c>
     </row>
@@ -6075,19 +6825,19 @@
         <v>40.28558982976255</v>
       </c>
       <c r="F208" s="30">
-        <f t="shared" ref="F208:I208" si="79">$E$186/$E$196</f>
+        <f t="shared" ref="F208:I208" si="107">$E$186/$E$196</f>
         <v>40.28558982976255</v>
       </c>
       <c r="G208" s="30">
-        <f t="shared" si="79"/>
+        <f t="shared" si="107"/>
         <v>40.28558982976255</v>
       </c>
       <c r="H208" s="30">
-        <f t="shared" si="79"/>
+        <f t="shared" si="107"/>
         <v>40.28558982976255</v>
       </c>
       <c r="I208" s="30">
-        <f t="shared" si="79"/>
+        <f t="shared" si="107"/>
         <v>40.28558982976255</v>
       </c>
     </row>
@@ -6100,19 +6850,19 @@
         <v>25.466666666666669</v>
       </c>
       <c r="F209" s="30">
-        <f t="shared" ref="F209:I209" si="80">$E$187/$E$197</f>
+        <f t="shared" ref="F209:I209" si="108">$E$187/$E$197</f>
         <v>25.466666666666669</v>
       </c>
       <c r="G209" s="30">
-        <f t="shared" si="80"/>
+        <f t="shared" si="108"/>
         <v>25.466666666666669</v>
       </c>
       <c r="H209" s="30">
-        <f t="shared" si="80"/>
+        <f t="shared" si="108"/>
         <v>25.466666666666669</v>
       </c>
       <c r="I209" s="30">
-        <f t="shared" si="80"/>
+        <f t="shared" si="108"/>
         <v>25.466666666666669</v>
       </c>
     </row>
@@ -6125,19 +6875,19 @@
         <v>15.280000000000001</v>
       </c>
       <c r="F210" s="30">
-        <f t="shared" ref="F210:I210" si="81">$E$187/$E$198</f>
+        <f t="shared" ref="F210:I210" si="109">$E$187/$E$198</f>
         <v>15.280000000000001</v>
       </c>
       <c r="G210" s="30">
-        <f t="shared" si="81"/>
+        <f t="shared" si="109"/>
         <v>15.280000000000001</v>
       </c>
       <c r="H210" s="30">
-        <f t="shared" si="81"/>
+        <f t="shared" si="109"/>
         <v>15.280000000000001</v>
       </c>
       <c r="I210" s="30">
-        <f t="shared" si="81"/>
+        <f t="shared" si="109"/>
         <v>15.280000000000001</v>
       </c>
     </row>
@@ -6150,19 +6900,19 @@
         <v>5.8769230769230774</v>
       </c>
       <c r="F211" s="30">
-        <f t="shared" ref="F211:I211" si="82">$E$187/$E$199</f>
+        <f t="shared" ref="F211:I211" si="110">$E$187/$E$199</f>
         <v>5.8769230769230774</v>
       </c>
       <c r="G211" s="30">
-        <f t="shared" si="82"/>
+        <f t="shared" si="110"/>
         <v>5.8769230769230774</v>
       </c>
       <c r="H211" s="30">
-        <f t="shared" si="82"/>
+        <f t="shared" si="110"/>
         <v>5.8769230769230774</v>
       </c>
       <c r="I211" s="30">
-        <f t="shared" si="82"/>
+        <f t="shared" si="110"/>
         <v>5.8769230769230774</v>
       </c>
     </row>
@@ -6295,19 +7045,19 @@
         <v>154.63875694321553</v>
       </c>
       <c r="F218" s="33">
-        <f t="shared" ref="F218:I218" si="83">F204+F207+F210+F212+SUM(F213:F217)</f>
+        <f t="shared" ref="F218:I218" si="111">F204+F207+F210+F212+SUM(F213:F217)</f>
         <v>164.34300456721553</v>
       </c>
       <c r="G218" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="111"/>
         <v>174.67802828677551</v>
       </c>
       <c r="H218" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="111"/>
         <v>185.68482854810691</v>
       </c>
       <c r="I218" s="33">
-        <f t="shared" si="83"/>
+        <f t="shared" si="111"/>
         <v>197.40707082642484</v>
       </c>
     </row>
@@ -6320,19 +7070,19 @@
         <v>81.991940947542602</v>
       </c>
       <c r="F219" s="30">
-        <f t="shared" ref="F219:I219" si="84">F205+F208+F211+F212+SUM(F$213:F$217)</f>
+        <f t="shared" ref="F219:I219" si="112">F205+F208+F211+F212+SUM(F$213:F$217)</f>
         <v>91.696188571542606</v>
       </c>
       <c r="G219" s="30">
-        <f t="shared" si="84"/>
+        <f t="shared" si="112"/>
         <v>102.03121229110261</v>
       </c>
       <c r="H219" s="30">
-        <f t="shared" si="84"/>
+        <f t="shared" si="112"/>
         <v>113.038012552434</v>
       </c>
       <c r="I219" s="30">
-        <f t="shared" si="84"/>
+        <f t="shared" si="112"/>
         <v>124.76025483075195</v>
       </c>
     </row>
@@ -6345,19 +7095,19 @@
         <v>231.91464168785936</v>
       </c>
       <c r="F220" s="30">
-        <f t="shared" ref="F220:I220" si="85">F203+F206+F209+F212+SUM(F$213:F$217)</f>
+        <f t="shared" ref="F220:I220" si="113">F203+F206+F209+F212+SUM(F$213:F$217)</f>
         <v>241.61888931185933</v>
       </c>
       <c r="G220" s="30">
-        <f t="shared" si="85"/>
+        <f t="shared" si="113"/>
         <v>251.95391303141935</v>
       </c>
       <c r="H220" s="30">
-        <f t="shared" si="85"/>
+        <f t="shared" si="113"/>
         <v>262.96071329275077</v>
       </c>
       <c r="I220" s="30">
-        <f t="shared" si="85"/>
+        <f t="shared" si="113"/>
         <v>274.6829555710687</v>
       </c>
     </row>
@@ -6399,15 +7149,15 @@
         <v>167.3083692010832</v>
       </c>
       <c r="G223" s="30">
-        <f t="shared" ref="G223:I223" si="86">F223*(1+$E$221)</f>
+        <f t="shared" ref="G223:I223" si="114">F223*(1+$E$221)</f>
         <v>171.73200880224496</v>
       </c>
       <c r="H223" s="30">
-        <f t="shared" si="86"/>
+        <f t="shared" si="114"/>
         <v>176.27260960154888</v>
       </c>
       <c r="I223" s="30">
-        <f t="shared" si="86"/>
+        <f t="shared" si="114"/>
         <v>180.93326405749161</v>
       </c>
     </row>
@@ -6424,19 +7174,19 @@
         <v>176.32950552806224</v>
       </c>
       <c r="G224" s="30">
-        <f t="shared" ref="G224:I224" si="87">F224*(1+$E$222)</f>
+        <f t="shared" ref="G224:I224" si="115">F224*(1+$E$222)</f>
         <v>185.8070701914817</v>
       </c>
       <c r="H224" s="30">
-        <f t="shared" si="87"/>
+        <f t="shared" si="115"/>
         <v>195.79404609427539</v>
       </c>
       <c r="I224" s="30">
-        <f t="shared" si="87"/>
+        <f t="shared" si="115"/>
         <v>206.31781366802215</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" s="22" t="s">
         <v>140</v>
       </c>
@@ -6461,7 +7211,7 @@
         <v>-56.173009226739666</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" s="22" t="s">
         <v>141</v>
       </c>
@@ -6486,7 +7236,7 @@
         <v>93.749691513577091</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" s="22" t="s">
         <v>153</v>
       </c>
@@ -6495,33 +7245,33 @@
         <v>BELOW</v>
       </c>
       <c r="F227" s="32" t="str">
-        <f t="shared" ref="F227:I227" si="88">IF(AND(F218&gt;=F223,F218&lt;=F224),"IN",IF(F218&lt;F223,"BELOW","ABOVE"))</f>
+        <f t="shared" ref="F227:I227" si="116">IF(AND(F218&gt;=F223,F218&lt;=F224),"IN",IF(F218&lt;F223,"BELOW","ABOVE"))</f>
         <v>BELOW</v>
       </c>
       <c r="G227" s="32" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="116"/>
         <v>IN</v>
       </c>
       <c r="H227" s="32" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="116"/>
         <v>IN</v>
       </c>
       <c r="I227" s="32" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="116"/>
         <v>IN</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" s="22" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" s="22" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" s="8" t="s">
         <v>119</v>
       </c>
@@ -6541,7 +7291,7 @@
         <v>5.5460000000000002E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" s="8" t="s">
         <v>120</v>
       </c>
@@ -6561,7 +7311,7 @@
         <v>0.1101</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" s="8" t="s">
         <v>122</v>
       </c>
@@ -6581,7 +7331,7 @@
         <v>0.1101</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" s="8" t="s">
         <v>124</v>
       </c>
@@ -6601,7 +7351,7 @@
         <v>8.4500000000000006E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" s="8" t="s">
         <v>112</v>
       </c>
@@ -6621,7 +7371,7 @@
         <v>5.5460000000000002E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" s="8" t="s">
         <v>113</v>
       </c>
@@ -6640,7 +7390,7 @@
       </c>
       <c r="J236" s="34"/>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" s="8" t="s">
         <v>114</v>
       </c>
@@ -6656,9 +7406,8 @@
         <v>6.4820000000000003E-2</v>
       </c>
       <c r="J237" s="34"/>
-      <c r="K237" s="34"/>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" s="8" t="s">
         <v>115</v>
       </c>
@@ -6673,9 +7422,8 @@
       </c>
       <c r="J238" s="34"/>
       <c r="K238" s="34"/>
-      <c r="L238" s="34"/>
-    </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" s="8" t="s">
         <v>116</v>
       </c>
@@ -6689,9 +7437,8 @@
       <c r="J239" s="34"/>
       <c r="K239" s="34"/>
       <c r="L239" s="34"/>
-      <c r="M239" s="34"/>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" s="22" t="s">
         <v>156</v>
       </c>
@@ -6705,19 +7452,19 @@
         <v>20.730739873672206</v>
       </c>
       <c r="F241" s="30">
-        <f t="shared" ref="F241:I241" si="89">$E$185*F231</f>
+        <f t="shared" ref="F241:I241" si="117">$E$185*F231</f>
         <v>22.111104542999463</v>
       </c>
       <c r="G241" s="30">
-        <f t="shared" si="89"/>
+        <f t="shared" si="117"/>
         <v>20.474882806817501</v>
       </c>
       <c r="H241" s="30">
-        <f t="shared" si="89"/>
+        <f t="shared" si="117"/>
         <v>18.939740405689253</v>
       </c>
       <c r="I241" s="30">
-        <f t="shared" si="89"/>
+        <f t="shared" si="117"/>
         <v>17.518312256496429</v>
       </c>
     </row>
@@ -6730,19 +7477,19 @@
         <v>169.1994772850027</v>
       </c>
       <c r="F242" s="30">
-        <f t="shared" ref="F242:I242" si="90">$E$186*F232</f>
+        <f t="shared" ref="F242:I242" si="118">$E$186*F232</f>
         <v>125.69104026885915</v>
       </c>
       <c r="G242" s="30">
-        <f t="shared" si="90"/>
+        <f t="shared" si="118"/>
         <v>75.414624161315487</v>
       </c>
       <c r="H242" s="30">
-        <f t="shared" si="90"/>
+        <f t="shared" si="118"/>
         <v>53.22532128308228</v>
       </c>
       <c r="I242" s="30">
-        <f t="shared" si="90"/>
+        <f t="shared" si="118"/>
         <v>53.22532128308228</v>
       </c>
     </row>
@@ -6755,19 +7502,19 @@
         <v>26.740000000000002</v>
       </c>
       <c r="F243" s="30">
-        <f t="shared" ref="F243:I243" si="91">$E$187*F233</f>
+        <f t="shared" ref="F243:I243" si="119">$E$187*F233</f>
         <v>19.864000000000001</v>
       </c>
       <c r="G243" s="30">
-        <f t="shared" si="91"/>
+        <f t="shared" si="119"/>
         <v>11.9184</v>
       </c>
       <c r="H243" s="30">
-        <f t="shared" si="91"/>
+        <f t="shared" si="119"/>
         <v>8.4116400000000002</v>
       </c>
       <c r="I243" s="30">
-        <f t="shared" si="91"/>
+        <f t="shared" si="119"/>
         <v>8.4116400000000002</v>
       </c>
     </row>
@@ -6780,19 +7527,19 @@
         <v>35.699999999999996</v>
       </c>
       <c r="F244" s="30">
-        <f t="shared" ref="F244:I244" si="92">$E$188*F234</f>
+        <f t="shared" ref="F244:I244" si="120">$E$188*F234</f>
         <v>33.660000000000004</v>
       </c>
       <c r="G244" s="30">
-        <f t="shared" si="92"/>
+        <f t="shared" si="120"/>
         <v>26.928000000000001</v>
       </c>
       <c r="H244" s="30">
-        <f t="shared" si="92"/>
+        <f t="shared" si="120"/>
         <v>21.542400000000001</v>
       </c>
       <c r="I244" s="30">
-        <f t="shared" si="92"/>
+        <f t="shared" si="120"/>
         <v>17.238</v>
       </c>
     </row>
@@ -6805,7 +7552,7 @@
         <v>11.96037129696</v>
       </c>
       <c r="F245" s="30">
-        <f t="shared" ref="F245:I245" si="93">$E$189*F235</f>
+        <f t="shared" ref="F245:I245" si="121">$E$189*F235</f>
         <v>12.756757440000001</v>
       </c>
       <c r="G245" s="30">
@@ -6813,11 +7560,11 @@
         <v>11.812757389440002</v>
       </c>
       <c r="H245" s="30">
-        <f t="shared" si="93"/>
+        <f t="shared" si="121"/>
         <v>10.92707394432</v>
       </c>
       <c r="I245" s="30">
-        <f t="shared" si="93"/>
+        <f t="shared" si="121"/>
         <v>10.106996680320002</v>
       </c>
     </row>
@@ -6830,15 +7577,15 @@
         <v>12.737795431262397</v>
       </c>
       <c r="G246" s="30">
-        <f t="shared" ref="G246:I246" si="94">$F$189*G236</f>
+        <f t="shared" ref="G246:I246" si="122">$F$189*G236</f>
         <v>13.585946673599999</v>
       </c>
       <c r="H246" s="30">
-        <f t="shared" si="94"/>
+        <f t="shared" si="122"/>
         <v>12.580586619753598</v>
       </c>
       <c r="I246" s="30">
-        <f t="shared" si="94"/>
+        <f t="shared" si="122"/>
         <v>11.637333750700797</v>
       </c>
     </row>
@@ -6851,11 +7598,11 @@
         <v>13.565752134294453</v>
       </c>
       <c r="H247" s="30">
-        <f t="shared" ref="H247:I247" si="95">$G$189*H237</f>
+        <f t="shared" ref="H247:I247" si="123">$G$189*H237</f>
         <v>14.469033207383999</v>
       </c>
       <c r="I247" s="30">
-        <f t="shared" si="95"/>
+        <f t="shared" si="123"/>
         <v>13.398324750037583</v>
       </c>
     </row>
@@ -6890,19 +7637,19 @@
         <v>264.33058845563488</v>
       </c>
       <c r="F250" s="33">
-        <f t="shared" ref="F250:I250" si="96">SUM(F241:F249)</f>
+        <f t="shared" ref="F250:I250" si="124">SUM(F241:F249)</f>
         <v>226.82069768312101</v>
       </c>
       <c r="G250" s="33">
-        <f t="shared" si="96"/>
+        <f t="shared" si="124"/>
         <v>173.70036316546748</v>
       </c>
       <c r="H250" s="33">
-        <f t="shared" si="96"/>
+        <f t="shared" si="124"/>
         <v>154.54332148325273</v>
       </c>
       <c r="I250" s="33">
-        <f t="shared" si="96"/>
+        <f t="shared" si="124"/>
         <v>162.33206430102118</v>
       </c>
     </row>
@@ -6920,19 +7667,19 @@
         <v>154.63875694321553</v>
       </c>
       <c r="F253" s="30">
-        <f t="shared" ref="F253:I253" si="97">F218</f>
+        <f t="shared" ref="F253:I253" si="125">F218</f>
         <v>164.34300456721553</v>
       </c>
       <c r="G253" s="30">
-        <f t="shared" si="97"/>
+        <f t="shared" si="125"/>
         <v>174.67802828677551</v>
       </c>
       <c r="H253" s="30">
-        <f t="shared" si="97"/>
+        <f t="shared" si="125"/>
         <v>185.68482854810691</v>
       </c>
       <c r="I253" s="30">
-        <f t="shared" si="97"/>
+        <f t="shared" si="125"/>
         <v>197.40707082642484</v>
       </c>
     </row>
@@ -6945,19 +7692,19 @@
         <v>264.33058845563488</v>
       </c>
       <c r="F254" s="30">
-        <f t="shared" ref="F254:I254" si="98">F250</f>
+        <f t="shared" ref="F254:I254" si="126">F250</f>
         <v>226.82069768312101</v>
       </c>
       <c r="G254" s="30">
-        <f t="shared" si="98"/>
+        <f t="shared" si="126"/>
         <v>173.70036316546748</v>
       </c>
       <c r="H254" s="30">
-        <f t="shared" si="98"/>
+        <f t="shared" si="126"/>
         <v>154.54332148325273</v>
       </c>
       <c r="I254" s="30">
-        <f t="shared" si="98"/>
+        <f t="shared" si="126"/>
         <v>162.33206430102118</v>
       </c>
     </row>
@@ -6974,15 +7721,15 @@
         <v>62.477693115905481</v>
       </c>
       <c r="G255" s="30">
-        <f t="shared" ref="G255:I255" si="99">G254-G253</f>
+        <f t="shared" ref="G255:I255" si="127">G254-G253</f>
         <v>-0.97766512130803562</v>
       </c>
       <c r="H255" s="30">
-        <f t="shared" si="99"/>
+        <f t="shared" si="127"/>
         <v>-31.141507064854181</v>
       </c>
       <c r="I255" s="30">
-        <f t="shared" si="99"/>
+        <f t="shared" si="127"/>
         <v>-35.075006525403666</v>
       </c>
     </row>
@@ -7011,7 +7758,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>162</v>
       </c>
@@ -7020,23 +7767,23 @@
         <v>27.422957878104839</v>
       </c>
       <c r="F257" s="30">
-        <f t="shared" ref="F257:I257" si="100">F255*F256</f>
+        <f t="shared" ref="F257:I257" si="128">F255*F256</f>
         <v>15.61942327897637</v>
       </c>
       <c r="G257" s="30">
-        <f t="shared" si="100"/>
+        <f t="shared" si="128"/>
         <v>-0.24441628032700891</v>
       </c>
       <c r="H257" s="30">
-        <f t="shared" si="100"/>
+        <f t="shared" si="128"/>
         <v>-7.7853767662135454</v>
       </c>
       <c r="I257" s="30">
-        <f t="shared" si="100"/>
+        <f t="shared" si="128"/>
         <v>-8.7687516313509164</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B260" s="2">
         <v>2017</v>
       </c>
@@ -7062,7 +7809,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="261" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="19" t="s">
         <v>200</v>
       </c>
@@ -7091,14 +7838,14 @@
         <v>106</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A262" s="42" t="s">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A262" s="40" t="s">
         <v>201</v>
       </c>
       <c r="C262" s="12"/>
       <c r="D262" s="12"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>202</v>
       </c>
@@ -7130,10 +7877,9 @@
         <f>I264/360*I3</f>
         <v>691.9379122618227</v>
       </c>
-      <c r="K263" s="12"/>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A264" s="43" t="s">
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A264" s="41" t="s">
         <v>203</v>
       </c>
       <c r="C264" s="12"/>
@@ -7157,7 +7903,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>77</v>
       </c>
@@ -7174,25 +7920,24 @@
         <v>858.83477358333334</v>
       </c>
       <c r="F265" s="12">
-        <f t="shared" ref="F265:I265" si="101">F266/360*F5</f>
+        <f t="shared" ref="F265:I265" si="129">F266/360*F5</f>
         <v>914.65903386624984</v>
       </c>
       <c r="G265" s="12">
-        <f t="shared" si="101"/>
+        <f t="shared" si="129"/>
         <v>974.11187106755608</v>
       </c>
       <c r="H265" s="12">
-        <f t="shared" si="101"/>
+        <f t="shared" si="129"/>
         <v>1037.4291426869472</v>
       </c>
       <c r="I265" s="12">
-        <f t="shared" si="101"/>
+        <f t="shared" si="129"/>
         <v>1104.8620369615987</v>
       </c>
-      <c r="K265" s="12"/>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A266" s="43" t="s">
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A266" s="41" t="s">
         <v>204</v>
       </c>
       <c r="C266" s="12"/>
@@ -7216,7 +7961,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>205</v>
       </c>
@@ -7248,10 +7993,9 @@
         <f>I268/360*I12</f>
         <v>116.00135587918794</v>
       </c>
-      <c r="K267" s="12"/>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A268" s="43" t="s">
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A268" s="41" t="s">
         <v>206</v>
       </c>
       <c r="C268" s="12"/>
@@ -7275,7 +8019,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="22" t="s">
         <v>168</v>
       </c>
@@ -7288,32 +8032,32 @@
         <v>1394.8</v>
       </c>
       <c r="E269" s="12">
-        <f t="shared" ref="E269:I269" si="102">E263+E265+E267</f>
+        <f t="shared" ref="E269:I269" si="130">E263+E265+E267</f>
         <v>1486.8646227500001</v>
       </c>
       <c r="F269" s="12">
-        <f t="shared" si="102"/>
+        <f t="shared" si="130"/>
         <v>1583.5108232287498</v>
       </c>
       <c r="G269" s="12">
-        <f t="shared" si="102"/>
+        <f t="shared" si="130"/>
         <v>1686.4390267386186</v>
       </c>
       <c r="H269" s="12">
-        <f t="shared" si="102"/>
+        <f t="shared" si="130"/>
         <v>1796.0575634766285</v>
       </c>
       <c r="I269" s="12">
-        <f t="shared" si="102"/>
+        <f t="shared" si="130"/>
         <v>1912.8013051026094</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A270" s="42" t="s">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A270" s="40" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>208</v>
       </c>
@@ -7330,25 +8074,24 @@
         <v>844.36003020833323</v>
       </c>
       <c r="F271" s="12">
-        <f t="shared" ref="F271:I271" si="103">F272/360*F5</f>
+        <f t="shared" ref="F271:I271" si="131">F272/360*F5</f>
         <v>899.24343217187482</v>
       </c>
       <c r="G271" s="12">
-        <f t="shared" si="103"/>
+        <f t="shared" si="131"/>
         <v>957.69425526304667</v>
       </c>
       <c r="H271" s="12">
-        <f t="shared" si="103"/>
+        <f t="shared" si="131"/>
         <v>1019.9443818551446</v>
       </c>
       <c r="I271" s="12">
-        <f t="shared" si="103"/>
+        <f t="shared" si="131"/>
         <v>1086.2407666757292</v>
       </c>
-      <c r="K271" s="12"/>
-    </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A272" s="43" t="s">
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A272" s="41" t="s">
         <v>209</v>
       </c>
       <c r="D272" s="12">
@@ -7371,7 +8114,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>210</v>
       </c>
@@ -7403,10 +8146,9 @@
         <f>I274/360*I12</f>
         <v>870.01016909390955</v>
       </c>
-      <c r="K273" s="12"/>
-    </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A274" s="43" t="s">
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A274" s="41" t="s">
         <v>211</v>
       </c>
       <c r="D274" s="12">
@@ -7429,7 +8171,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="22" t="s">
         <v>187</v>
       </c>
@@ -7442,88 +8184,87 @@
         <v>1456</v>
       </c>
       <c r="E275" s="12">
-        <f t="shared" ref="E275:I275" si="104">E271+E273</f>
+        <f t="shared" ref="E275:I275" si="132">E271+E273</f>
         <v>1520.6390239583332</v>
       </c>
       <c r="F275" s="12">
-        <f t="shared" si="104"/>
+        <f t="shared" si="132"/>
         <v>1619.4805605156248</v>
       </c>
       <c r="G275" s="12">
-        <f t="shared" si="104"/>
+        <f t="shared" si="132"/>
         <v>1724.7467969491404</v>
       </c>
       <c r="H275" s="12">
-        <f t="shared" si="104"/>
+        <f t="shared" si="132"/>
         <v>1836.8553387508341</v>
       </c>
       <c r="I275" s="12">
-        <f t="shared" si="104"/>
+        <f t="shared" si="132"/>
         <v>1956.2509357696388</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="C276" s="44">
+      <c r="C276" s="42">
         <f>C269-C275</f>
         <v>25.100000000000136</v>
       </c>
-      <c r="D276" s="44">
+      <c r="D276" s="42">
         <f>D269-D275</f>
         <v>-61.200000000000045</v>
       </c>
-      <c r="E276" s="44">
-        <f t="shared" ref="E276:I276" si="105">E269-E275</f>
+      <c r="E276" s="42">
+        <f t="shared" ref="E276:I276" si="133">E269-E275</f>
         <v>-33.774401208333074</v>
       </c>
-      <c r="F276" s="44">
-        <f t="shared" si="105"/>
+      <c r="F276" s="42">
+        <f t="shared" si="133"/>
         <v>-35.969737286874988</v>
       </c>
-      <c r="G276" s="44">
-        <f t="shared" si="105"/>
+      <c r="G276" s="42">
+        <f t="shared" si="133"/>
         <v>-38.307770210521767</v>
       </c>
-      <c r="H276" s="44">
-        <f t="shared" si="105"/>
+      <c r="H276" s="42">
+        <f t="shared" si="133"/>
         <v>-40.797775274205605</v>
       </c>
-      <c r="I276" s="44">
-        <f t="shared" si="105"/>
+      <c r="I276" s="42">
+        <f t="shared" si="133"/>
         <v>-43.449630667029396</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="22" t="s">
         <v>213</v>
       </c>
       <c r="D277" s="12">
-        <f t="shared" ref="D277:I277" si="106">D276-C276</f>
+        <f t="shared" ref="D277:I277" si="134">D276-C276</f>
         <v>-86.300000000000182</v>
       </c>
       <c r="E277" s="12">
-        <f t="shared" si="106"/>
+        <f t="shared" si="134"/>
         <v>27.425598791666971</v>
       </c>
       <c r="F277" s="12">
-        <f t="shared" si="106"/>
+        <f t="shared" si="134"/>
         <v>-2.1953360785419136</v>
       </c>
       <c r="G277" s="12">
-        <f t="shared" si="106"/>
+        <f t="shared" si="134"/>
         <v>-2.3380329236467787</v>
       </c>
       <c r="H277" s="12">
-        <f t="shared" si="106"/>
+        <f t="shared" si="134"/>
         <v>-2.4900050636838387</v>
       </c>
       <c r="I277" s="12">
-        <f t="shared" si="106"/>
+        <f t="shared" si="134"/>
         <v>-2.6518553928237907</v>
       </c>
-      <c r="K277" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MKC.xlsx
+++ b/MKC.xlsx
@@ -13,6 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
+    <sheet name="Analytical Framework" sheetId="2" r:id="rId2"/>
+    <sheet name="Bloomberg" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -283,7 +285,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="228">
   <si>
     <t>SG&amp;A</t>
   </si>
@@ -1134,6 +1136,45 @@
   </si>
   <si>
     <t>BALANCE SHEET ERROR CHECK</t>
+  </si>
+  <si>
+    <t>DEBT SCEHDULE</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Ending balance</t>
+  </si>
+  <si>
+    <t>Long-term debt, including capital leases</t>
+  </si>
+  <si>
+    <t>Beginning balance</t>
+  </si>
+  <si>
+    <t>Mandatory issuances / (retirements)</t>
+  </si>
+  <si>
+    <t>Non-mandatory issurnaces / (retirements)</t>
+  </si>
+  <si>
+    <t>Current portfolio of long-term debt, interest expense</t>
+  </si>
+  <si>
+    <t>Short-term borrowings, interest expense</t>
+  </si>
+  <si>
+    <t>Short-term borrowings, interest rate</t>
+  </si>
+  <si>
+    <t>Current portfolio of long-term debt, interest rate</t>
+  </si>
+  <si>
+    <t>Long-term debt, interest expense</t>
+  </si>
+  <si>
+    <t>Lng-term debt, interest rate</t>
   </si>
 </sst>
 </file>
@@ -1286,7 +1327,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1351,6 +1392,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1367,6 +1410,48 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>39796</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>153426</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect t="777"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="95250"/>
+          <a:ext cx="12155596" cy="7297176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1666,10 +1751,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L277"/>
+  <dimension ref="A1:K308"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A63" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="AB101" sqref="AB101"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A163" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="6480" topLeftCell="A285" activePane="bottomLeft"/>
+      <selection activeCell="E148" sqref="E148"/>
+      <selection pane="bottomLeft" activeCell="E309" sqref="E309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4638,12 +4725,12 @@
         <v>-234.44484556635877</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="22" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>86</v>
       </c>
@@ -4672,7 +4759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>87</v>
       </c>
@@ -4699,7 +4786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>88</v>
       </c>
@@ -4724,7 +4811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="21" t="s">
         <v>89</v>
       </c>
@@ -4753,7 +4840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="21" t="s">
         <v>90</v>
       </c>
@@ -4782,7 +4869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="21" t="s">
         <v>91</v>
       </c>
@@ -4810,9 +4897,9 @@
       <c r="I120" s="25">
         <v>0</v>
       </c>
-      <c r="L120" s="12"/>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K120" s="12"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="21" t="s">
         <v>92</v>
       </c>
@@ -4839,7 +4926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="21" t="s">
         <v>93</v>
       </c>
@@ -4866,7 +4953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="21" t="s">
         <v>94</v>
       </c>
@@ -4891,7 +4978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="21" t="s">
         <v>95</v>
       </c>
@@ -4920,7 +5007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="21" t="s">
         <v>96</v>
       </c>
@@ -4954,7 +5041,7 @@
         <v>-302.2</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="21" t="s">
         <v>104</v>
       </c>
@@ -4991,7 +5078,7 @@
         <v>2.2790346907993966</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
         <v>97</v>
       </c>
@@ -5273,7 +5360,7 @@
         <v>537.85931666666659</v>
       </c>
       <c r="F142" s="12">
-        <f t="shared" ref="F142:I144" si="72">E142-F98</f>
+        <f t="shared" ref="F142:I143" si="72">E142-F98</f>
         <v>572.82017224999993</v>
       </c>
       <c r="G142" s="12">
@@ -5352,7 +5439,7 @@
         <v>116.00135587918794</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="8" t="s">
         <v>168</v>
       </c>
@@ -5385,7 +5472,7 @@
         <v>4611.0536014284526</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="38" t="s">
         <v>169</v>
       </c>
@@ -5418,7 +5505,7 @@
         <v>1291.8539804924487</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="18" t="s">
         <v>170</v>
       </c>
@@ -5448,9 +5535,8 @@
         <f t="shared" si="76"/>
         <v>67.5</v>
       </c>
-      <c r="K147" s="12"/>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="18" t="s">
         <v>171</v>
       </c>
@@ -5480,9 +5566,8 @@
         <f t="shared" si="77"/>
         <v>1004.3685565547289</v>
       </c>
-      <c r="K148" s="12"/>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="18" t="s">
         <v>172</v>
       </c>
@@ -5512,9 +5597,8 @@
         <f t="shared" si="78"/>
         <v>1699.5371131094576</v>
       </c>
-      <c r="K149" s="12"/>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="18" t="s">
         <v>173</v>
       </c>
@@ -5545,9 +5629,8 @@
         <v>85.8</v>
       </c>
       <c r="K150" s="12"/>
-      <c r="L150" s="12"/>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="18" t="s">
         <v>174</v>
       </c>
@@ -5578,9 +5661,8 @@
         <v>-1565.3516891717379</v>
       </c>
       <c r="K151" s="12"/>
-      <c r="L151" s="12"/>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>175</v>
       </c>
@@ -5611,7 +5693,7 @@
         <v>4505.2</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>176</v>
       </c>
@@ -5644,7 +5726,7 @@
         <v>2745</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="18" t="s">
         <v>125</v>
       </c>
@@ -5675,7 +5757,7 @@
         <v>308.3</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="18" t="s">
         <v>180</v>
       </c>
@@ -5706,9 +5788,8 @@
         <v>-206.3</v>
       </c>
       <c r="K155" s="12"/>
-      <c r="L155" s="12"/>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="18" t="s">
         <v>181</v>
       </c>
@@ -5739,7 +5820,7 @@
         <v>2643</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>177</v>
       </c>
@@ -5772,7 +5853,7 @@
         <v>430.70000000000005</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="18" t="s">
         <v>179</v>
       </c>
@@ -5803,9 +5884,8 @@
         <v>0</v>
       </c>
       <c r="K158" s="12"/>
-      <c r="L158" s="12"/>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="18" t="s">
         <v>177</v>
       </c>
@@ -5838,7 +5918,7 @@
         <v>430.70000000000005</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C160" s="11"/>
       <c r="D160" s="11"/>
     </row>
@@ -7186,7 +7266,7 @@
         <v>206.31781366802215</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="22" t="s">
         <v>140</v>
       </c>
@@ -7211,7 +7291,7 @@
         <v>-56.173009226739666</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="22" t="s">
         <v>141</v>
       </c>
@@ -7236,7 +7316,7 @@
         <v>93.749691513577091</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="22" t="s">
         <v>153</v>
       </c>
@@ -7261,17 +7341,17 @@
         <v>IN</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="22" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="22" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="8" t="s">
         <v>119</v>
       </c>
@@ -7291,7 +7371,7 @@
         <v>5.5460000000000002E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="8" t="s">
         <v>120</v>
       </c>
@@ -7311,7 +7391,7 @@
         <v>0.1101</v>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="8" t="s">
         <v>122</v>
       </c>
@@ -7331,7 +7411,7 @@
         <v>0.1101</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="8" t="s">
         <v>124</v>
       </c>
@@ -7351,7 +7431,7 @@
         <v>8.4500000000000006E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="8" t="s">
         <v>112</v>
       </c>
@@ -7371,7 +7451,7 @@
         <v>5.5460000000000002E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="8" t="s">
         <v>113</v>
       </c>
@@ -7390,7 +7470,7 @@
       </c>
       <c r="J236" s="34"/>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="8" t="s">
         <v>114</v>
       </c>
@@ -7407,7 +7487,7 @@
       </c>
       <c r="J237" s="34"/>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="8" t="s">
         <v>115</v>
       </c>
@@ -7421,9 +7501,8 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="J238" s="34"/>
-      <c r="K238" s="34"/>
-    </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="8" t="s">
         <v>116</v>
       </c>
@@ -7436,9 +7515,8 @@
       </c>
       <c r="J239" s="34"/>
       <c r="K239" s="34"/>
-      <c r="L239" s="34"/>
-    </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="22" t="s">
         <v>156</v>
       </c>
@@ -8264,6 +8342,559 @@
       <c r="I277" s="12">
         <f t="shared" si="134"/>
         <v>-2.6518553928237907</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B280" s="2">
+        <v>2017</v>
+      </c>
+      <c r="C280" s="2">
+        <v>2018</v>
+      </c>
+      <c r="D280" s="2">
+        <v>2019</v>
+      </c>
+      <c r="E280" s="2">
+        <v>2020</v>
+      </c>
+      <c r="F280" s="2">
+        <v>2021</v>
+      </c>
+      <c r="G280" s="2">
+        <v>2022</v>
+      </c>
+      <c r="H280" s="2">
+        <v>2023</v>
+      </c>
+      <c r="I280" s="2">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A281" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="B281" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C281" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D281" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E281" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="F281" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="G281" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="H281" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="I281" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A282" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="C282" s="12"/>
+      <c r="D282" s="12"/>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>217</v>
+      </c>
+      <c r="C283" s="12"/>
+      <c r="D283" s="12">
+        <f>D141</f>
+        <v>155.4</v>
+      </c>
+      <c r="E283" s="12"/>
+      <c r="F283" s="12"/>
+      <c r="G283" s="12"/>
+      <c r="H283" s="12"/>
+      <c r="I283" s="12"/>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C284" s="12"/>
+      <c r="D284" s="12"/>
+      <c r="E284" s="12"/>
+      <c r="F284" s="12"/>
+      <c r="G284" s="12"/>
+      <c r="H284" s="12"/>
+      <c r="I284" s="12"/>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A286" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="C286" s="12"/>
+      <c r="D286" s="12"/>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>219</v>
+      </c>
+      <c r="C287" s="12"/>
+      <c r="D287" s="12"/>
+      <c r="E287" s="12">
+        <f>D290</f>
+        <v>600.70000000000005</v>
+      </c>
+      <c r="F287" s="12">
+        <f t="shared" ref="F287:I287" si="135">E290</f>
+        <v>600.70000000000005</v>
+      </c>
+      <c r="G287" s="12">
+        <f t="shared" si="135"/>
+        <v>600.70000000000005</v>
+      </c>
+      <c r="H287" s="12">
+        <f t="shared" si="135"/>
+        <v>600.70000000000005</v>
+      </c>
+      <c r="I287" s="12">
+        <f t="shared" si="135"/>
+        <v>600.70000000000005</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>220</v>
+      </c>
+      <c r="C288" s="12"/>
+      <c r="D288" s="12"/>
+      <c r="E288" s="25">
+        <v>0</v>
+      </c>
+      <c r="F288" s="25">
+        <v>0</v>
+      </c>
+      <c r="G288" s="25">
+        <v>0</v>
+      </c>
+      <c r="H288" s="25">
+        <v>0</v>
+      </c>
+      <c r="I288" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>221</v>
+      </c>
+      <c r="C289" s="12"/>
+      <c r="D289" s="12"/>
+      <c r="E289" s="25">
+        <v>0</v>
+      </c>
+      <c r="F289" s="25">
+        <v>0</v>
+      </c>
+      <c r="G289" s="25">
+        <v>0</v>
+      </c>
+      <c r="H289" s="25">
+        <v>0</v>
+      </c>
+      <c r="I289" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>217</v>
+      </c>
+      <c r="C290" s="12"/>
+      <c r="D290" s="12">
+        <f>D163</f>
+        <v>600.70000000000005</v>
+      </c>
+      <c r="E290" s="12">
+        <f>SUM(E287:E289)</f>
+        <v>600.70000000000005</v>
+      </c>
+      <c r="F290" s="12">
+        <f t="shared" ref="F290:I290" si="136">SUM(F287:F289)</f>
+        <v>600.70000000000005</v>
+      </c>
+      <c r="G290" s="12">
+        <f t="shared" si="136"/>
+        <v>600.70000000000005</v>
+      </c>
+      <c r="H290" s="12">
+        <f t="shared" si="136"/>
+        <v>600.70000000000005</v>
+      </c>
+      <c r="I290" s="12">
+        <f t="shared" si="136"/>
+        <v>600.70000000000005</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>223</v>
+      </c>
+      <c r="E291" s="12">
+        <f>AVERAGE(E287,E290)*E292</f>
+        <v>15.6182</v>
+      </c>
+      <c r="F291" s="12">
+        <f t="shared" ref="F291:I291" si="137">AVERAGE(F287,F290)*F292</f>
+        <v>15.6182</v>
+      </c>
+      <c r="G291" s="12">
+        <f t="shared" si="137"/>
+        <v>15.6182</v>
+      </c>
+      <c r="H291" s="12">
+        <f t="shared" si="137"/>
+        <v>15.6182</v>
+      </c>
+      <c r="I291" s="12">
+        <f t="shared" si="137"/>
+        <v>15.6182</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>224</v>
+      </c>
+      <c r="E292" s="44">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="F292" s="44">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="G292" s="44">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="H292" s="44">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="I292" s="44">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A294" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="C294" s="12"/>
+      <c r="D294" s="12"/>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>219</v>
+      </c>
+      <c r="C295" s="12"/>
+      <c r="D295" s="12"/>
+      <c r="E295" s="12">
+        <f>D298</f>
+        <v>97.7</v>
+      </c>
+      <c r="F295" s="12">
+        <f t="shared" ref="F295:I295" si="138">E298</f>
+        <v>97.7</v>
+      </c>
+      <c r="G295" s="12">
+        <f t="shared" si="138"/>
+        <v>97.7</v>
+      </c>
+      <c r="H295" s="12">
+        <f t="shared" si="138"/>
+        <v>97.7</v>
+      </c>
+      <c r="I295" s="12">
+        <f t="shared" si="138"/>
+        <v>97.7</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>220</v>
+      </c>
+      <c r="C296" s="12"/>
+      <c r="D296" s="12"/>
+      <c r="E296" s="25">
+        <v>0</v>
+      </c>
+      <c r="F296" s="25">
+        <v>0</v>
+      </c>
+      <c r="G296" s="25">
+        <v>0</v>
+      </c>
+      <c r="H296" s="25">
+        <v>0</v>
+      </c>
+      <c r="I296" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>221</v>
+      </c>
+      <c r="C297" s="12"/>
+      <c r="D297" s="12"/>
+      <c r="E297" s="25">
+        <v>0</v>
+      </c>
+      <c r="F297" s="25">
+        <v>0</v>
+      </c>
+      <c r="G297" s="25">
+        <v>0</v>
+      </c>
+      <c r="H297" s="25">
+        <v>0</v>
+      </c>
+      <c r="I297" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>217</v>
+      </c>
+      <c r="C298" s="12"/>
+      <c r="D298" s="12">
+        <f>D164</f>
+        <v>97.7</v>
+      </c>
+      <c r="E298" s="12">
+        <f>SUM(E295:E297)</f>
+        <v>97.7</v>
+      </c>
+      <c r="F298" s="12">
+        <f t="shared" ref="F298" si="139">SUM(F295:F297)</f>
+        <v>97.7</v>
+      </c>
+      <c r="G298" s="12">
+        <f t="shared" ref="G298" si="140">SUM(G295:G297)</f>
+        <v>97.7</v>
+      </c>
+      <c r="H298" s="12">
+        <f t="shared" ref="H298" si="141">SUM(H295:H297)</f>
+        <v>97.7</v>
+      </c>
+      <c r="I298" s="12">
+        <f t="shared" ref="I298" si="142">SUM(I295:I297)</f>
+        <v>97.7</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>222</v>
+      </c>
+      <c r="E299" s="12">
+        <f>AVERAGE(E295,E298)*E300</f>
+        <v>3.9080000000000004</v>
+      </c>
+      <c r="F299" s="12">
+        <f t="shared" ref="F299" si="143">AVERAGE(F295,F298)*F300</f>
+        <v>3.9080000000000004</v>
+      </c>
+      <c r="G299" s="12">
+        <f t="shared" ref="G299" si="144">AVERAGE(G295,G298)*G300</f>
+        <v>3.9080000000000004</v>
+      </c>
+      <c r="H299" s="12">
+        <f t="shared" ref="H299" si="145">AVERAGE(H295,H298)*H300</f>
+        <v>3.9080000000000004</v>
+      </c>
+      <c r="I299" s="12">
+        <f t="shared" ref="I299" si="146">AVERAGE(I295,I298)*I300</f>
+        <v>3.9080000000000004</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>225</v>
+      </c>
+      <c r="E300" s="45">
+        <v>0.04</v>
+      </c>
+      <c r="F300" s="45">
+        <f>E300</f>
+        <v>0.04</v>
+      </c>
+      <c r="G300" s="45">
+        <f t="shared" ref="G300:I300" si="147">F300</f>
+        <v>0.04</v>
+      </c>
+      <c r="H300" s="45">
+        <f t="shared" si="147"/>
+        <v>0.04</v>
+      </c>
+      <c r="I300" s="45">
+        <f t="shared" si="147"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A302" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="C302" s="12"/>
+      <c r="D302" s="12"/>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>219</v>
+      </c>
+      <c r="C303" s="12"/>
+      <c r="D303" s="12"/>
+      <c r="E303" s="12">
+        <f>D306</f>
+        <v>3625.8</v>
+      </c>
+      <c r="F303" s="12">
+        <f t="shared" ref="F303:I303" si="148">E306</f>
+        <v>3625.8</v>
+      </c>
+      <c r="G303" s="12">
+        <f t="shared" si="148"/>
+        <v>3625.8</v>
+      </c>
+      <c r="H303" s="12">
+        <f t="shared" si="148"/>
+        <v>3625.8</v>
+      </c>
+      <c r="I303" s="12">
+        <f t="shared" si="148"/>
+        <v>3625.8</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>220</v>
+      </c>
+      <c r="C304" s="12"/>
+      <c r="D304" s="12"/>
+      <c r="E304" s="25">
+        <v>0</v>
+      </c>
+      <c r="F304" s="25">
+        <v>0</v>
+      </c>
+      <c r="G304" s="25">
+        <v>0</v>
+      </c>
+      <c r="H304" s="25">
+        <v>0</v>
+      </c>
+      <c r="I304" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>221</v>
+      </c>
+      <c r="C305" s="12"/>
+      <c r="D305" s="12"/>
+      <c r="E305" s="25">
+        <v>0</v>
+      </c>
+      <c r="F305" s="25">
+        <v>0</v>
+      </c>
+      <c r="G305" s="25">
+        <v>0</v>
+      </c>
+      <c r="H305" s="25">
+        <v>0</v>
+      </c>
+      <c r="I305" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>217</v>
+      </c>
+      <c r="C306" s="12"/>
+      <c r="D306" s="12">
+        <f>D168</f>
+        <v>3625.8</v>
+      </c>
+      <c r="E306" s="12">
+        <f>SUM(E303:E305)</f>
+        <v>3625.8</v>
+      </c>
+      <c r="F306" s="12">
+        <f t="shared" ref="F306:F307" si="149">SUM(F303:F305)</f>
+        <v>3625.8</v>
+      </c>
+      <c r="G306" s="12">
+        <f t="shared" ref="G306:G307" si="150">SUM(G303:G305)</f>
+        <v>3625.8</v>
+      </c>
+      <c r="H306" s="12">
+        <f t="shared" ref="H306:H307" si="151">SUM(H303:H305)</f>
+        <v>3625.8</v>
+      </c>
+      <c r="I306" s="12">
+        <f t="shared" ref="I306:I307" si="152">SUM(I303:I305)</f>
+        <v>3625.8</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>226</v>
+      </c>
+      <c r="E307" s="12">
+        <f>SUM(E304:E306)</f>
+        <v>3625.8</v>
+      </c>
+      <c r="F307" s="12">
+        <f t="shared" si="149"/>
+        <v>3625.8</v>
+      </c>
+      <c r="G307" s="12">
+        <f t="shared" si="150"/>
+        <v>3625.8</v>
+      </c>
+      <c r="H307" s="12">
+        <f t="shared" si="151"/>
+        <v>3625.8</v>
+      </c>
+      <c r="I307" s="12">
+        <f t="shared" si="152"/>
+        <v>3625.8</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>227</v>
+      </c>
+      <c r="E308" s="45">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F308" s="45">
+        <f>E308</f>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="G308" s="45">
+        <f t="shared" ref="G308:I308" si="153">F308</f>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="H308" s="45">
+        <f t="shared" si="153"/>
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="I308" s="45">
+        <f t="shared" si="153"/>
+        <v>3.2000000000000001E-2</v>
       </c>
     </row>
   </sheetData>
@@ -8271,4 +8902,31 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="AF18" sqref="AF18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>